--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -12590,13 +12590,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -12713,22 +12713,22 @@
         <v>0</v>
       </c>
       <c r="BF60" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG60" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH60" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI60" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ60" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK60" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.5</v>
@@ -3542,7 +3542,7 @@
         <v>0.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU16" t="n">
         <v>1.83</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>0.5</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT21" t="n">
         <v>2.33</v>
@@ -5166,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.2</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
         <v>1.5</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -8617,7 +8617,7 @@
         <v>0.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.56</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.21</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9629,10 +9629,10 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU45" t="n">
         <v>1.21</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU47" t="n">
         <v>1.21</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT49" t="n">
         <v>1.33</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -11050,10 +11050,10 @@
         <v>1.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>2</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT54" t="n">
         <v>0.5</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU59" t="n">
         <v>1.71</v>
@@ -12677,7 +12677,7 @@
         <v>0.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU60" t="n">
         <v>1.3</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
         <v>1.33</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU67" t="n">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT68" t="n">
         <v>1.5</v>
@@ -14353,6 +14353,1630 @@
       </c>
       <c r="BK68" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5094079</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45038.83333333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['23', '40']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['17', '58', '63']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7</v>
+      </c>
+      <c r="S69" t="n">
+        <v>11</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5094076</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45038.875</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5094077</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45038.875</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['67', '70']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>7</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>12</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5094083</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45038.89583333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5094081</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45038.92986111111</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rio Grande Valley</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Memphis 901</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['29', '64', '87']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5094078</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45038.9375</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['39', '69']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>6</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5094082</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45038.95833333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5094080</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45038.95833333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['33', '59']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>8</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:BK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT3" t="n">
         <v>0.33</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT16" t="n">
         <v>0.75</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>1.52</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT22" t="n">
         <v>1.33</v>
@@ -5369,7 +5369,7 @@
         <v>0.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU34" t="n">
         <v>1.52</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
         <v>1.5</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -8820,7 +8820,7 @@
         <v>0.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -10444,7 +10444,7 @@
         <v>0.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.58</v>
@@ -12471,7 +12471,7 @@
         <v>3</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT59" t="n">
         <v>2.25</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT60" t="n">
         <v>0.8</v>
@@ -13286,7 +13286,7 @@
         <v>0.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -14620,13 +14620,13 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S70" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T70" t="n">
         <v>3.2</v>
@@ -14743,22 +14743,22 @@
         <v>0</v>
       </c>
       <c r="BF70" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG70" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH70" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI70" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ70" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK70" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -15229,13 +15229,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R73" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="S73" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T73" t="n">
         <v>2.38</v>
@@ -15352,22 +15352,22 @@
         <v>0</v>
       </c>
       <c r="BF73" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG73" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BH73" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI73" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ73" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK73" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -15977,6 +15977,615 @@
       </c>
       <c r="BK76" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5094084</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45039.70833333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Loudoun United</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['30', '58']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7</v>
+      </c>
+      <c r="S77" t="n">
+        <v>8</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5094085</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45039.70833333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>5</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['6', '9', '40', '49']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5094086</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45039.79166666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>San Diego Loyal</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>6</v>
+      </c>
+      <c r="R79" t="n">
+        <v>8</v>
+      </c>
+      <c r="S79" t="n">
+        <v>14</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK79"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT10" t="n">
         <v>0.8</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.52</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU34" t="n">
         <v>1.52</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.29</v>
@@ -8008,7 +8008,7 @@
         <v>0.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8211,7 +8211,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU38" t="n">
         <v>1.45</v>
@@ -8414,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
         <v>0.75</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT44" t="n">
         <v>1.33</v>
@@ -9632,7 +9632,7 @@
         <v>2.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU45" t="n">
         <v>1.21</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT46" t="n">
         <v>0.67</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT48" t="n">
         <v>0.33</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT53" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU53" t="n">
         <v>1.28</v>
@@ -11459,7 +11459,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT55" t="n">
         <v>0.75</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT58" t="n">
         <v>2.33</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.61</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT67" t="n">
         <v>1.67</v>
@@ -14301,7 +14301,7 @@
         <v>2.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU68" t="n">
         <v>1.21</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT69" t="n">
         <v>1.67</v>
@@ -14704,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU70" t="n">
         <v>1.59</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
         <v>1.25</v>
@@ -16331,7 +16331,7 @@
         <v>1.2</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU78" t="n">
         <v>1.3</v>
@@ -16531,10 +16531,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.43</v>
@@ -16586,6 +16586,2239 @@
       </c>
       <c r="BK79" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5094089</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45045.70833333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5094090</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45045.79166666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5094091</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45045.83333333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5094088</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45045.85416666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['4', '15']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>7</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>9</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5094092</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45045.875</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Memphis 901</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>6</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6</v>
+      </c>
+      <c r="S84" t="n">
+        <v>12</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5094097</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45045.89583333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>7</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>12</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V85" t="n">
+        <v>7</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5094094</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45045.91666666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['22', '63', '74']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5094098</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45045.95833333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>San Diego Loyal</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['13', '65']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>7</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>9</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5094093</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45045.95833333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Rio Grande Valley</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>6</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>8</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5094095</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45045.95833333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5094096</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45045.97916666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Loudoun United</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['33', '36', '90+1']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>8</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V90" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>1.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -3948,7 +3948,7 @@
         <v>2.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -10647,7 +10647,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT56" t="n">
         <v>1.25</v>
@@ -13692,7 +13692,7 @@
         <v>1.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU65" t="n">
         <v>0</v>
@@ -18477,13 +18477,13 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R89" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S89" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
@@ -18600,22 +18600,22 @@
         <v>0</v>
       </c>
       <c r="BF89" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG89" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH89" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BI89" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ89" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK89" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -18819,6 +18819,209 @@
       </c>
       <c r="BK90" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5094087</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45046.75</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>5</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['65', '76', '90+3']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['38', '67']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>8</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
         <v>0.33</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.75</v>
@@ -5978,7 +5978,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU42" t="n">
         <v>1.21</v>
@@ -12474,7 +12474,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU59" t="n">
         <v>1.71</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
         <v>0.8</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.32</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>0.83</v>
@@ -19022,6 +19022,209 @@
       </c>
       <c r="BK91" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5094099</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45049.83333333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['2', '16', '71']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>0.8</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT12" t="n">
         <v>0.83</v>
@@ -3745,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU16" t="n">
         <v>1.83</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
         <v>0.8</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT20" t="n">
         <v>1.6</v>
@@ -4760,7 +4760,7 @@
         <v>2.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT26" t="n">
         <v>1.67</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.29</v>
@@ -9226,7 +9226,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT44" t="n">
         <v>1.33</v>
@@ -11050,7 +11050,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.2</v>
@@ -12271,7 +12271,7 @@
         <v>1.2</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.26</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU71" t="n">
         <v>1.07</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT73" t="n">
         <v>2</v>
@@ -18158,7 +18158,7 @@
         <v>2.4</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.41</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -19086,13 +19086,13 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S92" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T92" t="n">
         <v>0</v>
@@ -19209,22 +19209,834 @@
         <v>0</v>
       </c>
       <c r="BF92" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG92" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH92" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI92" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ92" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK92" t="n">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5094102</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45051.875</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Rio Grande Valley</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['7', '73']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['90+1', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>6</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5094100</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45051.91666666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['61', '88']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['10', '13', '74']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>8</v>
+      </c>
+      <c r="R94" t="n">
+        <v>6</v>
+      </c>
+      <c r="S94" t="n">
+        <v>14</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5094101</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45051.95833333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['44', '90+1']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['16', '74']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>7</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5071903</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45051.97916666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>6</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>1.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT22" t="n">
         <v>1.33</v>
@@ -5166,7 +5166,7 @@
         <v>2.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.2</v>
@@ -5369,7 +5369,7 @@
         <v>0.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT27" t="n">
         <v>1.8</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>2.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT34" t="n">
         <v>0.83</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT37" t="n">
         <v>0.33</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT38" t="n">
         <v>1.8</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.56</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT42" t="n">
         <v>1.8</v>
@@ -9835,7 +9835,7 @@
         <v>1.67</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10241,7 +10241,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.37</v>
@@ -10444,7 +10444,7 @@
         <v>0.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU49" t="n">
         <v>1.58</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT51" t="n">
         <v>0.67</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT57" t="n">
         <v>2.5</v>
@@ -12471,7 +12471,7 @@
         <v>3</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT59" t="n">
         <v>1.8</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
@@ -13892,10 +13892,10 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.39</v>
@@ -15316,7 +15316,7 @@
         <v>0.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU73" t="n">
         <v>0</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT76" t="n">
         <v>1.8</v>
@@ -16125,10 +16125,10 @@
         <v>1.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU77" t="n">
         <v>1.93</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT91" t="n">
         <v>0.8</v>
@@ -20037,6 +20037,1224 @@
       </c>
       <c r="BK96" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5094106</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45052.83333333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Loudoun United</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['73', '90']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>7</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5094105</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45052.83333333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Memphis 901</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['32', '83']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>9</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>13</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5094108</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['10', '45+1']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>7</v>
+      </c>
+      <c r="R99" t="n">
+        <v>8</v>
+      </c>
+      <c r="S99" t="n">
+        <v>15</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5094103</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="n">
+        <v>5</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['45+3', '64', '71', '88']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>6</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6</v>
+      </c>
+      <c r="S100" t="n">
+        <v>12</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5094104</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>8</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5094107</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45052.95833333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>San Diego Loyal</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['15', '19']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>7</v>
+      </c>
+      <c r="T102" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,7 +4963,7 @@
         <v>1.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU62" t="n">
         <v>1.76</v>
@@ -21255,6 +21255,209 @@
       </c>
       <c r="BK102" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5094109</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45053.79166666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['5', '81']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>7</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>10</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT4" t="n">
         <v>1.4</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>1.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>1.67</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT21" t="n">
         <v>2.5</v>
@@ -4963,7 +4963,7 @@
         <v>1.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0.8</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT28" t="n">
         <v>2.5</v>
@@ -6384,7 +6384,7 @@
         <v>0.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -6993,7 +6993,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT33" t="n">
         <v>1.25</v>
@@ -8008,7 +8008,7 @@
         <v>0.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8211,7 +8211,7 @@
         <v>1.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.45</v>
@@ -8414,7 +8414,7 @@
         <v>0.25</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.21</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
         <v>0.8</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT45" t="n">
         <v>1.6</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>1.25</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU47" t="n">
         <v>1.21</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU48" t="n">
         <v>1.37</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
         <v>2.5</v>
@@ -12474,7 +12474,7 @@
         <v>1.4</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.71</v>
@@ -12677,7 +12677,7 @@
         <v>1.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU60" t="n">
         <v>1.3</v>
@@ -12877,10 +12877,10 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU61" t="n">
         <v>1.61</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU62" t="n">
         <v>1.76</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>0.83</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT64" t="n">
         <v>1.25</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU65" t="n">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>0.83</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU67" t="n">
         <v>0</v>
@@ -14298,10 +14298,10 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.21</v>
@@ -14504,7 +14504,7 @@
         <v>0.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU69" t="n">
         <v>1.72</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT70" t="n">
         <v>1.6</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.3</v>
@@ -15925,7 +15925,7 @@
         <v>0.83</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.32</v>
@@ -16531,7 +16531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.38</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
         <v>1.6</v>
@@ -17952,10 +17952,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU86" t="n">
         <v>1.44</v>
@@ -18155,7 +18155,7 @@
         <v>2</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>2.5</v>
@@ -18361,7 +18361,7 @@
         <v>1.33</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU88" t="n">
         <v>1.39</v>
@@ -18561,10 +18561,10 @@
         <v>0.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.58</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU90" t="n">
         <v>1.24</v>
@@ -18970,7 +18970,7 @@
         <v>1.4</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU91" t="n">
         <v>1.27</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.44</v>
@@ -19982,7 +19982,7 @@
         <v>2.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT96" t="n">
         <v>2.5</v>
@@ -20188,7 +20188,7 @@
         <v>1.4</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU97" t="n">
         <v>1.94</v>
@@ -20591,7 +20591,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>0.25</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU101" t="n">
         <v>1.03</v>
@@ -21403,10 +21403,10 @@
         <v>1.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU103" t="n">
         <v>2.04</v>
@@ -21458,6 +21458,2442 @@
       </c>
       <c r="BK103" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5094113</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45059.83333333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>4</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['7', '62', '70']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>6</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>9</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5094118</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45059.83333333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['11', '70']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>8</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5094110</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>7</v>
+      </c>
+      <c r="N106" t="n">
+        <v>7</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['8', '20', '26', '32', '53', '80', '89']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>6</v>
+      </c>
+      <c r="R106" t="n">
+        <v>9</v>
+      </c>
+      <c r="S106" t="n">
+        <v>15</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5094121</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>5</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>6</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['3', '13', '37', '43', '53']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>7</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5094114</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45059.875</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Memphis 901</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['9', '88']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>6</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>9</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5094115</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45059.91666666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['22', '59']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>7</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5094111</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45059.9375</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Loudoun United</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>6</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>8</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5094120</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45059.95833333334</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>San Diego Loyal</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Rio Grande Valley</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3</v>
+      </c>
+      <c r="K111" t="n">
+        <v>4</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="n">
+        <v>5</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['35', '90+3']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['26', '31', '39']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>6</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>10</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5094119</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45059.95833333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['3', '8', '86']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>11</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>14</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5094117</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45059.97916666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>4</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['5', '73', '81']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>8</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>11</v>
+      </c>
+      <c r="T113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5094112</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45059.97916666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>6</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5094116</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['30', '43', '78']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>6</v>
+      </c>
+      <c r="S115" t="n">
+        <v>11</v>
+      </c>
+      <c r="T115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -3745,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU16" t="n">
         <v>1.83</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT34" t="n">
         <v>0.83</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT38" t="n">
         <v>1.5</v>
@@ -9226,7 +9226,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -11256,7 +11256,7 @@
         <v>1.8</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU53" t="n">
         <v>1.28</v>
@@ -11662,7 +11662,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>3</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT59" t="n">
         <v>1.5</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT66" t="n">
         <v>1.4</v>
@@ -14910,7 +14910,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU71" t="n">
         <v>1.07</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -16125,7 +16125,7 @@
         <v>1.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT77" t="n">
         <v>1.4</v>
@@ -16940,7 +16940,7 @@
         <v>1.2</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU81" t="n">
         <v>1.44</v>
@@ -19376,7 +19376,7 @@
         <v>0.8</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU93" t="n">
         <v>0.75</v>
@@ -20185,7 +20185,7 @@
         <v>1.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT97" t="n">
         <v>1.4</v>
@@ -21200,7 +21200,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT102" t="n">
         <v>1.25</v>
@@ -23894,6 +23894,412 @@
       </c>
       <c r="BK115" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5094122</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45063.83333333334</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Loudoun United</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['37', '51', '64']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2</v>
+      </c>
+      <c r="R116" t="n">
+        <v>8</v>
+      </c>
+      <c r="S116" t="n">
+        <v>10</v>
+      </c>
+      <c r="T116" t="n">
+        <v>3</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X116" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5094123</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45063.95833333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>10</v>
+      </c>
+      <c r="T117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X117" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT3" t="n">
         <v>0.6</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT5" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>1.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT14" t="n">
         <v>0.6</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT16" t="n">
         <v>1.17</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU19" t="n">
         <v>1.52</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT21" t="n">
         <v>2.5</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU23" t="n">
         <v>1.2</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6181,7 +6181,7 @@
         <v>2.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT29" t="n">
         <v>1.4</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU34" t="n">
         <v>1.52</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU36" t="n">
         <v>1.29</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>0.25</v>
@@ -8211,7 +8211,7 @@
         <v>1.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU38" t="n">
         <v>1.45</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT39" t="n">
         <v>1.75</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.56</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT45" t="n">
         <v>1.6</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.58</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT50" t="n">
         <v>0.67</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>2.5</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT60" t="n">
         <v>0.67</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT61" t="n">
         <v>1.75</v>
@@ -13083,7 +13083,7 @@
         <v>2.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU62" t="n">
         <v>1.76</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
         <v>1.4</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>0</v>
@@ -14298,10 +14298,10 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU68" t="n">
         <v>1.21</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.72</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT70" t="n">
         <v>1.6</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.39</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU73" t="n">
         <v>0</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT75" t="n">
         <v>0.67</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>1.17</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU77" t="n">
         <v>1.93</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU78" t="n">
         <v>1.3</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU79" t="n">
         <v>1.43</v>
@@ -16734,10 +16734,10 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.31</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
         <v>1.25</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU83" t="n">
         <v>1.38</v>
@@ -17752,7 +17752,7 @@
         <v>1.8</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU87" t="n">
         <v>1.41</v>
@@ -18767,7 +18767,7 @@
         <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU90" t="n">
         <v>1.24</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT91" t="n">
         <v>0.67</v>
@@ -19170,7 +19170,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT92" t="n">
         <v>1.5</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT93" t="n">
         <v>1.17</v>
@@ -19579,7 +19579,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU94" t="n">
         <v>1.29</v>
@@ -20388,10 +20388,10 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU98" t="n">
         <v>1.47</v>
@@ -20594,7 +20594,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU99" t="n">
         <v>1.2</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU100" t="n">
         <v>1.51</v>
@@ -20997,7 +20997,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT101" t="n">
         <v>0.6</v>
@@ -21200,10 +21200,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21406,7 +21406,7 @@
         <v>0.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU103" t="n">
         <v>2.04</v>
@@ -21809,7 +21809,7 @@
         <v>1.8</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22012,10 +22012,10 @@
         <v>1.75</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT106" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU106" t="n">
         <v>1.28</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU108" t="n">
         <v>1.6</v>
@@ -22624,7 +22624,7 @@
         <v>2.33</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.55</v>
@@ -22827,7 +22827,7 @@
         <v>1.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU110" t="n">
         <v>1.44</v>
@@ -23230,7 +23230,7 @@
         <v>1.75</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT112" t="n">
         <v>1.4</v>
@@ -24245,7 +24245,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT117" t="n">
         <v>1.25</v>
@@ -24300,6 +24300,2239 @@
       </c>
       <c r="BK117" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5094124</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45065.91666666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Memphis 901</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['54', '65']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>10</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>14</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5094126</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45066.75</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2</v>
+      </c>
+      <c r="S119" t="n">
+        <v>5</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5094130</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45066.83333333334</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>San Diego Loyal</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2</v>
+      </c>
+      <c r="M120" t="n">
+        <v>3</v>
+      </c>
+      <c r="N120" t="n">
+        <v>5</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['16', '61']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['40', '81', '85']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5094129</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45066.83333333334</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>6</v>
+      </c>
+      <c r="S121" t="n">
+        <v>11</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5094132</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45066.83333333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>4</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>5</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['21', '31', '50', '61']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+      <c r="R122" t="n">
+        <v>3</v>
+      </c>
+      <c r="S122" t="n">
+        <v>6</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V122" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5094128</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45066.83333333334</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Loudoun United</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['23', '67']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2</v>
+      </c>
+      <c r="R123" t="n">
+        <v>7</v>
+      </c>
+      <c r="S123" t="n">
+        <v>9</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5094127</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45066.85416666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>3</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3</v>
+      </c>
+      <c r="T124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X124" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5094125</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45066.85416666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['19', '58']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>2</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" t="n">
+        <v>5</v>
+      </c>
+      <c r="T125" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5094133</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Rio Grande Valley</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>3</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['64', '86', '89']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5094134</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45066.95833333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>4</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['12', '51', '55']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>6</v>
+      </c>
+      <c r="R127" t="n">
+        <v>7</v>
+      </c>
+      <c r="S127" t="n">
+        <v>13</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V127" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5094131</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45066.95833333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>4</v>
+      </c>
+      <c r="R128" t="n">
+        <v>5</v>
+      </c>
+      <c r="S128" t="n">
+        <v>9</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -24770,13 +24770,13 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R120" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S120" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T120" t="n">
         <v>0</v>
@@ -24893,22 +24893,22 @@
         <v>0</v>
       </c>
       <c r="BF120" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG120" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH120" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI120" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ120" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK120" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
@@ -24976,10 +24976,10 @@
         <v>5</v>
       </c>
       <c r="R121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T121" t="n">
         <v>3.5</v>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.29</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.17</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT28" t="n">
         <v>2.6</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT47" t="n">
         <v>0.67</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.37</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT62" t="n">
         <v>1.67</v>
@@ -21000,7 +21000,7 @@
         <v>0.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>1.03</v>
@@ -21606,7 +21606,7 @@
         <v>0.67</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT104" t="n">
         <v>0.5</v>
@@ -23639,7 +23639,7 @@
         <v>0.33</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>2.18</v>
@@ -26533,6 +26533,209 @@
       </c>
       <c r="BK128" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5094135</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45070.85416666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['77', '89']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>5</v>
+      </c>
+      <c r="R129" t="n">
+        <v>3</v>
+      </c>
+      <c r="S129" t="n">
+        <v>8</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V129" t="n">
+        <v>6</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT4" t="n">
         <v>1.4</v>
@@ -1715,7 +1715,7 @@
         <v>1.17</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.17</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>1.83</v>
@@ -4210,7 +4210,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>5094037</v>
+        <v>5071892</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4230,19 +4230,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tampa Bay Rowdies</t>
+          <t>Charleston Battery</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -4258,58 +4258,58 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T19" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="AF19" t="n">
         <v>1.05</v>
@@ -4324,25 +4324,25 @@
         <v>3.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AK19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
@@ -4351,19 +4351,19 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>2.71</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -4390,22 +4390,22 @@
         <v>0</v>
       </c>
       <c r="BF19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG19" t="n">
         <v>6</v>
       </c>
-      <c r="BG19" t="n">
-        <v>3</v>
-      </c>
       <c r="BH19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI19" t="n">
         <v>4</v>
       </c>
       <c r="BJ19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -4413,7 +4413,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5094036</v>
+        <v>5094037</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4433,182 +4433,182 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Monterey Bay</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Tampa Bay Rowdies</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA20" t="n">
         <v>6</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AB20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH20" t="n">
         <v>7</v>
       </c>
-      <c r="T20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG20" t="n">
+      <c r="BI20" t="n">
         <v>4</v>
       </c>
-      <c r="BH20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -4616,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>5071892</v>
+        <v>5094036</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4636,140 +4636,140 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Monterey Bay</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S21" t="n">
         <v>7</v>
       </c>
       <c r="T21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.15</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>2.3</v>
       </c>
-      <c r="V21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Z21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>1.53</v>
       </c>
-      <c r="AA21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.71</v>
-      </c>
       <c r="AK21" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AM21" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="AO21" t="n">
         <v>1.22</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.15</v>
+        <v>1.19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.71</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AX21" t="n">
         <v>0</v>
@@ -4796,19 +4796,19 @@
         <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI21" t="n">
         <v>6</v>
       </c>
-      <c r="BH21" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ21" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BK21" t="n">
         <v>10</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.67</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT24" t="n">
         <v>1.17</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT29" t="n">
         <v>1.4</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -7052,7 +7052,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>5094043</v>
+        <v>5094042</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -7072,86 +7072,86 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>San Diego Loyal</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['41']</t>
+          <t>['60', '64']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['44', '62']</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S33" t="n">
         <v>12</v>
       </c>
       <c r="T33" t="n">
-        <v>2.6</v>
+        <v>2.27</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V33" t="n">
-        <v>3.75</v>
+        <v>4.34</v>
       </c>
       <c r="W33" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC33" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AD33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AF33" t="n">
         <v>1.03</v>
@@ -7160,94 +7160,94 @@
         <v>14.25</v>
       </c>
       <c r="AH33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN33" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AO33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
         <v>4</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" t="n">
+      <c r="BG33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH33" t="n">
         <v>5</v>
       </c>
-      <c r="BG33" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>4</v>
-      </c>
       <c r="BI33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ33" t="n">
         <v>9</v>
       </c>
       <c r="BK33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -7255,7 +7255,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>5094042</v>
+        <v>5094043</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -7275,86 +7275,86 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>San Diego Loyal</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>['60', '64']</t>
+          <t>['41']</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>['44', '62']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S34" t="n">
         <v>12</v>
       </c>
       <c r="T34" t="n">
-        <v>2.27</v>
+        <v>2.6</v>
       </c>
       <c r="U34" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
-        <v>4.34</v>
+        <v>3.75</v>
       </c>
       <c r="W34" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AD34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE34" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AF34" t="n">
         <v>1.03</v>
@@ -7363,52 +7363,52 @@
         <v>14.25</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI34" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AK34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AM34" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>2.71</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.71</v>
+        <v>1.33</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AV34" t="n">
         <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AX34" t="n">
         <v>0</v>
@@ -7435,22 +7435,22 @@
         <v>0</v>
       </c>
       <c r="BF34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH34" t="n">
         <v>4</v>
       </c>
-      <c r="BG34" t="n">
+      <c r="BI34" t="n">
         <v>6</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>5</v>
       </c>
       <c r="BJ34" t="n">
         <v>9</v>
       </c>
       <c r="BK34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU38" t="n">
         <v>1.45</v>
@@ -8270,7 +8270,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>5094047</v>
+        <v>5071900</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8290,31 +8290,31 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Detroit City FC</t>
+          <t>Indy Eleven</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rio Grande Valley</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -8323,17 +8323,17 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T39" t="n">
         <v>2.6</v>
@@ -8345,37 +8345,37 @@
         <v>3.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X39" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC39" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AD39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AE39" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="AH39" t="n">
         <v>1.22</v>
@@ -8384,46 +8384,46 @@
         <v>4</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AM39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AN39" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AW39" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AX39" t="n">
         <v>0</v>
@@ -8453,19 +8453,19 @@
         <v>5</v>
       </c>
       <c r="BG39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI39" t="n">
         <v>4</v>
       </c>
-      <c r="BI39" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -8473,7 +8473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>5094050</v>
+        <v>5094047</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8493,77 +8493,77 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Miami FC</t>
+          <t>Detroit City FC</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Memphis 901</t>
+          <t>Rio Grande Valley</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC40" t="n">
         <v>2</v>
@@ -8575,58 +8575,58 @@
         <v>3.2</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AK40" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AU40" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
         <v>0</v>
       </c>
       <c r="AW40" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AX40" t="n">
         <v>0</v>
@@ -8653,22 +8653,22 @@
         <v>0</v>
       </c>
       <c r="BF40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH40" t="n">
         <v>4</v>
       </c>
-      <c r="BH40" t="n">
-        <v>3</v>
-      </c>
       <c r="BI40" t="n">
         <v>2</v>
       </c>
       <c r="BJ40" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -8676,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>5071900</v>
+        <v>5094050</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -8696,182 +8696,182 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>Miami FC</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Memphis 901</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
         <v>6</v>
       </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
       <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK41" t="n">
         <v>6</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU42" t="n">
         <v>1.21</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>2.71</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU45" t="n">
         <v>1.21</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT49" t="n">
         <v>1.17</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT51" t="n">
         <v>0.5</v>
@@ -11053,7 +11053,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU53" t="n">
         <v>1.28</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU57" t="n">
         <v>1.2</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU58" t="n">
         <v>1.26</v>
@@ -12471,10 +12471,10 @@
         <v>3</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU59" t="n">
         <v>1.71</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT60" t="n">
         <v>0.67</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT65" t="n">
         <v>0.67</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>2.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU68" t="n">
         <v>1.21</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1.57</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU70" t="n">
         <v>1.59</v>
@@ -14910,7 +14910,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.07</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
         <v>1.33</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT73" t="n">
         <v>2.5</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU74" t="n">
         <v>1.79</v>
@@ -15578,7 +15578,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>5094082</v>
+        <v>5094080</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -15598,140 +15598,140 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Detroit City FC</t>
+          <t>Birmingham Legion</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['33', '59']</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R75" t="n">
         <v>2</v>
       </c>
       <c r="S75" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T75" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="U75" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V75" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="W75" t="n">
         <v>1.33</v>
       </c>
       <c r="X75" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="Y75" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA75" t="n">
         <v>5.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.67</v>
+        <v>2.31</v>
       </c>
       <c r="AD75" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AE75" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="AF75" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI75" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AL75" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AM75" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="AN75" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="AO75" t="n">
         <v>1.25</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.71</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AU75" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AV75" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="AW75" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="AX75" t="n">
         <v>0</v>
@@ -15746,10 +15746,10 @@
         <v>0</v>
       </c>
       <c r="BB75" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BC75" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BD75" t="n">
         <v>0</v>
@@ -15761,16 +15761,16 @@
         <v>5</v>
       </c>
       <c r="BG75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH75" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ75" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK75" t="n">
         <v>6</v>
@@ -15781,7 +15781,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>5094080</v>
+        <v>5094082</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -15801,140 +15801,140 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Birmingham Legion</t>
+          <t>Detroit City FC</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
         <v>3</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>['30']</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>['33', '59']</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>8</v>
-      </c>
       <c r="R76" t="n">
         <v>2</v>
       </c>
       <c r="S76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T76" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="U76" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V76" t="n">
-        <v>2.62</v>
+        <v>4.5</v>
       </c>
       <c r="W76" t="n">
         <v>1.33</v>
       </c>
       <c r="X76" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="Y76" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA76" t="n">
         <v>5.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AC76" t="n">
-        <v>2.31</v>
+        <v>1.67</v>
       </c>
       <c r="AD76" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="AF76" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI76" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AK76" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AL76" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AM76" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AN76" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="AO76" t="n">
         <v>1.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AR76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>2.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU76" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AV76" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="AW76" t="n">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="AX76" t="n">
         <v>0</v>
@@ -15949,10 +15949,10 @@
         <v>0</v>
       </c>
       <c r="BB76" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BC76" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="BD76" t="n">
         <v>0</v>
@@ -15964,16 +15964,16 @@
         <v>5</v>
       </c>
       <c r="BG76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH76" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ76" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK76" t="n">
         <v>6</v>
@@ -16125,7 +16125,7 @@
         <v>1.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT77" t="n">
         <v>1.17</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.3</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT80" t="n">
         <v>1.4</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU81" t="n">
         <v>1.44</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU82" t="n">
         <v>1.58</v>
@@ -17346,7 +17346,7 @@
         <v>1.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU83" t="n">
         <v>1.38</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.74</v>
@@ -17749,10 +17749,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -17955,7 +17955,7 @@
         <v>2.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU86" t="n">
         <v>1.44</v>
@@ -18014,7 +18014,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>5094098</v>
+        <v>5094093</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -18034,104 +18034,104 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>San Diego Loyal</t>
+          <t>Monterey Bay</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>El Paso Locomotive</t>
+          <t>Rio Grande Valley</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>['13', '65']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R87" t="n">
         <v>2</v>
       </c>
       <c r="S87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T87" t="n">
-        <v>2.33</v>
+        <v>2.9</v>
       </c>
       <c r="U87" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="V87" t="n">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="W87" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X87" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="Y87" t="n">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AA87" t="n">
-        <v>6</v>
+        <v>6.45</v>
       </c>
       <c r="AB87" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC87" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="AD87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="AF87" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AG87" t="n">
-        <v>11</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AH87" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AI87" t="n">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AK87" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AL87" t="n">
         <v>1.64</v>
@@ -18140,34 +18140,34 @@
         <v>2.07</v>
       </c>
       <c r="AN87" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AO87" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="AQ87" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="AU87" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AV87" t="n">
-        <v>1.36</v>
+        <v>0.95</v>
       </c>
       <c r="AW87" t="n">
-        <v>2.77</v>
+        <v>2.34</v>
       </c>
       <c r="AX87" t="n">
         <v>0</v>
@@ -18179,37 +18179,37 @@
         <v>0</v>
       </c>
       <c r="BA87" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BB87" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="BC87" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="BD87" t="n">
-        <v>2.77</v>
+        <v>2.45</v>
       </c>
       <c r="BE87" t="n">
         <v>0</v>
       </c>
       <c r="BF87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI87" t="n">
         <v>5</v>
       </c>
-      <c r="BG87" t="n">
+      <c r="BJ87" t="n">
         <v>4</v>
       </c>
-      <c r="BH87" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI87" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ87" t="n">
-        <v>11</v>
-      </c>
       <c r="BK87" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -18217,7 +18217,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>5094093</v>
+        <v>5094095</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -18237,12 +18237,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Monterey Bay</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rio Grande Valley</t>
+          <t>Miami FC</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -18274,103 +18274,103 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T88" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AC88" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AD88" t="n">
         <v>3.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="AF88" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AG88" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH88" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AI88" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AJ88" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AK88" t="n">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="AL88" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AM88" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AN88" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO88" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.5</v>
       </c>
       <c r="AR88" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AU88" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AV88" t="n">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="AW88" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="AX88" t="n">
         <v>0</v>
@@ -18382,16 +18382,16 @@
         <v>0</v>
       </c>
       <c r="BA88" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BB88" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="BC88" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BD88" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BE88" t="n">
         <v>0</v>
@@ -18400,19 +18400,19 @@
         <v>2</v>
       </c>
       <c r="BG88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH88" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BI88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ88" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BK88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -18420,7 +18420,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>5094095</v>
+        <v>5094098</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -18440,140 +18440,140 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Oakland Roots</t>
+          <t>San Diego Loyal</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Miami FC</t>
+          <t>El Paso Locomotive</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13', '65']</t>
         </is>
       </c>
       <c r="Q89" t="n">
+        <v>7</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>9</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V89" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI89" t="n">
         <v>4</v>
       </c>
-      <c r="R89" t="n">
+      <c r="AJ89" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ89" t="n">
         <v>3</v>
       </c>
-      <c r="S89" t="n">
-        <v>7</v>
-      </c>
-      <c r="T89" t="n">
-        <v>0</v>
-      </c>
-      <c r="U89" t="n">
-        <v>0</v>
-      </c>
-      <c r="V89" t="n">
-        <v>0</v>
-      </c>
-      <c r="W89" t="n">
-        <v>0</v>
-      </c>
-      <c r="X89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AR89" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU89" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AV89" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AW89" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="AX89" t="n">
         <v>0</v>
@@ -18588,31 +18588,31 @@
         <v>0</v>
       </c>
       <c r="BB89" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="BC89" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="BD89" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="BE89" t="n">
         <v>0</v>
       </c>
       <c r="BF89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ89" t="n">
         <v>11</v>
-      </c>
-      <c r="BI89" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ89" t="n">
-        <v>13</v>
       </c>
       <c r="BK89" t="n">
         <v>8</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT90" t="n">
         <v>0.6</v>
@@ -19170,10 +19170,10 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT92" t="n">
         <v>1.29</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.44</v>
@@ -19373,10 +19373,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>0.75</v>
@@ -19782,7 +19782,7 @@
         <v>1.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU95" t="n">
         <v>1.03</v>
@@ -19985,7 +19985,7 @@
         <v>0.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU96" t="n">
         <v>0</v>
@@ -20044,7 +20044,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>5094106</v>
+        <v>5094105</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -20064,59 +20064,59 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Loudoun United</t>
+          <t>Hartford Athletic</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>Memphis 901</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>['73', '90']</t>
+          <t>['32', '83']</t>
         </is>
       </c>
       <c r="Q97" t="n">
+        <v>9</v>
+      </c>
+      <c r="R97" t="n">
         <v>4</v>
       </c>
-      <c r="R97" t="n">
-        <v>3</v>
-      </c>
       <c r="S97" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T97" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="U97" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="V97" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="W97" t="n">
         <v>1.36</v>
@@ -20125,10 +20125,10 @@
         <v>3</v>
       </c>
       <c r="Y97" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA97" t="n">
         <v>6</v>
@@ -20137,13 +20137,13 @@
         <v>1.11</v>
       </c>
       <c r="AC97" t="n">
-        <v>2.35</v>
+        <v>3.05</v>
       </c>
       <c r="AD97" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AE97" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AF97" t="n">
         <v>1.05</v>
@@ -20152,94 +20152,94 @@
         <v>9</v>
       </c>
       <c r="AH97" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AI97" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ97" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AK97" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="AL97" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AM97" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="AN97" t="n">
         <v>1.35</v>
       </c>
       <c r="AO97" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP97" t="n">
         <v>1.65</v>
       </c>
       <c r="AQ97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV97" t="n">
         <v>1.75</v>
       </c>
-      <c r="AR97" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT97" t="n">
+      <c r="AW97" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
         <v>1.4</v>
       </c>
-      <c r="AU97" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AV97" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA97" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB97" t="n">
-        <v>1.65</v>
-      </c>
       <c r="BC97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD97" t="n">
         <v>2.13</v>
       </c>
-      <c r="BD97" t="n">
+      <c r="BE97" t="n">
         <v>2.85</v>
       </c>
-      <c r="BE97" t="n">
-        <v>0</v>
-      </c>
       <c r="BF97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG97" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH97" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI97" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BJ97" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK97" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -20247,7 +20247,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>5094105</v>
+        <v>5094106</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -20267,59 +20267,59 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Loudoun United</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Memphis 901</t>
+          <t>Indy Eleven</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>['32', '83']</t>
+          <t>['73', '90']</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S98" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T98" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="U98" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="V98" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="W98" t="n">
         <v>1.36</v>
@@ -20328,10 +20328,10 @@
         <v>3</v>
       </c>
       <c r="Y98" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA98" t="n">
         <v>6</v>
@@ -20340,13 +20340,13 @@
         <v>1.11</v>
       </c>
       <c r="AC98" t="n">
-        <v>3.05</v>
+        <v>2.35</v>
       </c>
       <c r="AD98" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AE98" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AF98" t="n">
         <v>1.05</v>
@@ -20355,52 +20355,52 @@
         <v>9</v>
       </c>
       <c r="AH98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI98" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ98" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="AK98" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AL98" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AM98" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="AN98" t="n">
         <v>1.35</v>
       </c>
       <c r="AO98" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AP98" t="n">
         <v>1.65</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR98" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AS98" t="n">
         <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU98" t="n">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AV98" t="n">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="AW98" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="AX98" t="n">
         <v>0</v>
@@ -20412,37 +20412,37 @@
         <v>0</v>
       </c>
       <c r="BA98" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BB98" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="BC98" t="n">
-        <v>1.7</v>
+        <v>2.13</v>
       </c>
       <c r="BD98" t="n">
-        <v>2.13</v>
+        <v>2.85</v>
       </c>
       <c r="BE98" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="BF98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI98" t="n">
         <v>7</v>
       </c>
-      <c r="BG98" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH98" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI98" t="n">
+      <c r="BJ98" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK98" t="n">
         <v>12</v>
-      </c>
-      <c r="BJ98" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK98" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -20450,7 +20450,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>5094108</v>
+        <v>5094103</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -20470,92 +20470,92 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Tampa Bay Rowdies</t>
+          <t>Birmingham Legion</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['10', '45+1']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+3', '64', '71', '88']</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R99" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S99" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T99" t="n">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="U99" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V99" t="n">
-        <v>3.42</v>
+        <v>4.38</v>
       </c>
       <c r="W99" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X99" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="Y99" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="Z99" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AA99" t="n">
-        <v>6.35</v>
+        <v>5.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AC99" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD99" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AE99" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AF99" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH99" t="n">
         <v>1.25</v>
@@ -20564,88 +20564,88 @@
         <v>3.75</v>
       </c>
       <c r="AJ99" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AK99" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AL99" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AM99" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="AN99" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AO99" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC99" t="n">
         <v>1.67</v>
       </c>
-      <c r="AT99" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB99" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BC99" t="n">
-        <v>1.73</v>
-      </c>
       <c r="BD99" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="BE99" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="BF99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI99" t="n">
         <v>3</v>
       </c>
-      <c r="BH99" t="n">
+      <c r="BJ99" t="n">
         <v>9</v>
       </c>
-      <c r="BI99" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ99" t="n">
-        <v>17</v>
-      </c>
       <c r="BK99" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -20653,7 +20653,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>5094103</v>
+        <v>5094104</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -20673,104 +20673,104 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Birmingham Legion</t>
+          <t>Detroit City FC</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Oakland Roots</t>
+          <t>Tulsa Roughnecks</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
       <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
         <v>4</v>
       </c>
-      <c r="N100" t="n">
-        <v>5</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>['48']</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>['45+3', '64', '71', '88']</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>8</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA100" t="n">
         <v>6</v>
       </c>
-      <c r="R100" t="n">
-        <v>6</v>
-      </c>
-      <c r="S100" t="n">
-        <v>12</v>
-      </c>
-      <c r="T100" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U100" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V100" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="W100" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X100" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB100" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC100" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="AD100" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="AE100" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="AF100" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH100" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI100" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AK100" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AL100" t="n">
         <v>1.7</v>
@@ -20779,34 +20779,34 @@
         <v>2.05</v>
       </c>
       <c r="AN100" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AO100" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AR100" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AS100" t="n">
         <v>1.17</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="AV100" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="AW100" t="n">
-        <v>3.07</v>
+        <v>2.17</v>
       </c>
       <c r="AX100" t="n">
         <v>0</v>
@@ -20818,34 +20818,34 @@
         <v>0</v>
       </c>
       <c r="BA100" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BB100" t="n">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="BC100" t="n">
-        <v>1.67</v>
+        <v>2.32</v>
       </c>
       <c r="BD100" t="n">
-        <v>2.12</v>
+        <v>3.15</v>
       </c>
       <c r="BE100" t="n">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="BF100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG100" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BH100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI100" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ100" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK100" t="n">
         <v>13</v>
@@ -20856,7 +20856,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>5094104</v>
+        <v>5094108</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -20876,86 +20876,86 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Detroit City FC</t>
+          <t>Tampa Bay Rowdies</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Tulsa Roughnecks</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>2</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['10', '45+1']</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R101" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S101" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T101" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U101" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V101" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="W101" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X101" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="Y101" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA101" t="n">
-        <v>6</v>
+        <v>6.35</v>
       </c>
       <c r="AB101" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AC101" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AD101" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AE101" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="AF101" t="n">
         <v>1.05</v>
@@ -20964,52 +20964,52 @@
         <v>9</v>
       </c>
       <c r="AH101" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AI101" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AK101" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="AL101" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AM101" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="AN101" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AO101" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU101" t="n">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="AV101" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AW101" t="n">
-        <v>2.17</v>
+        <v>2.37</v>
       </c>
       <c r="AX101" t="n">
         <v>0</v>
@@ -21021,37 +21021,37 @@
         <v>0</v>
       </c>
       <c r="BA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" t="n">
         <v>1.41</v>
       </c>
-      <c r="BB101" t="n">
-        <v>1.8</v>
-      </c>
       <c r="BC101" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="BD101" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="BE101" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BF101" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH101" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI101" t="n">
         <v>7</v>
       </c>
       <c r="BJ101" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK101" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21812,7 +21812,7 @@
         <v>2.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU105" t="n">
         <v>1.53</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT107" t="n">
         <v>0.67</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU108" t="n">
         <v>1.6</v>
@@ -22886,7 +22886,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>5094120</v>
+        <v>5094119</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -22906,182 +22906,182 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>San Diego Loyal</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rio Grande Valley</t>
+          <t>Indy Eleven</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
         <v>3</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
         <v>4</v>
       </c>
-      <c r="L111" t="n">
-        <v>2</v>
-      </c>
-      <c r="M111" t="n">
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['3', '8', '86']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>11</v>
+      </c>
+      <c r="R111" t="n">
         <v>3</v>
       </c>
-      <c r="N111" t="n">
+      <c r="S111" t="n">
+        <v>14</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
         <v>5</v>
       </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>['35', '90+3']</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>['26', '31', '39']</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
-        <v>6</v>
-      </c>
-      <c r="R111" t="n">
-        <v>4</v>
-      </c>
-      <c r="S111" t="n">
-        <v>10</v>
-      </c>
-      <c r="T111" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U111" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V111" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="W111" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X111" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z111" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA111" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM111" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO111" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP111" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ111" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AR111" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS111" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT111" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AU111" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AV111" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AW111" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AX111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ111" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA111" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BB111" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC111" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BD111" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BE111" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF111" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG111" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH111" t="n">
+      <c r="BI111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK111" t="n">
         <v>3</v>
-      </c>
-      <c r="BI111" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ111" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK111" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -23089,7 +23089,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>5094119</v>
+        <v>5094120</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -23109,182 +23109,182 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>San Diego Loyal</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>Rio Grande Valley</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
         <v>3</v>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
       <c r="N112" t="n">
+        <v>5</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['35', '90+3']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['26', '31', '39']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>6</v>
+      </c>
+      <c r="R112" t="n">
         <v>4</v>
       </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>['3', '8', '86']</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>['51']</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>11</v>
-      </c>
-      <c r="R112" t="n">
+      <c r="S112" t="n">
+        <v>10</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X112" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH112" t="n">
         <v>3</v>
       </c>
-      <c r="S112" t="n">
+      <c r="BI112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK112" t="n">
         <v>14</v>
-      </c>
-      <c r="T112" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U112" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V112" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W112" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X112" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y112" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL112" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM112" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN112" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AO112" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP112" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AQ112" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AR112" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS112" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AT112" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AU112" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV112" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AW112" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AX112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ112" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA112" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BB112" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BC112" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BD112" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BE112" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF112" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG112" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH112" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI112" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ112" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK112" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -23292,7 +23292,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>5094117</v>
+        <v>5094112</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -23312,182 +23312,182 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Tulsa Roughnecks</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
         <v>3</v>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="n">
-        <v>4</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>['5', '73', '81']</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>['44']</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>8</v>
       </c>
       <c r="R113" t="n">
         <v>3</v>
       </c>
       <c r="S113" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T113" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="U113" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V113" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="W113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X113" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO113" t="n">
         <v>1.29</v>
       </c>
-      <c r="X113" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA113" t="n">
+      <c r="AP113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF113" t="n">
         <v>5</v>
       </c>
-      <c r="AB113" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AL113" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM113" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AN113" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AO113" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP113" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ113" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR113" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS113" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT113" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU113" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AV113" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AW113" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AX113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ113" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA113" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB113" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC113" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BD113" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BE113" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="BF113" t="n">
-        <v>9</v>
-      </c>
       <c r="BG113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI113" t="n">
         <v>6</v>
-      </c>
-      <c r="BH113" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI113" t="n">
-        <v>2</v>
       </c>
       <c r="BJ113" t="n">
         <v>19</v>
       </c>
       <c r="BK113" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -23495,7 +23495,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>5094112</v>
+        <v>5094117</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -23515,182 +23515,182 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Tulsa Roughnecks</t>
+          <t>Hartford Athletic</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>['5', '73', '81']</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R114" t="n">
         <v>3</v>
       </c>
       <c r="S114" t="n">
+        <v>11</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG114" t="n">
         <v>6</v>
       </c>
-      <c r="T114" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U114" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V114" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W114" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X114" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM114" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO114" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP114" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR114" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS114" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AT114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU114" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AV114" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AW114" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AX114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB114" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BC114" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD114" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="BE114" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BF114" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG114" t="n">
-        <v>4</v>
-      </c>
       <c r="BH114" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BI114" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ114" t="n">
         <v>19</v>
       </c>
       <c r="BK114" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
@@ -23839,10 +23839,10 @@
         <v>0.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.45</v>
@@ -24042,10 +24042,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU116" t="n">
         <v>1.96</v>
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU117" t="n">
         <v>1.4</v>
@@ -24854,10 +24854,10 @@
         <v>1.25</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU120" t="n">
         <v>1.47</v>
@@ -25057,10 +25057,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.45</v>
@@ -25263,7 +25263,7 @@
         <v>2.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.65</v>
@@ -25463,7 +25463,7 @@
         <v>0.75</v>
       </c>
       <c r="AS123" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT123" t="n">
         <v>0.6</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT124" t="n">
         <v>1.67</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT126" t="n">
         <v>1.4</v>
@@ -26134,7 +26134,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>5094134</v>
+        <v>5094131</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -26154,182 +26154,182 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Oakland Roots</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>5</v>
+      </c>
+      <c r="S127" t="n">
+        <v>9</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X127" t="n">
         <v>3</v>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="n">
+      <c r="Y127" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG127" t="n">
         <v>4</v>
       </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>['12', '51', '55']</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>['62']</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>6</v>
-      </c>
-      <c r="R127" t="n">
-        <v>7</v>
-      </c>
-      <c r="S127" t="n">
-        <v>13</v>
-      </c>
-      <c r="T127" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U127" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="V127" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="W127" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X127" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM127" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN127" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO127" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP127" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AQ127" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AR127" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS127" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AT127" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AU127" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AV127" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AW127" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ127" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA127" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB127" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="BC127" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BD127" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BE127" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF127" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG127" t="n">
-        <v>7</v>
-      </c>
       <c r="BH127" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BI127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ127" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK127" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -26337,7 +26337,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>5094131</v>
+        <v>5094134</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -26357,182 +26357,182 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12', '51', '55']</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['62']</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R128" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S128" t="n">
+        <v>13</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V128" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ128" t="n">
         <v>9</v>
       </c>
-      <c r="T128" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U128" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V128" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W128" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X128" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG128" t="n">
+      <c r="BK128" t="n">
         <v>9</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM128" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN128" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AO128" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP128" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ128" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AR128" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS128" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT128" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU128" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AV128" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AW128" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AX128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ128" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA128" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB128" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BC128" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BD128" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BE128" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF128" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG128" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH128" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI128" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ128" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK128" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -26736,6 +26736,2036 @@
       </c>
       <c r="BK129" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5094136</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45072.85416666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2</v>
+      </c>
+      <c r="K130" t="n">
+        <v>3</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" t="n">
+        <v>5</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['19', '38', '51', '85']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>4</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2</v>
+      </c>
+      <c r="S130" t="n">
+        <v>6</v>
+      </c>
+      <c r="T130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5094137</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45072.97916666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>6</v>
+      </c>
+      <c r="R131" t="n">
+        <v>4</v>
+      </c>
+      <c r="S131" t="n">
+        <v>10</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V131" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5094138</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45073.70833333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>3</v>
+      </c>
+      <c r="R132" t="n">
+        <v>7</v>
+      </c>
+      <c r="S132" t="n">
+        <v>10</v>
+      </c>
+      <c r="T132" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5094139</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45073.83333333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>5</v>
+      </c>
+      <c r="R133" t="n">
+        <v>3</v>
+      </c>
+      <c r="S133" t="n">
+        <v>8</v>
+      </c>
+      <c r="T133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5094140</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45073.83333333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>5</v>
+      </c>
+      <c r="R134" t="n">
+        <v>3</v>
+      </c>
+      <c r="S134" t="n">
+        <v>8</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5094144</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45073.85416666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['7', '44']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>7</v>
+      </c>
+      <c r="R135" t="n">
+        <v>6</v>
+      </c>
+      <c r="S135" t="n">
+        <v>13</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V135" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5094142</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45073.875</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Rio Grande Valley</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['30', '64']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>5</v>
+      </c>
+      <c r="R136" t="n">
+        <v>3</v>
+      </c>
+      <c r="S136" t="n">
+        <v>8</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5094143</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45073.89583333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['20', '43']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>3</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>7</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V137" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5094141</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45073.95833333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>San Diego Loyal</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['7', '90+5']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>3</v>
+      </c>
+      <c r="R138" t="n">
+        <v>5</v>
+      </c>
+      <c r="S138" t="n">
+        <v>8</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5094145</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45074.79166666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Loudoun United</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>6</v>
+      </c>
+      <c r="R139" t="n">
+        <v>4</v>
+      </c>
+      <c r="S139" t="n">
+        <v>10</v>
+      </c>
+      <c r="T139" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V139" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,10 +388,10 @@
     <t>['63', '90+4']</t>
   </si>
   <si>
-    <t>['35', '50', '90+4']</t>
+    <t>['23', '55']</t>
   </si>
   <si>
-    <t>['23', '55']</t>
+    <t>['35', '50', '90+4']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -511,16 +511,16 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['35', '90+3']</t>
+  </si>
+  <si>
     <t>['3', '8', '86']</t>
   </si>
   <si>
-    <t>['35', '90+3']</t>
+    <t>['5', '73', '81']</t>
   </si>
   <si>
     <t>['68']</t>
-  </si>
-  <si>
-    <t>['5', '73', '81']</t>
   </si>
   <si>
     <t>['30', '43', '78']</t>
@@ -538,10 +538,10 @@
     <t>['16', '61']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['21', '31', '50', '61']</t>
   </si>
   <si>
-    <t>['21', '31', '50', '61']</t>
+    <t>['16']</t>
   </si>
   <si>
     <t>['23', '67']</t>
@@ -560,6 +560,24 @@
   </si>
   <si>
     <t>['7', '90+5']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['1', '22', '34', '76', '89']</t>
+  </si>
+  <si>
+    <t>['3', '5', '16']</t>
+  </si>
+  <si>
+    <t>['4', '16']</t>
+  </si>
+  <si>
+    <t>['33', '54', '89', '90+1']</t>
   </si>
   <si>
     <t>['8', '11', '90+4']</t>
@@ -596,9 +614,6 @@
   </si>
   <si>
     <t>['9', '60', '78']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -706,10 +721,10 @@
     <t>['16', '74']</t>
   </si>
   <si>
-    <t>['32', '83']</t>
+    <t>['73', '90']</t>
   </si>
   <si>
-    <t>['73', '90']</t>
+    <t>['32', '83']</t>
   </si>
   <si>
     <t>['45+3', '64', '71', '88']</t>
@@ -730,10 +745,10 @@
     <t>['8', '20', '26', '32', '53', '80', '89']</t>
   </si>
   <si>
-    <t>['51']</t>
+    <t>['26', '31', '39']</t>
   </si>
   <si>
-    <t>['26', '31', '39']</t>
+    <t>['51']</t>
   </si>
   <si>
     <t>['44']</t>
@@ -773,6 +788,18 @@
   </si>
   <si>
     <t>['30', '64']</t>
+  </si>
+  <si>
+    <t>['2', '72', '75', '80']</t>
+  </si>
+  <si>
+    <t>['75', '79', '90+5']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1405,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1465,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1847,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1951,7 +1978,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2038,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2142,7 +2169,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2333,7 +2360,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2420,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2614,7 +2641,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2715,7 +2742,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2802,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
         <v>0.67</v>
@@ -3097,7 +3124,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3184,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT11">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3288,7 +3315,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3479,7 +3506,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3670,7 +3697,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3861,7 +3888,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3948,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
         <v>1.25</v>
@@ -4243,7 +4270,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4330,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT17">
         <v>0.67</v>
@@ -4434,7 +4461,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4625,7 +4652,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4774,7 +4801,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5094037</v>
+        <v>5094036</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -4789,175 +4816,175 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>4.2</v>
+      </c>
+      <c r="U20">
+        <v>2.38</v>
+      </c>
+      <c r="V20">
+        <v>2.15</v>
+      </c>
+      <c r="W20">
+        <v>1.29</v>
+      </c>
+      <c r="X20">
+        <v>3.5</v>
+      </c>
+      <c r="Y20">
+        <v>2.3</v>
+      </c>
+      <c r="Z20">
+        <v>1.57</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <v>1.14</v>
+      </c>
+      <c r="AC20">
+        <v>3.97</v>
+      </c>
+      <c r="AD20">
+        <v>3.36</v>
+      </c>
+      <c r="AE20">
+        <v>1.56</v>
+      </c>
+      <c r="AF20">
+        <v>1.04</v>
+      </c>
+      <c r="AG20">
         <v>10</v>
       </c>
-      <c r="R20">
+      <c r="AH20">
+        <v>1.2</v>
+      </c>
+      <c r="AI20">
+        <v>4.33</v>
+      </c>
+      <c r="AJ20">
+        <v>1.53</v>
+      </c>
+      <c r="AK20">
+        <v>2.07</v>
+      </c>
+      <c r="AL20">
+        <v>1.62</v>
+      </c>
+      <c r="AM20">
+        <v>2.2</v>
+      </c>
+      <c r="AN20">
+        <v>2.1</v>
+      </c>
+      <c r="AO20">
+        <v>1.22</v>
+      </c>
+      <c r="AP20">
+        <v>1.19</v>
+      </c>
+      <c r="AQ20">
         <v>3</v>
       </c>
-      <c r="S20">
-        <v>13</v>
-      </c>
-      <c r="T20">
-        <v>2.7</v>
-      </c>
-      <c r="U20">
-        <v>2.2</v>
-      </c>
-      <c r="V20">
-        <v>3.4</v>
-      </c>
-      <c r="W20">
-        <v>1.36</v>
-      </c>
-      <c r="X20">
+      <c r="AR20">
         <v>3</v>
       </c>
-      <c r="Y20">
-        <v>2.5</v>
-      </c>
-      <c r="Z20">
+      <c r="AS20">
         <v>1.5</v>
       </c>
-      <c r="AA20">
+      <c r="AT20">
+        <v>1.71</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>1.31</v>
+      </c>
+      <c r="AW20">
+        <v>1.31</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>2</v>
+      </c>
+      <c r="BG20">
+        <v>4</v>
+      </c>
+      <c r="BH20">
+        <v>4</v>
+      </c>
+      <c r="BI20">
         <v>6</v>
       </c>
-      <c r="AB20">
-        <v>1.11</v>
-      </c>
-      <c r="AC20">
-        <v>2.6</v>
-      </c>
-      <c r="AD20">
-        <v>3.2</v>
-      </c>
-      <c r="AE20">
-        <v>2.55</v>
-      </c>
-      <c r="AF20">
-        <v>1.05</v>
-      </c>
-      <c r="AG20">
-        <v>9</v>
-      </c>
-      <c r="AH20">
-        <v>1.25</v>
-      </c>
-      <c r="AI20">
-        <v>3.75</v>
-      </c>
-      <c r="AJ20">
-        <v>1.75</v>
-      </c>
-      <c r="AK20">
-        <v>2</v>
-      </c>
-      <c r="AL20">
-        <v>1.67</v>
-      </c>
-      <c r="AM20">
-        <v>2.1</v>
-      </c>
-      <c r="AN20">
-        <v>1.32</v>
-      </c>
-      <c r="AO20">
-        <v>1.3</v>
-      </c>
-      <c r="AP20">
-        <v>1.6</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>1</v>
-      </c>
-      <c r="AT20">
-        <v>1.4</v>
-      </c>
-      <c r="AU20">
-        <v>1.52</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>1.52</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
+      <c r="BJ20">
         <v>6</v>
       </c>
-      <c r="BG20">
-        <v>3</v>
-      </c>
-      <c r="BH20">
-        <v>7</v>
-      </c>
-      <c r="BI20">
-        <v>4</v>
-      </c>
-      <c r="BJ20">
-        <v>13</v>
-      </c>
       <c r="BK20">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -4965,7 +4992,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5094036</v>
+        <v>5094037</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -4980,175 +5007,175 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <v>2.7</v>
+      </c>
+      <c r="U21">
+        <v>2.2</v>
+      </c>
+      <c r="V21">
+        <v>3.4</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>2.5</v>
+      </c>
+      <c r="Z21">
+        <v>1.5</v>
+      </c>
+      <c r="AA21">
         <v>6</v>
       </c>
-      <c r="S21">
+      <c r="AB21">
+        <v>1.11</v>
+      </c>
+      <c r="AC21">
+        <v>2.6</v>
+      </c>
+      <c r="AD21">
+        <v>3.2</v>
+      </c>
+      <c r="AE21">
+        <v>2.55</v>
+      </c>
+      <c r="AF21">
+        <v>1.05</v>
+      </c>
+      <c r="AG21">
+        <v>9</v>
+      </c>
+      <c r="AH21">
+        <v>1.25</v>
+      </c>
+      <c r="AI21">
+        <v>3.75</v>
+      </c>
+      <c r="AJ21">
+        <v>1.75</v>
+      </c>
+      <c r="AK21">
+        <v>2</v>
+      </c>
+      <c r="AL21">
+        <v>1.67</v>
+      </c>
+      <c r="AM21">
+        <v>2.1</v>
+      </c>
+      <c r="AN21">
+        <v>1.32</v>
+      </c>
+      <c r="AO21">
+        <v>1.3</v>
+      </c>
+      <c r="AP21">
+        <v>1.6</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1.22</v>
+      </c>
+      <c r="AT21">
+        <v>1.4</v>
+      </c>
+      <c r="AU21">
+        <v>1.52</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>1.52</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>6</v>
+      </c>
+      <c r="BG21">
+        <v>3</v>
+      </c>
+      <c r="BH21">
         <v>7</v>
       </c>
-      <c r="T21">
-        <v>4.2</v>
-      </c>
-      <c r="U21">
-        <v>2.38</v>
-      </c>
-      <c r="V21">
-        <v>2.15</v>
-      </c>
-      <c r="W21">
-        <v>1.29</v>
-      </c>
-      <c r="X21">
-        <v>3.5</v>
-      </c>
-      <c r="Y21">
-        <v>2.3</v>
-      </c>
-      <c r="Z21">
-        <v>1.57</v>
-      </c>
-      <c r="AA21">
-        <v>5</v>
-      </c>
-      <c r="AB21">
-        <v>1.14</v>
-      </c>
-      <c r="AC21">
-        <v>3.97</v>
-      </c>
-      <c r="AD21">
-        <v>3.36</v>
-      </c>
-      <c r="AE21">
-        <v>1.56</v>
-      </c>
-      <c r="AF21">
-        <v>1.04</v>
-      </c>
-      <c r="AG21">
-        <v>10</v>
-      </c>
-      <c r="AH21">
-        <v>1.2</v>
-      </c>
-      <c r="AI21">
-        <v>4.33</v>
-      </c>
-      <c r="AJ21">
-        <v>1.53</v>
-      </c>
-      <c r="AK21">
-        <v>2.07</v>
-      </c>
-      <c r="AL21">
-        <v>1.62</v>
-      </c>
-      <c r="AM21">
-        <v>2.2</v>
-      </c>
-      <c r="AN21">
-        <v>2.1</v>
-      </c>
-      <c r="AO21">
-        <v>1.22</v>
-      </c>
-      <c r="AP21">
-        <v>1.19</v>
-      </c>
-      <c r="AQ21">
-        <v>3</v>
-      </c>
-      <c r="AR21">
-        <v>3</v>
-      </c>
-      <c r="AS21">
-        <v>1.33</v>
-      </c>
-      <c r="AT21">
-        <v>1.83</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>1.31</v>
-      </c>
-      <c r="AW21">
-        <v>1.31</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
-      <c r="BF21">
-        <v>2</v>
-      </c>
-      <c r="BG21">
+      <c r="BI21">
         <v>4</v>
       </c>
-      <c r="BH21">
-        <v>4</v>
-      </c>
-      <c r="BI21">
-        <v>6</v>
-      </c>
       <c r="BJ21">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:63">
@@ -5479,7 +5506,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5580,7 +5607,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5670,7 +5697,7 @@
         <v>0.57</v>
       </c>
       <c r="AT24">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5858,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5962,7 +5989,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6153,7 +6180,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6240,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT27">
         <v>1.29</v>
@@ -6344,7 +6371,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6434,7 +6461,7 @@
         <v>1.8</v>
       </c>
       <c r="AT28">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6535,7 +6562,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6625,7 +6652,7 @@
         <v>1.17</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6813,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT30">
         <v>1.4</v>
@@ -7004,7 +7031,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT31">
         <v>1.13</v>
@@ -7198,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7299,7 +7326,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7386,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7580,7 +7607,7 @@
         <v>2.71</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7872,7 +7899,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -7962,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU36">
         <v>1.29</v>
@@ -8150,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT37">
         <v>0.4</v>
@@ -8403,7 +8430,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5071900</v>
+        <v>5094047</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -8418,43 +8445,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="s">
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T39">
         <v>2.6</v>
@@ -8466,37 +8493,37 @@
         <v>3.6</v>
       </c>
       <c r="W39">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X39">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Y39">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z39">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AA39">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB39">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC39">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AD39">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AE39">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AF39">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG39">
-        <v>14.5</v>
+        <v>14.25</v>
       </c>
       <c r="AH39">
         <v>1.22</v>
@@ -8505,46 +8532,46 @@
         <v>4</v>
       </c>
       <c r="AJ39">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AK39">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="AL39">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AM39">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AN39">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AO39">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AQ39">
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU39">
         <v>0</v>
       </c>
       <c r="AV39">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AW39">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AX39">
         <v>0</v>
@@ -8574,19 +8601,19 @@
         <v>5</v>
       </c>
       <c r="BG39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK39">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:63">
@@ -8594,7 +8621,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5094047</v>
+        <v>5094050</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -8609,70 +8636,70 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R40">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T40">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <v>2</v>
@@ -8684,100 +8711,100 @@
         <v>3.2</v>
       </c>
       <c r="AF40">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>1.67</v>
+      </c>
+      <c r="AK40">
+        <v>2.1</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0.5</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>1.25</v>
+      </c>
+      <c r="AT40">
+        <v>2.5</v>
+      </c>
+      <c r="AU40">
+        <v>1.56</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>1.56</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>2</v>
+      </c>
+      <c r="BG40">
         <v>4</v>
       </c>
-      <c r="AJ40">
-        <v>1.88</v>
-      </c>
-      <c r="AK40">
-        <v>1.9</v>
-      </c>
-      <c r="AL40">
-        <v>1.6</v>
-      </c>
-      <c r="AM40">
-        <v>2.25</v>
-      </c>
-      <c r="AN40">
-        <v>1.28</v>
-      </c>
-      <c r="AO40">
-        <v>1.22</v>
-      </c>
-      <c r="AP40">
-        <v>1.65</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
-        <v>1.17</v>
-      </c>
-      <c r="AT40">
-        <v>1.75</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BD40">
-        <v>0</v>
-      </c>
-      <c r="BE40">
-        <v>0</v>
-      </c>
-      <c r="BF40">
+      <c r="BH40">
+        <v>3</v>
+      </c>
+      <c r="BI40">
+        <v>2</v>
+      </c>
+      <c r="BJ40">
         <v>5</v>
       </c>
-      <c r="BG40">
+      <c r="BK40">
         <v>6</v>
-      </c>
-      <c r="BH40">
-        <v>4</v>
-      </c>
-      <c r="BI40">
-        <v>2</v>
-      </c>
-      <c r="BJ40">
-        <v>9</v>
-      </c>
-      <c r="BK40">
-        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:63">
@@ -8785,7 +8812,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>5094050</v>
+        <v>5071900</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -8800,175 +8827,175 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>2.6</v>
+      </c>
+      <c r="U41">
+        <v>2.2</v>
+      </c>
+      <c r="V41">
+        <v>3.6</v>
+      </c>
+      <c r="W41">
+        <v>1.33</v>
+      </c>
+      <c r="X41">
+        <v>3.25</v>
+      </c>
+      <c r="Y41">
+        <v>2.45</v>
+      </c>
+      <c r="Z41">
+        <v>1.5</v>
+      </c>
+      <c r="AA41">
+        <v>6</v>
+      </c>
+      <c r="AB41">
+        <v>1.13</v>
+      </c>
+      <c r="AC41">
+        <v>1.98</v>
+      </c>
+      <c r="AD41">
+        <v>3.35</v>
+      </c>
+      <c r="AE41">
+        <v>3.6</v>
+      </c>
+      <c r="AF41">
+        <v>1.01</v>
+      </c>
+      <c r="AG41">
+        <v>14.5</v>
+      </c>
+      <c r="AH41">
+        <v>1.22</v>
+      </c>
+      <c r="AI41">
         <v>4</v>
       </c>
-      <c r="R41">
-        <v>6</v>
-      </c>
-      <c r="S41">
+      <c r="AJ41">
+        <v>1.68</v>
+      </c>
+      <c r="AK41">
+        <v>2.06</v>
+      </c>
+      <c r="AL41">
+        <v>1.57</v>
+      </c>
+      <c r="AM41">
+        <v>2.3</v>
+      </c>
+      <c r="AN41">
+        <v>1.25</v>
+      </c>
+      <c r="AO41">
+        <v>1.25</v>
+      </c>
+      <c r="AP41">
+        <v>1.63</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
+        <v>0.83</v>
+      </c>
+      <c r="AT41">
+        <v>1</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>1.35</v>
+      </c>
+      <c r="AW41">
+        <v>1.35</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>5</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>5</v>
+      </c>
+      <c r="BI41">
+        <v>4</v>
+      </c>
+      <c r="BJ41">
         <v>10</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>2</v>
-      </c>
-      <c r="AD41">
-        <v>3.4</v>
-      </c>
-      <c r="AE41">
-        <v>3.2</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>1.67</v>
-      </c>
-      <c r="AK41">
-        <v>2.1</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0.5</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>1.25</v>
-      </c>
-      <c r="AT41">
-        <v>2.5</v>
-      </c>
-      <c r="AU41">
-        <v>1.56</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>1.56</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BD41">
-        <v>0</v>
-      </c>
-      <c r="BE41">
-        <v>0</v>
-      </c>
-      <c r="BF41">
-        <v>2</v>
-      </c>
-      <c r="BG41">
+      <c r="BK41">
         <v>4</v>
-      </c>
-      <c r="BH41">
-        <v>3</v>
-      </c>
-      <c r="BI41">
-        <v>2</v>
-      </c>
-      <c r="BJ41">
-        <v>5</v>
-      </c>
-      <c r="BK41">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:63">
@@ -9018,7 +9045,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9105,7 +9132,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
         <v>1.29</v>
@@ -9167,7 +9194,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5094052</v>
+        <v>5094051</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -9182,58 +9209,58 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T43">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="U43">
         <v>2.15</v>
       </c>
       <c r="V43">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="W43">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X43">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Y43">
         <v>2.5</v>
@@ -9245,109 +9272,109 @@
         <v>5.5</v>
       </c>
       <c r="AB43">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC43">
-        <v>2.41</v>
+        <v>3.3</v>
       </c>
       <c r="AD43">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AE43">
-        <v>2.75</v>
+        <v>2.06</v>
       </c>
       <c r="AF43">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG43">
-        <v>14.25</v>
+        <v>14</v>
       </c>
       <c r="AH43">
         <v>1.22</v>
       </c>
       <c r="AI43">
-        <v>3.97</v>
+        <v>4</v>
       </c>
       <c r="AJ43">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AK43">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="AL43">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AM43">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AN43">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AO43">
         <v>1.25</v>
       </c>
       <c r="AP43">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
+        <v>1</v>
+      </c>
+      <c r="AS43">
+        <v>1.5</v>
+      </c>
+      <c r="AT43">
+        <v>1.67</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>2.3</v>
+      </c>
+      <c r="AW43">
+        <v>2.3</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
         <v>3</v>
       </c>
-      <c r="AS43">
-        <v>2</v>
-      </c>
-      <c r="AT43">
-        <v>1</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>1.45</v>
-      </c>
-      <c r="AW43">
-        <v>1.45</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43">
-        <v>0</v>
-      </c>
-      <c r="BF43">
+      <c r="BG43">
         <v>4</v>
       </c>
-      <c r="BG43">
-        <v>5</v>
-      </c>
       <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
         <v>6</v>
       </c>
-      <c r="BI43">
-        <v>5</v>
-      </c>
       <c r="BJ43">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BK43">
         <v>10</v>
@@ -9358,7 +9385,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5094051</v>
+        <v>5094052</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
@@ -9373,58 +9400,58 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="Q44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T44">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="U44">
         <v>2.15</v>
       </c>
       <c r="V44">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="W44">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X44">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="Y44">
         <v>2.5</v>
@@ -9436,70 +9463,70 @@
         <v>5.5</v>
       </c>
       <c r="AB44">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC44">
+        <v>2.41</v>
+      </c>
+      <c r="AD44">
         <v>3.3</v>
       </c>
-      <c r="AD44">
-        <v>3.45</v>
-      </c>
       <c r="AE44">
-        <v>2.06</v>
+        <v>2.75</v>
       </c>
       <c r="AF44">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG44">
-        <v>14</v>
+        <v>14.25</v>
       </c>
       <c r="AH44">
         <v>1.22</v>
       </c>
       <c r="AI44">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="AJ44">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AK44">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="AL44">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AM44">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AO44">
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>0</v>
       </c>
       <c r="AV44">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="AW44">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="AX44">
         <v>0</v>
@@ -9526,19 +9553,19 @@
         <v>0</v>
       </c>
       <c r="BF44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BK44">
         <v>10</v>
@@ -9681,7 +9708,7 @@
         <v>2.71</v>
       </c>
       <c r="AT45">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU45">
         <v>1.21</v>
@@ -9782,7 +9809,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9872,7 +9899,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10164,7 +10191,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10355,7 +10382,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10445,7 +10472,7 @@
         <v>0.83</v>
       </c>
       <c r="AT49">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10504,7 +10531,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5094056</v>
+        <v>5094064</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -10519,133 +10546,133 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O50" t="s">
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="Q50">
         <v>3</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AD50">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AE50">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AF50">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AH50">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AI50">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AK50">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="AL50">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AM50">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AN50">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0.5</v>
+      </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
+      <c r="AS50">
         <v>1.75</v>
       </c>
-      <c r="AQ50">
-        <v>2</v>
-      </c>
-      <c r="AR50">
-        <v>0.5</v>
-      </c>
-      <c r="AS50">
-        <v>1.57</v>
-      </c>
       <c r="AT50">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AU50">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV50">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -10663,31 +10690,31 @@
         <v>0</v>
       </c>
       <c r="BC50">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BD50">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BE50">
         <v>0</v>
       </c>
       <c r="BF50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG50">
         <v>5</v>
       </c>
       <c r="BH50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK50">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10695,7 +10722,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5094064</v>
+        <v>5094056</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -10710,133 +10737,133 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O51" t="s">
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>3</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AC51">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AD51">
+        <v>3.6</v>
+      </c>
+      <c r="AE51">
         <v>3.4</v>
       </c>
-      <c r="AE51">
-        <v>3.9</v>
-      </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="AJ51">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AK51">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM51">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP51">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
         <v>0.5</v>
       </c>
-      <c r="AR51">
-        <v>1</v>
-      </c>
       <c r="AS51">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU51">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AV51">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="AW51">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AX51">
         <v>0</v>
@@ -10854,31 +10881,31 @@
         <v>0</v>
       </c>
       <c r="BC51">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD51">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BE51">
         <v>0</v>
       </c>
       <c r="BF51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG51">
         <v>5</v>
       </c>
       <c r="BH51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:63">
@@ -11015,7 +11042,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT52">
         <v>1.25</v>
@@ -11206,10 +11233,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU53">
         <v>1.28</v>
@@ -11501,7 +11528,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11588,7 +11615,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11692,7 +11719,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11782,7 +11809,7 @@
         <v>1.17</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -11883,7 +11910,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -11970,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
         <v>2.6</v>
@@ -12074,7 +12101,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12734,10 +12761,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT61">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -13029,7 +13056,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13116,7 +13143,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13220,7 +13247,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13307,10 +13334,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13411,7 +13438,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13689,10 +13716,10 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT66">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -14175,7 +14202,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14453,10 +14480,10 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT70">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU70">
         <v>1.59</v>
@@ -14557,7 +14584,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14644,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14748,7 +14775,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14835,10 +14862,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU72">
         <v>1.39</v>
@@ -14939,7 +14966,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15321,7 +15348,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15408,7 +15435,7 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT75">
         <v>1.29</v>
@@ -15793,7 +15820,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU77">
         <v>1.93</v>
@@ -16276,7 +16303,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16467,7 +16494,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16557,7 +16584,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.44</v>
@@ -16658,7 +16685,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16849,7 +16876,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16936,7 +16963,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -17127,10 +17154,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17231,7 +17258,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17318,7 +17345,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17422,7 +17449,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17509,7 +17536,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT86">
         <v>0.4</v>
@@ -17700,10 +17727,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU87">
         <v>1.39</v>
@@ -17894,7 +17921,7 @@
         <v>2</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -17995,7 +18022,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18085,7 +18112,7 @@
         <v>2</v>
       </c>
       <c r="AT89">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU89">
         <v>1.41</v>
@@ -18186,7 +18213,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18276,7 +18303,7 @@
         <v>1.6</v>
       </c>
       <c r="AT90">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU90">
         <v>1.24</v>
@@ -18377,7 +18404,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18568,7 +18595,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18759,7 +18786,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18950,7 +18977,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19037,10 +19064,10 @@
         <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT94">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU94">
         <v>1.29</v>
@@ -19141,7 +19168,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19228,7 +19255,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
         <v>1.25</v>
@@ -19481,7 +19508,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5094105</v>
+        <v>5094106</v>
       </c>
       <c r="C97" t="s">
         <v>63</v>
@@ -19496,52 +19523,52 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H97" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <v>2</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O97" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q97">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S97">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T97">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="U97">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="V97">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="W97">
         <v>1.36</v>
@@ -19550,10 +19577,10 @@
         <v>3</v>
       </c>
       <c r="Y97">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Z97">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA97">
         <v>6</v>
@@ -19562,13 +19589,13 @@
         <v>1.11</v>
       </c>
       <c r="AC97">
-        <v>3.05</v>
+        <v>2.35</v>
       </c>
       <c r="AD97">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AE97">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AF97">
         <v>1.05</v>
@@ -19577,52 +19604,52 @@
         <v>9</v>
       </c>
       <c r="AH97">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI97">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ97">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="AK97">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AL97">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AM97">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="AN97">
         <v>1.35</v>
       </c>
       <c r="AO97">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AP97">
         <v>1.65</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT97">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU97">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AV97">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="AW97">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="AX97">
         <v>0</v>
@@ -19634,37 +19661,37 @@
         <v>0</v>
       </c>
       <c r="BA97">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BB97">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="BC97">
-        <v>1.7</v>
+        <v>2.13</v>
       </c>
       <c r="BD97">
-        <v>2.13</v>
+        <v>2.85</v>
       </c>
       <c r="BE97">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="BF97">
+        <v>6</v>
+      </c>
+      <c r="BG97">
+        <v>5</v>
+      </c>
+      <c r="BH97">
+        <v>8</v>
+      </c>
+      <c r="BI97">
         <v>7</v>
       </c>
-      <c r="BG97">
-        <v>9</v>
-      </c>
-      <c r="BH97">
-        <v>3</v>
-      </c>
-      <c r="BI97">
+      <c r="BJ97">
+        <v>14</v>
+      </c>
+      <c r="BK97">
         <v>12</v>
-      </c>
-      <c r="BJ97">
-        <v>10</v>
-      </c>
-      <c r="BK97">
-        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:63">
@@ -19672,7 +19699,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>5094106</v>
+        <v>5094105</v>
       </c>
       <c r="C98" t="s">
         <v>63</v>
@@ -19687,52 +19714,52 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>2</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O98" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q98">
+        <v>9</v>
+      </c>
+      <c r="R98">
         <v>4</v>
       </c>
-      <c r="R98">
-        <v>3</v>
-      </c>
       <c r="S98">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T98">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="U98">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="V98">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="W98">
         <v>1.36</v>
@@ -19741,10 +19768,10 @@
         <v>3</v>
       </c>
       <c r="Y98">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Z98">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA98">
         <v>6</v>
@@ -19753,13 +19780,13 @@
         <v>1.11</v>
       </c>
       <c r="AC98">
-        <v>2.35</v>
+        <v>3.05</v>
       </c>
       <c r="AD98">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AE98">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AF98">
         <v>1.05</v>
@@ -19768,94 +19795,94 @@
         <v>9</v>
       </c>
       <c r="AH98">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AI98">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ98">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AK98">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="AL98">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AM98">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="AN98">
         <v>1.35</v>
       </c>
       <c r="AO98">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP98">
         <v>1.65</v>
       </c>
       <c r="AQ98">
+        <v>0.5</v>
+      </c>
+      <c r="AR98">
+        <v>2</v>
+      </c>
+      <c r="AS98">
+        <v>0.83</v>
+      </c>
+      <c r="AT98">
+        <v>2.5</v>
+      </c>
+      <c r="AU98">
+        <v>1.47</v>
+      </c>
+      <c r="AV98">
         <v>1.75</v>
       </c>
-      <c r="AR98">
-        <v>1.33</v>
-      </c>
-      <c r="AS98">
-        <v>1</v>
-      </c>
-      <c r="AT98">
+      <c r="AW98">
+        <v>3.22</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
         <v>1.4</v>
       </c>
-      <c r="AU98">
-        <v>1.94</v>
-      </c>
-      <c r="AV98">
-        <v>1.35</v>
-      </c>
-      <c r="AW98">
-        <v>3.29</v>
-      </c>
-      <c r="AX98">
-        <v>0</v>
-      </c>
-      <c r="AY98">
-        <v>0</v>
-      </c>
-      <c r="AZ98">
-        <v>0</v>
-      </c>
-      <c r="BA98">
-        <v>1.37</v>
-      </c>
-      <c r="BB98">
-        <v>1.65</v>
-      </c>
       <c r="BC98">
+        <v>1.7</v>
+      </c>
+      <c r="BD98">
         <v>2.13</v>
       </c>
-      <c r="BD98">
+      <c r="BE98">
         <v>2.85</v>
       </c>
-      <c r="BE98">
-        <v>0</v>
-      </c>
       <c r="BF98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG98">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH98">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI98">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BJ98">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK98">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:63">
@@ -19905,7 +19932,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19995,7 +20022,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU99">
         <v>1.51</v>
@@ -20096,7 +20123,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20374,10 +20401,10 @@
         <v>1.25</v>
       </c>
       <c r="AS101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU101">
         <v>1.2</v>
@@ -20478,7 +20505,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20565,10 +20592,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT102">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20669,7 +20696,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20860,7 +20887,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20950,7 +20977,7 @@
         <v>1.8</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21138,7 +21165,7 @@
         <v>1.8</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT105">
         <v>1.29</v>
@@ -21242,7 +21269,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21329,7 +21356,7 @@
         <v>1.75</v>
       </c>
       <c r="AS106">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT106">
         <v>1.67</v>
@@ -21433,7 +21460,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21520,7 +21547,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT107">
         <v>0.67</v>
@@ -21624,7 +21651,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21711,7 +21738,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT108">
         <v>1.13</v>
@@ -21902,7 +21929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22096,7 +22123,7 @@
         <v>1.5</v>
       </c>
       <c r="AT110">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU110">
         <v>1.44</v>
@@ -22155,7 +22182,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>5094119</v>
+        <v>5094120</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
@@ -22170,133 +22197,133 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H111" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
         <v>3</v>
       </c>
-      <c r="M111">
-        <v>1</v>
-      </c>
       <c r="N111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O111" t="s">
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q111">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S111">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T111">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
+        <v>2.3</v>
+      </c>
+      <c r="V111">
+        <v>4.2</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>3.25</v>
+      </c>
+      <c r="Y111">
+        <v>2.38</v>
+      </c>
+      <c r="Z111">
+        <v>1.53</v>
+      </c>
+      <c r="AA111">
+        <v>5.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.12</v>
+      </c>
+      <c r="AC111">
+        <v>1.65</v>
+      </c>
+      <c r="AD111">
+        <v>3.35</v>
+      </c>
+      <c r="AE111">
+        <v>3.78</v>
+      </c>
+      <c r="AF111">
+        <v>1.04</v>
+      </c>
+      <c r="AG111">
+        <v>10</v>
+      </c>
+      <c r="AH111">
+        <v>1.22</v>
+      </c>
+      <c r="AI111">
+        <v>4</v>
+      </c>
+      <c r="AJ111">
+        <v>1.9</v>
+      </c>
+      <c r="AK111">
+        <v>1.9</v>
+      </c>
+      <c r="AL111">
+        <v>1.67</v>
+      </c>
+      <c r="AM111">
+        <v>2.1</v>
+      </c>
+      <c r="AN111">
+        <v>1.2</v>
+      </c>
+      <c r="AO111">
+        <v>1.25</v>
+      </c>
+      <c r="AP111">
+        <v>2</v>
+      </c>
+      <c r="AQ111">
         <v>2.4</v>
       </c>
-      <c r="V111">
-        <v>5.5</v>
-      </c>
-      <c r="W111">
-        <v>1.29</v>
-      </c>
-      <c r="X111">
-        <v>3.5</v>
-      </c>
-      <c r="Y111">
-        <v>2.25</v>
-      </c>
-      <c r="Z111">
-        <v>1.6</v>
-      </c>
-      <c r="AA111">
-        <v>4.75</v>
-      </c>
-      <c r="AB111">
-        <v>1.15</v>
-      </c>
-      <c r="AC111">
-        <v>1.45</v>
-      </c>
-      <c r="AD111">
-        <v>3.88</v>
-      </c>
-      <c r="AE111">
-        <v>4.55</v>
-      </c>
-      <c r="AF111">
-        <v>1.03</v>
-      </c>
-      <c r="AG111">
-        <v>11</v>
-      </c>
-      <c r="AH111">
-        <v>1.2</v>
-      </c>
-      <c r="AI111">
-        <v>4.32</v>
-      </c>
-      <c r="AJ111">
-        <v>1.75</v>
-      </c>
-      <c r="AK111">
-        <v>2.05</v>
-      </c>
-      <c r="AL111">
-        <v>1.73</v>
-      </c>
-      <c r="AM111">
-        <v>2</v>
-      </c>
-      <c r="AN111">
-        <v>1.1</v>
-      </c>
-      <c r="AO111">
-        <v>1.2</v>
-      </c>
-      <c r="AP111">
-        <v>2.6</v>
-      </c>
-      <c r="AQ111">
-        <v>2.6</v>
-      </c>
       <c r="AR111">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="AT111">
         <v>1.4</v>
       </c>
       <c r="AU111">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AV111">
-        <v>1.48</v>
+        <v>0.95</v>
       </c>
       <c r="AW111">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="AX111">
         <v>0</v>
@@ -22308,37 +22335,37 @@
         <v>0</v>
       </c>
       <c r="BA111">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="BB111">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="BC111">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="BD111">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="BE111">
         <v>0</v>
       </c>
       <c r="BF111">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BG111">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI111">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BJ111">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BK111">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:63">
@@ -22346,7 +22373,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>5094120</v>
+        <v>5094119</v>
       </c>
       <c r="C112" t="s">
         <v>63</v>
@@ -22361,133 +22388,133 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
         <v>3</v>
       </c>
-      <c r="K112">
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
         <v>4</v>
-      </c>
-      <c r="L112">
-        <v>2</v>
-      </c>
-      <c r="M112">
-        <v>3</v>
-      </c>
-      <c r="N112">
-        <v>5</v>
       </c>
       <c r="O112" t="s">
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q112">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S112">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T112">
+        <v>1.91</v>
+      </c>
+      <c r="U112">
+        <v>2.4</v>
+      </c>
+      <c r="V112">
+        <v>5.5</v>
+      </c>
+      <c r="W112">
+        <v>1.29</v>
+      </c>
+      <c r="X112">
+        <v>3.5</v>
+      </c>
+      <c r="Y112">
         <v>2.25</v>
       </c>
-      <c r="U112">
-        <v>2.3</v>
-      </c>
-      <c r="V112">
-        <v>4.2</v>
-      </c>
-      <c r="W112">
-        <v>1.33</v>
-      </c>
-      <c r="X112">
-        <v>3.25</v>
-      </c>
-      <c r="Y112">
-        <v>2.38</v>
-      </c>
       <c r="Z112">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AA112">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AB112">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AC112">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AD112">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="AE112">
-        <v>3.78</v>
+        <v>4.55</v>
       </c>
       <c r="AF112">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH112">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AI112">
-        <v>4</v>
+        <v>4.32</v>
       </c>
       <c r="AJ112">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AK112">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AL112">
+        <v>1.73</v>
+      </c>
+      <c r="AM112">
+        <v>2</v>
+      </c>
+      <c r="AN112">
+        <v>1.1</v>
+      </c>
+      <c r="AO112">
+        <v>1.2</v>
+      </c>
+      <c r="AP112">
+        <v>2.6</v>
+      </c>
+      <c r="AQ112">
+        <v>2.6</v>
+      </c>
+      <c r="AR112">
+        <v>1.75</v>
+      </c>
+      <c r="AS112">
+        <v>2.71</v>
+      </c>
+      <c r="AT112">
         <v>1.67</v>
       </c>
-      <c r="AM112">
-        <v>2.1</v>
-      </c>
-      <c r="AN112">
-        <v>1.2</v>
-      </c>
-      <c r="AO112">
-        <v>1.25</v>
-      </c>
-      <c r="AP112">
-        <v>2</v>
-      </c>
-      <c r="AQ112">
-        <v>2.4</v>
-      </c>
-      <c r="AR112">
-        <v>1.33</v>
-      </c>
-      <c r="AS112">
-        <v>2</v>
-      </c>
-      <c r="AT112">
-        <v>1.75</v>
-      </c>
       <c r="AU112">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AV112">
-        <v>0.95</v>
+        <v>1.48</v>
       </c>
       <c r="AW112">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="AX112">
         <v>0</v>
@@ -22499,37 +22526,37 @@
         <v>0</v>
       </c>
       <c r="BA112">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="BB112">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BC112">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="BD112">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="BE112">
         <v>0</v>
       </c>
       <c r="BF112">
+        <v>12</v>
+      </c>
+      <c r="BG112">
+        <v>2</v>
+      </c>
+      <c r="BH112">
         <v>5</v>
       </c>
-      <c r="BG112">
-        <v>6</v>
-      </c>
-      <c r="BH112">
+      <c r="BI112">
+        <v>1</v>
+      </c>
+      <c r="BJ112">
+        <v>17</v>
+      </c>
+      <c r="BK112">
         <v>3</v>
-      </c>
-      <c r="BI112">
-        <v>8</v>
-      </c>
-      <c r="BJ112">
-        <v>8</v>
-      </c>
-      <c r="BK112">
-        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:63">
@@ -22537,7 +22564,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>5094112</v>
+        <v>5094117</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -22552,175 +22579,175 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H113" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M113">
         <v>1</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O113" t="s">
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="Q113">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R113">
         <v>3</v>
       </c>
       <c r="S113">
+        <v>11</v>
+      </c>
+      <c r="T113">
+        <v>2.15</v>
+      </c>
+      <c r="U113">
+        <v>2.38</v>
+      </c>
+      <c r="V113">
+        <v>4.2</v>
+      </c>
+      <c r="W113">
+        <v>1.29</v>
+      </c>
+      <c r="X113">
+        <v>3.5</v>
+      </c>
+      <c r="Y113">
+        <v>2.3</v>
+      </c>
+      <c r="Z113">
+        <v>1.57</v>
+      </c>
+      <c r="AA113">
+        <v>5</v>
+      </c>
+      <c r="AB113">
+        <v>1.14</v>
+      </c>
+      <c r="AC113">
+        <v>1.62</v>
+      </c>
+      <c r="AD113">
+        <v>3.9</v>
+      </c>
+      <c r="AE113">
+        <v>4.5</v>
+      </c>
+      <c r="AF113">
+        <v>1.03</v>
+      </c>
+      <c r="AG113">
+        <v>11</v>
+      </c>
+      <c r="AH113">
+        <v>1.2</v>
+      </c>
+      <c r="AI113">
+        <v>4.32</v>
+      </c>
+      <c r="AJ113">
+        <v>1.62</v>
+      </c>
+      <c r="AK113">
+        <v>2.2</v>
+      </c>
+      <c r="AL113">
+        <v>1.57</v>
+      </c>
+      <c r="AM113">
+        <v>2.33</v>
+      </c>
+      <c r="AN113">
+        <v>1.18</v>
+      </c>
+      <c r="AO113">
+        <v>1.22</v>
+      </c>
+      <c r="AP113">
+        <v>2.1</v>
+      </c>
+      <c r="AQ113">
+        <v>1.67</v>
+      </c>
+      <c r="AR113">
+        <v>0.8</v>
+      </c>
+      <c r="AS113">
+        <v>1.6</v>
+      </c>
+      <c r="AT113">
+        <v>0.67</v>
+      </c>
+      <c r="AU113">
+        <v>1.18</v>
+      </c>
+      <c r="AV113">
+        <v>1.41</v>
+      </c>
+      <c r="AW113">
+        <v>2.59</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>1.2</v>
+      </c>
+      <c r="BB113">
+        <v>1.38</v>
+      </c>
+      <c r="BC113">
+        <v>1.67</v>
+      </c>
+      <c r="BD113">
+        <v>2.12</v>
+      </c>
+      <c r="BE113">
+        <v>2.85</v>
+      </c>
+      <c r="BF113">
+        <v>9</v>
+      </c>
+      <c r="BG113">
         <v>6</v>
       </c>
-      <c r="T113">
-        <v>2.6</v>
-      </c>
-      <c r="U113">
-        <v>2.2</v>
-      </c>
-      <c r="V113">
-        <v>3.6</v>
-      </c>
-      <c r="W113">
-        <v>1.33</v>
-      </c>
-      <c r="X113">
-        <v>3.25</v>
-      </c>
-      <c r="Y113">
-        <v>2.5</v>
-      </c>
-      <c r="Z113">
-        <v>1.5</v>
-      </c>
-      <c r="AA113">
-        <v>6</v>
-      </c>
-      <c r="AB113">
-        <v>1.11</v>
-      </c>
-      <c r="AC113">
-        <v>2.14</v>
-      </c>
-      <c r="AD113">
-        <v>3.2</v>
-      </c>
-      <c r="AE113">
-        <v>2.79</v>
-      </c>
-      <c r="AF113">
-        <v>1.05</v>
-      </c>
-      <c r="AG113">
-        <v>9</v>
-      </c>
-      <c r="AH113">
-        <v>1.25</v>
-      </c>
-      <c r="AI113">
-        <v>3.75</v>
-      </c>
-      <c r="AJ113">
-        <v>1.86</v>
-      </c>
-      <c r="AK113">
-        <v>1.94</v>
-      </c>
-      <c r="AL113">
-        <v>1.67</v>
-      </c>
-      <c r="AM113">
-        <v>2.1</v>
-      </c>
-      <c r="AN113">
-        <v>1.3</v>
-      </c>
-      <c r="AO113">
-        <v>1.29</v>
-      </c>
-      <c r="AP113">
-        <v>1.73</v>
-      </c>
-      <c r="AQ113">
-        <v>0</v>
-      </c>
-      <c r="AR113">
-        <v>0.5</v>
-      </c>
-      <c r="AS113">
-        <v>0.33</v>
-      </c>
-      <c r="AT113">
-        <v>1</v>
-      </c>
-      <c r="AU113">
-        <v>2.18</v>
-      </c>
-      <c r="AV113">
-        <v>1.25</v>
-      </c>
-      <c r="AW113">
-        <v>3.43</v>
-      </c>
-      <c r="AX113">
-        <v>0</v>
-      </c>
-      <c r="AY113">
-        <v>0</v>
-      </c>
-      <c r="AZ113">
-        <v>0</v>
-      </c>
-      <c r="BA113">
-        <v>0</v>
-      </c>
-      <c r="BB113">
-        <v>1.46</v>
-      </c>
-      <c r="BC113">
-        <v>1.8</v>
-      </c>
-      <c r="BD113">
-        <v>2.32</v>
-      </c>
-      <c r="BE113">
-        <v>3.15</v>
-      </c>
-      <c r="BF113">
-        <v>5</v>
-      </c>
-      <c r="BG113">
-        <v>4</v>
-      </c>
       <c r="BH113">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BI113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ113">
         <v>19</v>
       </c>
       <c r="BK113">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:63">
@@ -22728,7 +22755,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>5094117</v>
+        <v>5094112</v>
       </c>
       <c r="C114" t="s">
         <v>63</v>
@@ -22743,175 +22770,175 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H114" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>1</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O114" t="s">
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="Q114">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R114">
         <v>3</v>
       </c>
       <c r="S114">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T114">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="U114">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V114">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="W114">
+        <v>1.33</v>
+      </c>
+      <c r="X114">
+        <v>3.25</v>
+      </c>
+      <c r="Y114">
+        <v>2.5</v>
+      </c>
+      <c r="Z114">
+        <v>1.5</v>
+      </c>
+      <c r="AA114">
+        <v>6</v>
+      </c>
+      <c r="AB114">
+        <v>1.11</v>
+      </c>
+      <c r="AC114">
+        <v>2.14</v>
+      </c>
+      <c r="AD114">
+        <v>3.2</v>
+      </c>
+      <c r="AE114">
+        <v>2.79</v>
+      </c>
+      <c r="AF114">
+        <v>1.05</v>
+      </c>
+      <c r="AG114">
+        <v>9</v>
+      </c>
+      <c r="AH114">
+        <v>1.25</v>
+      </c>
+      <c r="AI114">
+        <v>3.75</v>
+      </c>
+      <c r="AJ114">
+        <v>1.86</v>
+      </c>
+      <c r="AK114">
+        <v>1.94</v>
+      </c>
+      <c r="AL114">
+        <v>1.67</v>
+      </c>
+      <c r="AM114">
+        <v>2.1</v>
+      </c>
+      <c r="AN114">
+        <v>1.3</v>
+      </c>
+      <c r="AO114">
         <v>1.29</v>
       </c>
-      <c r="X114">
-        <v>3.5</v>
-      </c>
-      <c r="Y114">
-        <v>2.3</v>
-      </c>
-      <c r="Z114">
-        <v>1.57</v>
-      </c>
-      <c r="AA114">
+      <c r="AP114">
+        <v>1.73</v>
+      </c>
+      <c r="AQ114">
+        <v>0</v>
+      </c>
+      <c r="AR114">
+        <v>0.5</v>
+      </c>
+      <c r="AS114">
+        <v>0.33</v>
+      </c>
+      <c r="AT114">
+        <v>1</v>
+      </c>
+      <c r="AU114">
+        <v>2.18</v>
+      </c>
+      <c r="AV114">
+        <v>1.25</v>
+      </c>
+      <c r="AW114">
+        <v>3.43</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>0</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>1.46</v>
+      </c>
+      <c r="BC114">
+        <v>1.8</v>
+      </c>
+      <c r="BD114">
+        <v>2.32</v>
+      </c>
+      <c r="BE114">
+        <v>3.15</v>
+      </c>
+      <c r="BF114">
         <v>5</v>
       </c>
-      <c r="AB114">
-        <v>1.14</v>
-      </c>
-      <c r="AC114">
-        <v>1.62</v>
-      </c>
-      <c r="AD114">
-        <v>3.9</v>
-      </c>
-      <c r="AE114">
-        <v>4.5</v>
-      </c>
-      <c r="AF114">
-        <v>1.03</v>
-      </c>
-      <c r="AG114">
-        <v>11</v>
-      </c>
-      <c r="AH114">
-        <v>1.2</v>
-      </c>
-      <c r="AI114">
-        <v>4.32</v>
-      </c>
-      <c r="AJ114">
-        <v>1.62</v>
-      </c>
-      <c r="AK114">
-        <v>2.2</v>
-      </c>
-      <c r="AL114">
-        <v>1.57</v>
-      </c>
-      <c r="AM114">
-        <v>2.33</v>
-      </c>
-      <c r="AN114">
-        <v>1.18</v>
-      </c>
-      <c r="AO114">
-        <v>1.22</v>
-      </c>
-      <c r="AP114">
-        <v>2.1</v>
-      </c>
-      <c r="AQ114">
-        <v>1.67</v>
-      </c>
-      <c r="AR114">
-        <v>0.8</v>
-      </c>
-      <c r="AS114">
-        <v>1.6</v>
-      </c>
-      <c r="AT114">
-        <v>0.67</v>
-      </c>
-      <c r="AU114">
-        <v>1.18</v>
-      </c>
-      <c r="AV114">
-        <v>1.41</v>
-      </c>
-      <c r="AW114">
-        <v>2.59</v>
-      </c>
-      <c r="AX114">
-        <v>0</v>
-      </c>
-      <c r="AY114">
-        <v>0</v>
-      </c>
-      <c r="AZ114">
-        <v>0</v>
-      </c>
-      <c r="BA114">
-        <v>1.2</v>
-      </c>
-      <c r="BB114">
-        <v>1.38</v>
-      </c>
-      <c r="BC114">
-        <v>1.67</v>
-      </c>
-      <c r="BD114">
-        <v>2.12</v>
-      </c>
-      <c r="BE114">
-        <v>2.85</v>
-      </c>
-      <c r="BF114">
-        <v>9</v>
-      </c>
       <c r="BG114">
+        <v>4</v>
+      </c>
+      <c r="BH114">
+        <v>14</v>
+      </c>
+      <c r="BI114">
         <v>6</v>
-      </c>
-      <c r="BH114">
-        <v>10</v>
-      </c>
-      <c r="BI114">
-        <v>2</v>
       </c>
       <c r="BJ114">
         <v>19</v>
       </c>
       <c r="BK114">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:63">
@@ -23152,7 +23179,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23430,10 +23457,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT117">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23534,7 +23561,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23812,7 +23839,7 @@
         <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -23916,7 +23943,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24006,7 +24033,7 @@
         <v>1.25</v>
       </c>
       <c r="AT120">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24065,7 +24092,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>5094129</v>
+        <v>5094132</v>
       </c>
       <c r="C121" t="s">
         <v>63</v>
@@ -24080,175 +24107,175 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H121" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O121" t="s">
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="Q121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S121">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T121">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="U121">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V121">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="W121">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Y121">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Z121">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AA121">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="AB121">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC121">
-        <v>2.56</v>
+        <v>1.55</v>
       </c>
       <c r="AD121">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="AE121">
-        <v>2.28</v>
+        <v>4.85</v>
       </c>
       <c r="AF121">
         <v>1.04</v>
       </c>
       <c r="AG121">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="AH121">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AI121">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AJ121">
+        <v>1.97</v>
+      </c>
+      <c r="AK121">
+        <v>1.83</v>
+      </c>
+      <c r="AL121">
         <v>1.8</v>
       </c>
-      <c r="AK121">
-        <v>2</v>
-      </c>
-      <c r="AL121">
-        <v>1.7</v>
-      </c>
       <c r="AM121">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN121">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="AO121">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AP121">
-        <v>1.35</v>
+        <v>2.15</v>
       </c>
       <c r="AQ121">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR121">
+        <v>0.83</v>
+      </c>
+      <c r="AS121">
+        <v>2.6</v>
+      </c>
+      <c r="AT121">
+        <v>1</v>
+      </c>
+      <c r="AU121">
+        <v>1.65</v>
+      </c>
+      <c r="AV121">
+        <v>1.37</v>
+      </c>
+      <c r="AW121">
+        <v>3.02</v>
+      </c>
+      <c r="AX121">
+        <v>1.32</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>4.6</v>
+      </c>
+      <c r="BA121">
+        <v>1.32</v>
+      </c>
+      <c r="BB121">
         <v>1.5</v>
       </c>
-      <c r="AS121">
-        <v>0.83</v>
-      </c>
-      <c r="AT121">
-        <v>1.13</v>
-      </c>
-      <c r="AU121">
-        <v>1.45</v>
-      </c>
-      <c r="AV121">
-        <v>1.38</v>
-      </c>
-      <c r="AW121">
-        <v>2.83</v>
-      </c>
-      <c r="AX121">
-        <v>0</v>
-      </c>
-      <c r="AY121">
-        <v>0</v>
-      </c>
-      <c r="AZ121">
-        <v>0</v>
-      </c>
-      <c r="BA121">
-        <v>0</v>
-      </c>
-      <c r="BB121">
-        <v>1.65</v>
-      </c>
       <c r="BC121">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="BD121">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BE121">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BF121">
         <v>6</v>
       </c>
       <c r="BG121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH121">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI121">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ121">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK121">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:63">
@@ -24256,7 +24283,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>5094132</v>
+        <v>5094129</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
@@ -24271,175 +24298,175 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H122" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O122" t="s">
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="Q122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S122">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T122">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="U122">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V122">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="W122">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X122">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y122">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Z122">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AA122">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="AB122">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC122">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="AD122">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AE122">
-        <v>4.85</v>
+        <v>2.28</v>
       </c>
       <c r="AF122">
         <v>1.04</v>
       </c>
       <c r="AG122">
-        <v>12.5</v>
+        <v>12.25</v>
       </c>
       <c r="AH122">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AI122">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AJ122">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="AK122">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AL122">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AM122">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN122">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="AO122">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AP122">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="AQ122">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR122">
+        <v>1.5</v>
+      </c>
+      <c r="AS122">
         <v>0.83</v>
       </c>
-      <c r="AS122">
-        <v>2.5</v>
-      </c>
       <c r="AT122">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU122">
+        <v>1.45</v>
+      </c>
+      <c r="AV122">
+        <v>1.38</v>
+      </c>
+      <c r="AW122">
+        <v>2.83</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
         <v>1.65</v>
       </c>
-      <c r="AV122">
-        <v>1.37</v>
-      </c>
-      <c r="AW122">
-        <v>3.02</v>
-      </c>
-      <c r="AX122">
-        <v>1.32</v>
-      </c>
-      <c r="AY122">
-        <v>0</v>
-      </c>
-      <c r="AZ122">
-        <v>4.6</v>
-      </c>
-      <c r="BA122">
-        <v>1.32</v>
-      </c>
-      <c r="BB122">
-        <v>1.5</v>
-      </c>
       <c r="BC122">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="BD122">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BE122">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="BF122">
         <v>6</v>
       </c>
       <c r="BG122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH122">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI122">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ122">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK122">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:63">
@@ -24576,10 +24603,10 @@
         <v>0.75</v>
       </c>
       <c r="AS123">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT123">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU123">
         <v>1.53</v>
@@ -24871,7 +24898,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -24961,7 +24988,7 @@
         <v>1.17</v>
       </c>
       <c r="AT125">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU125">
         <v>1.48</v>
@@ -25062,7 +25089,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25340,10 +25367,10 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT127">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU127">
         <v>1.44</v>
@@ -25444,7 +25471,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25534,7 +25561,7 @@
         <v>2.71</v>
       </c>
       <c r="AT128">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -25635,7 +25662,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25826,7 +25853,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -25913,10 +25940,10 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT130">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU130">
         <v>1.43</v>
@@ -26017,7 +26044,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26399,7 +26426,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26489,7 +26516,7 @@
         <v>0.83</v>
       </c>
       <c r="AT133">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26781,7 +26808,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -26868,7 +26895,7 @@
         <v>1.29</v>
       </c>
       <c r="AS135">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT135">
         <v>1.13</v>
@@ -26972,7 +26999,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27250,7 +27277,7 @@
         <v>1.17</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -27444,7 +27471,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU138">
         <v>1.44</v>
@@ -27545,7 +27572,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27687,6 +27714,2107 @@
       </c>
       <c r="BK139">
         <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5094146</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45077.95833333334</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" t="s">
+        <v>83</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>95</v>
+      </c>
+      <c r="P140" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q140">
+        <v>8</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>8</v>
+      </c>
+      <c r="T140">
+        <v>2.45</v>
+      </c>
+      <c r="U140">
+        <v>2.2</v>
+      </c>
+      <c r="V140">
+        <v>4.1</v>
+      </c>
+      <c r="W140">
+        <v>1.35</v>
+      </c>
+      <c r="X140">
+        <v>2.9</v>
+      </c>
+      <c r="Y140">
+        <v>2.65</v>
+      </c>
+      <c r="Z140">
+        <v>1.42</v>
+      </c>
+      <c r="AA140">
+        <v>6</v>
+      </c>
+      <c r="AB140">
+        <v>1.1</v>
+      </c>
+      <c r="AC140">
+        <v>1.94</v>
+      </c>
+      <c r="AD140">
+        <v>3.55</v>
+      </c>
+      <c r="AE140">
+        <v>3.55</v>
+      </c>
+      <c r="AF140">
+        <v>1.04</v>
+      </c>
+      <c r="AG140">
+        <v>13.25</v>
+      </c>
+      <c r="AH140">
+        <v>1.25</v>
+      </c>
+      <c r="AI140">
+        <v>3.6</v>
+      </c>
+      <c r="AJ140">
+        <v>1.69</v>
+      </c>
+      <c r="AK140">
+        <v>1.82</v>
+      </c>
+      <c r="AL140">
+        <v>1.7</v>
+      </c>
+      <c r="AM140">
+        <v>2.05</v>
+      </c>
+      <c r="AN140">
+        <v>1.25</v>
+      </c>
+      <c r="AO140">
+        <v>1.24</v>
+      </c>
+      <c r="AP140">
+        <v>1.82</v>
+      </c>
+      <c r="AQ140">
+        <v>1.33</v>
+      </c>
+      <c r="AR140">
+        <v>1</v>
+      </c>
+      <c r="AS140">
+        <v>1.5</v>
+      </c>
+      <c r="AT140">
+        <v>1</v>
+      </c>
+      <c r="AU140">
+        <v>0.97</v>
+      </c>
+      <c r="AV140">
+        <v>1.26</v>
+      </c>
+      <c r="AW140">
+        <v>2.23</v>
+      </c>
+      <c r="AX140">
+        <v>1.62</v>
+      </c>
+      <c r="AY140">
+        <v>6.5</v>
+      </c>
+      <c r="AZ140">
+        <v>3.03</v>
+      </c>
+      <c r="BA140">
+        <v>1.38</v>
+      </c>
+      <c r="BB140">
+        <v>1.72</v>
+      </c>
+      <c r="BC140">
+        <v>2.15</v>
+      </c>
+      <c r="BD140">
+        <v>3.05</v>
+      </c>
+      <c r="BE140">
+        <v>4.1</v>
+      </c>
+      <c r="BF140">
+        <v>7</v>
+      </c>
+      <c r="BG140">
+        <v>3</v>
+      </c>
+      <c r="BH140">
+        <v>11</v>
+      </c>
+      <c r="BI140">
+        <v>2</v>
+      </c>
+      <c r="BJ140">
+        <v>18</v>
+      </c>
+      <c r="BK140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5094147</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45079.85416666666</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>68</v>
+      </c>
+      <c r="H141" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>95</v>
+      </c>
+      <c r="P141" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>8</v>
+      </c>
+      <c r="S141">
+        <v>11</v>
+      </c>
+      <c r="T141">
+        <v>2.36</v>
+      </c>
+      <c r="U141">
+        <v>2.18</v>
+      </c>
+      <c r="V141">
+        <v>4.5</v>
+      </c>
+      <c r="W141">
+        <v>1.35</v>
+      </c>
+      <c r="X141">
+        <v>2.94</v>
+      </c>
+      <c r="Y141">
+        <v>2.62</v>
+      </c>
+      <c r="Z141">
+        <v>1.43</v>
+      </c>
+      <c r="AA141">
+        <v>6.35</v>
+      </c>
+      <c r="AB141">
+        <v>1.08</v>
+      </c>
+      <c r="AC141">
+        <v>1.74</v>
+      </c>
+      <c r="AD141">
+        <v>3.7</v>
+      </c>
+      <c r="AE141">
+        <v>3.92</v>
+      </c>
+      <c r="AF141">
+        <v>1.04</v>
+      </c>
+      <c r="AG141">
+        <v>13.25</v>
+      </c>
+      <c r="AH141">
+        <v>1.25</v>
+      </c>
+      <c r="AI141">
+        <v>3.6</v>
+      </c>
+      <c r="AJ141">
+        <v>1.77</v>
+      </c>
+      <c r="AK141">
+        <v>1.94</v>
+      </c>
+      <c r="AL141">
+        <v>1.69</v>
+      </c>
+      <c r="AM141">
+        <v>2.11</v>
+      </c>
+      <c r="AN141">
+        <v>1.21</v>
+      </c>
+      <c r="AO141">
+        <v>1.24</v>
+      </c>
+      <c r="AP141">
+        <v>1.88</v>
+      </c>
+      <c r="AQ141">
+        <v>1.57</v>
+      </c>
+      <c r="AR141">
+        <v>1.4</v>
+      </c>
+      <c r="AS141">
+        <v>1.38</v>
+      </c>
+      <c r="AT141">
+        <v>1.67</v>
+      </c>
+      <c r="AU141">
+        <v>1.27</v>
+      </c>
+      <c r="AV141">
+        <v>1.22</v>
+      </c>
+      <c r="AW141">
+        <v>2.49</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>1.4</v>
+      </c>
+      <c r="BB141">
+        <v>1.9</v>
+      </c>
+      <c r="BC141">
+        <v>2.22</v>
+      </c>
+      <c r="BD141">
+        <v>3</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>2</v>
+      </c>
+      <c r="BG141">
+        <v>6</v>
+      </c>
+      <c r="BH141">
+        <v>4</v>
+      </c>
+      <c r="BI141">
+        <v>4</v>
+      </c>
+      <c r="BJ141">
+        <v>6</v>
+      </c>
+      <c r="BK141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5094148</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45079.91666666666</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s">
+        <v>85</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>95</v>
+      </c>
+      <c r="P142" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q142">
+        <v>10</v>
+      </c>
+      <c r="R142">
+        <v>6</v>
+      </c>
+      <c r="S142">
+        <v>16</v>
+      </c>
+      <c r="T142">
+        <v>2.56</v>
+      </c>
+      <c r="U142">
+        <v>2.15</v>
+      </c>
+      <c r="V142">
+        <v>4.02</v>
+      </c>
+      <c r="W142">
+        <v>1.35</v>
+      </c>
+      <c r="X142">
+        <v>2.94</v>
+      </c>
+      <c r="Y142">
+        <v>2.66</v>
+      </c>
+      <c r="Z142">
+        <v>1.42</v>
+      </c>
+      <c r="AA142">
+        <v>6.45</v>
+      </c>
+      <c r="AB142">
+        <v>1.08</v>
+      </c>
+      <c r="AC142">
+        <v>2.2</v>
+      </c>
+      <c r="AD142">
+        <v>3.4</v>
+      </c>
+      <c r="AE142">
+        <v>2.85</v>
+      </c>
+      <c r="AF142">
+        <v>1.04</v>
+      </c>
+      <c r="AG142">
+        <v>13</v>
+      </c>
+      <c r="AH142">
+        <v>1.24</v>
+      </c>
+      <c r="AI142">
+        <v>3.62</v>
+      </c>
+      <c r="AJ142">
+        <v>1.81</v>
+      </c>
+      <c r="AK142">
+        <v>1.89</v>
+      </c>
+      <c r="AL142">
+        <v>1.67</v>
+      </c>
+      <c r="AM142">
+        <v>2.15</v>
+      </c>
+      <c r="AN142">
+        <v>1.28</v>
+      </c>
+      <c r="AO142">
+        <v>1.26</v>
+      </c>
+      <c r="AP142">
+        <v>1.71</v>
+      </c>
+      <c r="AQ142">
+        <v>1.75</v>
+      </c>
+      <c r="AR142">
+        <v>1.17</v>
+      </c>
+      <c r="AS142">
+        <v>1.4</v>
+      </c>
+      <c r="AT142">
+        <v>1.43</v>
+      </c>
+      <c r="AU142">
+        <v>1.55</v>
+      </c>
+      <c r="AV142">
+        <v>1.59</v>
+      </c>
+      <c r="AW142">
+        <v>3.14</v>
+      </c>
+      <c r="AX142">
+        <v>1.74</v>
+      </c>
+      <c r="AY142">
+        <v>7.5</v>
+      </c>
+      <c r="AZ142">
+        <v>2.62</v>
+      </c>
+      <c r="BA142">
+        <v>1.21</v>
+      </c>
+      <c r="BB142">
+        <v>1.4</v>
+      </c>
+      <c r="BC142">
+        <v>1.85</v>
+      </c>
+      <c r="BD142">
+        <v>2.16</v>
+      </c>
+      <c r="BE142">
+        <v>2.85</v>
+      </c>
+      <c r="BF142">
+        <v>3</v>
+      </c>
+      <c r="BG142">
+        <v>6</v>
+      </c>
+      <c r="BH142">
+        <v>6</v>
+      </c>
+      <c r="BI142">
+        <v>6</v>
+      </c>
+      <c r="BJ142">
+        <v>9</v>
+      </c>
+      <c r="BK142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5094149</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45080.83333333334</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" t="s">
+        <v>81</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>95</v>
+      </c>
+      <c r="P143" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>7</v>
+      </c>
+      <c r="S143">
+        <v>10</v>
+      </c>
+      <c r="T143">
+        <v>4</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>2.38</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>3</v>
+      </c>
+      <c r="Y143">
+        <v>2.5</v>
+      </c>
+      <c r="Z143">
+        <v>1.5</v>
+      </c>
+      <c r="AA143">
+        <v>6</v>
+      </c>
+      <c r="AB143">
+        <v>1.11</v>
+      </c>
+      <c r="AC143">
+        <v>3.7</v>
+      </c>
+      <c r="AD143">
+        <v>3.3</v>
+      </c>
+      <c r="AE143">
+        <v>1.83</v>
+      </c>
+      <c r="AF143">
+        <v>1.05</v>
+      </c>
+      <c r="AG143">
+        <v>9</v>
+      </c>
+      <c r="AH143">
+        <v>1.29</v>
+      </c>
+      <c r="AI143">
+        <v>3.5</v>
+      </c>
+      <c r="AJ143">
+        <v>1.75</v>
+      </c>
+      <c r="AK143">
+        <v>1.95</v>
+      </c>
+      <c r="AL143">
+        <v>1.73</v>
+      </c>
+      <c r="AM143">
+        <v>2</v>
+      </c>
+      <c r="AN143">
+        <v>1.83</v>
+      </c>
+      <c r="AO143">
+        <v>1.29</v>
+      </c>
+      <c r="AP143">
+        <v>1.25</v>
+      </c>
+      <c r="AQ143">
+        <v>0.8</v>
+      </c>
+      <c r="AR143">
+        <v>1.83</v>
+      </c>
+      <c r="AS143">
+        <v>0.83</v>
+      </c>
+      <c r="AT143">
+        <v>1.71</v>
+      </c>
+      <c r="AU143">
+        <v>1.53</v>
+      </c>
+      <c r="AV143">
+        <v>1.14</v>
+      </c>
+      <c r="AW143">
+        <v>2.67</v>
+      </c>
+      <c r="AX143">
+        <v>2.48</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>1.82</v>
+      </c>
+      <c r="BA143">
+        <v>1.22</v>
+      </c>
+      <c r="BB143">
+        <v>1.35</v>
+      </c>
+      <c r="BC143">
+        <v>1.62</v>
+      </c>
+      <c r="BD143">
+        <v>2.14</v>
+      </c>
+      <c r="BE143">
+        <v>2.65</v>
+      </c>
+      <c r="BF143">
+        <v>4</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>1</v>
+      </c>
+      <c r="BI143">
+        <v>8</v>
+      </c>
+      <c r="BJ143">
+        <v>5</v>
+      </c>
+      <c r="BK143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5094154</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45080.83333333334</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>79</v>
+      </c>
+      <c r="H144" t="s">
+        <v>86</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>182</v>
+      </c>
+      <c r="P144" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <v>5</v>
+      </c>
+      <c r="S144">
+        <v>6</v>
+      </c>
+      <c r="T144">
+        <v>2.21</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>4.75</v>
+      </c>
+      <c r="W144">
+        <v>1.35</v>
+      </c>
+      <c r="X144">
+        <v>2.9</v>
+      </c>
+      <c r="Y144">
+        <v>2.65</v>
+      </c>
+      <c r="Z144">
+        <v>1.42</v>
+      </c>
+      <c r="AA144">
+        <v>6</v>
+      </c>
+      <c r="AB144">
+        <v>1.1</v>
+      </c>
+      <c r="AC144">
+        <v>1.73</v>
+      </c>
+      <c r="AD144">
+        <v>3.4</v>
+      </c>
+      <c r="AE144">
+        <v>4.2</v>
+      </c>
+      <c r="AF144">
+        <v>1.04</v>
+      </c>
+      <c r="AG144">
+        <v>13.25</v>
+      </c>
+      <c r="AH144">
+        <v>1.25</v>
+      </c>
+      <c r="AI144">
+        <v>3.6</v>
+      </c>
+      <c r="AJ144">
+        <v>1.75</v>
+      </c>
+      <c r="AK144">
+        <v>1.95</v>
+      </c>
+      <c r="AL144">
+        <v>1.73</v>
+      </c>
+      <c r="AM144">
+        <v>1.95</v>
+      </c>
+      <c r="AN144">
+        <v>1.17</v>
+      </c>
+      <c r="AO144">
+        <v>1.23</v>
+      </c>
+      <c r="AP144">
+        <v>2</v>
+      </c>
+      <c r="AQ144">
+        <v>2.5</v>
+      </c>
+      <c r="AR144">
+        <v>1.33</v>
+      </c>
+      <c r="AS144">
+        <v>2.6</v>
+      </c>
+      <c r="AT144">
+        <v>1.14</v>
+      </c>
+      <c r="AU144">
+        <v>1.68</v>
+      </c>
+      <c r="AV144">
+        <v>1.19</v>
+      </c>
+      <c r="AW144">
+        <v>2.87</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>1.28</v>
+      </c>
+      <c r="BB144">
+        <v>1.55</v>
+      </c>
+      <c r="BC144">
+        <v>1.88</v>
+      </c>
+      <c r="BD144">
+        <v>2.37</v>
+      </c>
+      <c r="BE144">
+        <v>3.15</v>
+      </c>
+      <c r="BF144">
+        <v>3</v>
+      </c>
+      <c r="BG144">
+        <v>5</v>
+      </c>
+      <c r="BH144">
+        <v>3</v>
+      </c>
+      <c r="BI144">
+        <v>5</v>
+      </c>
+      <c r="BJ144">
+        <v>6</v>
+      </c>
+      <c r="BK144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5094156</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45080.85416666666</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>67</v>
+      </c>
+      <c r="H145" t="s">
+        <v>77</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>183</v>
+      </c>
+      <c r="P145" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>4</v>
+      </c>
+      <c r="S145">
+        <v>6</v>
+      </c>
+      <c r="T145">
+        <v>2.8</v>
+      </c>
+      <c r="U145">
+        <v>2.15</v>
+      </c>
+      <c r="V145">
+        <v>3.3</v>
+      </c>
+      <c r="W145">
+        <v>1.36</v>
+      </c>
+      <c r="X145">
+        <v>3</v>
+      </c>
+      <c r="Y145">
+        <v>2.62</v>
+      </c>
+      <c r="Z145">
+        <v>1.44</v>
+      </c>
+      <c r="AA145">
+        <v>6</v>
+      </c>
+      <c r="AB145">
+        <v>1.11</v>
+      </c>
+      <c r="AC145">
+        <v>2.28</v>
+      </c>
+      <c r="AD145">
+        <v>3.42</v>
+      </c>
+      <c r="AE145">
+        <v>2.87</v>
+      </c>
+      <c r="AF145">
+        <v>1.05</v>
+      </c>
+      <c r="AG145">
+        <v>9</v>
+      </c>
+      <c r="AH145">
+        <v>1.29</v>
+      </c>
+      <c r="AI145">
+        <v>3.5</v>
+      </c>
+      <c r="AJ145">
+        <v>1.82</v>
+      </c>
+      <c r="AK145">
+        <v>1.96</v>
+      </c>
+      <c r="AL145">
+        <v>1.67</v>
+      </c>
+      <c r="AM145">
+        <v>2.1</v>
+      </c>
+      <c r="AN145">
+        <v>1.36</v>
+      </c>
+      <c r="AO145">
+        <v>1.3</v>
+      </c>
+      <c r="AP145">
+        <v>1.57</v>
+      </c>
+      <c r="AQ145">
+        <v>1.86</v>
+      </c>
+      <c r="AR145">
+        <v>1.6</v>
+      </c>
+      <c r="AS145">
+        <v>1.75</v>
+      </c>
+      <c r="AT145">
+        <v>1.5</v>
+      </c>
+      <c r="AU145">
+        <v>1.46</v>
+      </c>
+      <c r="AV145">
+        <v>1.65</v>
+      </c>
+      <c r="AW145">
+        <v>3.11</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>1.29</v>
+      </c>
+      <c r="BB145">
+        <v>1.61</v>
+      </c>
+      <c r="BC145">
+        <v>2.03</v>
+      </c>
+      <c r="BD145">
+        <v>2.7</v>
+      </c>
+      <c r="BE145">
+        <v>3.81</v>
+      </c>
+      <c r="BF145">
+        <v>3</v>
+      </c>
+      <c r="BG145">
+        <v>4</v>
+      </c>
+      <c r="BH145">
+        <v>7</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>10</v>
+      </c>
+      <c r="BK145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5094150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45080.89583333334</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>65</v>
+      </c>
+      <c r="H146" t="s">
+        <v>66</v>
+      </c>
+      <c r="I146">
+        <v>3</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>4</v>
+      </c>
+      <c r="L146">
+        <v>5</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>6</v>
+      </c>
+      <c r="O146" t="s">
+        <v>184</v>
+      </c>
+      <c r="P146" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q146">
+        <v>7</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>11</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>2.04</v>
+      </c>
+      <c r="AD146">
+        <v>3.5</v>
+      </c>
+      <c r="AE146">
+        <v>3.3</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>1.82</v>
+      </c>
+      <c r="AK146">
+        <v>1.96</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>0</v>
+      </c>
+      <c r="AO146">
+        <v>0</v>
+      </c>
+      <c r="AP146">
+        <v>0</v>
+      </c>
+      <c r="AQ146">
+        <v>1</v>
+      </c>
+      <c r="AR146">
+        <v>0.5</v>
+      </c>
+      <c r="AS146">
+        <v>1.33</v>
+      </c>
+      <c r="AT146">
+        <v>0.4</v>
+      </c>
+      <c r="AU146">
+        <v>1.81</v>
+      </c>
+      <c r="AV146">
+        <v>1.08</v>
+      </c>
+      <c r="AW146">
+        <v>2.89</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>9</v>
+      </c>
+      <c r="BG146">
+        <v>5</v>
+      </c>
+      <c r="BH146">
+        <v>1</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>10</v>
+      </c>
+      <c r="BK146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5094155</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45080.91666666666</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>70</v>
+      </c>
+      <c r="H147" t="s">
+        <v>73</v>
+      </c>
+      <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147" t="s">
+        <v>185</v>
+      </c>
+      <c r="P147" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q147">
+        <v>3</v>
+      </c>
+      <c r="R147">
+        <v>11</v>
+      </c>
+      <c r="S147">
+        <v>14</v>
+      </c>
+      <c r="T147">
+        <v>2.6</v>
+      </c>
+      <c r="U147">
+        <v>2.15</v>
+      </c>
+      <c r="V147">
+        <v>3.75</v>
+      </c>
+      <c r="W147">
+        <v>1.38</v>
+      </c>
+      <c r="X147">
+        <v>2.85</v>
+      </c>
+      <c r="Y147">
+        <v>2.65</v>
+      </c>
+      <c r="Z147">
+        <v>1.42</v>
+      </c>
+      <c r="AA147">
+        <v>6</v>
+      </c>
+      <c r="AB147">
+        <v>1.1</v>
+      </c>
+      <c r="AC147">
+        <v>2</v>
+      </c>
+      <c r="AD147">
+        <v>3.25</v>
+      </c>
+      <c r="AE147">
+        <v>3.25</v>
+      </c>
+      <c r="AF147">
+        <v>1.04</v>
+      </c>
+      <c r="AG147">
+        <v>13.25</v>
+      </c>
+      <c r="AH147">
+        <v>1.25</v>
+      </c>
+      <c r="AI147">
+        <v>3.6</v>
+      </c>
+      <c r="AJ147">
+        <v>1.75</v>
+      </c>
+      <c r="AK147">
+        <v>1.95</v>
+      </c>
+      <c r="AL147">
+        <v>1.68</v>
+      </c>
+      <c r="AM147">
+        <v>2.05</v>
+      </c>
+      <c r="AN147">
+        <v>1.25</v>
+      </c>
+      <c r="AO147">
+        <v>1.22</v>
+      </c>
+      <c r="AP147">
+        <v>1.72</v>
+      </c>
+      <c r="AQ147">
+        <v>2</v>
+      </c>
+      <c r="AR147">
+        <v>1.33</v>
+      </c>
+      <c r="AS147">
+        <v>1.86</v>
+      </c>
+      <c r="AT147">
+        <v>1.29</v>
+      </c>
+      <c r="AU147">
+        <v>1.73</v>
+      </c>
+      <c r="AV147">
+        <v>1.36</v>
+      </c>
+      <c r="AW147">
+        <v>3.09</v>
+      </c>
+      <c r="AX147">
+        <v>1.62</v>
+      </c>
+      <c r="AY147">
+        <v>7.1</v>
+      </c>
+      <c r="AZ147">
+        <v>2.93</v>
+      </c>
+      <c r="BA147">
+        <v>1.25</v>
+      </c>
+      <c r="BB147">
+        <v>1.47</v>
+      </c>
+      <c r="BC147">
+        <v>1.95</v>
+      </c>
+      <c r="BD147">
+        <v>2.33</v>
+      </c>
+      <c r="BE147">
+        <v>3.24</v>
+      </c>
+      <c r="BF147">
+        <v>4</v>
+      </c>
+      <c r="BG147">
+        <v>9</v>
+      </c>
+      <c r="BH147">
+        <v>4</v>
+      </c>
+      <c r="BI147">
+        <v>3</v>
+      </c>
+      <c r="BJ147">
+        <v>8</v>
+      </c>
+      <c r="BK147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5094152</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45080.91666666666</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>87</v>
+      </c>
+      <c r="H148" t="s">
+        <v>71</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>95</v>
+      </c>
+      <c r="P148" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>5</v>
+      </c>
+      <c r="S148">
+        <v>8</v>
+      </c>
+      <c r="T148">
+        <v>2.8</v>
+      </c>
+      <c r="U148">
+        <v>2.15</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.38</v>
+      </c>
+      <c r="X148">
+        <v>2.9</v>
+      </c>
+      <c r="Y148">
+        <v>2.65</v>
+      </c>
+      <c r="Z148">
+        <v>1.42</v>
+      </c>
+      <c r="AA148">
+        <v>6</v>
+      </c>
+      <c r="AB148">
+        <v>1.1</v>
+      </c>
+      <c r="AC148">
+        <v>2.15</v>
+      </c>
+      <c r="AD148">
+        <v>3.2</v>
+      </c>
+      <c r="AE148">
+        <v>2.9</v>
+      </c>
+      <c r="AF148">
+        <v>1.04</v>
+      </c>
+      <c r="AG148">
+        <v>13</v>
+      </c>
+      <c r="AH148">
+        <v>1.24</v>
+      </c>
+      <c r="AI148">
+        <v>3.62</v>
+      </c>
+      <c r="AJ148">
+        <v>1.75</v>
+      </c>
+      <c r="AK148">
+        <v>1.95</v>
+      </c>
+      <c r="AL148">
+        <v>1.66</v>
+      </c>
+      <c r="AM148">
+        <v>2.15</v>
+      </c>
+      <c r="AN148">
+        <v>1.33</v>
+      </c>
+      <c r="AO148">
+        <v>1.25</v>
+      </c>
+      <c r="AP148">
+        <v>1.53</v>
+      </c>
+      <c r="AQ148">
+        <v>2.33</v>
+      </c>
+      <c r="AR148">
+        <v>2.6</v>
+      </c>
+      <c r="AS148">
+        <v>1.75</v>
+      </c>
+      <c r="AT148">
+        <v>2.67</v>
+      </c>
+      <c r="AU148">
+        <v>1.31</v>
+      </c>
+      <c r="AV148">
+        <v>1.41</v>
+      </c>
+      <c r="AW148">
+        <v>2.72</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>1.5</v>
+      </c>
+      <c r="BB148">
+        <v>2</v>
+      </c>
+      <c r="BC148">
+        <v>2.28</v>
+      </c>
+      <c r="BD148">
+        <v>3.57</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>3</v>
+      </c>
+      <c r="BG148">
+        <v>3</v>
+      </c>
+      <c r="BH148">
+        <v>1</v>
+      </c>
+      <c r="BI148">
+        <v>10</v>
+      </c>
+      <c r="BJ148">
+        <v>4</v>
+      </c>
+      <c r="BK148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5094153</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45080.95833333334</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>74</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>186</v>
+      </c>
+      <c r="P149" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>6</v>
+      </c>
+      <c r="T149">
+        <v>2.65</v>
+      </c>
+      <c r="U149">
+        <v>2.15</v>
+      </c>
+      <c r="V149">
+        <v>3.75</v>
+      </c>
+      <c r="W149">
+        <v>1.38</v>
+      </c>
+      <c r="X149">
+        <v>2.85</v>
+      </c>
+      <c r="Y149">
+        <v>2.65</v>
+      </c>
+      <c r="Z149">
+        <v>1.42</v>
+      </c>
+      <c r="AA149">
+        <v>6</v>
+      </c>
+      <c r="AB149">
+        <v>1.1</v>
+      </c>
+      <c r="AC149">
+        <v>2</v>
+      </c>
+      <c r="AD149">
+        <v>3.25</v>
+      </c>
+      <c r="AE149">
+        <v>3.25</v>
+      </c>
+      <c r="AF149">
+        <v>1.04</v>
+      </c>
+      <c r="AG149">
+        <v>13.25</v>
+      </c>
+      <c r="AH149">
+        <v>1.25</v>
+      </c>
+      <c r="AI149">
+        <v>3.6</v>
+      </c>
+      <c r="AJ149">
+        <v>1.75</v>
+      </c>
+      <c r="AK149">
+        <v>1.95</v>
+      </c>
+      <c r="AL149">
+        <v>1.68</v>
+      </c>
+      <c r="AM149">
+        <v>2.1</v>
+      </c>
+      <c r="AN149">
+        <v>1.32</v>
+      </c>
+      <c r="AO149">
+        <v>1.25</v>
+      </c>
+      <c r="AP149">
+        <v>1.7</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>1.75</v>
+      </c>
+      <c r="AS149">
+        <v>1.22</v>
+      </c>
+      <c r="AT149">
+        <v>1.4</v>
+      </c>
+      <c r="AU149">
+        <v>1.48</v>
+      </c>
+      <c r="AV149">
+        <v>1.12</v>
+      </c>
+      <c r="AW149">
+        <v>2.6</v>
+      </c>
+      <c r="AX149">
+        <v>1.78</v>
+      </c>
+      <c r="AY149">
+        <v>6.6</v>
+      </c>
+      <c r="AZ149">
+        <v>2.58</v>
+      </c>
+      <c r="BA149">
+        <v>1.38</v>
+      </c>
+      <c r="BB149">
+        <v>1.88</v>
+      </c>
+      <c r="BC149">
+        <v>2.17</v>
+      </c>
+      <c r="BD149">
+        <v>2.85</v>
+      </c>
+      <c r="BE149">
+        <v>4.1</v>
+      </c>
+      <c r="BF149">
+        <v>6</v>
+      </c>
+      <c r="BG149">
+        <v>4</v>
+      </c>
+      <c r="BH149">
+        <v>1</v>
+      </c>
+      <c r="BI149">
+        <v>1</v>
+      </c>
+      <c r="BJ149">
+        <v>7</v>
+      </c>
+      <c r="BK149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5094151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45080.95833333334</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" t="s">
+        <v>78</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>187</v>
+      </c>
+      <c r="P150" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q150">
+        <v>6</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+      <c r="S150">
+        <v>9</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>2.2</v>
+      </c>
+      <c r="V150">
+        <v>3.75</v>
+      </c>
+      <c r="W150">
+        <v>1.35</v>
+      </c>
+      <c r="X150">
+        <v>2.9</v>
+      </c>
+      <c r="Y150">
+        <v>2.65</v>
+      </c>
+      <c r="Z150">
+        <v>1.42</v>
+      </c>
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>1.1</v>
+      </c>
+      <c r="AC150">
+        <v>1.83</v>
+      </c>
+      <c r="AD150">
+        <v>3.3</v>
+      </c>
+      <c r="AE150">
+        <v>3.7</v>
+      </c>
+      <c r="AF150">
+        <v>1.04</v>
+      </c>
+      <c r="AG150">
+        <v>13.25</v>
+      </c>
+      <c r="AH150">
+        <v>1.25</v>
+      </c>
+      <c r="AI150">
+        <v>3.6</v>
+      </c>
+      <c r="AJ150">
+        <v>1.75</v>
+      </c>
+      <c r="AK150">
+        <v>1.95</v>
+      </c>
+      <c r="AL150">
+        <v>1.72</v>
+      </c>
+      <c r="AM150">
+        <v>2.05</v>
+      </c>
+      <c r="AN150">
+        <v>1.22</v>
+      </c>
+      <c r="AO150">
+        <v>1.22</v>
+      </c>
+      <c r="AP150">
+        <v>1.72</v>
+      </c>
+      <c r="AQ150">
+        <v>1.29</v>
+      </c>
+      <c r="AR150">
+        <v>0.6</v>
+      </c>
+      <c r="AS150">
+        <v>1.5</v>
+      </c>
+      <c r="AT150">
+        <v>0.5</v>
+      </c>
+      <c r="AU150">
+        <v>1.29</v>
+      </c>
+      <c r="AV150">
+        <v>1.38</v>
+      </c>
+      <c r="AW150">
+        <v>2.67</v>
+      </c>
+      <c r="AX150">
+        <v>1.62</v>
+      </c>
+      <c r="AY150">
+        <v>6.5</v>
+      </c>
+      <c r="AZ150">
+        <v>3.03</v>
+      </c>
+      <c r="BA150">
+        <v>1.35</v>
+      </c>
+      <c r="BB150">
+        <v>1.63</v>
+      </c>
+      <c r="BC150">
+        <v>2.07</v>
+      </c>
+      <c r="BD150">
+        <v>2.75</v>
+      </c>
+      <c r="BE150">
+        <v>3.9</v>
+      </c>
+      <c r="BF150">
+        <v>9</v>
+      </c>
+      <c r="BG150">
+        <v>3</v>
+      </c>
+      <c r="BH150">
+        <v>8</v>
+      </c>
+      <c r="BI150">
+        <v>5</v>
+      </c>
+      <c r="BJ150">
+        <v>17</v>
+      </c>
+      <c r="BK150">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1161,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>1.14</v>
@@ -3023,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
         <v>1.4</v>
@@ -10090,7 +10090,7 @@
         <v>1.8</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10851,7 +10851,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
         <v>0.67</v>
@@ -12573,7 +12573,7 @@
         <v>1.25</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU60">
         <v>1.3</v>
@@ -14480,7 +14480,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT70">
         <v>1.71</v>
@@ -15629,7 +15629,7 @@
         <v>2.71</v>
       </c>
       <c r="AT76">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU76">
         <v>1.3</v>
@@ -16963,7 +16963,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -21356,7 +21356,7 @@
         <v>1.75</v>
       </c>
       <c r="AS106">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT106">
         <v>1.67</v>
@@ -21550,7 +21550,7 @@
         <v>1.75</v>
       </c>
       <c r="AT107">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU107">
         <v>1.36</v>
@@ -23839,7 +23839,7 @@
         <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -28041,7 +28041,7 @@
         <v>1.4</v>
       </c>
       <c r="AS141">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT141">
         <v>1.67</v>
@@ -29815,6 +29815,197 @@
       </c>
       <c r="BK150">
         <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5094158</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45084.97916666666</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>68</v>
+      </c>
+      <c r="H151" t="s">
+        <v>82</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151" t="s">
+        <v>95</v>
+      </c>
+      <c r="P151" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>5</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>2.25</v>
+      </c>
+      <c r="V151">
+        <v>4.33</v>
+      </c>
+      <c r="W151">
+        <v>1.34</v>
+      </c>
+      <c r="X151">
+        <v>2.99</v>
+      </c>
+      <c r="Y151">
+        <v>2.6</v>
+      </c>
+      <c r="Z151">
+        <v>1.45</v>
+      </c>
+      <c r="AA151">
+        <v>6.35</v>
+      </c>
+      <c r="AB151">
+        <v>1.08</v>
+      </c>
+      <c r="AC151">
+        <v>1.73</v>
+      </c>
+      <c r="AD151">
+        <v>3.55</v>
+      </c>
+      <c r="AE151">
+        <v>4.3</v>
+      </c>
+      <c r="AF151">
+        <v>1.01</v>
+      </c>
+      <c r="AG151">
+        <v>9.9</v>
+      </c>
+      <c r="AH151">
+        <v>1.25</v>
+      </c>
+      <c r="AI151">
+        <v>3.75</v>
+      </c>
+      <c r="AJ151">
+        <v>1.8</v>
+      </c>
+      <c r="AK151">
+        <v>1.9</v>
+      </c>
+      <c r="AL151">
+        <v>1.75</v>
+      </c>
+      <c r="AM151">
+        <v>2</v>
+      </c>
+      <c r="AN151">
+        <v>1.17</v>
+      </c>
+      <c r="AO151">
+        <v>1.2</v>
+      </c>
+      <c r="AP151">
+        <v>2.05</v>
+      </c>
+      <c r="AQ151">
+        <v>1.38</v>
+      </c>
+      <c r="AR151">
+        <v>0.67</v>
+      </c>
+      <c r="AS151">
+        <v>1.33</v>
+      </c>
+      <c r="AT151">
+        <v>0.71</v>
+      </c>
+      <c r="AU151">
+        <v>1.21</v>
+      </c>
+      <c r="AV151">
+        <v>1.16</v>
+      </c>
+      <c r="AW151">
+        <v>2.37</v>
+      </c>
+      <c r="AX151">
+        <v>1.51</v>
+      </c>
+      <c r="AY151">
+        <v>7.1</v>
+      </c>
+      <c r="AZ151">
+        <v>3.36</v>
+      </c>
+      <c r="BA151">
+        <v>1.53</v>
+      </c>
+      <c r="BB151">
+        <v>1.88</v>
+      </c>
+      <c r="BC151">
+        <v>2.32</v>
+      </c>
+      <c r="BD151">
+        <v>2.95</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>3</v>
+      </c>
+      <c r="BG151">
+        <v>5</v>
+      </c>
+      <c r="BH151">
+        <v>6</v>
+      </c>
+      <c r="BI151">
+        <v>4</v>
+      </c>
+      <c r="BJ151">
+        <v>9</v>
+      </c>
+      <c r="BK151">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,12 @@
     <t>['33', '54', '89', '90+1']</t>
   </si>
   <si>
+    <t>['18', '23', '52']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -800,6 +806,9 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1414,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1686,7 +1695,7 @@
         <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1978,7 +1987,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2169,7 +2178,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2360,7 +2369,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2641,7 +2650,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2742,7 +2751,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3020,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT10">
         <v>0.71</v>
@@ -3124,7 +3133,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3315,7 +3324,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3506,7 +3515,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3697,7 +3706,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3787,7 +3796,7 @@
         <v>1.17</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3888,7 +3897,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4270,7 +4279,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4461,7 +4470,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5034,7 +5043,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5312,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT22">
         <v>1.67</v>
@@ -5503,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT23">
         <v>1.14</v>
@@ -5607,7 +5616,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5989,7 +5998,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6180,7 +6189,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6371,7 +6380,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6562,7 +6571,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7326,7 +7335,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7899,7 +7908,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8368,7 +8377,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT38">
         <v>1.13</v>
@@ -9045,7 +9054,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9236,7 +9245,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9809,7 +9818,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10191,7 +10200,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10278,10 +10287,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU48">
         <v>1.37</v>
@@ -10382,7 +10391,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10764,7 +10773,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11236,7 +11245,7 @@
         <v>1.86</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU53">
         <v>1.28</v>
@@ -11528,7 +11537,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11719,7 +11728,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11910,7 +11919,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12101,7 +12110,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12379,7 +12388,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT59">
         <v>1.29</v>
@@ -13056,7 +13065,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13247,7 +13256,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13438,7 +13447,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -14202,7 +14211,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14584,7 +14593,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14775,7 +14784,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14966,7 +14975,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15348,7 +15357,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15817,7 +15826,7 @@
         <v>1.33</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT77">
         <v>1.43</v>
@@ -16199,7 +16208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT79">
         <v>1.4</v>
@@ -16303,7 +16312,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16494,7 +16503,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16584,7 +16593,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU81">
         <v>1.44</v>
@@ -16685,7 +16694,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16876,7 +16885,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17258,7 +17267,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17449,7 +17458,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18022,7 +18031,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18109,7 +18118,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT89">
         <v>2.67</v>
@@ -18213,7 +18222,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18404,7 +18413,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18595,7 +18604,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18786,7 +18795,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18977,7 +18986,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19168,7 +19177,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19550,7 +19559,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19637,7 +19646,7 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT97">
         <v>1.67</v>
@@ -19741,7 +19750,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19932,7 +19941,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20123,7 +20132,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20213,7 +20222,7 @@
         <v>1.17</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU100">
         <v>1.03</v>
@@ -20505,7 +20514,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20696,7 +20705,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20887,7 +20896,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21269,7 +21278,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -22224,7 +22233,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22311,7 +22320,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT111">
         <v>1.4</v>
@@ -22415,7 +22424,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22606,7 +22615,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22887,7 +22896,7 @@
         <v>0.33</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU114">
         <v>2.18</v>
@@ -23179,7 +23188,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23266,7 +23275,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23460,7 +23469,7 @@
         <v>1.22</v>
       </c>
       <c r="AT117">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23561,7 +23570,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23943,7 +23952,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24134,7 +24143,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24898,7 +24907,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25089,7 +25098,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25471,7 +25480,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25662,7 +25671,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25752,7 +25761,7 @@
         <v>1.8</v>
       </c>
       <c r="AT129">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU129">
         <v>1.66</v>
@@ -25853,7 +25862,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -25943,7 +25952,7 @@
         <v>0.83</v>
       </c>
       <c r="AT130">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU130">
         <v>1.43</v>
@@ -26044,7 +26053,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26426,7 +26435,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26808,7 +26817,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -26999,7 +27008,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27572,7 +27581,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27659,7 +27668,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT139">
         <v>1.25</v>
@@ -27853,7 +27862,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU140">
         <v>0.97</v>
@@ -27954,7 +27963,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28145,7 +28154,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28718,7 +28727,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -28808,7 +28817,7 @@
         <v>1.75</v>
       </c>
       <c r="AT145">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU145">
         <v>1.46</v>
@@ -29100,7 +29109,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29291,7 +29300,7 @@
         <v>95</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29673,7 +29682,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30006,6 +30015,388 @@
       </c>
       <c r="BK151">
         <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5094159</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45086.83333333334</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>83</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>3</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>188</v>
+      </c>
+      <c r="P152" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
+      <c r="R152">
+        <v>7</v>
+      </c>
+      <c r="S152">
+        <v>8</v>
+      </c>
+      <c r="T152">
+        <v>2.85</v>
+      </c>
+      <c r="U152">
+        <v>2.16</v>
+      </c>
+      <c r="V152">
+        <v>3.42</v>
+      </c>
+      <c r="W152">
+        <v>1.33</v>
+      </c>
+      <c r="X152">
+        <v>3.04</v>
+      </c>
+      <c r="Y152">
+        <v>2.5</v>
+      </c>
+      <c r="Z152">
+        <v>1.48</v>
+      </c>
+      <c r="AA152">
+        <v>6.15</v>
+      </c>
+      <c r="AB152">
+        <v>1.09</v>
+      </c>
+      <c r="AC152">
+        <v>2.25</v>
+      </c>
+      <c r="AD152">
+        <v>3.4</v>
+      </c>
+      <c r="AE152">
+        <v>2.7</v>
+      </c>
+      <c r="AF152">
+        <v>1.03</v>
+      </c>
+      <c r="AG152">
+        <v>14.75</v>
+      </c>
+      <c r="AH152">
+        <v>1.2</v>
+      </c>
+      <c r="AI152">
+        <v>4.02</v>
+      </c>
+      <c r="AJ152">
+        <v>1.82</v>
+      </c>
+      <c r="AK152">
+        <v>1.96</v>
+      </c>
+      <c r="AL152">
+        <v>1.57</v>
+      </c>
+      <c r="AM152">
+        <v>2.3</v>
+      </c>
+      <c r="AN152">
+        <v>1.36</v>
+      </c>
+      <c r="AO152">
+        <v>1.25</v>
+      </c>
+      <c r="AP152">
+        <v>1.55</v>
+      </c>
+      <c r="AQ152">
+        <v>1</v>
+      </c>
+      <c r="AR152">
+        <v>1</v>
+      </c>
+      <c r="AS152">
+        <v>1.25</v>
+      </c>
+      <c r="AT152">
+        <v>0.88</v>
+      </c>
+      <c r="AU152">
+        <v>1.75</v>
+      </c>
+      <c r="AV152">
+        <v>1.19</v>
+      </c>
+      <c r="AW152">
+        <v>2.94</v>
+      </c>
+      <c r="AX152">
+        <v>1.78</v>
+      </c>
+      <c r="AY152">
+        <v>7.2</v>
+      </c>
+      <c r="AZ152">
+        <v>2.57</v>
+      </c>
+      <c r="BA152">
+        <v>1.38</v>
+      </c>
+      <c r="BB152">
+        <v>1.74</v>
+      </c>
+      <c r="BC152">
+        <v>2.17</v>
+      </c>
+      <c r="BD152">
+        <v>2.85</v>
+      </c>
+      <c r="BE152">
+        <v>4.1</v>
+      </c>
+      <c r="BF152">
+        <v>7</v>
+      </c>
+      <c r="BG152">
+        <v>5</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>9</v>
+      </c>
+      <c r="BJ152">
+        <v>12</v>
+      </c>
+      <c r="BK152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5094160</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45086.95833333334</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>73</v>
+      </c>
+      <c r="H153" t="s">
+        <v>77</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>189</v>
+      </c>
+      <c r="P153" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q153">
+        <v>3</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>5</v>
+      </c>
+      <c r="T153">
+        <v>2.71</v>
+      </c>
+      <c r="U153">
+        <v>2.15</v>
+      </c>
+      <c r="V153">
+        <v>3.68</v>
+      </c>
+      <c r="W153">
+        <v>1.35</v>
+      </c>
+      <c r="X153">
+        <v>2.94</v>
+      </c>
+      <c r="Y153">
+        <v>2.62</v>
+      </c>
+      <c r="Z153">
+        <v>1.43</v>
+      </c>
+      <c r="AA153">
+        <v>6.35</v>
+      </c>
+      <c r="AB153">
+        <v>1.08</v>
+      </c>
+      <c r="AC153">
+        <v>2.15</v>
+      </c>
+      <c r="AD153">
+        <v>3.4</v>
+      </c>
+      <c r="AE153">
+        <v>2.88</v>
+      </c>
+      <c r="AF153">
+        <v>1.04</v>
+      </c>
+      <c r="AG153">
+        <v>12.75</v>
+      </c>
+      <c r="AH153">
+        <v>1.24</v>
+      </c>
+      <c r="AI153">
+        <v>3.63</v>
+      </c>
+      <c r="AJ153">
+        <v>1.82</v>
+      </c>
+      <c r="AK153">
+        <v>1.96</v>
+      </c>
+      <c r="AL153">
+        <v>1.63</v>
+      </c>
+      <c r="AM153">
+        <v>2.22</v>
+      </c>
+      <c r="AN153">
+        <v>1.33</v>
+      </c>
+      <c r="AO153">
+        <v>1.26</v>
+      </c>
+      <c r="AP153">
+        <v>1.61</v>
+      </c>
+      <c r="AQ153">
+        <v>2</v>
+      </c>
+      <c r="AR153">
+        <v>1.5</v>
+      </c>
+      <c r="AS153">
+        <v>1.86</v>
+      </c>
+      <c r="AT153">
+        <v>1.43</v>
+      </c>
+      <c r="AU153">
+        <v>1.44</v>
+      </c>
+      <c r="AV153">
+        <v>1.57</v>
+      </c>
+      <c r="AW153">
+        <v>3.01</v>
+      </c>
+      <c r="AX153">
+        <v>1.82</v>
+      </c>
+      <c r="AY153">
+        <v>7.4</v>
+      </c>
+      <c r="AZ153">
+        <v>2.47</v>
+      </c>
+      <c r="BA153">
+        <v>1.33</v>
+      </c>
+      <c r="BB153">
+        <v>1.64</v>
+      </c>
+      <c r="BC153">
+        <v>2.03</v>
+      </c>
+      <c r="BD153">
+        <v>2.7</v>
+      </c>
+      <c r="BE153">
+        <v>3.8</v>
+      </c>
+      <c r="BF153">
+        <v>8</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>4</v>
+      </c>
+      <c r="BI153">
+        <v>3</v>
+      </c>
+      <c r="BJ153">
+        <v>12</v>
+      </c>
+      <c r="BK153">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,30 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['1', '83']</t>
+  </si>
+  <si>
+    <t>['18', '55', '70']</t>
+  </si>
+  <si>
+    <t>['38', '41', '90+7']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['4', '60']</t>
+  </si>
+  <si>
+    <t>['28', '60', '71', '73']</t>
+  </si>
+  <si>
+    <t>['58', '89']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -706,9 +730,6 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['58']</t>
-  </si>
-  <si>
     <t>['13', '65']</t>
   </si>
   <si>
@@ -802,13 +823,28 @@
     <t>['75', '79', '90+5']</t>
   </si>
   <si>
-    <t>['71']</t>
-  </si>
-  <si>
     <t>['38']</t>
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['45+2', '77']</t>
+  </si>
+  <si>
+    <t>['4', '62', '78']</t>
+  </si>
+  <si>
+    <t>['45+2', '69', '74']</t>
+  </si>
+  <si>
+    <t>['11', '78']</t>
+  </si>
+  <si>
+    <t>['9', '66']</t>
+  </si>
+  <si>
+    <t>['42', '89']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1450,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1883,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT4">
         <v>1.67</v>
@@ -1987,7 +2023,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2178,7 +2214,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2369,7 +2405,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2456,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT7">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2751,7 +2787,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2841,7 +2877,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3133,7 +3169,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3324,7 +3360,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3411,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3515,7 +3551,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3706,7 +3742,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3897,7 +3933,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4178,7 +4214,7 @@
         <v>1.25</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU16">
         <v>1.83</v>
@@ -4279,7 +4315,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4366,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4470,7 +4506,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4751,7 +4787,7 @@
         <v>2.71</v>
       </c>
       <c r="AT19">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5043,7 +5079,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5616,7 +5652,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5703,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5894,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5998,7 +6034,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6085,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6189,7 +6225,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6380,7 +6416,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6467,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6571,7 +6607,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7040,7 +7076,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT31">
         <v>1.13</v>
@@ -7335,7 +7371,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7908,7 +7944,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -7998,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU36">
         <v>1.29</v>
@@ -8189,7 +8225,7 @@
         <v>0.83</v>
       </c>
       <c r="AT37">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8762,7 +8798,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -8950,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -9054,7 +9090,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9141,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT42">
         <v>1.29</v>
@@ -9245,7 +9281,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9526,7 +9562,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9818,7 +9854,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9905,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
         <v>1.29</v>
@@ -10096,7 +10132,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
         <v>0.71</v>
@@ -10200,7 +10236,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10391,7 +10427,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10478,10 +10514,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT49">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10669,10 +10705,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT50">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -10773,7 +10809,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10863,7 +10899,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11051,7 +11087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
         <v>1.25</v>
@@ -11242,7 +11278,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT53">
         <v>1.43</v>
@@ -11436,7 +11472,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11537,7 +11573,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11627,7 +11663,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11728,7 +11764,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11919,7 +11955,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12006,10 +12042,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT57">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -12110,7 +12146,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12200,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12770,7 +12806,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT61">
         <v>1.4</v>
@@ -12961,7 +12997,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
         <v>1.67</v>
@@ -13065,7 +13101,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13256,7 +13292,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13447,7 +13483,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13537,7 +13573,7 @@
         <v>2</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -13916,10 +13952,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14211,7 +14247,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14298,10 +14334,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>1.72</v>
@@ -14593,7 +14629,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14680,10 +14716,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU71">
         <v>1.07</v>
@@ -14784,7 +14820,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14871,7 +14907,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT72">
         <v>1.14</v>
@@ -14975,7 +15011,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15062,10 +15098,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT73">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15357,7 +15393,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15829,7 +15865,7 @@
         <v>1.25</v>
       </c>
       <c r="AT77">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU77">
         <v>1.93</v>
@@ -16312,7 +16348,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16503,7 +16539,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16694,7 +16730,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16781,7 +16817,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT82">
         <v>1.25</v>
@@ -16885,7 +16921,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17267,7 +17303,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17354,7 +17390,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17458,7 +17494,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17548,7 +17584,7 @@
         <v>1.75</v>
       </c>
       <c r="AT86">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU86">
         <v>1.44</v>
@@ -17930,7 +17966,7 @@
         <v>2</v>
       </c>
       <c r="AT88">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18031,7 +18067,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18121,7 +18157,7 @@
         <v>1.86</v>
       </c>
       <c r="AT89">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU89">
         <v>1.41</v>
@@ -18222,7 +18258,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18309,7 +18345,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
         <v>0.5</v>
@@ -18413,7 +18449,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18503,7 +18539,7 @@
         <v>1.17</v>
       </c>
       <c r="AT91">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -18604,7 +18640,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18795,7 +18831,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18882,10 +18918,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU93">
         <v>0.75</v>
@@ -18986,7 +19022,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19073,10 +19109,10 @@
         <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT94">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU94">
         <v>1.29</v>
@@ -19177,7 +19213,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19455,10 +19491,10 @@
         <v>2.33</v>
       </c>
       <c r="AS96">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT96">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19559,7 +19595,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19750,7 +19786,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19840,7 +19876,7 @@
         <v>0.83</v>
       </c>
       <c r="AT98">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU98">
         <v>1.47</v>
@@ -19941,7 +19977,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20031,7 +20067,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU99">
         <v>1.51</v>
@@ -20132,7 +20168,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20410,7 +20446,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT101">
         <v>1.14</v>
@@ -20514,7 +20550,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20705,7 +20741,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20792,7 +20828,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT103">
         <v>1.67</v>
@@ -20896,7 +20932,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20983,10 +21019,10 @@
         <v>0.67</v>
       </c>
       <c r="AS104">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21174,7 +21210,7 @@
         <v>1.8</v>
       </c>
       <c r="AS105">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT105">
         <v>1.29</v>
@@ -21278,7 +21314,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21556,7 +21592,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT107">
         <v>0.71</v>
@@ -21941,7 +21977,7 @@
         <v>1.75</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22233,7 +22269,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22424,7 +22460,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22615,7 +22651,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22702,10 +22738,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU113">
         <v>1.18</v>
@@ -22893,7 +22929,7 @@
         <v>0.5</v>
       </c>
       <c r="AS114">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT114">
         <v>0.88</v>
@@ -23087,7 +23123,7 @@
         <v>2</v>
       </c>
       <c r="AT115">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU115">
         <v>1.45</v>
@@ -23188,7 +23224,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23278,7 +23314,7 @@
         <v>1.25</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU116">
         <v>1.96</v>
@@ -23570,7 +23606,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23660,7 +23696,7 @@
         <v>1</v>
       </c>
       <c r="AT118">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU118">
         <v>1.36</v>
@@ -23851,7 +23887,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU119">
         <v>1.19</v>
@@ -23952,7 +23988,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24143,7 +24179,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24230,7 +24266,7 @@
         <v>0.83</v>
       </c>
       <c r="AS121">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -24421,7 +24457,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT122">
         <v>1.13</v>
@@ -24907,7 +24943,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -24997,7 +25033,7 @@
         <v>1.17</v>
       </c>
       <c r="AT125">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU125">
         <v>1.48</v>
@@ -25098,7 +25134,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25185,7 +25221,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT126">
         <v>1.4</v>
@@ -25480,7 +25516,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25570,7 +25606,7 @@
         <v>2.71</v>
       </c>
       <c r="AT128">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -25671,7 +25707,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25758,7 +25794,7 @@
         <v>0.6</v>
       </c>
       <c r="AS129">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT129">
         <v>0.88</v>
@@ -25862,7 +25898,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26053,7 +26089,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26140,7 +26176,7 @@
         <v>0.71</v>
       </c>
       <c r="AS131">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT131">
         <v>1</v>
@@ -26435,7 +26471,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26522,7 +26558,7 @@
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT133">
         <v>1.71</v>
@@ -26716,7 +26752,7 @@
         <v>1.25</v>
       </c>
       <c r="AT134">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU134">
         <v>1.45</v>
@@ -26817,7 +26853,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -26904,7 +26940,7 @@
         <v>1.29</v>
       </c>
       <c r="AS135">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT135">
         <v>1.13</v>
@@ -27008,7 +27044,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27095,10 +27131,10 @@
         <v>2.5</v>
       </c>
       <c r="AS136">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT136">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27286,10 +27322,10 @@
         <v>1.17</v>
       </c>
       <c r="AS137">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27581,7 +27617,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27963,7 +27999,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28154,7 +28190,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28241,10 +28277,10 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT142">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU142">
         <v>1.55</v>
@@ -28623,7 +28659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT144">
         <v>1.14</v>
@@ -28727,7 +28763,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -28814,7 +28850,7 @@
         <v>1.6</v>
       </c>
       <c r="AS145">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT145">
         <v>1.43</v>
@@ -29008,7 +29044,7 @@
         <v>1.33</v>
       </c>
       <c r="AT146">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU146">
         <v>1.81</v>
@@ -29109,7 +29145,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29196,7 +29232,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT147">
         <v>1.29</v>
@@ -29300,7 +29336,7 @@
         <v>95</v>
       </c>
       <c r="P148" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29390,7 +29426,7 @@
         <v>1.75</v>
       </c>
       <c r="AT148">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -29682,7 +29718,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30064,7 +30100,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30397,6 +30433,1725 @@
       </c>
       <c r="BK153">
         <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5094162</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45087.83333333334</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>84</v>
+      </c>
+      <c r="H154" t="s">
+        <v>80</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>109</v>
+      </c>
+      <c r="P154" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q154">
+        <v>8</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>10</v>
+      </c>
+      <c r="T154">
+        <v>2.25</v>
+      </c>
+      <c r="U154">
+        <v>2.25</v>
+      </c>
+      <c r="V154">
+        <v>4.33</v>
+      </c>
+      <c r="W154">
+        <v>1.29</v>
+      </c>
+      <c r="X154">
+        <v>3.5</v>
+      </c>
+      <c r="Y154">
+        <v>2.4</v>
+      </c>
+      <c r="Z154">
+        <v>1.51</v>
+      </c>
+      <c r="AA154">
+        <v>5</v>
+      </c>
+      <c r="AB154">
+        <v>1.14</v>
+      </c>
+      <c r="AC154">
+        <v>1.65</v>
+      </c>
+      <c r="AD154">
+        <v>3.7</v>
+      </c>
+      <c r="AE154">
+        <v>4.2</v>
+      </c>
+      <c r="AF154">
+        <v>1.04</v>
+      </c>
+      <c r="AG154">
+        <v>10</v>
+      </c>
+      <c r="AH154">
+        <v>1.2</v>
+      </c>
+      <c r="AI154">
+        <v>4.2</v>
+      </c>
+      <c r="AJ154">
+        <v>1.6</v>
+      </c>
+      <c r="AK154">
+        <v>2.2</v>
+      </c>
+      <c r="AL154">
+        <v>1.65</v>
+      </c>
+      <c r="AM154">
+        <v>2.15</v>
+      </c>
+      <c r="AN154">
+        <v>1.16</v>
+      </c>
+      <c r="AO154">
+        <v>1.2</v>
+      </c>
+      <c r="AP154">
+        <v>2.05</v>
+      </c>
+      <c r="AQ154">
+        <v>0.83</v>
+      </c>
+      <c r="AR154">
+        <v>0.67</v>
+      </c>
+      <c r="AS154">
+        <v>0.86</v>
+      </c>
+      <c r="AT154">
+        <v>0.71</v>
+      </c>
+      <c r="AU154">
+        <v>1.46</v>
+      </c>
+      <c r="AV154">
+        <v>1.37</v>
+      </c>
+      <c r="AW154">
+        <v>2.83</v>
+      </c>
+      <c r="AX154">
+        <v>1.62</v>
+      </c>
+      <c r="AY154">
+        <v>7.1</v>
+      </c>
+      <c r="AZ154">
+        <v>2.93</v>
+      </c>
+      <c r="BA154">
+        <v>1.27</v>
+      </c>
+      <c r="BB154">
+        <v>1.55</v>
+      </c>
+      <c r="BC154">
+        <v>1.9</v>
+      </c>
+      <c r="BD154">
+        <v>2.35</v>
+      </c>
+      <c r="BE154">
+        <v>3.2</v>
+      </c>
+      <c r="BF154">
+        <v>3</v>
+      </c>
+      <c r="BG154">
+        <v>5</v>
+      </c>
+      <c r="BH154">
+        <v>8</v>
+      </c>
+      <c r="BI154">
+        <v>6</v>
+      </c>
+      <c r="BJ154">
+        <v>11</v>
+      </c>
+      <c r="BK154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5094166</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45087.83333333334</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s">
+        <v>68</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>190</v>
+      </c>
+      <c r="P155" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>8</v>
+      </c>
+      <c r="S155">
+        <v>8</v>
+      </c>
+      <c r="T155">
+        <v>2.26</v>
+      </c>
+      <c r="U155">
+        <v>2.23</v>
+      </c>
+      <c r="V155">
+        <v>4.66</v>
+      </c>
+      <c r="W155">
+        <v>1.3</v>
+      </c>
+      <c r="X155">
+        <v>3.4</v>
+      </c>
+      <c r="Y155">
+        <v>2.5</v>
+      </c>
+      <c r="Z155">
+        <v>1.48</v>
+      </c>
+      <c r="AA155">
+        <v>5</v>
+      </c>
+      <c r="AB155">
+        <v>1.14</v>
+      </c>
+      <c r="AC155">
+        <v>1.73</v>
+      </c>
+      <c r="AD155">
+        <v>3.6</v>
+      </c>
+      <c r="AE155">
+        <v>4</v>
+      </c>
+      <c r="AF155">
+        <v>1.04</v>
+      </c>
+      <c r="AG155">
+        <v>10</v>
+      </c>
+      <c r="AH155">
+        <v>1.22</v>
+      </c>
+      <c r="AI155">
+        <v>4</v>
+      </c>
+      <c r="AJ155">
+        <v>1.61</v>
+      </c>
+      <c r="AK155">
+        <v>2.15</v>
+      </c>
+      <c r="AL155">
+        <v>1.63</v>
+      </c>
+      <c r="AM155">
+        <v>2.2</v>
+      </c>
+      <c r="AN155">
+        <v>1.18</v>
+      </c>
+      <c r="AO155">
+        <v>1.2</v>
+      </c>
+      <c r="AP155">
+        <v>1.95</v>
+      </c>
+      <c r="AQ155">
+        <v>2.6</v>
+      </c>
+      <c r="AR155">
+        <v>2.6</v>
+      </c>
+      <c r="AS155">
+        <v>2.67</v>
+      </c>
+      <c r="AT155">
+        <v>2.17</v>
+      </c>
+      <c r="AU155">
+        <v>1.52</v>
+      </c>
+      <c r="AV155">
+        <v>1.24</v>
+      </c>
+      <c r="AW155">
+        <v>2.76</v>
+      </c>
+      <c r="AX155">
+        <v>1.46</v>
+      </c>
+      <c r="AY155">
+        <v>7.4</v>
+      </c>
+      <c r="AZ155">
+        <v>3.58</v>
+      </c>
+      <c r="BA155">
+        <v>1.37</v>
+      </c>
+      <c r="BB155">
+        <v>1.78</v>
+      </c>
+      <c r="BC155">
+        <v>2.23</v>
+      </c>
+      <c r="BD155">
+        <v>3</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>10</v>
+      </c>
+      <c r="BJ155">
+        <v>5</v>
+      </c>
+      <c r="BK155">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5094169</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45087.85416666666</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>67</v>
+      </c>
+      <c r="H156" t="s">
+        <v>87</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>191</v>
+      </c>
+      <c r="P156" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q156">
+        <v>6</v>
+      </c>
+      <c r="R156">
+        <v>6</v>
+      </c>
+      <c r="S156">
+        <v>12</v>
+      </c>
+      <c r="T156">
+        <v>2.2</v>
+      </c>
+      <c r="U156">
+        <v>2.3</v>
+      </c>
+      <c r="V156">
+        <v>4.33</v>
+      </c>
+      <c r="W156">
+        <v>1.33</v>
+      </c>
+      <c r="X156">
+        <v>3.25</v>
+      </c>
+      <c r="Y156">
+        <v>2.55</v>
+      </c>
+      <c r="Z156">
+        <v>1.46</v>
+      </c>
+      <c r="AA156">
+        <v>5.5</v>
+      </c>
+      <c r="AB156">
+        <v>1.12</v>
+      </c>
+      <c r="AC156">
+        <v>1.6</v>
+      </c>
+      <c r="AD156">
+        <v>3.9</v>
+      </c>
+      <c r="AE156">
+        <v>4.5</v>
+      </c>
+      <c r="AF156">
+        <v>1.04</v>
+      </c>
+      <c r="AG156">
+        <v>10</v>
+      </c>
+      <c r="AH156">
+        <v>1.22</v>
+      </c>
+      <c r="AI156">
+        <v>4</v>
+      </c>
+      <c r="AJ156">
+        <v>1.73</v>
+      </c>
+      <c r="AK156">
+        <v>2.02</v>
+      </c>
+      <c r="AL156">
+        <v>1.72</v>
+      </c>
+      <c r="AM156">
+        <v>2.05</v>
+      </c>
+      <c r="AN156">
+        <v>1.16</v>
+      </c>
+      <c r="AO156">
+        <v>1.18</v>
+      </c>
+      <c r="AP156">
+        <v>2.1</v>
+      </c>
+      <c r="AQ156">
+        <v>1.75</v>
+      </c>
+      <c r="AR156">
+        <v>1</v>
+      </c>
+      <c r="AS156">
+        <v>1.89</v>
+      </c>
+      <c r="AT156">
+        <v>0.88</v>
+      </c>
+      <c r="AU156">
+        <v>1.43</v>
+      </c>
+      <c r="AV156">
+        <v>1.29</v>
+      </c>
+      <c r="AW156">
+        <v>2.72</v>
+      </c>
+      <c r="AX156">
+        <v>1.57</v>
+      </c>
+      <c r="AY156">
+        <v>7</v>
+      </c>
+      <c r="AZ156">
+        <v>3.13</v>
+      </c>
+      <c r="BA156">
+        <v>1.46</v>
+      </c>
+      <c r="BB156">
+        <v>1.78</v>
+      </c>
+      <c r="BC156">
+        <v>2.24</v>
+      </c>
+      <c r="BD156">
+        <v>3.1</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>5</v>
+      </c>
+      <c r="BG156">
+        <v>6</v>
+      </c>
+      <c r="BH156">
+        <v>3</v>
+      </c>
+      <c r="BI156">
+        <v>3</v>
+      </c>
+      <c r="BJ156">
+        <v>8</v>
+      </c>
+      <c r="BK156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5094167</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45087.875</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>75</v>
+      </c>
+      <c r="H157" t="s">
+        <v>66</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>3</v>
+      </c>
+      <c r="N157">
+        <v>6</v>
+      </c>
+      <c r="O157" t="s">
+        <v>192</v>
+      </c>
+      <c r="P157" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q157">
+        <v>-1</v>
+      </c>
+      <c r="R157">
+        <v>-1</v>
+      </c>
+      <c r="S157">
+        <v>-1</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>0</v>
+      </c>
+      <c r="AC157">
+        <v>2</v>
+      </c>
+      <c r="AD157">
+        <v>3.5</v>
+      </c>
+      <c r="AE157">
+        <v>3.1</v>
+      </c>
+      <c r="AF157">
+        <v>0</v>
+      </c>
+      <c r="AG157">
+        <v>0</v>
+      </c>
+      <c r="AH157">
+        <v>0</v>
+      </c>
+      <c r="AI157">
+        <v>0</v>
+      </c>
+      <c r="AJ157">
+        <v>1.69</v>
+      </c>
+      <c r="AK157">
+        <v>1.83</v>
+      </c>
+      <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
+        <v>0</v>
+      </c>
+      <c r="AO157">
+        <v>0</v>
+      </c>
+      <c r="AP157">
+        <v>0</v>
+      </c>
+      <c r="AQ157">
+        <v>0.57</v>
+      </c>
+      <c r="AR157">
+        <v>0.4</v>
+      </c>
+      <c r="AS157">
+        <v>0.63</v>
+      </c>
+      <c r="AT157">
+        <v>0.5</v>
+      </c>
+      <c r="AU157">
+        <v>1.8</v>
+      </c>
+      <c r="AV157">
+        <v>1.05</v>
+      </c>
+      <c r="AW157">
+        <v>2.85</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="AZ157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>-1</v>
+      </c>
+      <c r="BG157">
+        <v>-1</v>
+      </c>
+      <c r="BH157">
+        <v>-1</v>
+      </c>
+      <c r="BI157">
+        <v>-1</v>
+      </c>
+      <c r="BJ157">
+        <v>-1</v>
+      </c>
+      <c r="BK157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5094164</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45087.875</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>81</v>
+      </c>
+      <c r="H158" t="s">
+        <v>65</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>193</v>
+      </c>
+      <c r="P158" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q158">
+        <v>3</v>
+      </c>
+      <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
+        <v>4</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
+        <v>2.2</v>
+      </c>
+      <c r="V158">
+        <v>4.7</v>
+      </c>
+      <c r="W158">
+        <v>1.35</v>
+      </c>
+      <c r="X158">
+        <v>2.9</v>
+      </c>
+      <c r="Y158">
+        <v>2.6</v>
+      </c>
+      <c r="Z158">
+        <v>1.42</v>
+      </c>
+      <c r="AA158">
+        <v>6</v>
+      </c>
+      <c r="AB158">
+        <v>1.1</v>
+      </c>
+      <c r="AC158">
+        <v>1.67</v>
+      </c>
+      <c r="AD158">
+        <v>3.7</v>
+      </c>
+      <c r="AE158">
+        <v>4.2</v>
+      </c>
+      <c r="AF158">
+        <v>1.04</v>
+      </c>
+      <c r="AG158">
+        <v>13</v>
+      </c>
+      <c r="AH158">
+        <v>1.24</v>
+      </c>
+      <c r="AI158">
+        <v>3.63</v>
+      </c>
+      <c r="AJ158">
+        <v>1.69</v>
+      </c>
+      <c r="AK158">
+        <v>1.82</v>
+      </c>
+      <c r="AL158">
+        <v>1.75</v>
+      </c>
+      <c r="AM158">
+        <v>1.95</v>
+      </c>
+      <c r="AN158">
+        <v>1.19</v>
+      </c>
+      <c r="AO158">
+        <v>1.23</v>
+      </c>
+      <c r="AP158">
+        <v>2.05</v>
+      </c>
+      <c r="AQ158">
+        <v>1.8</v>
+      </c>
+      <c r="AR158">
+        <v>2.5</v>
+      </c>
+      <c r="AS158">
+        <v>1.5</v>
+      </c>
+      <c r="AT158">
+        <v>2.6</v>
+      </c>
+      <c r="AU158">
+        <v>1.82</v>
+      </c>
+      <c r="AV158">
+        <v>1.88</v>
+      </c>
+      <c r="AW158">
+        <v>3.7</v>
+      </c>
+      <c r="AX158">
+        <v>1.62</v>
+      </c>
+      <c r="AY158">
+        <v>7.1</v>
+      </c>
+      <c r="AZ158">
+        <v>2.93</v>
+      </c>
+      <c r="BA158">
+        <v>1.22</v>
+      </c>
+      <c r="BB158">
+        <v>1.42</v>
+      </c>
+      <c r="BC158">
+        <v>1.78</v>
+      </c>
+      <c r="BD158">
+        <v>2.21</v>
+      </c>
+      <c r="BE158">
+        <v>2.9</v>
+      </c>
+      <c r="BF158">
+        <v>6</v>
+      </c>
+      <c r="BG158">
+        <v>7</v>
+      </c>
+      <c r="BH158">
+        <v>8</v>
+      </c>
+      <c r="BI158">
+        <v>0</v>
+      </c>
+      <c r="BJ158">
+        <v>14</v>
+      </c>
+      <c r="BK158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5094168</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45087.91666666666</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>71</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159" t="s">
+        <v>194</v>
+      </c>
+      <c r="P159" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q159">
+        <v>9</v>
+      </c>
+      <c r="R159">
+        <v>4</v>
+      </c>
+      <c r="S159">
+        <v>13</v>
+      </c>
+      <c r="T159">
+        <v>2.6</v>
+      </c>
+      <c r="U159">
+        <v>2.15</v>
+      </c>
+      <c r="V159">
+        <v>3.75</v>
+      </c>
+      <c r="W159">
+        <v>1.34</v>
+      </c>
+      <c r="X159">
+        <v>2.99</v>
+      </c>
+      <c r="Y159">
+        <v>2.65</v>
+      </c>
+      <c r="Z159">
+        <v>1.43</v>
+      </c>
+      <c r="AA159">
+        <v>6.25</v>
+      </c>
+      <c r="AB159">
+        <v>1.09</v>
+      </c>
+      <c r="AC159">
+        <v>1.95</v>
+      </c>
+      <c r="AD159">
+        <v>3.4</v>
+      </c>
+      <c r="AE159">
+        <v>3.25</v>
+      </c>
+      <c r="AF159">
+        <v>1.01</v>
+      </c>
+      <c r="AG159">
+        <v>9.9</v>
+      </c>
+      <c r="AH159">
+        <v>1.25</v>
+      </c>
+      <c r="AI159">
+        <v>3.75</v>
+      </c>
+      <c r="AJ159">
+        <v>1.71</v>
+      </c>
+      <c r="AK159">
+        <v>1.8</v>
+      </c>
+      <c r="AL159">
+        <v>1.65</v>
+      </c>
+      <c r="AM159">
+        <v>2.15</v>
+      </c>
+      <c r="AN159">
+        <v>1.25</v>
+      </c>
+      <c r="AO159">
+        <v>1.25</v>
+      </c>
+      <c r="AP159">
+        <v>1.72</v>
+      </c>
+      <c r="AQ159">
+        <v>1.86</v>
+      </c>
+      <c r="AR159">
+        <v>2.67</v>
+      </c>
+      <c r="AS159">
+        <v>1.75</v>
+      </c>
+      <c r="AT159">
+        <v>2.43</v>
+      </c>
+      <c r="AU159">
+        <v>1.64</v>
+      </c>
+      <c r="AV159">
+        <v>1.41</v>
+      </c>
+      <c r="AW159">
+        <v>3.05</v>
+      </c>
+      <c r="AX159">
+        <v>1.46</v>
+      </c>
+      <c r="AY159">
+        <v>7.9</v>
+      </c>
+      <c r="AZ159">
+        <v>3.47</v>
+      </c>
+      <c r="BA159">
+        <v>1.21</v>
+      </c>
+      <c r="BB159">
+        <v>1.38</v>
+      </c>
+      <c r="BC159">
+        <v>1.73</v>
+      </c>
+      <c r="BD159">
+        <v>2.14</v>
+      </c>
+      <c r="BE159">
+        <v>2.8</v>
+      </c>
+      <c r="BF159">
+        <v>6</v>
+      </c>
+      <c r="BG159">
+        <v>5</v>
+      </c>
+      <c r="BH159">
+        <v>7</v>
+      </c>
+      <c r="BI159">
+        <v>6</v>
+      </c>
+      <c r="BJ159">
+        <v>13</v>
+      </c>
+      <c r="BK159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5094161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45087.91666666666</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160" t="s">
+        <v>74</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>195</v>
+      </c>
+      <c r="P160" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q160">
+        <v>2</v>
+      </c>
+      <c r="R160">
+        <v>3</v>
+      </c>
+      <c r="S160">
+        <v>5</v>
+      </c>
+      <c r="T160">
+        <v>2.45</v>
+      </c>
+      <c r="U160">
+        <v>2.2</v>
+      </c>
+      <c r="V160">
+        <v>4</v>
+      </c>
+      <c r="W160">
+        <v>1.38</v>
+      </c>
+      <c r="X160">
+        <v>2.85</v>
+      </c>
+      <c r="Y160">
+        <v>2.65</v>
+      </c>
+      <c r="Z160">
+        <v>1.42</v>
+      </c>
+      <c r="AA160">
+        <v>6</v>
+      </c>
+      <c r="AB160">
+        <v>1.09</v>
+      </c>
+      <c r="AC160">
+        <v>1.8</v>
+      </c>
+      <c r="AD160">
+        <v>3.6</v>
+      </c>
+      <c r="AE160">
+        <v>3.7</v>
+      </c>
+      <c r="AF160">
+        <v>1.04</v>
+      </c>
+      <c r="AG160">
+        <v>12.75</v>
+      </c>
+      <c r="AH160">
+        <v>1.25</v>
+      </c>
+      <c r="AI160">
+        <v>3.6</v>
+      </c>
+      <c r="AJ160">
+        <v>1.71</v>
+      </c>
+      <c r="AK160">
+        <v>1.8</v>
+      </c>
+      <c r="AL160">
+        <v>1.72</v>
+      </c>
+      <c r="AM160">
+        <v>2</v>
+      </c>
+      <c r="AN160">
+        <v>1.25</v>
+      </c>
+      <c r="AO160">
+        <v>1.24</v>
+      </c>
+      <c r="AP160">
+        <v>1.85</v>
+      </c>
+      <c r="AQ160">
+        <v>1.4</v>
+      </c>
+      <c r="AR160">
+        <v>0.4</v>
+      </c>
+      <c r="AS160">
+        <v>1.67</v>
+      </c>
+      <c r="AT160">
+        <v>0.33</v>
+      </c>
+      <c r="AU160">
+        <v>1.51</v>
+      </c>
+      <c r="AV160">
+        <v>1.24</v>
+      </c>
+      <c r="AW160">
+        <v>2.75</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>1.35</v>
+      </c>
+      <c r="BB160">
+        <v>1.58</v>
+      </c>
+      <c r="BC160">
+        <v>1.94</v>
+      </c>
+      <c r="BD160">
+        <v>2.44</v>
+      </c>
+      <c r="BE160">
+        <v>4</v>
+      </c>
+      <c r="BF160">
+        <v>9</v>
+      </c>
+      <c r="BG160">
+        <v>4</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>3</v>
+      </c>
+      <c r="BJ160">
+        <v>13</v>
+      </c>
+      <c r="BK160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5094165</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45087.97916666666</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>86</v>
+      </c>
+      <c r="H161" t="s">
+        <v>85</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>196</v>
+      </c>
+      <c r="P161" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q161">
+        <v>5</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>6</v>
+      </c>
+      <c r="T161">
+        <v>2.48</v>
+      </c>
+      <c r="U161">
+        <v>2.16</v>
+      </c>
+      <c r="V161">
+        <v>3.98</v>
+      </c>
+      <c r="W161">
+        <v>1.35</v>
+      </c>
+      <c r="X161">
+        <v>2.94</v>
+      </c>
+      <c r="Y161">
+        <v>2.62</v>
+      </c>
+      <c r="Z161">
+        <v>1.43</v>
+      </c>
+      <c r="AA161">
+        <v>6.35</v>
+      </c>
+      <c r="AB161">
+        <v>1.08</v>
+      </c>
+      <c r="AC161">
+        <v>1.91</v>
+      </c>
+      <c r="AD161">
+        <v>3.5</v>
+      </c>
+      <c r="AE161">
+        <v>3.3</v>
+      </c>
+      <c r="AF161">
+        <v>1.01</v>
+      </c>
+      <c r="AG161">
+        <v>9.9</v>
+      </c>
+      <c r="AH161">
+        <v>1.23</v>
+      </c>
+      <c r="AI161">
+        <v>3.56</v>
+      </c>
+      <c r="AJ161">
+        <v>1.69</v>
+      </c>
+      <c r="AK161">
+        <v>1.82</v>
+      </c>
+      <c r="AL161">
+        <v>1.66</v>
+      </c>
+      <c r="AM161">
+        <v>2.04</v>
+      </c>
+      <c r="AN161">
+        <v>1.26</v>
+      </c>
+      <c r="AO161">
+        <v>1.25</v>
+      </c>
+      <c r="AP161">
+        <v>1.75</v>
+      </c>
+      <c r="AQ161">
+        <v>1.6</v>
+      </c>
+      <c r="AR161">
+        <v>1.43</v>
+      </c>
+      <c r="AS161">
+        <v>1.5</v>
+      </c>
+      <c r="AT161">
+        <v>1.38</v>
+      </c>
+      <c r="AU161">
+        <v>1.58</v>
+      </c>
+      <c r="AV161">
+        <v>1.56</v>
+      </c>
+      <c r="AW161">
+        <v>3.14</v>
+      </c>
+      <c r="AX161">
+        <v>1.8</v>
+      </c>
+      <c r="AY161">
+        <v>7.1</v>
+      </c>
+      <c r="AZ161">
+        <v>2.48</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>1.34</v>
+      </c>
+      <c r="BC161">
+        <v>1.64</v>
+      </c>
+      <c r="BD161">
+        <v>2.01</v>
+      </c>
+      <c r="BE161">
+        <v>2.62</v>
+      </c>
+      <c r="BF161">
+        <v>5</v>
+      </c>
+      <c r="BG161">
+        <v>4</v>
+      </c>
+      <c r="BH161">
+        <v>11</v>
+      </c>
+      <c r="BI161">
+        <v>2</v>
+      </c>
+      <c r="BJ161">
+        <v>16</v>
+      </c>
+      <c r="BK161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5094163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45087.97916666666</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>88</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>197</v>
+      </c>
+      <c r="P162" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q162">
+        <v>6</v>
+      </c>
+      <c r="R162">
+        <v>1</v>
+      </c>
+      <c r="S162">
+        <v>7</v>
+      </c>
+      <c r="T162">
+        <v>2.77</v>
+      </c>
+      <c r="U162">
+        <v>2.15</v>
+      </c>
+      <c r="V162">
+        <v>3.52</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>3</v>
+      </c>
+      <c r="Y162">
+        <v>2.62</v>
+      </c>
+      <c r="Z162">
+        <v>1.44</v>
+      </c>
+      <c r="AA162">
+        <v>6</v>
+      </c>
+      <c r="AB162">
+        <v>1.11</v>
+      </c>
+      <c r="AC162">
+        <v>2.15</v>
+      </c>
+      <c r="AD162">
+        <v>3.4</v>
+      </c>
+      <c r="AE162">
+        <v>2.88</v>
+      </c>
+      <c r="AF162">
+        <v>1.05</v>
+      </c>
+      <c r="AG162">
+        <v>9</v>
+      </c>
+      <c r="AH162">
+        <v>1.29</v>
+      </c>
+      <c r="AI162">
+        <v>3.5</v>
+      </c>
+      <c r="AJ162">
+        <v>1.69</v>
+      </c>
+      <c r="AK162">
+        <v>1.82</v>
+      </c>
+      <c r="AL162">
+        <v>1.67</v>
+      </c>
+      <c r="AM162">
+        <v>2.15</v>
+      </c>
+      <c r="AN162">
+        <v>1.36</v>
+      </c>
+      <c r="AO162">
+        <v>1.29</v>
+      </c>
+      <c r="AP162">
+        <v>1.62</v>
+      </c>
+      <c r="AQ162">
+        <v>0.33</v>
+      </c>
+      <c r="AR162">
+        <v>1</v>
+      </c>
+      <c r="AS162">
+        <v>0.25</v>
+      </c>
+      <c r="AT162">
+        <v>1.33</v>
+      </c>
+      <c r="AU162">
+        <v>2.17</v>
+      </c>
+      <c r="AV162">
+        <v>1.25</v>
+      </c>
+      <c r="AW162">
+        <v>3.42</v>
+      </c>
+      <c r="AX162">
+        <v>1.82</v>
+      </c>
+      <c r="AY162">
+        <v>6.8</v>
+      </c>
+      <c r="AZ162">
+        <v>2.48</v>
+      </c>
+      <c r="BA162">
+        <v>1.27</v>
+      </c>
+      <c r="BB162">
+        <v>1.53</v>
+      </c>
+      <c r="BC162">
+        <v>1.88</v>
+      </c>
+      <c r="BD162">
+        <v>2.34</v>
+      </c>
+      <c r="BE162">
+        <v>3.3</v>
+      </c>
+      <c r="BF162">
+        <v>4</v>
+      </c>
+      <c r="BG162">
+        <v>5</v>
+      </c>
+      <c r="BH162">
+        <v>6</v>
+      </c>
+      <c r="BI162">
+        <v>3</v>
+      </c>
+      <c r="BJ162">
+        <v>10</v>
+      </c>
+      <c r="BK162">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -31058,13 +31058,13 @@
         <v>272</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R157">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S157">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T157">
         <v>0</v>
@@ -31181,22 +31181,22 @@
         <v>0</v>
       </c>
       <c r="BF157">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BG157">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH157">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ157">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK157">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,27 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['24', '32']</t>
+  </si>
+  <si>
+    <t>['10', '73']</t>
+  </si>
+  <si>
+    <t>['31', '45+3', '57']</t>
+  </si>
+  <si>
+    <t>['55', '89']</t>
+  </si>
+  <si>
+    <t>['38', '43']</t>
+  </si>
+  <si>
+    <t>['37', '52']</t>
+  </si>
+  <si>
+    <t>['5', '74']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -845,6 +866,30 @@
   </si>
   <si>
     <t>['42', '89']</t>
+  </si>
+  <si>
+    <t>['24', '43', '59']</t>
+  </si>
+  <si>
+    <t>['47', '67']</t>
+  </si>
+  <si>
+    <t>['43', '64', '87', '90']</t>
+  </si>
+  <si>
+    <t>['36', '45']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['26', '90', '90+6']</t>
+  </si>
+  <si>
+    <t>['28', '86']</t>
+  </si>
+  <si>
+    <t>['42', '57']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1495,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1537,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1728,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT3">
         <v>0.88</v>
@@ -1922,7 +1967,7 @@
         <v>1.89</v>
       </c>
       <c r="AT4">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2023,7 +2068,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2214,7 +2259,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2301,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT6">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2405,7 +2450,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2683,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT8">
         <v>1.43</v>
@@ -2787,7 +2832,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3065,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3169,7 +3214,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3259,7 +3304,7 @@
         <v>1.22</v>
       </c>
       <c r="AT11">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3360,7 +3405,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3450,7 +3495,7 @@
         <v>0.63</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3551,7 +3596,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3638,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT13">
         <v>1.13</v>
@@ -3742,7 +3787,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3829,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT14">
         <v>0.88</v>
@@ -3933,7 +3978,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4020,10 +4065,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4211,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT16">
         <v>0.88</v>
@@ -4315,7 +4360,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4402,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT17">
         <v>0.71</v>
@@ -4506,7 +4551,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4593,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4784,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT19">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4978,7 +5023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5079,7 +5124,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5169,7 +5214,7 @@
         <v>1.22</v>
       </c>
       <c r="AT21">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU21">
         <v>1.52</v>
@@ -5360,7 +5405,7 @@
         <v>1.25</v>
       </c>
       <c r="AT22">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5548,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT23">
         <v>1.14</v>
@@ -5652,7 +5697,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6034,7 +6079,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6124,7 +6169,7 @@
         <v>0.63</v>
       </c>
       <c r="AT26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6225,7 +6270,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6312,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT27">
         <v>1.29</v>
@@ -6416,7 +6461,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6607,7 +6652,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6697,7 +6742,7 @@
         <v>1.17</v>
       </c>
       <c r="AT29">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6888,7 +6933,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7267,10 +7312,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7371,7 +7416,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7461,7 +7506,7 @@
         <v>1.22</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU33">
         <v>1.52</v>
@@ -7649,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT34">
         <v>1.29</v>
@@ -7840,10 +7885,10 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT35">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU35">
         <v>1.29</v>
@@ -7944,7 +7989,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8031,7 +8076,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT36">
         <v>2.43</v>
@@ -8222,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT37">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8607,7 +8652,7 @@
         <v>1.17</v>
       </c>
       <c r="AT39">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8795,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
         <v>2.6</v>
@@ -8989,7 +9034,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9090,7 +9135,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9281,7 +9326,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9371,7 +9416,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9559,7 +9604,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT44">
         <v>0.88</v>
@@ -9750,10 +9795,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT45">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU45">
         <v>1.21</v>
@@ -9854,7 +9899,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9941,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT46">
         <v>1.29</v>
@@ -10135,7 +10180,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10236,7 +10281,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10323,7 +10368,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT48">
         <v>0.88</v>
@@ -10427,7 +10472,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10809,7 +10854,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11087,10 +11132,10 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT52">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11469,10 +11514,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11573,7 +11618,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11764,7 +11809,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11851,7 +11896,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT56">
         <v>1.14</v>
@@ -11955,7 +12000,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12045,7 +12090,7 @@
         <v>1.89</v>
       </c>
       <c r="AT57">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -12146,7 +12191,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12233,10 +12278,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT58">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12615,10 +12660,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT60">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.3</v>
@@ -12809,7 +12854,7 @@
         <v>2.67</v>
       </c>
       <c r="AT61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -13000,7 +13045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU62">
         <v>1.76</v>
@@ -13101,7 +13146,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13188,10 +13233,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13292,7 +13337,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13379,7 +13424,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT64">
         <v>1.29</v>
@@ -13483,7 +13528,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13570,7 +13615,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT65">
         <v>0.71</v>
@@ -13764,7 +13809,7 @@
         <v>1.22</v>
       </c>
       <c r="AT66">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -13952,10 +13997,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14143,7 +14188,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT68">
         <v>1.13</v>
@@ -14247,7 +14292,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14337,7 +14382,7 @@
         <v>0.86</v>
       </c>
       <c r="AT69">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU69">
         <v>1.72</v>
@@ -14528,7 +14573,7 @@
         <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU70">
         <v>1.59</v>
@@ -14629,7 +14674,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14716,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT71">
         <v>0.88</v>
@@ -14820,7 +14865,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15011,7 +15056,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15289,10 +15334,10 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15393,7 +15438,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15671,10 +15716,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT76">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.3</v>
@@ -16053,10 +16098,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16244,10 +16289,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>1.43</v>
@@ -16348,7 +16393,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16438,7 +16483,7 @@
         <v>1.17</v>
       </c>
       <c r="AT80">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.31</v>
@@ -16539,7 +16584,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16626,7 +16671,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT81">
         <v>1.43</v>
@@ -16730,7 +16775,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16820,7 +16865,7 @@
         <v>0.86</v>
       </c>
       <c r="AT82">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU82">
         <v>1.58</v>
@@ -16921,7 +16966,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17199,10 +17244,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT84">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17303,7 +17348,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17393,7 +17438,7 @@
         <v>1.75</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -17581,10 +17626,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT86">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU86">
         <v>1.44</v>
@@ -17775,7 +17820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU87">
         <v>1.39</v>
@@ -17963,7 +18008,7 @@
         <v>0.5</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT88">
         <v>0.5</v>
@@ -18067,7 +18112,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18154,7 +18199,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT89">
         <v>2.43</v>
@@ -18258,7 +18303,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18345,10 +18390,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT90">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU90">
         <v>1.24</v>
@@ -18449,7 +18494,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18536,7 +18581,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT91">
         <v>0.71</v>
@@ -18640,7 +18685,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18727,7 +18772,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT92">
         <v>1.29</v>
@@ -18831,7 +18876,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19022,7 +19067,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19109,7 +19154,7 @@
         <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT94">
         <v>2.43</v>
@@ -19213,7 +19258,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19303,7 +19348,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU95">
         <v>1.03</v>
@@ -19494,7 +19539,7 @@
         <v>0.25</v>
       </c>
       <c r="AT96">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19595,7 +19640,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19685,7 +19730,7 @@
         <v>1.25</v>
       </c>
       <c r="AT97">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU97">
         <v>1.94</v>
@@ -19786,7 +19831,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19873,7 +19918,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT98">
         <v>2.6</v>
@@ -19977,7 +20022,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20064,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT99">
         <v>1.38</v>
@@ -20168,7 +20213,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20550,7 +20595,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20741,7 +20786,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20831,7 +20876,7 @@
         <v>0.25</v>
       </c>
       <c r="AT103">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU103">
         <v>2.04</v>
@@ -20932,7 +20977,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21314,7 +21359,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21404,7 +21449,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU106">
         <v>1.28</v>
@@ -21595,7 +21640,7 @@
         <v>1.89</v>
       </c>
       <c r="AT107">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.36</v>
@@ -21783,7 +21828,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT108">
         <v>1.13</v>
@@ -21974,10 +22019,10 @@
         <v>1.67</v>
       </c>
       <c r="AS109">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT109">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22165,10 +22210,10 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT110">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU110">
         <v>1.44</v>
@@ -22269,7 +22314,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22356,10 +22401,10 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU111">
         <v>1.45</v>
@@ -22460,7 +22505,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22547,10 +22592,10 @@
         <v>1.75</v>
       </c>
       <c r="AS112">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT112">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22651,7 +22696,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22738,7 +22783,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT113">
         <v>0.71</v>
@@ -23120,10 +23165,10 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT115">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU115">
         <v>1.45</v>
@@ -23224,7 +23269,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23606,7 +23651,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23693,7 +23738,7 @@
         <v>2.33</v>
       </c>
       <c r="AS118">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT118">
         <v>2.6</v>
@@ -23887,7 +23932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU119">
         <v>1.19</v>
@@ -23988,7 +24033,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24075,7 +24120,7 @@
         <v>1.25</v>
       </c>
       <c r="AS120">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT120">
         <v>1.29</v>
@@ -24179,7 +24224,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24269,7 +24314,7 @@
         <v>2.67</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -24648,10 +24693,10 @@
         <v>0.75</v>
       </c>
       <c r="AS123">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU123">
         <v>1.53</v>
@@ -24842,7 +24887,7 @@
         <v>1.17</v>
       </c>
       <c r="AT124">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU124">
         <v>1.12</v>
@@ -24943,7 +24988,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25030,7 +25075,7 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT125">
         <v>2.43</v>
@@ -25134,7 +25179,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25224,7 +25269,7 @@
         <v>0.63</v>
       </c>
       <c r="AT126">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU126">
         <v>1.15</v>
@@ -25516,7 +25561,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25603,7 +25648,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT128">
         <v>1.38</v>
@@ -25707,7 +25752,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25898,7 +25943,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -25985,7 +26030,7 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT130">
         <v>1.43</v>
@@ -26089,7 +26134,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26176,10 +26221,10 @@
         <v>0.71</v>
       </c>
       <c r="AS131">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU131">
         <v>1.58</v>
@@ -26471,7 +26516,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26561,7 +26606,7 @@
         <v>0.86</v>
       </c>
       <c r="AT133">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26749,10 +26794,10 @@
         <v>0.25</v>
       </c>
       <c r="AS134">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT134">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU134">
         <v>1.45</v>
@@ -26853,7 +26898,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27044,7 +27089,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27134,7 +27179,7 @@
         <v>0.63</v>
       </c>
       <c r="AT136">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27513,7 +27558,7 @@
         <v>1.6</v>
       </c>
       <c r="AS138">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT138">
         <v>1.29</v>
@@ -27617,7 +27662,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27707,7 +27752,7 @@
         <v>1.25</v>
       </c>
       <c r="AT139">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU139">
         <v>1.87</v>
@@ -27999,7 +28044,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28089,7 +28134,7 @@
         <v>1.33</v>
       </c>
       <c r="AT141">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU141">
         <v>1.27</v>
@@ -28190,7 +28235,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28277,7 +28322,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT142">
         <v>1.38</v>
@@ -28468,10 +28513,10 @@
         <v>1.83</v>
       </c>
       <c r="AS143">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT143">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU143">
         <v>1.53</v>
@@ -28763,7 +28808,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29041,7 +29086,7 @@
         <v>0.5</v>
       </c>
       <c r="AS146">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT146">
         <v>0.5</v>
@@ -29145,7 +29190,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29423,7 +29468,7 @@
         <v>2.6</v>
       </c>
       <c r="AS148">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT148">
         <v>2.43</v>
@@ -29617,7 +29662,7 @@
         <v>1.22</v>
       </c>
       <c r="AT149">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU149">
         <v>1.48</v>
@@ -29718,7 +29763,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29808,7 +29853,7 @@
         <v>1.5</v>
       </c>
       <c r="AT150">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -29999,7 +30044,7 @@
         <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>1.21</v>
@@ -30100,7 +30145,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30378,7 +30423,7 @@
         <v>1.5</v>
       </c>
       <c r="AS153">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT153">
         <v>1.43</v>
@@ -30482,7 +30527,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30763,7 +30808,7 @@
         <v>2.67</v>
       </c>
       <c r="AT155">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU155">
         <v>1.52</v>
@@ -30864,7 +30909,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31055,7 +31100,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31246,7 +31291,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31437,7 +31482,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31715,10 +31760,10 @@
         <v>0.4</v>
       </c>
       <c r="AS160">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT160">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU160">
         <v>1.51</v>
@@ -31819,7 +31864,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -31906,7 +31951,7 @@
         <v>1.43</v>
       </c>
       <c r="AS161">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT161">
         <v>1.38</v>
@@ -32010,7 +32055,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32100,7 +32145,7 @@
         <v>0.25</v>
       </c>
       <c r="AT162">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU162">
         <v>2.17</v>
@@ -32152,6 +32197,2680 @@
       </c>
       <c r="BK162">
         <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5094171</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45091.83333333334</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>80</v>
+      </c>
+      <c r="H163" t="s">
+        <v>82</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>89</v>
+      </c>
+      <c r="P163" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q163">
+        <v>6</v>
+      </c>
+      <c r="R163">
+        <v>4</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>2.9</v>
+      </c>
+      <c r="U163">
+        <v>2.15</v>
+      </c>
+      <c r="V163">
+        <v>3.3</v>
+      </c>
+      <c r="W163">
+        <v>1.35</v>
+      </c>
+      <c r="X163">
+        <v>2.9</v>
+      </c>
+      <c r="Y163">
+        <v>2.65</v>
+      </c>
+      <c r="Z163">
+        <v>1.42</v>
+      </c>
+      <c r="AA163">
+        <v>6</v>
+      </c>
+      <c r="AB163">
+        <v>1.1</v>
+      </c>
+      <c r="AC163">
+        <v>2.18</v>
+      </c>
+      <c r="AD163">
+        <v>3.3</v>
+      </c>
+      <c r="AE163">
+        <v>3</v>
+      </c>
+      <c r="AF163">
+        <v>1.04</v>
+      </c>
+      <c r="AG163">
+        <v>13</v>
+      </c>
+      <c r="AH163">
+        <v>1.24</v>
+      </c>
+      <c r="AI163">
+        <v>3.63</v>
+      </c>
+      <c r="AJ163">
+        <v>1.75</v>
+      </c>
+      <c r="AK163">
+        <v>1.98</v>
+      </c>
+      <c r="AL163">
+        <v>1.65</v>
+      </c>
+      <c r="AM163">
+        <v>2.1</v>
+      </c>
+      <c r="AN163">
+        <v>1.4</v>
+      </c>
+      <c r="AO163">
+        <v>1.27</v>
+      </c>
+      <c r="AP163">
+        <v>1.55</v>
+      </c>
+      <c r="AQ163">
+        <v>0.83</v>
+      </c>
+      <c r="AR163">
+        <v>0.71</v>
+      </c>
+      <c r="AS163">
+        <v>0.63</v>
+      </c>
+      <c r="AT163">
+        <v>1</v>
+      </c>
+      <c r="AU163">
+        <v>1.42</v>
+      </c>
+      <c r="AV163">
+        <v>1.19</v>
+      </c>
+      <c r="AW163">
+        <v>2.61</v>
+      </c>
+      <c r="AX163">
+        <v>1.82</v>
+      </c>
+      <c r="AY163">
+        <v>7.4</v>
+      </c>
+      <c r="AZ163">
+        <v>2.47</v>
+      </c>
+      <c r="BA163">
+        <v>1.33</v>
+      </c>
+      <c r="BB163">
+        <v>1.63</v>
+      </c>
+      <c r="BC163">
+        <v>2.02</v>
+      </c>
+      <c r="BD163">
+        <v>2.7</v>
+      </c>
+      <c r="BE163">
+        <v>3.8</v>
+      </c>
+      <c r="BF163">
+        <v>4</v>
+      </c>
+      <c r="BG163">
+        <v>6</v>
+      </c>
+      <c r="BH163">
+        <v>7</v>
+      </c>
+      <c r="BI163">
+        <v>2</v>
+      </c>
+      <c r="BJ163">
+        <v>11</v>
+      </c>
+      <c r="BK163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5094170</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45091.91666666666</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>71</v>
+      </c>
+      <c r="H164" t="s">
+        <v>88</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>198</v>
+      </c>
+      <c r="P164" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q164">
+        <v>5</v>
+      </c>
+      <c r="R164">
+        <v>6</v>
+      </c>
+      <c r="S164">
+        <v>11</v>
+      </c>
+      <c r="T164">
+        <v>1.75</v>
+      </c>
+      <c r="U164">
+        <v>2.55</v>
+      </c>
+      <c r="V164">
+        <v>6.5</v>
+      </c>
+      <c r="W164">
+        <v>1.29</v>
+      </c>
+      <c r="X164">
+        <v>3.5</v>
+      </c>
+      <c r="Y164">
+        <v>2.36</v>
+      </c>
+      <c r="Z164">
+        <v>1.54</v>
+      </c>
+      <c r="AA164">
+        <v>4.75</v>
+      </c>
+      <c r="AB164">
+        <v>1.15</v>
+      </c>
+      <c r="AC164">
+        <v>1.5</v>
+      </c>
+      <c r="AD164">
+        <v>4.2</v>
+      </c>
+      <c r="AE164">
+        <v>5.25</v>
+      </c>
+      <c r="AF164">
+        <v>1.03</v>
+      </c>
+      <c r="AG164">
+        <v>11</v>
+      </c>
+      <c r="AH164">
+        <v>1.18</v>
+      </c>
+      <c r="AI164">
+        <v>4.5</v>
+      </c>
+      <c r="AJ164">
+        <v>1.68</v>
+      </c>
+      <c r="AK164">
+        <v>2.08</v>
+      </c>
+      <c r="AL164">
+        <v>1.95</v>
+      </c>
+      <c r="AM164">
+        <v>1.8</v>
+      </c>
+      <c r="AN164">
+        <v>1.03</v>
+      </c>
+      <c r="AO164">
+        <v>1.11</v>
+      </c>
+      <c r="AP164">
+        <v>3.25</v>
+      </c>
+      <c r="AQ164">
+        <v>1.5</v>
+      </c>
+      <c r="AR164">
+        <v>1</v>
+      </c>
+      <c r="AS164">
+        <v>1.63</v>
+      </c>
+      <c r="AT164">
+        <v>0.8</v>
+      </c>
+      <c r="AU164">
+        <v>1.62</v>
+      </c>
+      <c r="AV164">
+        <v>1.36</v>
+      </c>
+      <c r="AW164">
+        <v>2.98</v>
+      </c>
+      <c r="AX164">
+        <v>1.42</v>
+      </c>
+      <c r="AY164">
+        <v>7.9</v>
+      </c>
+      <c r="AZ164">
+        <v>3.86</v>
+      </c>
+      <c r="BA164">
+        <v>1.22</v>
+      </c>
+      <c r="BB164">
+        <v>1.4</v>
+      </c>
+      <c r="BC164">
+        <v>1.78</v>
+      </c>
+      <c r="BD164">
+        <v>2.2</v>
+      </c>
+      <c r="BE164">
+        <v>2.9</v>
+      </c>
+      <c r="BF164">
+        <v>6</v>
+      </c>
+      <c r="BG164">
+        <v>8</v>
+      </c>
+      <c r="BH164">
+        <v>5</v>
+      </c>
+      <c r="BI164">
+        <v>4</v>
+      </c>
+      <c r="BJ164">
+        <v>11</v>
+      </c>
+      <c r="BK164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5094172</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45091.95833333334</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s">
+        <v>70</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>199</v>
+      </c>
+      <c r="P165" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q165">
+        <v>9</v>
+      </c>
+      <c r="R165">
+        <v>4</v>
+      </c>
+      <c r="S165">
+        <v>13</v>
+      </c>
+      <c r="T165">
+        <v>2.7</v>
+      </c>
+      <c r="U165">
+        <v>2.15</v>
+      </c>
+      <c r="V165">
+        <v>3.5</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>3</v>
+      </c>
+      <c r="Y165">
+        <v>2.65</v>
+      </c>
+      <c r="Z165">
+        <v>1.43</v>
+      </c>
+      <c r="AA165">
+        <v>6</v>
+      </c>
+      <c r="AB165">
+        <v>1.11</v>
+      </c>
+      <c r="AC165">
+        <v>2.48</v>
+      </c>
+      <c r="AD165">
+        <v>3.35</v>
+      </c>
+      <c r="AE165">
+        <v>2.55</v>
+      </c>
+      <c r="AF165">
+        <v>1.05</v>
+      </c>
+      <c r="AG165">
+        <v>9</v>
+      </c>
+      <c r="AH165">
+        <v>1.25</v>
+      </c>
+      <c r="AI165">
+        <v>3.6</v>
+      </c>
+      <c r="AJ165">
+        <v>1.79</v>
+      </c>
+      <c r="AK165">
+        <v>1.94</v>
+      </c>
+      <c r="AL165">
+        <v>1.68</v>
+      </c>
+      <c r="AM165">
+        <v>2.1</v>
+      </c>
+      <c r="AN165">
+        <v>1.28</v>
+      </c>
+      <c r="AO165">
+        <v>1.22</v>
+      </c>
+      <c r="AP165">
+        <v>1.68</v>
+      </c>
+      <c r="AQ165">
+        <v>1.86</v>
+      </c>
+      <c r="AR165">
+        <v>1.67</v>
+      </c>
+      <c r="AS165">
+        <v>1.75</v>
+      </c>
+      <c r="AT165">
+        <v>1.57</v>
+      </c>
+      <c r="AU165">
+        <v>1.51</v>
+      </c>
+      <c r="AV165">
+        <v>1.81</v>
+      </c>
+      <c r="AW165">
+        <v>3.32</v>
+      </c>
+      <c r="AX165">
+        <v>1.85</v>
+      </c>
+      <c r="AY165">
+        <v>7.4</v>
+      </c>
+      <c r="AZ165">
+        <v>2.42</v>
+      </c>
+      <c r="BA165">
+        <v>1.25</v>
+      </c>
+      <c r="BB165">
+        <v>1.5</v>
+      </c>
+      <c r="BC165">
+        <v>1.95</v>
+      </c>
+      <c r="BD165">
+        <v>2.27</v>
+      </c>
+      <c r="BE165">
+        <v>3.15</v>
+      </c>
+      <c r="BF165">
+        <v>5</v>
+      </c>
+      <c r="BG165">
+        <v>4</v>
+      </c>
+      <c r="BH165">
+        <v>8</v>
+      </c>
+      <c r="BI165">
+        <v>9</v>
+      </c>
+      <c r="BJ165">
+        <v>13</v>
+      </c>
+      <c r="BK165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5094177</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45094.83333333334</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>80</v>
+      </c>
+      <c r="H166" t="s">
+        <v>68</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>4</v>
+      </c>
+      <c r="N166">
+        <v>7</v>
+      </c>
+      <c r="O166" t="s">
+        <v>200</v>
+      </c>
+      <c r="P166" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q166">
+        <v>-1</v>
+      </c>
+      <c r="R166">
+        <v>-1</v>
+      </c>
+      <c r="S166">
+        <v>-1</v>
+      </c>
+      <c r="T166">
+        <v>3.3</v>
+      </c>
+      <c r="U166">
+        <v>2.15</v>
+      </c>
+      <c r="V166">
+        <v>2.85</v>
+      </c>
+      <c r="W166">
+        <v>1.36</v>
+      </c>
+      <c r="X166">
+        <v>3</v>
+      </c>
+      <c r="Y166">
+        <v>2.65</v>
+      </c>
+      <c r="Z166">
+        <v>1.43</v>
+      </c>
+      <c r="AA166">
+        <v>6</v>
+      </c>
+      <c r="AB166">
+        <v>1.11</v>
+      </c>
+      <c r="AC166">
+        <v>2.65</v>
+      </c>
+      <c r="AD166">
+        <v>3.3</v>
+      </c>
+      <c r="AE166">
+        <v>2.25</v>
+      </c>
+      <c r="AF166">
+        <v>1.01</v>
+      </c>
+      <c r="AG166">
+        <v>9.9</v>
+      </c>
+      <c r="AH166">
+        <v>1.23</v>
+      </c>
+      <c r="AI166">
+        <v>3.56</v>
+      </c>
+      <c r="AJ166">
+        <v>1.82</v>
+      </c>
+      <c r="AK166">
+        <v>1.96</v>
+      </c>
+      <c r="AL166">
+        <v>1.66</v>
+      </c>
+      <c r="AM166">
+        <v>2.15</v>
+      </c>
+      <c r="AN166">
+        <v>1.52</v>
+      </c>
+      <c r="AO166">
+        <v>1.22</v>
+      </c>
+      <c r="AP166">
+        <v>1.35</v>
+      </c>
+      <c r="AQ166">
+        <v>0.71</v>
+      </c>
+      <c r="AR166">
+        <v>2.17</v>
+      </c>
+      <c r="AS166">
+        <v>0.63</v>
+      </c>
+      <c r="AT166">
+        <v>2.29</v>
+      </c>
+      <c r="AU166">
+        <v>1.44</v>
+      </c>
+      <c r="AV166">
+        <v>1.29</v>
+      </c>
+      <c r="AW166">
+        <v>2.73</v>
+      </c>
+      <c r="AX166">
+        <v>2.1</v>
+      </c>
+      <c r="AY166">
+        <v>6.8</v>
+      </c>
+      <c r="AZ166">
+        <v>2.1</v>
+      </c>
+      <c r="BA166">
+        <v>1.28</v>
+      </c>
+      <c r="BB166">
+        <v>1.54</v>
+      </c>
+      <c r="BC166">
+        <v>2</v>
+      </c>
+      <c r="BD166">
+        <v>2.5</v>
+      </c>
+      <c r="BE166">
+        <v>3.4</v>
+      </c>
+      <c r="BF166">
+        <v>-1</v>
+      </c>
+      <c r="BG166">
+        <v>-1</v>
+      </c>
+      <c r="BH166">
+        <v>-1</v>
+      </c>
+      <c r="BI166">
+        <v>-1</v>
+      </c>
+      <c r="BJ166">
+        <v>-1</v>
+      </c>
+      <c r="BK166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5094179</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45094.83333333334</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>66</v>
+      </c>
+      <c r="H167" t="s">
+        <v>78</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>197</v>
+      </c>
+      <c r="P167" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q167">
+        <v>-1</v>
+      </c>
+      <c r="R167">
+        <v>-1</v>
+      </c>
+      <c r="S167">
+        <v>-1</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <v>0</v>
+      </c>
+      <c r="AC167">
+        <v>1.66</v>
+      </c>
+      <c r="AD167">
+        <v>3.6</v>
+      </c>
+      <c r="AE167">
+        <v>4.1</v>
+      </c>
+      <c r="AF167">
+        <v>0</v>
+      </c>
+      <c r="AG167">
+        <v>0</v>
+      </c>
+      <c r="AH167">
+        <v>0</v>
+      </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>1.77</v>
+      </c>
+      <c r="AK167">
+        <v>2.03</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>0</v>
+      </c>
+      <c r="AO167">
+        <v>0</v>
+      </c>
+      <c r="AP167">
+        <v>0</v>
+      </c>
+      <c r="AQ167">
+        <v>1.25</v>
+      </c>
+      <c r="AR167">
+        <v>0.5</v>
+      </c>
+      <c r="AS167">
+        <v>1.11</v>
+      </c>
+      <c r="AT167">
+        <v>0.86</v>
+      </c>
+      <c r="AU167">
+        <v>1.36</v>
+      </c>
+      <c r="AV167">
+        <v>1.32</v>
+      </c>
+      <c r="AW167">
+        <v>2.68</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>-1</v>
+      </c>
+      <c r="BG167">
+        <v>-1</v>
+      </c>
+      <c r="BH167">
+        <v>-1</v>
+      </c>
+      <c r="BI167">
+        <v>-1</v>
+      </c>
+      <c r="BJ167">
+        <v>-1</v>
+      </c>
+      <c r="BK167">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5094173</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45094.85416666666</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>69</v>
+      </c>
+      <c r="H168" t="s">
+        <v>84</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>201</v>
+      </c>
+      <c r="P168" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q168">
+        <v>-1</v>
+      </c>
+      <c r="R168">
+        <v>-1</v>
+      </c>
+      <c r="S168">
+        <v>-1</v>
+      </c>
+      <c r="T168">
+        <v>2.45</v>
+      </c>
+      <c r="U168">
+        <v>2.2</v>
+      </c>
+      <c r="V168">
+        <v>4</v>
+      </c>
+      <c r="W168">
+        <v>1.35</v>
+      </c>
+      <c r="X168">
+        <v>2.94</v>
+      </c>
+      <c r="Y168">
+        <v>2.66</v>
+      </c>
+      <c r="Z168">
+        <v>1.42</v>
+      </c>
+      <c r="AA168">
+        <v>6.45</v>
+      </c>
+      <c r="AB168">
+        <v>1.08</v>
+      </c>
+      <c r="AC168">
+        <v>1.9</v>
+      </c>
+      <c r="AD168">
+        <v>3.3</v>
+      </c>
+      <c r="AE168">
+        <v>3.4</v>
+      </c>
+      <c r="AF168">
+        <v>1.01</v>
+      </c>
+      <c r="AG168">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH168">
+        <v>1.24</v>
+      </c>
+      <c r="AI168">
+        <v>3.48</v>
+      </c>
+      <c r="AJ168">
+        <v>1.84</v>
+      </c>
+      <c r="AK168">
+        <v>1.94</v>
+      </c>
+      <c r="AL168">
+        <v>1.72</v>
+      </c>
+      <c r="AM168">
+        <v>2.05</v>
+      </c>
+      <c r="AN168">
+        <v>1.22</v>
+      </c>
+      <c r="AO168">
+        <v>1.2</v>
+      </c>
+      <c r="AP168">
+        <v>1.85</v>
+      </c>
+      <c r="AQ168">
+        <v>1.17</v>
+      </c>
+      <c r="AR168">
+        <v>1.67</v>
+      </c>
+      <c r="AS168">
+        <v>1.43</v>
+      </c>
+      <c r="AT168">
+        <v>1.43</v>
+      </c>
+      <c r="AU168">
+        <v>1.38</v>
+      </c>
+      <c r="AV168">
+        <v>1.28</v>
+      </c>
+      <c r="AW168">
+        <v>2.66</v>
+      </c>
+      <c r="AX168">
+        <v>1.64</v>
+      </c>
+      <c r="AY168">
+        <v>7.6</v>
+      </c>
+      <c r="AZ168">
+        <v>2.86</v>
+      </c>
+      <c r="BA168">
+        <v>1.3</v>
+      </c>
+      <c r="BB168">
+        <v>1.48</v>
+      </c>
+      <c r="BC168">
+        <v>1.85</v>
+      </c>
+      <c r="BD168">
+        <v>2.4</v>
+      </c>
+      <c r="BE168">
+        <v>3.2</v>
+      </c>
+      <c r="BF168">
+        <v>-1</v>
+      </c>
+      <c r="BG168">
+        <v>-1</v>
+      </c>
+      <c r="BH168">
+        <v>-1</v>
+      </c>
+      <c r="BI168">
+        <v>-1</v>
+      </c>
+      <c r="BJ168">
+        <v>-1</v>
+      </c>
+      <c r="BK168">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5094176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45094.875</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>83</v>
+      </c>
+      <c r="H169" t="s">
+        <v>74</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>95</v>
+      </c>
+      <c r="P169" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q169">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>4</v>
+      </c>
+      <c r="S169">
+        <v>8</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>2.2</v>
+      </c>
+      <c r="V169">
+        <v>3.7</v>
+      </c>
+      <c r="W169">
+        <v>1.36</v>
+      </c>
+      <c r="X169">
+        <v>3</v>
+      </c>
+      <c r="Y169">
+        <v>2.62</v>
+      </c>
+      <c r="Z169">
+        <v>1.44</v>
+      </c>
+      <c r="AA169">
+        <v>6</v>
+      </c>
+      <c r="AB169">
+        <v>1.11</v>
+      </c>
+      <c r="AC169">
+        <v>2.15</v>
+      </c>
+      <c r="AD169">
+        <v>3.25</v>
+      </c>
+      <c r="AE169">
+        <v>2.87</v>
+      </c>
+      <c r="AF169">
+        <v>1.01</v>
+      </c>
+      <c r="AG169">
+        <v>9.9</v>
+      </c>
+      <c r="AH169">
+        <v>1.23</v>
+      </c>
+      <c r="AI169">
+        <v>3.56</v>
+      </c>
+      <c r="AJ169">
+        <v>1.82</v>
+      </c>
+      <c r="AK169">
+        <v>1.96</v>
+      </c>
+      <c r="AL169">
+        <v>1.7</v>
+      </c>
+      <c r="AM169">
+        <v>2.05</v>
+      </c>
+      <c r="AN169">
+        <v>1.3</v>
+      </c>
+      <c r="AO169">
+        <v>1.29</v>
+      </c>
+      <c r="AP169">
+        <v>1.73</v>
+      </c>
+      <c r="AQ169">
+        <v>1</v>
+      </c>
+      <c r="AR169">
+        <v>0.33</v>
+      </c>
+      <c r="AS169">
+        <v>0.86</v>
+      </c>
+      <c r="AT169">
+        <v>0.71</v>
+      </c>
+      <c r="AU169">
+        <v>1.49</v>
+      </c>
+      <c r="AV169">
+        <v>1.21</v>
+      </c>
+      <c r="AW169">
+        <v>2.7</v>
+      </c>
+      <c r="AX169">
+        <v>1.89</v>
+      </c>
+      <c r="AY169">
+        <v>6.9</v>
+      </c>
+      <c r="AZ169">
+        <v>2.42</v>
+      </c>
+      <c r="BA169">
+        <v>1.39</v>
+      </c>
+      <c r="BB169">
+        <v>1.95</v>
+      </c>
+      <c r="BC169">
+        <v>2.2</v>
+      </c>
+      <c r="BD169">
+        <v>2.95</v>
+      </c>
+      <c r="BE169">
+        <v>4.3</v>
+      </c>
+      <c r="BF169">
+        <v>4</v>
+      </c>
+      <c r="BG169">
+        <v>7</v>
+      </c>
+      <c r="BH169">
+        <v>9</v>
+      </c>
+      <c r="BI169">
+        <v>5</v>
+      </c>
+      <c r="BJ169">
+        <v>13</v>
+      </c>
+      <c r="BK169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5094178</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45094.89583333334</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>65</v>
+      </c>
+      <c r="H170" t="s">
+        <v>82</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>95</v>
+      </c>
+      <c r="P170" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q170">
+        <v>4</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>6</v>
+      </c>
+      <c r="T170">
+        <v>2.2</v>
+      </c>
+      <c r="U170">
+        <v>2.25</v>
+      </c>
+      <c r="V170">
+        <v>4.5</v>
+      </c>
+      <c r="W170">
+        <v>1.33</v>
+      </c>
+      <c r="X170">
+        <v>3.25</v>
+      </c>
+      <c r="Y170">
+        <v>2.6</v>
+      </c>
+      <c r="Z170">
+        <v>1.45</v>
+      </c>
+      <c r="AA170">
+        <v>6</v>
+      </c>
+      <c r="AB170">
+        <v>1.11</v>
+      </c>
+      <c r="AC170">
+        <v>1.47</v>
+      </c>
+      <c r="AD170">
+        <v>4</v>
+      </c>
+      <c r="AE170">
+        <v>5.25</v>
+      </c>
+      <c r="AF170">
+        <v>1.01</v>
+      </c>
+      <c r="AG170">
+        <v>9.9</v>
+      </c>
+      <c r="AH170">
+        <v>1.23</v>
+      </c>
+      <c r="AI170">
+        <v>3.56</v>
+      </c>
+      <c r="AJ170">
+        <v>1.82</v>
+      </c>
+      <c r="AK170">
+        <v>1.96</v>
+      </c>
+      <c r="AL170">
+        <v>1.78</v>
+      </c>
+      <c r="AM170">
+        <v>1.95</v>
+      </c>
+      <c r="AN170">
+        <v>1.15</v>
+      </c>
+      <c r="AO170">
+        <v>1.2</v>
+      </c>
+      <c r="AP170">
+        <v>2.15</v>
+      </c>
+      <c r="AQ170">
+        <v>1.33</v>
+      </c>
+      <c r="AR170">
+        <v>1</v>
+      </c>
+      <c r="AS170">
+        <v>1.29</v>
+      </c>
+      <c r="AT170">
+        <v>1</v>
+      </c>
+      <c r="AU170">
+        <v>1.75</v>
+      </c>
+      <c r="AV170">
+        <v>1.22</v>
+      </c>
+      <c r="AW170">
+        <v>2.97</v>
+      </c>
+      <c r="AX170">
+        <v>1.28</v>
+      </c>
+      <c r="AY170">
+        <v>9</v>
+      </c>
+      <c r="AZ170">
+        <v>5.06</v>
+      </c>
+      <c r="BA170">
+        <v>1.28</v>
+      </c>
+      <c r="BB170">
+        <v>1.59</v>
+      </c>
+      <c r="BC170">
+        <v>1.97</v>
+      </c>
+      <c r="BD170">
+        <v>2.47</v>
+      </c>
+      <c r="BE170">
+        <v>3.4</v>
+      </c>
+      <c r="BF170">
+        <v>4</v>
+      </c>
+      <c r="BG170">
+        <v>3</v>
+      </c>
+      <c r="BH170">
+        <v>3</v>
+      </c>
+      <c r="BI170">
+        <v>5</v>
+      </c>
+      <c r="BJ170">
+        <v>7</v>
+      </c>
+      <c r="BK170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5094180</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45094.91666666666</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>87</v>
+      </c>
+      <c r="H171" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>202</v>
+      </c>
+      <c r="P171" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q171">
+        <v>3</v>
+      </c>
+      <c r="R171">
+        <v>6</v>
+      </c>
+      <c r="S171">
+        <v>9</v>
+      </c>
+      <c r="T171">
+        <v>2.45</v>
+      </c>
+      <c r="U171">
+        <v>2.2</v>
+      </c>
+      <c r="V171">
+        <v>4</v>
+      </c>
+      <c r="W171">
+        <v>1.36</v>
+      </c>
+      <c r="X171">
+        <v>3</v>
+      </c>
+      <c r="Y171">
+        <v>2.65</v>
+      </c>
+      <c r="Z171">
+        <v>1.43</v>
+      </c>
+      <c r="AA171">
+        <v>6</v>
+      </c>
+      <c r="AB171">
+        <v>1.11</v>
+      </c>
+      <c r="AC171">
+        <v>1.72</v>
+      </c>
+      <c r="AD171">
+        <v>3.3</v>
+      </c>
+      <c r="AE171">
+        <v>4.1</v>
+      </c>
+      <c r="AF171">
+        <v>1.01</v>
+      </c>
+      <c r="AG171">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH171">
+        <v>1.24</v>
+      </c>
+      <c r="AI171">
+        <v>3.48</v>
+      </c>
+      <c r="AJ171">
+        <v>1.84</v>
+      </c>
+      <c r="AK171">
+        <v>1.94</v>
+      </c>
+      <c r="AL171">
+        <v>1.72</v>
+      </c>
+      <c r="AM171">
+        <v>2.05</v>
+      </c>
+      <c r="AN171">
+        <v>1.22</v>
+      </c>
+      <c r="AO171">
+        <v>1.2</v>
+      </c>
+      <c r="AP171">
+        <v>1.85</v>
+      </c>
+      <c r="AQ171">
+        <v>1.75</v>
+      </c>
+      <c r="AR171">
+        <v>1.4</v>
+      </c>
+      <c r="AS171">
+        <v>1.6</v>
+      </c>
+      <c r="AT171">
+        <v>1.33</v>
+      </c>
+      <c r="AU171">
+        <v>1.21</v>
+      </c>
+      <c r="AV171">
+        <v>1.14</v>
+      </c>
+      <c r="AW171">
+        <v>2.35</v>
+      </c>
+      <c r="AX171">
+        <v>1.72</v>
+      </c>
+      <c r="AY171">
+        <v>7.1</v>
+      </c>
+      <c r="AZ171">
+        <v>2.72</v>
+      </c>
+      <c r="BA171">
+        <v>1.52</v>
+      </c>
+      <c r="BB171">
+        <v>1.88</v>
+      </c>
+      <c r="BC171">
+        <v>2.37</v>
+      </c>
+      <c r="BD171">
+        <v>3.4</v>
+      </c>
+      <c r="BE171">
+        <v>5</v>
+      </c>
+      <c r="BF171">
+        <v>4</v>
+      </c>
+      <c r="BG171">
+        <v>5</v>
+      </c>
+      <c r="BH171">
+        <v>1</v>
+      </c>
+      <c r="BI171">
+        <v>4</v>
+      </c>
+      <c r="BJ171">
+        <v>5</v>
+      </c>
+      <c r="BK171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5094174</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45094.91666666666</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>88</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>203</v>
+      </c>
+      <c r="P172" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q172">
+        <v>5</v>
+      </c>
+      <c r="R172">
+        <v>9</v>
+      </c>
+      <c r="S172">
+        <v>14</v>
+      </c>
+      <c r="T172">
+        <v>2.1</v>
+      </c>
+      <c r="U172">
+        <v>2.25</v>
+      </c>
+      <c r="V172">
+        <v>5</v>
+      </c>
+      <c r="W172">
+        <v>1.33</v>
+      </c>
+      <c r="X172">
+        <v>3.25</v>
+      </c>
+      <c r="Y172">
+        <v>2.6</v>
+      </c>
+      <c r="Z172">
+        <v>1.45</v>
+      </c>
+      <c r="AA172">
+        <v>5.5</v>
+      </c>
+      <c r="AB172">
+        <v>1.12</v>
+      </c>
+      <c r="AC172">
+        <v>1.55</v>
+      </c>
+      <c r="AD172">
+        <v>3.9</v>
+      </c>
+      <c r="AE172">
+        <v>4.75</v>
+      </c>
+      <c r="AF172">
+        <v>1.01</v>
+      </c>
+      <c r="AG172">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH172">
+        <v>1.24</v>
+      </c>
+      <c r="AI172">
+        <v>3.48</v>
+      </c>
+      <c r="AJ172">
+        <v>1.84</v>
+      </c>
+      <c r="AK172">
+        <v>1.94</v>
+      </c>
+      <c r="AL172">
+        <v>1.83</v>
+      </c>
+      <c r="AM172">
+        <v>1.9</v>
+      </c>
+      <c r="AN172">
+        <v>1.11</v>
+      </c>
+      <c r="AO172">
+        <v>1.18</v>
+      </c>
+      <c r="AP172">
+        <v>2.15</v>
+      </c>
+      <c r="AQ172">
+        <v>1.67</v>
+      </c>
+      <c r="AR172">
+        <v>0.89</v>
+      </c>
+      <c r="AS172">
+        <v>1.86</v>
+      </c>
+      <c r="AT172">
+        <v>0.8</v>
+      </c>
+      <c r="AU172">
+        <v>1.56</v>
+      </c>
+      <c r="AV172">
+        <v>1.42</v>
+      </c>
+      <c r="AW172">
+        <v>2.98</v>
+      </c>
+      <c r="AX172">
+        <v>1.42</v>
+      </c>
+      <c r="AY172">
+        <v>8.4</v>
+      </c>
+      <c r="AZ172">
+        <v>3.75</v>
+      </c>
+      <c r="BA172">
+        <v>1.18</v>
+      </c>
+      <c r="BB172">
+        <v>1.33</v>
+      </c>
+      <c r="BC172">
+        <v>1.65</v>
+      </c>
+      <c r="BD172">
+        <v>2.02</v>
+      </c>
+      <c r="BE172">
+        <v>2.65</v>
+      </c>
+      <c r="BF172">
+        <v>4</v>
+      </c>
+      <c r="BG172">
+        <v>9</v>
+      </c>
+      <c r="BH172">
+        <v>5</v>
+      </c>
+      <c r="BI172">
+        <v>7</v>
+      </c>
+      <c r="BJ172">
+        <v>9</v>
+      </c>
+      <c r="BK172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5094175</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45094.9375</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173" t="s">
+        <v>67</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>119</v>
+      </c>
+      <c r="P173" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q173">
+        <v>6</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173">
+        <v>7</v>
+      </c>
+      <c r="T173">
+        <v>2.45</v>
+      </c>
+      <c r="U173">
+        <v>2.15</v>
+      </c>
+      <c r="V173">
+        <v>4</v>
+      </c>
+      <c r="W173">
+        <v>1.36</v>
+      </c>
+      <c r="X173">
+        <v>3</v>
+      </c>
+      <c r="Y173">
+        <v>2.65</v>
+      </c>
+      <c r="Z173">
+        <v>1.43</v>
+      </c>
+      <c r="AA173">
+        <v>6</v>
+      </c>
+      <c r="AB173">
+        <v>1.11</v>
+      </c>
+      <c r="AC173">
+        <v>2.2</v>
+      </c>
+      <c r="AD173">
+        <v>3.25</v>
+      </c>
+      <c r="AE173">
+        <v>2.75</v>
+      </c>
+      <c r="AF173">
+        <v>1.01</v>
+      </c>
+      <c r="AG173">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH173">
+        <v>1.24</v>
+      </c>
+      <c r="AI173">
+        <v>3.48</v>
+      </c>
+      <c r="AJ173">
+        <v>1.84</v>
+      </c>
+      <c r="AK173">
+        <v>1.94</v>
+      </c>
+      <c r="AL173">
+        <v>1.72</v>
+      </c>
+      <c r="AM173">
+        <v>2.05</v>
+      </c>
+      <c r="AN173">
+        <v>1.22</v>
+      </c>
+      <c r="AO173">
+        <v>1.22</v>
+      </c>
+      <c r="AP173">
+        <v>1.85</v>
+      </c>
+      <c r="AQ173">
+        <v>1.71</v>
+      </c>
+      <c r="AR173">
+        <v>1.4</v>
+      </c>
+      <c r="AS173">
+        <v>1.63</v>
+      </c>
+      <c r="AT173">
+        <v>1.33</v>
+      </c>
+      <c r="AU173">
+        <v>1.57</v>
+      </c>
+      <c r="AV173">
+        <v>1.3</v>
+      </c>
+      <c r="AW173">
+        <v>2.87</v>
+      </c>
+      <c r="AX173">
+        <v>1.87</v>
+      </c>
+      <c r="AY173">
+        <v>7.3</v>
+      </c>
+      <c r="AZ173">
+        <v>2.39</v>
+      </c>
+      <c r="BA173">
+        <v>1.3</v>
+      </c>
+      <c r="BB173">
+        <v>1.61</v>
+      </c>
+      <c r="BC173">
+        <v>1.99</v>
+      </c>
+      <c r="BD173">
+        <v>2.51</v>
+      </c>
+      <c r="BE173">
+        <v>3.5</v>
+      </c>
+      <c r="BF173">
+        <v>7</v>
+      </c>
+      <c r="BG173">
+        <v>7</v>
+      </c>
+      <c r="BH173">
+        <v>6</v>
+      </c>
+      <c r="BI173">
+        <v>4</v>
+      </c>
+      <c r="BJ173">
+        <v>13</v>
+      </c>
+      <c r="BK173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5094181</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45094.95833333334</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>85</v>
+      </c>
+      <c r="H174" t="s">
+        <v>79</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174" t="s">
+        <v>95</v>
+      </c>
+      <c r="P174" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q174">
+        <v>2</v>
+      </c>
+      <c r="R174">
+        <v>3</v>
+      </c>
+      <c r="S174">
+        <v>5</v>
+      </c>
+      <c r="T174">
+        <v>2.8</v>
+      </c>
+      <c r="U174">
+        <v>2.15</v>
+      </c>
+      <c r="V174">
+        <v>3.4</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>3</v>
+      </c>
+      <c r="Y174">
+        <v>2.65</v>
+      </c>
+      <c r="Z174">
+        <v>1.43</v>
+      </c>
+      <c r="AA174">
+        <v>6</v>
+      </c>
+      <c r="AB174">
+        <v>1.11</v>
+      </c>
+      <c r="AC174">
+        <v>2.1</v>
+      </c>
+      <c r="AD174">
+        <v>3.25</v>
+      </c>
+      <c r="AE174">
+        <v>2.95</v>
+      </c>
+      <c r="AF174">
+        <v>1.01</v>
+      </c>
+      <c r="AG174">
+        <v>9.4</v>
+      </c>
+      <c r="AH174">
+        <v>1.25</v>
+      </c>
+      <c r="AI174">
+        <v>3.42</v>
+      </c>
+      <c r="AJ174">
+        <v>1.82</v>
+      </c>
+      <c r="AK174">
+        <v>1.96</v>
+      </c>
+      <c r="AL174">
+        <v>1.66</v>
+      </c>
+      <c r="AM174">
+        <v>2.15</v>
+      </c>
+      <c r="AN174">
+        <v>1.33</v>
+      </c>
+      <c r="AO174">
+        <v>1.25</v>
+      </c>
+      <c r="AP174">
+        <v>1.6</v>
+      </c>
+      <c r="AQ174">
+        <v>2</v>
+      </c>
+      <c r="AR174">
+        <v>1.25</v>
+      </c>
+      <c r="AS174">
+        <v>1.83</v>
+      </c>
+      <c r="AT174">
+        <v>1.22</v>
+      </c>
+      <c r="AU174">
+        <v>1.51</v>
+      </c>
+      <c r="AV174">
+        <v>1.19</v>
+      </c>
+      <c r="AW174">
+        <v>2.7</v>
+      </c>
+      <c r="AX174">
+        <v>1.7</v>
+      </c>
+      <c r="AY174">
+        <v>7.5</v>
+      </c>
+      <c r="AZ174">
+        <v>2.71</v>
+      </c>
+      <c r="BA174">
+        <v>1.35</v>
+      </c>
+      <c r="BB174">
+        <v>1.68</v>
+      </c>
+      <c r="BC174">
+        <v>2.09</v>
+      </c>
+      <c r="BD174">
+        <v>2.8</v>
+      </c>
+      <c r="BE174">
+        <v>3.9</v>
+      </c>
+      <c r="BF174">
+        <v>4</v>
+      </c>
+      <c r="BG174">
+        <v>3</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>4</v>
+      </c>
+      <c r="BJ174">
+        <v>8</v>
+      </c>
+      <c r="BK174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5094182</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45094.97916666666</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>86</v>
+      </c>
+      <c r="H175" t="s">
+        <v>81</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>204</v>
+      </c>
+      <c r="P175" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q175">
+        <v>8</v>
+      </c>
+      <c r="R175">
+        <v>5</v>
+      </c>
+      <c r="S175">
+        <v>13</v>
+      </c>
+      <c r="T175">
+        <v>3.25</v>
+      </c>
+      <c r="U175">
+        <v>2.15</v>
+      </c>
+      <c r="V175">
+        <v>2.9</v>
+      </c>
+      <c r="W175">
+        <v>1.36</v>
+      </c>
+      <c r="X175">
+        <v>3</v>
+      </c>
+      <c r="Y175">
+        <v>2.65</v>
+      </c>
+      <c r="Z175">
+        <v>1.43</v>
+      </c>
+      <c r="AA175">
+        <v>6</v>
+      </c>
+      <c r="AB175">
+        <v>1.11</v>
+      </c>
+      <c r="AC175">
+        <v>2.35</v>
+      </c>
+      <c r="AD175">
+        <v>3.25</v>
+      </c>
+      <c r="AE175">
+        <v>2.55</v>
+      </c>
+      <c r="AF175">
+        <v>1.01</v>
+      </c>
+      <c r="AG175">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH175">
+        <v>1.24</v>
+      </c>
+      <c r="AI175">
+        <v>3.48</v>
+      </c>
+      <c r="AJ175">
+        <v>1.84</v>
+      </c>
+      <c r="AK175">
+        <v>1.94</v>
+      </c>
+      <c r="AL175">
+        <v>1.65</v>
+      </c>
+      <c r="AM175">
+        <v>2.15</v>
+      </c>
+      <c r="AN175">
+        <v>1.47</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>1.36</v>
+      </c>
+      <c r="AQ175">
+        <v>1.5</v>
+      </c>
+      <c r="AR175">
+        <v>1.71</v>
+      </c>
+      <c r="AS175">
+        <v>1.43</v>
+      </c>
+      <c r="AT175">
+        <v>1.63</v>
+      </c>
+      <c r="AU175">
+        <v>1.64</v>
+      </c>
+      <c r="AV175">
+        <v>1.11</v>
+      </c>
+      <c r="AW175">
+        <v>2.75</v>
+      </c>
+      <c r="AX175">
+        <v>1.87</v>
+      </c>
+      <c r="AY175">
+        <v>7.4</v>
+      </c>
+      <c r="AZ175">
+        <v>2.38</v>
+      </c>
+      <c r="BA175">
+        <v>1.22</v>
+      </c>
+      <c r="BB175">
+        <v>1.42</v>
+      </c>
+      <c r="BC175">
+        <v>1.78</v>
+      </c>
+      <c r="BD175">
+        <v>2.21</v>
+      </c>
+      <c r="BE175">
+        <v>2.95</v>
+      </c>
+      <c r="BF175">
+        <v>7</v>
+      </c>
+      <c r="BG175">
+        <v>7</v>
+      </c>
+      <c r="BH175">
+        <v>6</v>
+      </c>
+      <c r="BI175">
+        <v>3</v>
+      </c>
+      <c r="BJ175">
+        <v>13</v>
+      </c>
+      <c r="BK175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5094183</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45095</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>77</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>95</v>
+      </c>
+      <c r="P176" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q176">
+        <v>11</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176">
+        <v>12</v>
+      </c>
+      <c r="T176">
+        <v>2.15</v>
+      </c>
+      <c r="U176">
+        <v>2.25</v>
+      </c>
+      <c r="V176">
+        <v>4.75</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>3.25</v>
+      </c>
+      <c r="Y176">
+        <v>2.6</v>
+      </c>
+      <c r="Z176">
+        <v>1.45</v>
+      </c>
+      <c r="AA176">
+        <v>6</v>
+      </c>
+      <c r="AB176">
+        <v>1.11</v>
+      </c>
+      <c r="AC176">
+        <v>1.49</v>
+      </c>
+      <c r="AD176">
+        <v>3.9</v>
+      </c>
+      <c r="AE176">
+        <v>5.25</v>
+      </c>
+      <c r="AF176">
+        <v>1.01</v>
+      </c>
+      <c r="AG176">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH176">
+        <v>1.25</v>
+      </c>
+      <c r="AI176">
+        <v>3.75</v>
+      </c>
+      <c r="AJ176">
+        <v>1.84</v>
+      </c>
+      <c r="AK176">
+        <v>1.94</v>
+      </c>
+      <c r="AL176">
+        <v>1.8</v>
+      </c>
+      <c r="AM176">
+        <v>1.95</v>
+      </c>
+      <c r="AN176">
+        <v>1.12</v>
+      </c>
+      <c r="AO176">
+        <v>1.18</v>
+      </c>
+      <c r="AP176">
+        <v>2.2</v>
+      </c>
+      <c r="AQ176">
+        <v>2.71</v>
+      </c>
+      <c r="AR176">
+        <v>1.33</v>
+      </c>
+      <c r="AS176">
+        <v>2.38</v>
+      </c>
+      <c r="AT176">
+        <v>1.57</v>
+      </c>
+      <c r="AU176">
+        <v>1.5</v>
+      </c>
+      <c r="AV176">
+        <v>1.25</v>
+      </c>
+      <c r="AW176">
+        <v>2.75</v>
+      </c>
+      <c r="AX176">
+        <v>1.45</v>
+      </c>
+      <c r="AY176">
+        <v>7.9</v>
+      </c>
+      <c r="AZ176">
+        <v>3.65</v>
+      </c>
+      <c r="BA176">
+        <v>1.3</v>
+      </c>
+      <c r="BB176">
+        <v>1.61</v>
+      </c>
+      <c r="BC176">
+        <v>2</v>
+      </c>
+      <c r="BD176">
+        <v>2.51</v>
+      </c>
+      <c r="BE176">
+        <v>3.5</v>
+      </c>
+      <c r="BF176">
+        <v>6</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>8</v>
+      </c>
+      <c r="BI176">
+        <v>3</v>
+      </c>
+      <c r="BJ176">
+        <v>14</v>
+      </c>
+      <c r="BK176">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,18 @@
     <t>['5', '74']</t>
   </si>
   <si>
+    <t>['34', '83']</t>
+  </si>
+  <si>
+    <t>['20', '25', '48', '68']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -796,9 +808,6 @@
     <t>['26', '31', '39']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
     <t>['44']</t>
   </si>
   <si>
@@ -890,6 +899,9 @@
   </si>
   <si>
     <t>['42', '57']</t>
+  </si>
+  <si>
+    <t>['31', '53', '88']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1507,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1582,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1776,7 +1788,7 @@
         <v>1.11</v>
       </c>
       <c r="AT3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2068,7 +2080,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2158,7 +2170,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2259,7 +2271,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2346,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT6">
         <v>1.22</v>
@@ -2450,7 +2462,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2832,7 +2844,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3214,7 +3226,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3405,7 +3417,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3492,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT12">
         <v>0.8</v>
@@ -3596,7 +3608,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3686,7 +3698,7 @@
         <v>1.63</v>
       </c>
       <c r="AT13">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3787,7 +3799,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3874,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT14">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3978,7 +3990,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4065,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>1.22</v>
@@ -4360,7 +4372,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4551,7 +4563,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5124,7 +5136,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5596,7 +5608,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5697,7 +5709,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5784,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT24">
         <v>1.38</v>
@@ -6079,7 +6091,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6166,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT26">
         <v>1.57</v>
@@ -6270,7 +6282,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6461,7 +6473,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6652,7 +6664,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7124,7 +7136,7 @@
         <v>1.75</v>
       </c>
       <c r="AT31">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>1.4</v>
@@ -7315,7 +7327,7 @@
         <v>0.86</v>
       </c>
       <c r="AT32">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7416,7 +7428,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7989,7 +8001,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8461,7 +8473,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1.45</v>
@@ -9135,7 +9147,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9326,7 +9338,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9899,7 +9911,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10281,7 +10293,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10371,7 +10383,7 @@
         <v>1.75</v>
       </c>
       <c r="AT48">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU48">
         <v>1.37</v>
@@ -10472,7 +10484,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10854,7 +10866,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11618,7 +11630,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11809,7 +11821,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11896,10 +11908,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT56">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12000,7 +12012,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12191,7 +12203,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13146,7 +13158,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13233,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>0.8</v>
@@ -13337,7 +13349,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13424,7 +13436,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
         <v>1.29</v>
@@ -13528,7 +13540,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -14191,7 +14203,7 @@
         <v>2.38</v>
       </c>
       <c r="AT68">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.21</v>
@@ -14292,7 +14304,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14674,7 +14686,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14865,7 +14877,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14955,7 +14967,7 @@
         <v>1.75</v>
       </c>
       <c r="AT72">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU72">
         <v>1.39</v>
@@ -15056,7 +15068,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15143,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT73">
         <v>2.6</v>
@@ -15438,7 +15450,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -16393,7 +16405,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16584,7 +16596,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16775,7 +16787,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16966,7 +16978,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17056,7 +17068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT83">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.38</v>
@@ -17244,7 +17256,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
         <v>1.63</v>
@@ -17348,7 +17360,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17626,7 +17638,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
         <v>0.71</v>
@@ -18112,7 +18124,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18303,7 +18315,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18393,7 +18405,7 @@
         <v>1.43</v>
       </c>
       <c r="AT90">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU90">
         <v>1.24</v>
@@ -18494,7 +18506,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18581,7 +18593,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT91">
         <v>0.71</v>
@@ -18685,7 +18697,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18876,7 +18888,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18963,7 +18975,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT93">
         <v>0.88</v>
@@ -19067,7 +19079,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19258,7 +19270,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19640,7 +19652,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19831,7 +19843,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -20022,7 +20034,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20109,7 +20121,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT99">
         <v>1.38</v>
@@ -20213,7 +20225,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20303,7 +20315,7 @@
         <v>1.17</v>
       </c>
       <c r="AT100">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU100">
         <v>1.03</v>
@@ -20494,7 +20506,7 @@
         <v>1.89</v>
       </c>
       <c r="AT101">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU101">
         <v>1.2</v>
@@ -20595,7 +20607,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20786,7 +20798,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20977,7 +20989,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21359,7 +21371,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21828,10 +21840,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.6</v>
@@ -22019,7 +22031,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT109">
         <v>1.57</v>
@@ -22213,7 +22225,7 @@
         <v>1.63</v>
       </c>
       <c r="AT110">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU110">
         <v>1.44</v>
@@ -22314,7 +22326,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22505,7 +22517,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22696,7 +22708,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22977,7 +22989,7 @@
         <v>0.25</v>
       </c>
       <c r="AT114">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU114">
         <v>2.18</v>
@@ -23269,7 +23281,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23651,7 +23663,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -24033,7 +24045,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24224,7 +24236,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24505,7 +24517,7 @@
         <v>0.86</v>
       </c>
       <c r="AT122">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -24696,7 +24708,7 @@
         <v>0.63</v>
       </c>
       <c r="AT123">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU123">
         <v>1.53</v>
@@ -24988,7 +25000,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25075,7 +25087,7 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT125">
         <v>2.43</v>
@@ -25179,7 +25191,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25266,7 +25278,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT126">
         <v>1.33</v>
@@ -25460,7 +25472,7 @@
         <v>1.22</v>
       </c>
       <c r="AT127">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU127">
         <v>1.44</v>
@@ -25561,7 +25573,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25752,7 +25764,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25842,7 +25854,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU129">
         <v>1.66</v>
@@ -25943,7 +25955,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26134,7 +26146,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26516,7 +26528,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26898,7 +26910,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -26988,7 +27000,7 @@
         <v>1.89</v>
       </c>
       <c r="AT135">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU135">
         <v>1.4</v>
@@ -27089,7 +27101,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27176,7 +27188,7 @@
         <v>2.5</v>
       </c>
       <c r="AS136">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT136">
         <v>2.29</v>
@@ -27662,7 +27674,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27943,7 +27955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU140">
         <v>0.97</v>
@@ -28044,7 +28056,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28235,7 +28247,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28707,7 +28719,7 @@
         <v>2.67</v>
       </c>
       <c r="AT144">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU144">
         <v>1.68</v>
@@ -28808,7 +28820,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29086,7 +29098,7 @@
         <v>0.5</v>
       </c>
       <c r="AS146">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
         <v>0.5</v>
@@ -29190,7 +29202,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29468,7 +29480,7 @@
         <v>2.6</v>
       </c>
       <c r="AS148">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT148">
         <v>2.43</v>
@@ -29763,7 +29775,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29853,7 +29865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT150">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -30145,7 +30157,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30235,7 +30247,7 @@
         <v>1.25</v>
       </c>
       <c r="AT152">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU152">
         <v>1.75</v>
@@ -30527,7 +30539,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30909,7 +30921,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31100,7 +31112,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31187,7 +31199,7 @@
         <v>0.4</v>
       </c>
       <c r="AS157">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT157">
         <v>0.5</v>
@@ -31291,7 +31303,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31482,7 +31494,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31864,7 +31876,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32055,7 +32067,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32246,7 +32258,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32437,7 +32449,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32628,7 +32640,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32819,16 +32831,16 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="S166">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T166">
         <v>3.3</v>
@@ -32945,22 +32957,22 @@
         <v>3.4</v>
       </c>
       <c r="BF166">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG166">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH166">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI166">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ166">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK166">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:63">
@@ -33010,16 +33022,16 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q167">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R167">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T167">
         <v>0</v>
@@ -33100,7 +33112,7 @@
         <v>1.11</v>
       </c>
       <c r="AT167">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU167">
         <v>1.36</v>
@@ -33136,22 +33148,22 @@
         <v>0</v>
       </c>
       <c r="BF167">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG167">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH167">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI167">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ167">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK167">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:63">
@@ -33201,16 +33213,16 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q168">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R168">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T168">
         <v>2.45</v>
@@ -33288,7 +33300,7 @@
         <v>1.67</v>
       </c>
       <c r="AS168">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT168">
         <v>1.43</v>
@@ -33327,22 +33339,22 @@
         <v>3.2</v>
       </c>
       <c r="BF168">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG168">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH168">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI168">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ168">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK168">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:63">
@@ -33392,7 +33404,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33670,7 +33682,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT170">
         <v>1</v>
@@ -33774,7 +33786,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33861,7 +33873,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT171">
         <v>1.33</v>
@@ -34538,7 +34550,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34729,16 +34741,16 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q176">
         <v>11</v>
       </c>
       <c r="R176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S176">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T176">
         <v>2.15</v>
@@ -34871,6 +34883,770 @@
       </c>
       <c r="BK176">
         <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5094184</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45098.875</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>69</v>
+      </c>
+      <c r="H177" t="s">
+        <v>78</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>205</v>
+      </c>
+      <c r="P177" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q177">
+        <v>8</v>
+      </c>
+      <c r="R177">
+        <v>6</v>
+      </c>
+      <c r="S177">
+        <v>14</v>
+      </c>
+      <c r="T177">
+        <v>2.45</v>
+      </c>
+      <c r="U177">
+        <v>2.15</v>
+      </c>
+      <c r="V177">
+        <v>4</v>
+      </c>
+      <c r="W177">
+        <v>1.36</v>
+      </c>
+      <c r="X177">
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <v>2.65</v>
+      </c>
+      <c r="Z177">
+        <v>1.43</v>
+      </c>
+      <c r="AA177">
+        <v>6</v>
+      </c>
+      <c r="AB177">
+        <v>1.11</v>
+      </c>
+      <c r="AC177">
+        <v>1.67</v>
+      </c>
+      <c r="AD177">
+        <v>4.13</v>
+      </c>
+      <c r="AE177">
+        <v>4.1</v>
+      </c>
+      <c r="AF177">
+        <v>1.05</v>
+      </c>
+      <c r="AG177">
+        <v>9</v>
+      </c>
+      <c r="AH177">
+        <v>1.25</v>
+      </c>
+      <c r="AI177">
+        <v>3.6</v>
+      </c>
+      <c r="AJ177">
+        <v>1.75</v>
+      </c>
+      <c r="AK177">
+        <v>1.95</v>
+      </c>
+      <c r="AL177">
+        <v>1.72</v>
+      </c>
+      <c r="AM177">
+        <v>2.05</v>
+      </c>
+      <c r="AN177">
+        <v>1.2</v>
+      </c>
+      <c r="AO177">
+        <v>1.22</v>
+      </c>
+      <c r="AP177">
+        <v>1.83</v>
+      </c>
+      <c r="AQ177">
+        <v>1.43</v>
+      </c>
+      <c r="AR177">
+        <v>0.86</v>
+      </c>
+      <c r="AS177">
+        <v>1.63</v>
+      </c>
+      <c r="AT177">
+        <v>0.75</v>
+      </c>
+      <c r="AU177">
+        <v>1.42</v>
+      </c>
+      <c r="AV177">
+        <v>1.31</v>
+      </c>
+      <c r="AW177">
+        <v>2.73</v>
+      </c>
+      <c r="AX177">
+        <v>1.43</v>
+      </c>
+      <c r="AY177">
+        <v>6.6</v>
+      </c>
+      <c r="AZ177">
+        <v>4</v>
+      </c>
+      <c r="BA177">
+        <v>1.3</v>
+      </c>
+      <c r="BB177">
+        <v>1.61</v>
+      </c>
+      <c r="BC177">
+        <v>1.98</v>
+      </c>
+      <c r="BD177">
+        <v>2.47</v>
+      </c>
+      <c r="BE177">
+        <v>3.5</v>
+      </c>
+      <c r="BF177">
+        <v>6</v>
+      </c>
+      <c r="BG177">
+        <v>4</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>6</v>
+      </c>
+      <c r="BJ177">
+        <v>10</v>
+      </c>
+      <c r="BK177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5094185</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45098.875</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>65</v>
+      </c>
+      <c r="H178" t="s">
+        <v>83</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>4</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>206</v>
+      </c>
+      <c r="P178" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>6</v>
+      </c>
+      <c r="S178">
+        <v>7</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>2.2</v>
+      </c>
+      <c r="V178">
+        <v>4.5</v>
+      </c>
+      <c r="W178">
+        <v>1.33</v>
+      </c>
+      <c r="X178">
+        <v>3.25</v>
+      </c>
+      <c r="Y178">
+        <v>2.65</v>
+      </c>
+      <c r="Z178">
+        <v>1.43</v>
+      </c>
+      <c r="AA178">
+        <v>6</v>
+      </c>
+      <c r="AB178">
+        <v>1.11</v>
+      </c>
+      <c r="AC178">
+        <v>1.6</v>
+      </c>
+      <c r="AD178">
+        <v>4.1</v>
+      </c>
+      <c r="AE178">
+        <v>4.67</v>
+      </c>
+      <c r="AF178">
+        <v>1.05</v>
+      </c>
+      <c r="AG178">
+        <v>9</v>
+      </c>
+      <c r="AH178">
+        <v>1.25</v>
+      </c>
+      <c r="AI178">
+        <v>3.75</v>
+      </c>
+      <c r="AJ178">
+        <v>1.75</v>
+      </c>
+      <c r="AK178">
+        <v>1.95</v>
+      </c>
+      <c r="AL178">
+        <v>1.75</v>
+      </c>
+      <c r="AM178">
+        <v>2</v>
+      </c>
+      <c r="AN178">
+        <v>1.15</v>
+      </c>
+      <c r="AO178">
+        <v>1.2</v>
+      </c>
+      <c r="AP178">
+        <v>2.1</v>
+      </c>
+      <c r="AQ178">
+        <v>1.29</v>
+      </c>
+      <c r="AR178">
+        <v>0.88</v>
+      </c>
+      <c r="AS178">
+        <v>1.5</v>
+      </c>
+      <c r="AT178">
+        <v>0.78</v>
+      </c>
+      <c r="AU178">
+        <v>1.64</v>
+      </c>
+      <c r="AV178">
+        <v>1.25</v>
+      </c>
+      <c r="AW178">
+        <v>2.89</v>
+      </c>
+      <c r="AX178">
+        <v>1.45</v>
+      </c>
+      <c r="AY178">
+        <v>7.6</v>
+      </c>
+      <c r="AZ178">
+        <v>3.58</v>
+      </c>
+      <c r="BA178">
+        <v>1.27</v>
+      </c>
+      <c r="BB178">
+        <v>1.56</v>
+      </c>
+      <c r="BC178">
+        <v>1.92</v>
+      </c>
+      <c r="BD178">
+        <v>2.39</v>
+      </c>
+      <c r="BE178">
+        <v>3.3</v>
+      </c>
+      <c r="BF178">
+        <v>5</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>4</v>
+      </c>
+      <c r="BI178">
+        <v>5</v>
+      </c>
+      <c r="BJ178">
+        <v>9</v>
+      </c>
+      <c r="BK178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5094187</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45098.875</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>75</v>
+      </c>
+      <c r="H179" t="s">
+        <v>76</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>207</v>
+      </c>
+      <c r="P179" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="R179">
+        <v>9</v>
+      </c>
+      <c r="S179">
+        <v>10</v>
+      </c>
+      <c r="T179">
+        <v>2.7</v>
+      </c>
+      <c r="U179">
+        <v>2.15</v>
+      </c>
+      <c r="V179">
+        <v>3.5</v>
+      </c>
+      <c r="W179">
+        <v>1.35</v>
+      </c>
+      <c r="X179">
+        <v>2.94</v>
+      </c>
+      <c r="Y179">
+        <v>2.65</v>
+      </c>
+      <c r="Z179">
+        <v>1.43</v>
+      </c>
+      <c r="AA179">
+        <v>6.35</v>
+      </c>
+      <c r="AB179">
+        <v>1.08</v>
+      </c>
+      <c r="AC179">
+        <v>2.38</v>
+      </c>
+      <c r="AD179">
+        <v>3.59</v>
+      </c>
+      <c r="AE179">
+        <v>2.6</v>
+      </c>
+      <c r="AF179">
+        <v>1.01</v>
+      </c>
+      <c r="AG179">
+        <v>9.9</v>
+      </c>
+      <c r="AH179">
+        <v>1.25</v>
+      </c>
+      <c r="AI179">
+        <v>3.6</v>
+      </c>
+      <c r="AJ179">
+        <v>1.75</v>
+      </c>
+      <c r="AK179">
+        <v>1.95</v>
+      </c>
+      <c r="AL179">
+        <v>1.66</v>
+      </c>
+      <c r="AM179">
+        <v>2.15</v>
+      </c>
+      <c r="AN179">
+        <v>1.3</v>
+      </c>
+      <c r="AO179">
+        <v>1.25</v>
+      </c>
+      <c r="AP179">
+        <v>1.57</v>
+      </c>
+      <c r="AQ179">
+        <v>0.63</v>
+      </c>
+      <c r="AR179">
+        <v>1.13</v>
+      </c>
+      <c r="AS179">
+        <v>0.89</v>
+      </c>
+      <c r="AT179">
+        <v>1</v>
+      </c>
+      <c r="AU179">
+        <v>1.91</v>
+      </c>
+      <c r="AV179">
+        <v>1.39</v>
+      </c>
+      <c r="AW179">
+        <v>3.3</v>
+      </c>
+      <c r="AX179">
+        <v>1.72</v>
+      </c>
+      <c r="AY179">
+        <v>6.9</v>
+      </c>
+      <c r="AZ179">
+        <v>2.68</v>
+      </c>
+      <c r="BA179">
+        <v>1.25</v>
+      </c>
+      <c r="BB179">
+        <v>1.52</v>
+      </c>
+      <c r="BC179">
+        <v>1.86</v>
+      </c>
+      <c r="BD179">
+        <v>2.3</v>
+      </c>
+      <c r="BE179">
+        <v>3.2</v>
+      </c>
+      <c r="BF179">
+        <v>4</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>5</v>
+      </c>
+      <c r="BI179">
+        <v>5</v>
+      </c>
+      <c r="BJ179">
+        <v>9</v>
+      </c>
+      <c r="BK179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5094186</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45098.91666666666</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>87</v>
+      </c>
+      <c r="H180" t="s">
+        <v>86</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>208</v>
+      </c>
+      <c r="P180" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q180">
+        <v>7</v>
+      </c>
+      <c r="R180">
+        <v>3</v>
+      </c>
+      <c r="S180">
+        <v>10</v>
+      </c>
+      <c r="T180">
+        <v>2.68</v>
+      </c>
+      <c r="U180">
+        <v>2.15</v>
+      </c>
+      <c r="V180">
+        <v>3.58</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>3</v>
+      </c>
+      <c r="Y180">
+        <v>2.65</v>
+      </c>
+      <c r="Z180">
+        <v>1.43</v>
+      </c>
+      <c r="AA180">
+        <v>6</v>
+      </c>
+      <c r="AB180">
+        <v>1.11</v>
+      </c>
+      <c r="AC180">
+        <v>2.11</v>
+      </c>
+      <c r="AD180">
+        <v>3.62</v>
+      </c>
+      <c r="AE180">
+        <v>2.99</v>
+      </c>
+      <c r="AF180">
+        <v>1.05</v>
+      </c>
+      <c r="AG180">
+        <v>9</v>
+      </c>
+      <c r="AH180">
+        <v>1.25</v>
+      </c>
+      <c r="AI180">
+        <v>3.6</v>
+      </c>
+      <c r="AJ180">
+        <v>1.75</v>
+      </c>
+      <c r="AK180">
+        <v>1.95</v>
+      </c>
+      <c r="AL180">
+        <v>1.63</v>
+      </c>
+      <c r="AM180">
+        <v>2.09</v>
+      </c>
+      <c r="AN180">
+        <v>1.33</v>
+      </c>
+      <c r="AO180">
+        <v>1.26</v>
+      </c>
+      <c r="AP180">
+        <v>1.62</v>
+      </c>
+      <c r="AQ180">
+        <v>1.6</v>
+      </c>
+      <c r="AR180">
+        <v>1.14</v>
+      </c>
+      <c r="AS180">
+        <v>1.33</v>
+      </c>
+      <c r="AT180">
+        <v>1.38</v>
+      </c>
+      <c r="AU180">
+        <v>1.17</v>
+      </c>
+      <c r="AV180">
+        <v>1.24</v>
+      </c>
+      <c r="AW180">
+        <v>2.41</v>
+      </c>
+      <c r="AX180">
+        <v>1.72</v>
+      </c>
+      <c r="AY180">
+        <v>8.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.39</v>
+      </c>
+      <c r="BA180">
+        <v>1.29</v>
+      </c>
+      <c r="BB180">
+        <v>1.6</v>
+      </c>
+      <c r="BC180">
+        <v>1.98</v>
+      </c>
+      <c r="BD180">
+        <v>2.49</v>
+      </c>
+      <c r="BE180">
+        <v>3.6</v>
+      </c>
+      <c r="BF180">
+        <v>6</v>
+      </c>
+      <c r="BG180">
+        <v>5</v>
+      </c>
+      <c r="BH180">
+        <v>3</v>
+      </c>
+      <c r="BI180">
+        <v>4</v>
+      </c>
+      <c r="BJ180">
+        <v>9</v>
+      </c>
+      <c r="BK180">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,27 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['68', '90+1']</t>
+  </si>
+  <si>
+    <t>['10', '54']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['18', '45+5', '74']</t>
+  </si>
+  <si>
+    <t>['33', '48']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['7', '38', '89']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -677,9 +698,6 @@
   </si>
   <si>
     <t>['9', '60', '78']</t>
-  </si>
-  <si>
-    <t>['82']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -902,6 +920,18 @@
   </si>
   <si>
     <t>['31', '53', '88']</t>
+  </si>
+  <si>
+    <t>['73', '90+5']</t>
+  </si>
+  <si>
+    <t>['31', '69', '78', '90+4']</t>
+  </si>
+  <si>
+    <t>['26', '34']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,7 +1537,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1594,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
         <v>0.75</v>
@@ -1979,7 +2009,7 @@
         <v>1.89</v>
       </c>
       <c r="AT4">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2080,7 +2110,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2170,7 +2200,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2271,7 +2301,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2462,7 +2492,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2844,7 +2874,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2931,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
         <v>0.71</v>
@@ -3226,7 +3256,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3417,7 +3447,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3507,7 +3537,7 @@
         <v>0.89</v>
       </c>
       <c r="AT12">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3608,7 +3638,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3698,7 +3728,7 @@
         <v>1.63</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3799,7 +3829,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3990,7 +4020,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4077,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT15">
         <v>1.22</v>
@@ -4372,7 +4402,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4563,7 +4593,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4841,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT19">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5032,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
         <v>1.63</v>
@@ -5136,7 +5166,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5226,7 +5256,7 @@
         <v>1.22</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU21">
         <v>1.52</v>
@@ -5414,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT22">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5608,7 +5638,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5709,7 +5739,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5987,10 +6017,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6091,7 +6121,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6282,7 +6312,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6369,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT27">
         <v>1.29</v>
@@ -6473,7 +6503,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6560,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT28">
         <v>2.43</v>
@@ -6664,7 +6694,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6751,10 +6781,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6945,7 +6975,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7136,7 +7166,7 @@
         <v>1.75</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU31">
         <v>1.4</v>
@@ -7428,7 +7458,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7518,7 +7548,7 @@
         <v>1.22</v>
       </c>
       <c r="AT33">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU33">
         <v>1.52</v>
@@ -7706,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT34">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8001,7 +8031,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8279,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT37">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8470,10 +8500,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU38">
         <v>1.45</v>
@@ -8661,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>1.33</v>
@@ -9046,7 +9076,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9147,7 +9177,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9338,7 +9368,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9425,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT43">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9616,7 +9646,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT44">
         <v>0.88</v>
@@ -9807,7 +9837,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT45">
         <v>1.63</v>
@@ -9911,7 +9941,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10001,7 +10031,7 @@
         <v>1.43</v>
       </c>
       <c r="AT46">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10189,7 +10219,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10293,7 +10323,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10484,7 +10514,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10765,7 +10795,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -10866,7 +10896,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11529,7 +11559,7 @@
         <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11630,7 +11660,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11717,7 +11747,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
         <v>0.88</v>
@@ -11821,7 +11851,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11911,7 +11941,7 @@
         <v>1.63</v>
       </c>
       <c r="AT56">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12012,7 +12042,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12102,7 +12132,7 @@
         <v>1.89</v>
       </c>
       <c r="AT57">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -12203,7 +12233,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12293,7 +12323,7 @@
         <v>0.86</v>
       </c>
       <c r="AT58">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12481,7 +12511,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT59">
         <v>1.29</v>
@@ -12863,7 +12893,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT61">
         <v>1.33</v>
@@ -13054,10 +13084,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT62">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU62">
         <v>1.76</v>
@@ -13158,7 +13188,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13245,10 +13275,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13349,7 +13379,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13436,10 +13466,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT64">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13540,7 +13570,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13627,7 +13657,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT65">
         <v>0.71</v>
@@ -13821,7 +13851,7 @@
         <v>1.22</v>
       </c>
       <c r="AT66">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -14200,10 +14230,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU68">
         <v>1.21</v>
@@ -14304,7 +14334,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14686,7 +14716,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14877,7 +14907,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14967,7 +14997,7 @@
         <v>1.75</v>
       </c>
       <c r="AT72">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.39</v>
@@ -15068,7 +15098,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15450,7 +15480,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15728,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15919,7 +15949,7 @@
         <v>1.33</v>
       </c>
       <c r="AS77">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT77">
         <v>1.38</v>
@@ -16113,7 +16143,7 @@
         <v>1.11</v>
       </c>
       <c r="AT78">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16304,7 +16334,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU79">
         <v>1.43</v>
@@ -16405,7 +16435,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16492,10 +16522,10 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU80">
         <v>1.31</v>
@@ -16596,7 +16626,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16787,7 +16817,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16978,7 +17008,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17068,7 +17098,7 @@
         <v>1.33</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU83">
         <v>1.38</v>
@@ -17256,7 +17286,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT84">
         <v>1.63</v>
@@ -17360,7 +17390,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17450,7 +17480,7 @@
         <v>1.75</v>
       </c>
       <c r="AT85">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -17638,10 +17668,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT86">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.44</v>
@@ -17829,7 +17859,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT87">
         <v>1.33</v>
@@ -18020,10 +18050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS88">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18124,7 +18154,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18315,7 +18345,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18506,7 +18536,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18697,7 +18727,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18888,7 +18918,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19079,7 +19109,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19270,7 +19300,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19357,7 +19387,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT95">
         <v>1.22</v>
@@ -19551,7 +19581,7 @@
         <v>0.25</v>
       </c>
       <c r="AT96">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19652,7 +19682,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19739,10 +19769,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT97">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU97">
         <v>1.94</v>
@@ -19843,7 +19873,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19930,7 +19960,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT98">
         <v>2.6</v>
@@ -20034,7 +20064,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20225,7 +20255,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20312,7 +20342,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT100">
         <v>0.78</v>
@@ -20506,7 +20536,7 @@
         <v>1.89</v>
       </c>
       <c r="AT101">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU101">
         <v>1.2</v>
@@ -20607,7 +20637,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20697,7 +20727,7 @@
         <v>1.22</v>
       </c>
       <c r="AT102">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20798,7 +20828,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20888,7 +20918,7 @@
         <v>0.25</v>
       </c>
       <c r="AT103">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU103">
         <v>2.04</v>
@@ -20989,7 +21019,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21076,10 +21106,10 @@
         <v>0.67</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21267,7 +21297,7 @@
         <v>1.8</v>
       </c>
       <c r="AS105">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT105">
         <v>1.29</v>
@@ -21371,7 +21401,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21461,7 +21491,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU106">
         <v>1.28</v>
@@ -21840,10 +21870,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU108">
         <v>1.6</v>
@@ -22031,7 +22061,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT109">
         <v>1.57</v>
@@ -22326,7 +22356,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22604,10 +22634,10 @@
         <v>1.75</v>
       </c>
       <c r="AS112">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT112">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22708,7 +22738,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -23177,10 +23207,10 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT115">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>1.45</v>
@@ -23281,7 +23311,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23368,7 +23398,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT116">
         <v>0.88</v>
@@ -23663,7 +23693,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -24045,7 +24075,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24135,7 +24165,7 @@
         <v>1.11</v>
       </c>
       <c r="AT120">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24236,7 +24266,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24323,10 +24353,10 @@
         <v>0.83</v>
       </c>
       <c r="AS121">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT121">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -24517,7 +24547,7 @@
         <v>0.86</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -24705,7 +24735,7 @@
         <v>0.75</v>
       </c>
       <c r="AS123">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT123">
         <v>0.75</v>
@@ -24896,10 +24926,10 @@
         <v>2</v>
       </c>
       <c r="AS124">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU124">
         <v>1.12</v>
@@ -25000,7 +25030,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25191,7 +25221,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25281,7 +25311,7 @@
         <v>0.89</v>
       </c>
       <c r="AT126">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU126">
         <v>1.15</v>
@@ -25472,7 +25502,7 @@
         <v>1.22</v>
       </c>
       <c r="AT127">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU127">
         <v>1.44</v>
@@ -25573,7 +25603,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25660,7 +25690,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT128">
         <v>1.38</v>
@@ -25764,7 +25794,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25851,7 +25881,7 @@
         <v>0.6</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT129">
         <v>0.78</v>
@@ -25955,7 +25985,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26042,7 +26072,7 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT130">
         <v>1.43</v>
@@ -26146,7 +26176,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26236,7 +26266,7 @@
         <v>1.43</v>
       </c>
       <c r="AT131">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU131">
         <v>1.58</v>
@@ -26424,7 +26454,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT132">
         <v>1.29</v>
@@ -26528,7 +26558,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26809,7 +26839,7 @@
         <v>1.11</v>
       </c>
       <c r="AT134">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU134">
         <v>1.45</v>
@@ -26910,7 +26940,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27000,7 +27030,7 @@
         <v>1.89</v>
       </c>
       <c r="AT135">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU135">
         <v>1.4</v>
@@ -27101,7 +27131,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27191,7 +27221,7 @@
         <v>0.89</v>
       </c>
       <c r="AT136">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27570,10 +27600,10 @@
         <v>1.6</v>
       </c>
       <c r="AS138">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT138">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU138">
         <v>1.44</v>
@@ -27674,7 +27704,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27761,7 +27791,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT139">
         <v>1.22</v>
@@ -27952,7 +27982,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT140">
         <v>0.78</v>
@@ -28056,7 +28086,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28146,7 +28176,7 @@
         <v>1.33</v>
       </c>
       <c r="AT141">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU141">
         <v>1.27</v>
@@ -28247,7 +28277,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28525,7 +28555,7 @@
         <v>1.83</v>
       </c>
       <c r="AS143">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT143">
         <v>1.63</v>
@@ -28716,10 +28746,10 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT144">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU144">
         <v>1.68</v>
@@ -28820,7 +28850,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29098,10 +29128,10 @@
         <v>0.5</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT146">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU146">
         <v>1.81</v>
@@ -29202,7 +29232,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29292,7 +29322,7 @@
         <v>1.75</v>
       </c>
       <c r="AT147">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU147">
         <v>1.73</v>
@@ -29480,7 +29510,7 @@
         <v>2.6</v>
       </c>
       <c r="AS148">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT148">
         <v>2.43</v>
@@ -29775,7 +29805,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29862,7 +29892,7 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT150">
         <v>0.75</v>
@@ -30157,7 +30187,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30244,7 +30274,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT152">
         <v>0.78</v>
@@ -30539,7 +30569,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30817,10 +30847,10 @@
         <v>2.6</v>
       </c>
       <c r="AS155">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT155">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU155">
         <v>1.52</v>
@@ -30921,7 +30951,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31112,7 +31142,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31202,7 +31232,7 @@
         <v>0.89</v>
       </c>
       <c r="AT157">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU157">
         <v>1.8</v>
@@ -31303,7 +31333,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31390,7 +31420,7 @@
         <v>2.5</v>
       </c>
       <c r="AS158">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT158">
         <v>2.6</v>
@@ -31494,7 +31524,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31775,7 +31805,7 @@
         <v>1.86</v>
       </c>
       <c r="AT160">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU160">
         <v>1.51</v>
@@ -31876,7 +31906,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32067,7 +32097,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32258,7 +32288,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32345,7 +32375,7 @@
         <v>0.71</v>
       </c>
       <c r="AS163">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT163">
         <v>1</v>
@@ -32449,7 +32479,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32539,7 +32569,7 @@
         <v>1.63</v>
       </c>
       <c r="AT164">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU164">
         <v>1.62</v>
@@ -32640,7 +32670,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32730,7 +32760,7 @@
         <v>1.75</v>
       </c>
       <c r="AT165">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU165">
         <v>1.51</v>
@@ -32831,7 +32861,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -32918,10 +32948,10 @@
         <v>2.17</v>
       </c>
       <c r="AS166">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT166">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU166">
         <v>1.44</v>
@@ -33022,7 +33052,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33213,7 +33243,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33303,7 +33333,7 @@
         <v>1.63</v>
       </c>
       <c r="AT168">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU168">
         <v>1.38</v>
@@ -33404,7 +33434,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33494,7 +33524,7 @@
         <v>0.86</v>
       </c>
       <c r="AT169">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU169">
         <v>1.49</v>
@@ -33682,7 +33712,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT170">
         <v>1</v>
@@ -33786,7 +33816,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33873,7 +33903,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT171">
         <v>1.33</v>
@@ -34067,7 +34097,7 @@
         <v>1.86</v>
       </c>
       <c r="AT172">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU172">
         <v>1.56</v>
@@ -34258,7 +34288,7 @@
         <v>1.63</v>
       </c>
       <c r="AT173">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU173">
         <v>1.57</v>
@@ -34446,7 +34476,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT174">
         <v>1.22</v>
@@ -34550,7 +34580,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34741,7 +34771,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -34828,7 +34858,7 @@
         <v>1.33</v>
       </c>
       <c r="AS176">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT176">
         <v>1.57</v>
@@ -35210,7 +35240,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT178">
         <v>0.78</v>
@@ -35404,7 +35434,7 @@
         <v>0.89</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU179">
         <v>1.91</v>
@@ -35505,7 +35535,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35592,10 +35622,10 @@
         <v>1.14</v>
       </c>
       <c r="AS180">
+        <v>1.57</v>
+      </c>
+      <c r="AT180">
         <v>1.33</v>
-      </c>
-      <c r="AT180">
-        <v>1.38</v>
       </c>
       <c r="AU180">
         <v>1.17</v>
@@ -35646,6 +35676,1916 @@
         <v>9</v>
       </c>
       <c r="BK180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5094196</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45101.83333333334</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>209</v>
+      </c>
+      <c r="P181" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q181">
+        <v>4</v>
+      </c>
+      <c r="R181">
+        <v>4</v>
+      </c>
+      <c r="S181">
+        <v>8</v>
+      </c>
+      <c r="T181">
+        <v>2.15</v>
+      </c>
+      <c r="U181">
+        <v>2.25</v>
+      </c>
+      <c r="V181">
+        <v>4.6</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>3.25</v>
+      </c>
+      <c r="Y181">
+        <v>2.5</v>
+      </c>
+      <c r="Z181">
+        <v>1.5</v>
+      </c>
+      <c r="AA181">
+        <v>6</v>
+      </c>
+      <c r="AB181">
+        <v>1.11</v>
+      </c>
+      <c r="AC181">
+        <v>1.84</v>
+      </c>
+      <c r="AD181">
+        <v>3.45</v>
+      </c>
+      <c r="AE181">
+        <v>3.5</v>
+      </c>
+      <c r="AF181">
+        <v>1.05</v>
+      </c>
+      <c r="AG181">
+        <v>9</v>
+      </c>
+      <c r="AH181">
+        <v>1.29</v>
+      </c>
+      <c r="AI181">
+        <v>3.5</v>
+      </c>
+      <c r="AJ181">
+        <v>1.75</v>
+      </c>
+      <c r="AK181">
+        <v>1.95</v>
+      </c>
+      <c r="AL181">
+        <v>1.8</v>
+      </c>
+      <c r="AM181">
+        <v>1.91</v>
+      </c>
+      <c r="AN181">
+        <v>1.15</v>
+      </c>
+      <c r="AO181">
+        <v>1.25</v>
+      </c>
+      <c r="AP181">
+        <v>2.15</v>
+      </c>
+      <c r="AQ181">
+        <v>2.67</v>
+      </c>
+      <c r="AR181">
+        <v>1.29</v>
+      </c>
+      <c r="AS181">
+        <v>2.71</v>
+      </c>
+      <c r="AT181">
+        <v>1.13</v>
+      </c>
+      <c r="AU181">
+        <v>1.42</v>
+      </c>
+      <c r="AV181">
+        <v>1.47</v>
+      </c>
+      <c r="AW181">
+        <v>2.89</v>
+      </c>
+      <c r="AX181">
+        <v>1.71</v>
+      </c>
+      <c r="AY181">
+        <v>8.1</v>
+      </c>
+      <c r="AZ181">
+        <v>2.44</v>
+      </c>
+      <c r="BA181">
+        <v>1.46</v>
+      </c>
+      <c r="BB181">
+        <v>1.79</v>
+      </c>
+      <c r="BC181">
+        <v>2.24</v>
+      </c>
+      <c r="BD181">
+        <v>3.14</v>
+      </c>
+      <c r="BE181">
+        <v>4.8</v>
+      </c>
+      <c r="BF181">
+        <v>4</v>
+      </c>
+      <c r="BG181">
+        <v>4</v>
+      </c>
+      <c r="BH181">
+        <v>3</v>
+      </c>
+      <c r="BI181">
+        <v>6</v>
+      </c>
+      <c r="BJ181">
+        <v>7</v>
+      </c>
+      <c r="BK181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5094189</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45101.83333333334</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>80</v>
+      </c>
+      <c r="H182" t="s">
+        <v>84</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>95</v>
+      </c>
+      <c r="P182" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q182">
+        <v>9</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>12</v>
+      </c>
+      <c r="T182">
+        <v>2.94</v>
+      </c>
+      <c r="U182">
+        <v>2.13</v>
+      </c>
+      <c r="V182">
+        <v>3.25</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>3</v>
+      </c>
+      <c r="Y182">
+        <v>2.62</v>
+      </c>
+      <c r="Z182">
+        <v>1.44</v>
+      </c>
+      <c r="AA182">
+        <v>6</v>
+      </c>
+      <c r="AB182">
+        <v>1.11</v>
+      </c>
+      <c r="AC182">
+        <v>2.22</v>
+      </c>
+      <c r="AD182">
+        <v>3.3</v>
+      </c>
+      <c r="AE182">
+        <v>2.74</v>
+      </c>
+      <c r="AF182">
+        <v>1.05</v>
+      </c>
+      <c r="AG182">
+        <v>9</v>
+      </c>
+      <c r="AH182">
+        <v>1.29</v>
+      </c>
+      <c r="AI182">
+        <v>3.5</v>
+      </c>
+      <c r="AJ182">
+        <v>1.75</v>
+      </c>
+      <c r="AK182">
+        <v>1.95</v>
+      </c>
+      <c r="AL182">
+        <v>1.64</v>
+      </c>
+      <c r="AM182">
+        <v>2.2</v>
+      </c>
+      <c r="AN182">
+        <v>1.42</v>
+      </c>
+      <c r="AO182">
+        <v>1.27</v>
+      </c>
+      <c r="AP182">
+        <v>1.49</v>
+      </c>
+      <c r="AQ182">
+        <v>0.63</v>
+      </c>
+      <c r="AR182">
+        <v>1.43</v>
+      </c>
+      <c r="AS182">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT182">
+        <v>1.63</v>
+      </c>
+      <c r="AU182">
+        <v>1.37</v>
+      </c>
+      <c r="AV182">
+        <v>1.26</v>
+      </c>
+      <c r="AW182">
+        <v>2.63</v>
+      </c>
+      <c r="AX182">
+        <v>2.08</v>
+      </c>
+      <c r="AY182">
+        <v>8.4</v>
+      </c>
+      <c r="AZ182">
+        <v>1.93</v>
+      </c>
+      <c r="BA182">
+        <v>1.25</v>
+      </c>
+      <c r="BB182">
+        <v>1.52</v>
+      </c>
+      <c r="BC182">
+        <v>1.86</v>
+      </c>
+      <c r="BD182">
+        <v>2.31</v>
+      </c>
+      <c r="BE182">
+        <v>3.2</v>
+      </c>
+      <c r="BF182">
+        <v>4</v>
+      </c>
+      <c r="BG182">
+        <v>4</v>
+      </c>
+      <c r="BH182">
+        <v>7</v>
+      </c>
+      <c r="BI182">
+        <v>1</v>
+      </c>
+      <c r="BJ182">
+        <v>11</v>
+      </c>
+      <c r="BK182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5094190</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45101.83333333334</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s">
+        <v>67</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>4</v>
+      </c>
+      <c r="N183">
+        <v>6</v>
+      </c>
+      <c r="O183" t="s">
+        <v>210</v>
+      </c>
+      <c r="P183" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q183">
+        <v>5</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>8</v>
+      </c>
+      <c r="T183">
+        <v>4.25</v>
+      </c>
+      <c r="U183">
+        <v>2.16</v>
+      </c>
+      <c r="V183">
+        <v>2.39</v>
+      </c>
+      <c r="W183">
+        <v>1.35</v>
+      </c>
+      <c r="X183">
+        <v>2.94</v>
+      </c>
+      <c r="Y183">
+        <v>2.66</v>
+      </c>
+      <c r="Z183">
+        <v>1.42</v>
+      </c>
+      <c r="AA183">
+        <v>6.45</v>
+      </c>
+      <c r="AB183">
+        <v>1.08</v>
+      </c>
+      <c r="AC183">
+        <v>3.65</v>
+      </c>
+      <c r="AD183">
+        <v>3.25</v>
+      </c>
+      <c r="AE183">
+        <v>1.81</v>
+      </c>
+      <c r="AF183">
+        <v>1.01</v>
+      </c>
+      <c r="AG183">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH183">
+        <v>1.24</v>
+      </c>
+      <c r="AI183">
+        <v>3.48</v>
+      </c>
+      <c r="AJ183">
+        <v>1.69</v>
+      </c>
+      <c r="AK183">
+        <v>1.84</v>
+      </c>
+      <c r="AL183">
+        <v>1.7</v>
+      </c>
+      <c r="AM183">
+        <v>1.98</v>
+      </c>
+      <c r="AN183">
+        <v>1.83</v>
+      </c>
+      <c r="AO183">
+        <v>1.25</v>
+      </c>
+      <c r="AP183">
+        <v>1.23</v>
+      </c>
+      <c r="AQ183">
+        <v>1.25</v>
+      </c>
+      <c r="AR183">
+        <v>1.33</v>
+      </c>
+      <c r="AS183">
+        <v>1.11</v>
+      </c>
+      <c r="AT183">
+        <v>1.57</v>
+      </c>
+      <c r="AU183">
+        <v>1.75</v>
+      </c>
+      <c r="AV183">
+        <v>1.37</v>
+      </c>
+      <c r="AW183">
+        <v>3.12</v>
+      </c>
+      <c r="AX183">
+        <v>2.42</v>
+      </c>
+      <c r="AY183">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ183">
+        <v>1.71</v>
+      </c>
+      <c r="BA183">
+        <v>1.34</v>
+      </c>
+      <c r="BB183">
+        <v>1.68</v>
+      </c>
+      <c r="BC183">
+        <v>2.09</v>
+      </c>
+      <c r="BD183">
+        <v>2.75</v>
+      </c>
+      <c r="BE183">
+        <v>3.88</v>
+      </c>
+      <c r="BF183">
+        <v>3</v>
+      </c>
+      <c r="BG183">
+        <v>6</v>
+      </c>
+      <c r="BH183">
+        <v>3</v>
+      </c>
+      <c r="BI183">
+        <v>2</v>
+      </c>
+      <c r="BJ183">
+        <v>6</v>
+      </c>
+      <c r="BK183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5094188</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45101.85416666666</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>82</v>
+      </c>
+      <c r="H184" t="s">
+        <v>74</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>95</v>
+      </c>
+      <c r="P184" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q184">
+        <v>6</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>8</v>
+      </c>
+      <c r="T184">
+        <v>2.63</v>
+      </c>
+      <c r="U184">
+        <v>2.11</v>
+      </c>
+      <c r="V184">
+        <v>3.98</v>
+      </c>
+      <c r="W184">
+        <v>1.36</v>
+      </c>
+      <c r="X184">
+        <v>3</v>
+      </c>
+      <c r="Y184">
+        <v>2.62</v>
+      </c>
+      <c r="Z184">
+        <v>1.44</v>
+      </c>
+      <c r="AA184">
+        <v>6</v>
+      </c>
+      <c r="AB184">
+        <v>1.11</v>
+      </c>
+      <c r="AC184">
+        <v>2.11</v>
+      </c>
+      <c r="AD184">
+        <v>3.2</v>
+      </c>
+      <c r="AE184">
+        <v>3</v>
+      </c>
+      <c r="AF184">
+        <v>1.05</v>
+      </c>
+      <c r="AG184">
+        <v>9</v>
+      </c>
+      <c r="AH184">
+        <v>1.29</v>
+      </c>
+      <c r="AI184">
+        <v>3.5</v>
+      </c>
+      <c r="AJ184">
+        <v>1.75</v>
+      </c>
+      <c r="AK184">
+        <v>1.95</v>
+      </c>
+      <c r="AL184">
+        <v>1.7</v>
+      </c>
+      <c r="AM184">
+        <v>2.05</v>
+      </c>
+      <c r="AN184">
+        <v>1.3</v>
+      </c>
+      <c r="AO184">
+        <v>1.29</v>
+      </c>
+      <c r="AP184">
+        <v>1.7</v>
+      </c>
+      <c r="AQ184">
+        <v>1.17</v>
+      </c>
+      <c r="AR184">
+        <v>0.71</v>
+      </c>
+      <c r="AS184">
+        <v>1</v>
+      </c>
+      <c r="AT184">
+        <v>1</v>
+      </c>
+      <c r="AU184">
+        <v>1.08</v>
+      </c>
+      <c r="AV184">
+        <v>1.26</v>
+      </c>
+      <c r="AW184">
+        <v>2.34</v>
+      </c>
+      <c r="AX184">
+        <v>1.87</v>
+      </c>
+      <c r="AY184">
+        <v>7.9</v>
+      </c>
+      <c r="AZ184">
+        <v>2.19</v>
+      </c>
+      <c r="BA184">
+        <v>1.5</v>
+      </c>
+      <c r="BB184">
+        <v>1.85</v>
+      </c>
+      <c r="BC184">
+        <v>2.32</v>
+      </c>
+      <c r="BD184">
+        <v>3.28</v>
+      </c>
+      <c r="BE184">
+        <v>5</v>
+      </c>
+      <c r="BF184">
+        <v>7</v>
+      </c>
+      <c r="BG184">
+        <v>4</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>6</v>
+      </c>
+      <c r="BJ184">
+        <v>11</v>
+      </c>
+      <c r="BK184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5094191</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45101.875</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>81</v>
+      </c>
+      <c r="H185" t="s">
+        <v>88</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>211</v>
+      </c>
+      <c r="P185" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q185">
+        <v>4</v>
+      </c>
+      <c r="R185">
+        <v>3</v>
+      </c>
+      <c r="S185">
+        <v>7</v>
+      </c>
+      <c r="T185">
+        <v>2.05</v>
+      </c>
+      <c r="U185">
+        <v>2.3</v>
+      </c>
+      <c r="V185">
+        <v>5</v>
+      </c>
+      <c r="W185">
+        <v>1.33</v>
+      </c>
+      <c r="X185">
+        <v>3.25</v>
+      </c>
+      <c r="Y185">
+        <v>2.5</v>
+      </c>
+      <c r="Z185">
+        <v>1.48</v>
+      </c>
+      <c r="AA185">
+        <v>5.5</v>
+      </c>
+      <c r="AB185">
+        <v>1.12</v>
+      </c>
+      <c r="AC185">
+        <v>1.46</v>
+      </c>
+      <c r="AD185">
+        <v>4.2</v>
+      </c>
+      <c r="AE185">
+        <v>5.1</v>
+      </c>
+      <c r="AF185">
+        <v>1.04</v>
+      </c>
+      <c r="AG185">
+        <v>10</v>
+      </c>
+      <c r="AH185">
+        <v>1.22</v>
+      </c>
+      <c r="AI185">
+        <v>4</v>
+      </c>
+      <c r="AJ185">
+        <v>1.67</v>
+      </c>
+      <c r="AK185">
+        <v>2.05</v>
+      </c>
+      <c r="AL185">
+        <v>1.75</v>
+      </c>
+      <c r="AM185">
+        <v>2</v>
+      </c>
+      <c r="AN185">
+        <v>1.11</v>
+      </c>
+      <c r="AO185">
+        <v>1.18</v>
+      </c>
+      <c r="AP185">
+        <v>2.2</v>
+      </c>
+      <c r="AQ185">
+        <v>1.5</v>
+      </c>
+      <c r="AR185">
+        <v>0.8</v>
+      </c>
+      <c r="AS185">
+        <v>1.71</v>
+      </c>
+      <c r="AT185">
+        <v>0.73</v>
+      </c>
+      <c r="AU185">
+        <v>1.83</v>
+      </c>
+      <c r="AV185">
+        <v>1.5</v>
+      </c>
+      <c r="AW185">
+        <v>3.33</v>
+      </c>
+      <c r="AX185">
+        <v>1.36</v>
+      </c>
+      <c r="AY185">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ185">
+        <v>3.56</v>
+      </c>
+      <c r="BA185">
+        <v>1.19</v>
+      </c>
+      <c r="BB185">
+        <v>1.38</v>
+      </c>
+      <c r="BC185">
+        <v>1.69</v>
+      </c>
+      <c r="BD185">
+        <v>2.08</v>
+      </c>
+      <c r="BE185">
+        <v>2.79</v>
+      </c>
+      <c r="BF185">
+        <v>4</v>
+      </c>
+      <c r="BG185">
+        <v>0</v>
+      </c>
+      <c r="BH185">
+        <v>4</v>
+      </c>
+      <c r="BI185">
+        <v>9</v>
+      </c>
+      <c r="BJ185">
+        <v>8</v>
+      </c>
+      <c r="BK185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5094192</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45101.89583333334</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>65</v>
+      </c>
+      <c r="H186" t="s">
+        <v>68</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>4</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>5</v>
+      </c>
+      <c r="O186" t="s">
+        <v>212</v>
+      </c>
+      <c r="P186" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q186">
+        <v>5</v>
+      </c>
+      <c r="R186">
+        <v>9</v>
+      </c>
+      <c r="S186">
+        <v>14</v>
+      </c>
+      <c r="T186">
+        <v>2.45</v>
+      </c>
+      <c r="U186">
+        <v>2.2</v>
+      </c>
+      <c r="V186">
+        <v>4</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>3</v>
+      </c>
+      <c r="Y186">
+        <v>2.65</v>
+      </c>
+      <c r="Z186">
+        <v>1.43</v>
+      </c>
+      <c r="AA186">
+        <v>6</v>
+      </c>
+      <c r="AB186">
+        <v>1.11</v>
+      </c>
+      <c r="AC186">
+        <v>1.77</v>
+      </c>
+      <c r="AD186">
+        <v>3.5</v>
+      </c>
+      <c r="AE186">
+        <v>3.7</v>
+      </c>
+      <c r="AF186">
+        <v>1.05</v>
+      </c>
+      <c r="AG186">
+        <v>9</v>
+      </c>
+      <c r="AH186">
+        <v>1.25</v>
+      </c>
+      <c r="AI186">
+        <v>3.6</v>
+      </c>
+      <c r="AJ186">
+        <v>1.75</v>
+      </c>
+      <c r="AK186">
+        <v>1.95</v>
+      </c>
+      <c r="AL186">
+        <v>1.73</v>
+      </c>
+      <c r="AM186">
+        <v>2</v>
+      </c>
+      <c r="AN186">
+        <v>1.22</v>
+      </c>
+      <c r="AO186">
+        <v>1.2</v>
+      </c>
+      <c r="AP186">
+        <v>1.85</v>
+      </c>
+      <c r="AQ186">
+        <v>1.5</v>
+      </c>
+      <c r="AR186">
+        <v>2.29</v>
+      </c>
+      <c r="AS186">
+        <v>1.67</v>
+      </c>
+      <c r="AT186">
+        <v>2</v>
+      </c>
+      <c r="AU186">
+        <v>1.58</v>
+      </c>
+      <c r="AV186">
+        <v>1.42</v>
+      </c>
+      <c r="AW186">
+        <v>3</v>
+      </c>
+      <c r="AX186">
+        <v>1.49</v>
+      </c>
+      <c r="AY186">
+        <v>9</v>
+      </c>
+      <c r="AZ186">
+        <v>2.98</v>
+      </c>
+      <c r="BA186">
+        <v>1.28</v>
+      </c>
+      <c r="BB186">
+        <v>1.56</v>
+      </c>
+      <c r="BC186">
+        <v>1.93</v>
+      </c>
+      <c r="BD186">
+        <v>2.42</v>
+      </c>
+      <c r="BE186">
+        <v>3.34</v>
+      </c>
+      <c r="BF186">
+        <v>5</v>
+      </c>
+      <c r="BG186">
+        <v>5</v>
+      </c>
+      <c r="BH186">
+        <v>1</v>
+      </c>
+      <c r="BI186">
+        <v>9</v>
+      </c>
+      <c r="BJ186">
+        <v>6</v>
+      </c>
+      <c r="BK186">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5094194</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45101.91666666666</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>87</v>
+      </c>
+      <c r="H187" t="s">
+        <v>76</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>213</v>
+      </c>
+      <c r="P187" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q187">
+        <v>3</v>
+      </c>
+      <c r="R187">
+        <v>4</v>
+      </c>
+      <c r="S187">
+        <v>7</v>
+      </c>
+      <c r="T187">
+        <v>2.7</v>
+      </c>
+      <c r="U187">
+        <v>2.15</v>
+      </c>
+      <c r="V187">
+        <v>3.5</v>
+      </c>
+      <c r="W187">
+        <v>1.36</v>
+      </c>
+      <c r="X187">
+        <v>3</v>
+      </c>
+      <c r="Y187">
+        <v>2.62</v>
+      </c>
+      <c r="Z187">
+        <v>1.44</v>
+      </c>
+      <c r="AA187">
+        <v>6</v>
+      </c>
+      <c r="AB187">
+        <v>1.11</v>
+      </c>
+      <c r="AC187">
+        <v>1.95</v>
+      </c>
+      <c r="AD187">
+        <v>3.35</v>
+      </c>
+      <c r="AE187">
+        <v>3.25</v>
+      </c>
+      <c r="AF187">
+        <v>1.05</v>
+      </c>
+      <c r="AG187">
+        <v>9</v>
+      </c>
+      <c r="AH187">
+        <v>1.25</v>
+      </c>
+      <c r="AI187">
+        <v>3.6</v>
+      </c>
+      <c r="AJ187">
+        <v>1.75</v>
+      </c>
+      <c r="AK187">
+        <v>1.95</v>
+      </c>
+      <c r="AL187">
+        <v>1.65</v>
+      </c>
+      <c r="AM187">
+        <v>2.1</v>
+      </c>
+      <c r="AN187">
+        <v>1.33</v>
+      </c>
+      <c r="AO187">
+        <v>1.29</v>
+      </c>
+      <c r="AP187">
+        <v>1.67</v>
+      </c>
+      <c r="AQ187">
+        <v>1.33</v>
+      </c>
+      <c r="AR187">
+        <v>1</v>
+      </c>
+      <c r="AS187">
+        <v>1.57</v>
+      </c>
+      <c r="AT187">
+        <v>0.9</v>
+      </c>
+      <c r="AU187">
+        <v>1.22</v>
+      </c>
+      <c r="AV187">
+        <v>1.32</v>
+      </c>
+      <c r="AW187">
+        <v>2.54</v>
+      </c>
+      <c r="AX187">
+        <v>1.7</v>
+      </c>
+      <c r="AY187">
+        <v>8.5</v>
+      </c>
+      <c r="AZ187">
+        <v>2.43</v>
+      </c>
+      <c r="BA187">
+        <v>1.3</v>
+      </c>
+      <c r="BB187">
+        <v>1.61</v>
+      </c>
+      <c r="BC187">
+        <v>2</v>
+      </c>
+      <c r="BD187">
+        <v>2.6</v>
+      </c>
+      <c r="BE187">
+        <v>3.56</v>
+      </c>
+      <c r="BF187">
+        <v>5</v>
+      </c>
+      <c r="BG187">
+        <v>7</v>
+      </c>
+      <c r="BH187">
+        <v>4</v>
+      </c>
+      <c r="BI187">
+        <v>6</v>
+      </c>
+      <c r="BJ187">
+        <v>9</v>
+      </c>
+      <c r="BK187">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5094195</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45101.95833333334</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>85</v>
+      </c>
+      <c r="H188" t="s">
+        <v>86</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>214</v>
+      </c>
+      <c r="P188" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>4</v>
+      </c>
+      <c r="S188">
+        <v>5</v>
+      </c>
+      <c r="T188">
+        <v>2.45</v>
+      </c>
+      <c r="U188">
+        <v>2.15</v>
+      </c>
+      <c r="V188">
+        <v>4</v>
+      </c>
+      <c r="W188">
+        <v>1.36</v>
+      </c>
+      <c r="X188">
+        <v>3</v>
+      </c>
+      <c r="Y188">
+        <v>2.65</v>
+      </c>
+      <c r="Z188">
+        <v>1.43</v>
+      </c>
+      <c r="AA188">
+        <v>6</v>
+      </c>
+      <c r="AB188">
+        <v>1.11</v>
+      </c>
+      <c r="AC188">
+        <v>1.81</v>
+      </c>
+      <c r="AD188">
+        <v>3.5</v>
+      </c>
+      <c r="AE188">
+        <v>3.55</v>
+      </c>
+      <c r="AF188">
+        <v>1.05</v>
+      </c>
+      <c r="AG188">
+        <v>9</v>
+      </c>
+      <c r="AH188">
+        <v>1.25</v>
+      </c>
+      <c r="AI188">
+        <v>3.6</v>
+      </c>
+      <c r="AJ188">
+        <v>1.75</v>
+      </c>
+      <c r="AK188">
+        <v>1.95</v>
+      </c>
+      <c r="AL188">
+        <v>1.73</v>
+      </c>
+      <c r="AM188">
+        <v>2</v>
+      </c>
+      <c r="AN188">
+        <v>1.22</v>
+      </c>
+      <c r="AO188">
+        <v>1.22</v>
+      </c>
+      <c r="AP188">
+        <v>1.85</v>
+      </c>
+      <c r="AQ188">
+        <v>1.83</v>
+      </c>
+      <c r="AR188">
+        <v>1.38</v>
+      </c>
+      <c r="AS188">
+        <v>1.71</v>
+      </c>
+      <c r="AT188">
+        <v>1.33</v>
+      </c>
+      <c r="AU188">
+        <v>1.48</v>
+      </c>
+      <c r="AV188">
+        <v>1.24</v>
+      </c>
+      <c r="AW188">
+        <v>2.72</v>
+      </c>
+      <c r="AX188">
+        <v>1.66</v>
+      </c>
+      <c r="AY188">
+        <v>8.9</v>
+      </c>
+      <c r="AZ188">
+        <v>2.48</v>
+      </c>
+      <c r="BA188">
+        <v>1.18</v>
+      </c>
+      <c r="BB188">
+        <v>1.36</v>
+      </c>
+      <c r="BC188">
+        <v>1.69</v>
+      </c>
+      <c r="BD188">
+        <v>2.08</v>
+      </c>
+      <c r="BE188">
+        <v>2.71</v>
+      </c>
+      <c r="BF188">
+        <v>6</v>
+      </c>
+      <c r="BG188">
+        <v>5</v>
+      </c>
+      <c r="BH188">
+        <v>3</v>
+      </c>
+      <c r="BI188">
+        <v>6</v>
+      </c>
+      <c r="BJ188">
+        <v>9</v>
+      </c>
+      <c r="BK188">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>5094193</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45101.95833333334</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>72</v>
+      </c>
+      <c r="H189" t="s">
+        <v>66</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>136</v>
+      </c>
+      <c r="P189" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>5</v>
+      </c>
+      <c r="S189">
+        <v>8</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
+      <c r="AC189">
+        <v>1.81</v>
+      </c>
+      <c r="AD189">
+        <v>3.25</v>
+      </c>
+      <c r="AE189">
+        <v>3.65</v>
+      </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>0</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>1.69</v>
+      </c>
+      <c r="AK189">
+        <v>1.84</v>
+      </c>
+      <c r="AL189">
+        <v>0</v>
+      </c>
+      <c r="AM189">
+        <v>0</v>
+      </c>
+      <c r="AN189">
+        <v>0</v>
+      </c>
+      <c r="AO189">
+        <v>0</v>
+      </c>
+      <c r="AP189">
+        <v>0</v>
+      </c>
+      <c r="AQ189">
+        <v>1.5</v>
+      </c>
+      <c r="AR189">
+        <v>0.5</v>
+      </c>
+      <c r="AS189">
+        <v>1.67</v>
+      </c>
+      <c r="AT189">
+        <v>0.43</v>
+      </c>
+      <c r="AU189">
+        <v>1.47</v>
+      </c>
+      <c r="AV189">
+        <v>1.12</v>
+      </c>
+      <c r="AW189">
+        <v>2.59</v>
+      </c>
+      <c r="AX189">
+        <v>0</v>
+      </c>
+      <c r="AY189">
+        <v>0</v>
+      </c>
+      <c r="AZ189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
+      <c r="BC189">
+        <v>0</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>3</v>
+      </c>
+      <c r="BG189">
+        <v>3</v>
+      </c>
+      <c r="BH189">
+        <v>9</v>
+      </c>
+      <c r="BI189">
+        <v>4</v>
+      </c>
+      <c r="BJ189">
+        <v>12</v>
+      </c>
+      <c r="BK189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>5094197</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45102</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>77</v>
+      </c>
+      <c r="H190" t="s">
+        <v>70</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190" t="s">
+        <v>215</v>
+      </c>
+      <c r="P190" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q190">
+        <v>3</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>5</v>
+      </c>
+      <c r="T190">
+        <v>2.4</v>
+      </c>
+      <c r="U190">
+        <v>2.15</v>
+      </c>
+      <c r="V190">
+        <v>4.2</v>
+      </c>
+      <c r="W190">
+        <v>1.36</v>
+      </c>
+      <c r="X190">
+        <v>3</v>
+      </c>
+      <c r="Y190">
+        <v>2.65</v>
+      </c>
+      <c r="Z190">
+        <v>1.43</v>
+      </c>
+      <c r="AA190">
+        <v>6</v>
+      </c>
+      <c r="AB190">
+        <v>1.11</v>
+      </c>
+      <c r="AC190">
+        <v>1.88</v>
+      </c>
+      <c r="AD190">
+        <v>3.4</v>
+      </c>
+      <c r="AE190">
+        <v>3.4</v>
+      </c>
+      <c r="AF190">
+        <v>1.05</v>
+      </c>
+      <c r="AG190">
+        <v>9</v>
+      </c>
+      <c r="AH190">
+        <v>1.25</v>
+      </c>
+      <c r="AI190">
+        <v>3.6</v>
+      </c>
+      <c r="AJ190">
+        <v>1.75</v>
+      </c>
+      <c r="AK190">
+        <v>1.95</v>
+      </c>
+      <c r="AL190">
+        <v>1.72</v>
+      </c>
+      <c r="AM190">
+        <v>2.05</v>
+      </c>
+      <c r="AN190">
+        <v>1.2</v>
+      </c>
+      <c r="AO190">
+        <v>1.22</v>
+      </c>
+      <c r="AP190">
+        <v>1.9</v>
+      </c>
+      <c r="AQ190">
+        <v>2.38</v>
+      </c>
+      <c r="AR190">
+        <v>1.57</v>
+      </c>
+      <c r="AS190">
+        <v>2.44</v>
+      </c>
+      <c r="AT190">
+        <v>1.38</v>
+      </c>
+      <c r="AU190">
+        <v>1.59</v>
+      </c>
+      <c r="AV190">
+        <v>1.76</v>
+      </c>
+      <c r="AW190">
+        <v>3.35</v>
+      </c>
+      <c r="AX190">
+        <v>1.62</v>
+      </c>
+      <c r="AY190">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ190">
+        <v>2.58</v>
+      </c>
+      <c r="BA190">
+        <v>1.21</v>
+      </c>
+      <c r="BB190">
+        <v>1.4</v>
+      </c>
+      <c r="BC190">
+        <v>1.75</v>
+      </c>
+      <c r="BD190">
+        <v>2.18</v>
+      </c>
+      <c r="BE190">
+        <v>2.88</v>
+      </c>
+      <c r="BF190">
+        <v>6</v>
+      </c>
+      <c r="BG190">
+        <v>5</v>
+      </c>
+      <c r="BH190">
+        <v>4</v>
+      </c>
+      <c r="BI190">
+        <v>4</v>
+      </c>
+      <c r="BJ190">
+        <v>10</v>
+      </c>
+      <c r="BK190">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1293,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8694,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
         <v>0.88</v>
@@ -12896,7 +12896,7 @@
         <v>2.71</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -13657,7 +13657,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT65">
         <v>0.71</v>
@@ -17862,7 +17862,7 @@
         <v>1.67</v>
       </c>
       <c r="AT87">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU87">
         <v>1.39</v>
@@ -18050,7 +18050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS88">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
         <v>0.43</v>
@@ -22446,7 +22446,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU111">
         <v>1.45</v>
@@ -23207,7 +23207,7 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
         <v>1</v>
@@ -27600,7 +27600,7 @@
         <v>1.6</v>
       </c>
       <c r="AS138">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT138">
         <v>1.13</v>
@@ -29704,7 +29704,7 @@
         <v>1.22</v>
       </c>
       <c r="AT149">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU149">
         <v>1.48</v>
@@ -33906,7 +33906,7 @@
         <v>1.57</v>
       </c>
       <c r="AT171">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU171">
         <v>1.21</v>
@@ -34476,7 +34476,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT174">
         <v>1.22</v>
@@ -37150,7 +37150,7 @@
         <v>1.38</v>
       </c>
       <c r="AS188">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT188">
         <v>1.33</v>
@@ -37587,6 +37587,197 @@
       </c>
       <c r="BK190">
         <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>5094198</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45105.95833333334</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>85</v>
+      </c>
+      <c r="H191" t="s">
+        <v>75</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>95</v>
+      </c>
+      <c r="P191" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q191">
+        <v>8</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>10</v>
+      </c>
+      <c r="T191">
+        <v>2.45</v>
+      </c>
+      <c r="U191">
+        <v>2.15</v>
+      </c>
+      <c r="V191">
+        <v>4.2</v>
+      </c>
+      <c r="W191">
+        <v>1.38</v>
+      </c>
+      <c r="X191">
+        <v>2.85</v>
+      </c>
+      <c r="Y191">
+        <v>2.7</v>
+      </c>
+      <c r="Z191">
+        <v>1.42</v>
+      </c>
+      <c r="AA191">
+        <v>6</v>
+      </c>
+      <c r="AB191">
+        <v>1.09</v>
+      </c>
+      <c r="AC191">
+        <v>1.76</v>
+      </c>
+      <c r="AD191">
+        <v>3.05</v>
+      </c>
+      <c r="AE191">
+        <v>3.41</v>
+      </c>
+      <c r="AF191">
+        <v>1.04</v>
+      </c>
+      <c r="AG191">
+        <v>12.25</v>
+      </c>
+      <c r="AH191">
+        <v>1.26</v>
+      </c>
+      <c r="AI191">
+        <v>3.5</v>
+      </c>
+      <c r="AJ191">
+        <v>1.73</v>
+      </c>
+      <c r="AK191">
+        <v>1.78</v>
+      </c>
+      <c r="AL191">
+        <v>1.72</v>
+      </c>
+      <c r="AM191">
+        <v>2</v>
+      </c>
+      <c r="AN191">
+        <v>1.22</v>
+      </c>
+      <c r="AO191">
+        <v>1.29</v>
+      </c>
+      <c r="AP191">
+        <v>1.83</v>
+      </c>
+      <c r="AQ191">
+        <v>1.71</v>
+      </c>
+      <c r="AR191">
+        <v>1.33</v>
+      </c>
+      <c r="AS191">
+        <v>1.5</v>
+      </c>
+      <c r="AT191">
+        <v>1.57</v>
+      </c>
+      <c r="AU191">
+        <v>1.44</v>
+      </c>
+      <c r="AV191">
+        <v>1.18</v>
+      </c>
+      <c r="AW191">
+        <v>2.62</v>
+      </c>
+      <c r="AX191">
+        <v>1.6</v>
+      </c>
+      <c r="AY191">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ191">
+        <v>2.65</v>
+      </c>
+      <c r="BA191">
+        <v>1.28</v>
+      </c>
+      <c r="BB191">
+        <v>1.53</v>
+      </c>
+      <c r="BC191">
+        <v>1.91</v>
+      </c>
+      <c r="BD191">
+        <v>2.51</v>
+      </c>
+      <c r="BE191">
+        <v>3.42</v>
+      </c>
+      <c r="BF191">
+        <v>3</v>
+      </c>
+      <c r="BG191">
+        <v>6</v>
+      </c>
+      <c r="BH191">
+        <v>2</v>
+      </c>
+      <c r="BI191">
+        <v>7</v>
+      </c>
+      <c r="BJ191">
+        <v>5</v>
+      </c>
+      <c r="BK191">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,33 @@
     <t>['7', '38', '89']</t>
   </si>
   <si>
+    <t>['9', '61', '70']</t>
+  </si>
+  <si>
+    <t>['36', '82', '89']</t>
+  </si>
+  <si>
+    <t>['66', '82']</t>
+  </si>
+  <si>
+    <t>['10', '62', '90+1']</t>
+  </si>
+  <si>
+    <t>['59', '75']</t>
+  </si>
+  <si>
+    <t>['70', '78', '90+1']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['13', '22', '43', '56', '59', '88']</t>
+  </si>
+  <si>
+    <t>['20', '83']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -701,9 +728,6 @@
   </si>
   <si>
     <t>['62']</t>
-  </si>
-  <si>
-    <t>['24']</t>
   </si>
   <si>
     <t>['39', '45', '57']</t>
@@ -932,6 +956,15 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['40', '74']</t>
+  </si>
+  <si>
+    <t>['32', '54']</t>
+  </si>
+  <si>
+    <t>['14', '86']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1570,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1627,7 +1660,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2110,7 +2143,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2197,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
         <v>1.33</v>
@@ -2301,7 +2334,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2492,7 +2525,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2579,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT7">
         <v>1.38</v>
@@ -2770,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT8">
         <v>1.43</v>
@@ -2874,7 +2907,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2964,7 +2997,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3155,7 +3188,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3256,7 +3289,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3343,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3447,7 +3480,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3638,7 +3671,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3725,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT13">
         <v>0.9</v>
@@ -3829,7 +3862,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4020,7 +4053,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4301,7 +4334,7 @@
         <v>1.11</v>
       </c>
       <c r="AT16">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU16">
         <v>1.83</v>
@@ -4402,7 +4435,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4489,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4593,7 +4626,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4680,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4871,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT19">
         <v>2</v>
@@ -5065,7 +5098,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5253,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT21">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU21">
         <v>1.52</v>
@@ -5444,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT22">
         <v>1.38</v>
@@ -6017,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT25">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6121,7 +6154,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6211,7 +6244,7 @@
         <v>0.89</v>
       </c>
       <c r="AT26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6312,7 +6345,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6402,7 +6435,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6503,7 +6536,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6694,7 +6727,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6972,10 +7005,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7163,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT31">
         <v>0.9</v>
@@ -7354,10 +7387,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT32">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7458,7 +7491,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7545,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT33">
         <v>0.73</v>
@@ -7736,10 +7769,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT34">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7927,7 +7960,7 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT35">
         <v>1.22</v>
@@ -8031,7 +8064,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8118,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT36">
         <v>2.43</v>
@@ -8500,7 +8533,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT38">
         <v>0.9</v>
@@ -8694,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8885,7 +8918,7 @@
         <v>1.11</v>
       </c>
       <c r="AT40">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -9073,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT41">
         <v>0.73</v>
@@ -9177,7 +9210,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9267,7 +9300,7 @@
         <v>1.89</v>
       </c>
       <c r="AT42">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU42">
         <v>1.21</v>
@@ -9368,7 +9401,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9649,7 +9682,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9837,10 +9870,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT45">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU45">
         <v>1.21</v>
@@ -9941,7 +9974,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10028,10 +10061,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT46">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10222,7 +10255,7 @@
         <v>1.71</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10323,7 +10356,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10514,7 +10547,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10601,7 +10634,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT49">
         <v>1.38</v>
@@ -10795,7 +10828,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -10896,7 +10929,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10983,10 +11016,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11174,7 +11207,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT52">
         <v>1.22</v>
@@ -11365,7 +11398,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT53">
         <v>1.43</v>
@@ -11556,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11660,7 +11693,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11750,7 +11783,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11851,7 +11884,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12042,7 +12075,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12233,7 +12266,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12320,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
         <v>2</v>
@@ -12511,10 +12544,10 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT59">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU59">
         <v>1.71</v>
@@ -12705,7 +12738,7 @@
         <v>1.11</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU60">
         <v>1.3</v>
@@ -12893,10 +12926,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT61">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -13188,7 +13221,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13379,7 +13412,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13469,7 +13502,7 @@
         <v>1.57</v>
       </c>
       <c r="AT64">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13570,7 +13603,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13660,7 +13693,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -13848,7 +13881,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT66">
         <v>1.63</v>
@@ -14039,10 +14072,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT67">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14230,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT68">
         <v>0.9</v>
@@ -14334,7 +14367,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14421,10 +14454,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT69">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU69">
         <v>1.72</v>
@@ -14612,10 +14645,10 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU70">
         <v>1.59</v>
@@ -14716,7 +14749,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14803,10 +14836,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU71">
         <v>1.07</v>
@@ -14907,7 +14940,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14994,7 +15027,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT72">
         <v>1.33</v>
@@ -15098,7 +15131,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15188,7 +15221,7 @@
         <v>0.89</v>
       </c>
       <c r="AT73">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15376,7 +15409,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT74">
         <v>1.22</v>
@@ -15480,7 +15513,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15567,10 +15600,10 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT75">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -15758,10 +15791,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU76">
         <v>1.3</v>
@@ -15949,7 +15982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS77">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT77">
         <v>1.38</v>
@@ -16334,7 +16367,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU79">
         <v>1.43</v>
@@ -16435,7 +16468,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16525,7 +16558,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU80">
         <v>1.31</v>
@@ -16626,7 +16659,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16713,7 +16746,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT81">
         <v>1.43</v>
@@ -16817,7 +16850,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16904,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT82">
         <v>1.22</v>
@@ -17008,7 +17041,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17095,7 +17128,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT83">
         <v>0.9</v>
@@ -17289,7 +17322,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17390,7 +17423,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17477,7 +17510,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT85">
         <v>0.73</v>
@@ -17862,7 +17895,7 @@
         <v>1.67</v>
       </c>
       <c r="AT87">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU87">
         <v>1.39</v>
@@ -18053,7 +18086,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18154,7 +18187,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18345,7 +18378,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18432,10 +18465,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT90">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU90">
         <v>1.24</v>
@@ -18536,7 +18569,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18626,7 +18659,7 @@
         <v>1.63</v>
       </c>
       <c r="AT91">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -18727,7 +18760,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18817,7 +18850,7 @@
         <v>1.11</v>
       </c>
       <c r="AT92">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -18918,7 +18951,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19008,7 +19041,7 @@
         <v>0.89</v>
       </c>
       <c r="AT93">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU93">
         <v>0.75</v>
@@ -19109,7 +19142,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19196,7 +19229,7 @@
         <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT94">
         <v>2.43</v>
@@ -19300,7 +19333,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19578,7 +19611,7 @@
         <v>2.33</v>
       </c>
       <c r="AS96">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT96">
         <v>2</v>
@@ -19682,7 +19715,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19769,7 +19802,7 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT97">
         <v>1.63</v>
@@ -19873,7 +19906,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19963,7 +19996,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT98">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU98">
         <v>1.47</v>
@@ -20064,7 +20097,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20255,7 +20288,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20637,7 +20670,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20724,10 +20757,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT102">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20828,7 +20861,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20915,7 +20948,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT103">
         <v>1.38</v>
@@ -21019,7 +21052,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21109,7 +21142,7 @@
         <v>1.71</v>
       </c>
       <c r="AT104">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21297,10 +21330,10 @@
         <v>1.8</v>
       </c>
       <c r="AS105">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT105">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU105">
         <v>1.53</v>
@@ -21401,7 +21434,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21488,7 +21521,7 @@
         <v>1.75</v>
       </c>
       <c r="AS106">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
         <v>1.38</v>
@@ -21682,7 +21715,7 @@
         <v>1.89</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU107">
         <v>1.36</v>
@@ -22064,7 +22097,7 @@
         <v>1.57</v>
       </c>
       <c r="AT109">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22252,10 +22285,10 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT110">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU110">
         <v>1.44</v>
@@ -22356,7 +22389,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22446,7 +22479,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU111">
         <v>1.45</v>
@@ -22634,7 +22667,7 @@
         <v>1.75</v>
       </c>
       <c r="AS112">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT112">
         <v>1.63</v>
@@ -22738,7 +22771,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22825,10 +22858,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT113">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU113">
         <v>1.18</v>
@@ -23016,7 +23049,7 @@
         <v>0.5</v>
       </c>
       <c r="AS114">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT114">
         <v>0.78</v>
@@ -23311,7 +23344,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23398,10 +23431,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
+        <v>1.3</v>
+      </c>
+      <c r="AT116">
         <v>1.11</v>
-      </c>
-      <c r="AT116">
-        <v>0.88</v>
       </c>
       <c r="AU116">
         <v>1.96</v>
@@ -23589,7 +23622,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT117">
         <v>1.43</v>
@@ -23693,7 +23726,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23780,10 +23813,10 @@
         <v>2.33</v>
       </c>
       <c r="AS118">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT118">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU118">
         <v>1.36</v>
@@ -23971,10 +24004,10 @@
         <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU119">
         <v>1.19</v>
@@ -24075,7 +24108,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24165,7 +24198,7 @@
         <v>1.11</v>
       </c>
       <c r="AT120">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24266,7 +24299,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24353,7 +24386,7 @@
         <v>0.83</v>
       </c>
       <c r="AS121">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT121">
         <v>0.73</v>
@@ -24544,7 +24577,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT122">
         <v>0.9</v>
@@ -24738,7 +24771,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT123">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU123">
         <v>1.53</v>
@@ -25030,7 +25063,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25221,7 +25254,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25311,7 +25344,7 @@
         <v>0.89</v>
       </c>
       <c r="AT126">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU126">
         <v>1.15</v>
@@ -25499,7 +25532,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT127">
         <v>1.33</v>
@@ -25603,7 +25636,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25690,7 +25723,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT128">
         <v>1.38</v>
@@ -25794,7 +25827,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25985,7 +26018,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26176,7 +26209,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26263,7 +26296,7 @@
         <v>0.71</v>
       </c>
       <c r="AS131">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT131">
         <v>0.73</v>
@@ -26457,7 +26490,7 @@
         <v>1</v>
       </c>
       <c r="AT132">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU132">
         <v>1.01</v>
@@ -26558,7 +26591,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26645,10 +26678,10 @@
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT133">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26940,7 +26973,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27131,7 +27164,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27409,10 +27442,10 @@
         <v>1.17</v>
       </c>
       <c r="AS137">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT137">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27603,7 +27636,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU138">
         <v>1.44</v>
@@ -27704,7 +27737,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27791,7 +27824,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT139">
         <v>1.22</v>
@@ -28086,7 +28119,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28173,7 +28206,7 @@
         <v>1.4</v>
       </c>
       <c r="AS141">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT141">
         <v>1.63</v>
@@ -28277,7 +28310,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28364,7 +28397,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT142">
         <v>1.38</v>
@@ -28558,7 +28591,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT143">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU143">
         <v>1.53</v>
@@ -28746,7 +28779,7 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT144">
         <v>1.33</v>
@@ -28850,7 +28883,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29131,7 +29164,7 @@
         <v>1.67</v>
       </c>
       <c r="AT146">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU146">
         <v>1.81</v>
@@ -29232,7 +29265,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29319,10 +29352,10 @@
         <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT147">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU147">
         <v>1.73</v>
@@ -29701,10 +29734,10 @@
         <v>1.75</v>
       </c>
       <c r="AS149">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT149">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU149">
         <v>1.48</v>
@@ -29805,7 +29838,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29895,7 +29928,7 @@
         <v>1.67</v>
       </c>
       <c r="AT150">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -30083,10 +30116,10 @@
         <v>0.67</v>
       </c>
       <c r="AS151">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU151">
         <v>1.21</v>
@@ -30187,7 +30220,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30274,7 +30307,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT152">
         <v>0.78</v>
@@ -30569,7 +30602,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30656,10 +30689,10 @@
         <v>0.67</v>
       </c>
       <c r="AS154">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT154">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30847,7 +30880,7 @@
         <v>2.6</v>
       </c>
       <c r="AS155">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT155">
         <v>2</v>
@@ -30951,7 +30984,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31041,7 +31074,7 @@
         <v>1.89</v>
       </c>
       <c r="AT156">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU156">
         <v>1.43</v>
@@ -31142,7 +31175,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31232,7 +31265,7 @@
         <v>0.89</v>
       </c>
       <c r="AT157">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU157">
         <v>1.8</v>
@@ -31333,7 +31366,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31423,7 +31456,7 @@
         <v>1.71</v>
       </c>
       <c r="AT158">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU158">
         <v>1.82</v>
@@ -31524,7 +31557,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31611,7 +31644,7 @@
         <v>2.67</v>
       </c>
       <c r="AS159">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT159">
         <v>2.43</v>
@@ -31802,7 +31835,7 @@
         <v>0.4</v>
       </c>
       <c r="AS160">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT160">
         <v>1</v>
@@ -31906,7 +31939,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -31993,7 +32026,7 @@
         <v>1.43</v>
       </c>
       <c r="AS161">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT161">
         <v>1.38</v>
@@ -32097,7 +32130,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32184,10 +32217,10 @@
         <v>1</v>
       </c>
       <c r="AS162">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT162">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU162">
         <v>2.17</v>
@@ -32288,7 +32321,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32378,7 +32411,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU163">
         <v>1.42</v>
@@ -32479,7 +32512,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32566,7 +32599,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT164">
         <v>0.73</v>
@@ -32670,7 +32703,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32861,7 +32894,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33052,7 +33085,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33142,7 +33175,7 @@
         <v>1.11</v>
       </c>
       <c r="AT167">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU167">
         <v>1.36</v>
@@ -33243,7 +33276,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33434,7 +33467,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33521,7 +33554,7 @@
         <v>0.33</v>
       </c>
       <c r="AS169">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT169">
         <v>1</v>
@@ -33715,7 +33748,7 @@
         <v>1.67</v>
       </c>
       <c r="AT170">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU170">
         <v>1.75</v>
@@ -33816,7 +33849,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33906,7 +33939,7 @@
         <v>1.57</v>
       </c>
       <c r="AT171">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU171">
         <v>1.21</v>
@@ -34094,7 +34127,7 @@
         <v>0.89</v>
       </c>
       <c r="AS172">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT172">
         <v>0.73</v>
@@ -34285,10 +34318,10 @@
         <v>1.4</v>
       </c>
       <c r="AS173">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT173">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU173">
         <v>1.57</v>
@@ -34580,7 +34613,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34667,10 +34700,10 @@
         <v>1.71</v>
       </c>
       <c r="AS175">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT175">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU175">
         <v>1.64</v>
@@ -34771,7 +34804,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -34858,10 +34891,10 @@
         <v>1.33</v>
       </c>
       <c r="AS176">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT176">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU176">
         <v>1.5</v>
@@ -35052,7 +35085,7 @@
         <v>1.63</v>
       </c>
       <c r="AT177">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35535,7 +35568,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35813,10 +35846,10 @@
         <v>1.29</v>
       </c>
       <c r="AS181">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT181">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU181">
         <v>1.42</v>
@@ -35917,7 +35950,7 @@
         <v>95</v>
       </c>
       <c r="P182" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36108,7 +36141,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36195,10 +36228,10 @@
         <v>1.33</v>
       </c>
       <c r="AS183">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT183">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU183">
         <v>1.75</v>
@@ -36681,7 +36714,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37063,7 +37096,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37344,7 +37377,7 @@
         <v>1.67</v>
       </c>
       <c r="AT189">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU189">
         <v>1.47</v>
@@ -37445,7 +37478,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37532,7 +37565,7 @@
         <v>1.57</v>
       </c>
       <c r="AS190">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT190">
         <v>1.38</v>
@@ -37636,7 +37669,7 @@
         <v>95</v>
       </c>
       <c r="P191" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37726,7 +37759,7 @@
         <v>1.5</v>
       </c>
       <c r="AT191">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU191">
         <v>1.44</v>
@@ -37778,6 +37811,2298 @@
       </c>
       <c r="BK191">
         <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5094199</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45107.85416666666</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>68</v>
+      </c>
+      <c r="H192" t="s">
+        <v>78</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>216</v>
+      </c>
+      <c r="P192" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q192">
+        <v>9</v>
+      </c>
+      <c r="R192">
+        <v>1</v>
+      </c>
+      <c r="S192">
+        <v>10</v>
+      </c>
+      <c r="T192">
+        <v>2.08</v>
+      </c>
+      <c r="U192">
+        <v>2.31</v>
+      </c>
+      <c r="V192">
+        <v>5.2</v>
+      </c>
+      <c r="W192">
+        <v>1.31</v>
+      </c>
+      <c r="X192">
+        <v>3.15</v>
+      </c>
+      <c r="Y192">
+        <v>2.44</v>
+      </c>
+      <c r="Z192">
+        <v>1.49</v>
+      </c>
+      <c r="AA192">
+        <v>5.75</v>
+      </c>
+      <c r="AB192">
+        <v>1.1</v>
+      </c>
+      <c r="AC192">
+        <v>1.56</v>
+      </c>
+      <c r="AD192">
+        <v>3.9</v>
+      </c>
+      <c r="AE192">
+        <v>4.1</v>
+      </c>
+      <c r="AF192">
+        <v>1.03</v>
+      </c>
+      <c r="AG192">
+        <v>15.75</v>
+      </c>
+      <c r="AH192">
+        <v>1.21</v>
+      </c>
+      <c r="AI192">
+        <v>3.97</v>
+      </c>
+      <c r="AJ192">
+        <v>1.67</v>
+      </c>
+      <c r="AK192">
+        <v>2.08</v>
+      </c>
+      <c r="AL192">
+        <v>1.71</v>
+      </c>
+      <c r="AM192">
+        <v>2.08</v>
+      </c>
+      <c r="AN192">
+        <v>1.13</v>
+      </c>
+      <c r="AO192">
+        <v>1.19</v>
+      </c>
+      <c r="AP192">
+        <v>2.28</v>
+      </c>
+      <c r="AQ192">
+        <v>1.33</v>
+      </c>
+      <c r="AR192">
+        <v>0.75</v>
+      </c>
+      <c r="AS192">
+        <v>1.5</v>
+      </c>
+      <c r="AT192">
+        <v>0.67</v>
+      </c>
+      <c r="AU192">
+        <v>1.2</v>
+      </c>
+      <c r="AV192">
+        <v>1.34</v>
+      </c>
+      <c r="AW192">
+        <v>2.54</v>
+      </c>
+      <c r="AX192">
+        <v>0</v>
+      </c>
+      <c r="AY192">
+        <v>0</v>
+      </c>
+      <c r="AZ192">
+        <v>0</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>0</v>
+      </c>
+      <c r="BC192">
+        <v>0</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>5</v>
+      </c>
+      <c r="BG192">
+        <v>3</v>
+      </c>
+      <c r="BH192">
+        <v>7</v>
+      </c>
+      <c r="BI192">
+        <v>7</v>
+      </c>
+      <c r="BJ192">
+        <v>12</v>
+      </c>
+      <c r="BK192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5094200</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45107.91666666666</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>83</v>
+      </c>
+      <c r="H193" t="s">
+        <v>82</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>5</v>
+      </c>
+      <c r="O193" t="s">
+        <v>217</v>
+      </c>
+      <c r="P193" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>5</v>
+      </c>
+      <c r="T193">
+        <v>2.67</v>
+      </c>
+      <c r="U193">
+        <v>2.07</v>
+      </c>
+      <c r="V193">
+        <v>3.8</v>
+      </c>
+      <c r="W193">
+        <v>1.38</v>
+      </c>
+      <c r="X193">
+        <v>2.8</v>
+      </c>
+      <c r="Y193">
+        <v>2.7</v>
+      </c>
+      <c r="Z193">
+        <v>1.4</v>
+      </c>
+      <c r="AA193">
+        <v>6.25</v>
+      </c>
+      <c r="AB193">
+        <v>1.09</v>
+      </c>
+      <c r="AC193">
+        <v>2.42</v>
+      </c>
+      <c r="AD193">
+        <v>3</v>
+      </c>
+      <c r="AE193">
+        <v>2.54</v>
+      </c>
+      <c r="AF193">
+        <v>1.04</v>
+      </c>
+      <c r="AG193">
+        <v>12.25</v>
+      </c>
+      <c r="AH193">
+        <v>1.26</v>
+      </c>
+      <c r="AI193">
+        <v>3.48</v>
+      </c>
+      <c r="AJ193">
+        <v>2.03</v>
+      </c>
+      <c r="AK193">
+        <v>1.73</v>
+      </c>
+      <c r="AL193">
+        <v>1.7</v>
+      </c>
+      <c r="AM193">
+        <v>2.05</v>
+      </c>
+      <c r="AN193">
+        <v>1.32</v>
+      </c>
+      <c r="AO193">
+        <v>1.27</v>
+      </c>
+      <c r="AP193">
+        <v>1.65</v>
+      </c>
+      <c r="AQ193">
+        <v>0.86</v>
+      </c>
+      <c r="AR193">
+        <v>1</v>
+      </c>
+      <c r="AS193">
+        <v>1.13</v>
+      </c>
+      <c r="AT193">
+        <v>0.9</v>
+      </c>
+      <c r="AU193">
+        <v>1.48</v>
+      </c>
+      <c r="AV193">
+        <v>1.21</v>
+      </c>
+      <c r="AW193">
+        <v>2.69</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>0</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>7</v>
+      </c>
+      <c r="BG193">
+        <v>9</v>
+      </c>
+      <c r="BH193">
+        <v>5</v>
+      </c>
+      <c r="BI193">
+        <v>4</v>
+      </c>
+      <c r="BJ193">
+        <v>12</v>
+      </c>
+      <c r="BK193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5094203</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45108.82986111111</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>84</v>
+      </c>
+      <c r="H194" t="s">
+        <v>73</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>218</v>
+      </c>
+      <c r="P194" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q194">
+        <v>2</v>
+      </c>
+      <c r="R194">
+        <v>4</v>
+      </c>
+      <c r="S194">
+        <v>6</v>
+      </c>
+      <c r="T194">
+        <v>2.95</v>
+      </c>
+      <c r="U194">
+        <v>2.11</v>
+      </c>
+      <c r="V194">
+        <v>3.28</v>
+      </c>
+      <c r="W194">
+        <v>1.37</v>
+      </c>
+      <c r="X194">
+        <v>2.85</v>
+      </c>
+      <c r="Y194">
+        <v>2.73</v>
+      </c>
+      <c r="Z194">
+        <v>1.4</v>
+      </c>
+      <c r="AA194">
+        <v>6.7</v>
+      </c>
+      <c r="AB194">
+        <v>1.07</v>
+      </c>
+      <c r="AC194">
+        <v>2.25</v>
+      </c>
+      <c r="AD194">
+        <v>3.35</v>
+      </c>
+      <c r="AE194">
+        <v>2.88</v>
+      </c>
+      <c r="AF194">
+        <v>1.04</v>
+      </c>
+      <c r="AG194">
+        <v>12.25</v>
+      </c>
+      <c r="AH194">
+        <v>1.26</v>
+      </c>
+      <c r="AI194">
+        <v>3.5</v>
+      </c>
+      <c r="AJ194">
+        <v>1.8</v>
+      </c>
+      <c r="AK194">
+        <v>1.93</v>
+      </c>
+      <c r="AL194">
+        <v>1.7</v>
+      </c>
+      <c r="AM194">
+        <v>2.05</v>
+      </c>
+      <c r="AN194">
+        <v>1.4</v>
+      </c>
+      <c r="AO194">
+        <v>1.3</v>
+      </c>
+      <c r="AP194">
+        <v>1.57</v>
+      </c>
+      <c r="AQ194">
+        <v>0.86</v>
+      </c>
+      <c r="AR194">
+        <v>1.13</v>
+      </c>
+      <c r="AS194">
+        <v>0.88</v>
+      </c>
+      <c r="AT194">
+        <v>1.11</v>
+      </c>
+      <c r="AU194">
+        <v>1.46</v>
+      </c>
+      <c r="AV194">
+        <v>1.43</v>
+      </c>
+      <c r="AW194">
+        <v>2.89</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>4</v>
+      </c>
+      <c r="BG194">
+        <v>8</v>
+      </c>
+      <c r="BH194">
+        <v>4</v>
+      </c>
+      <c r="BI194">
+        <v>4</v>
+      </c>
+      <c r="BJ194">
+        <v>8</v>
+      </c>
+      <c r="BK194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5094207</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45108.83333333334</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>79</v>
+      </c>
+      <c r="H195" t="s">
+        <v>81</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>95</v>
+      </c>
+      <c r="P195" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q195">
+        <v>6</v>
+      </c>
+      <c r="R195">
+        <v>4</v>
+      </c>
+      <c r="S195">
+        <v>10</v>
+      </c>
+      <c r="T195">
+        <v>2.55</v>
+      </c>
+      <c r="U195">
+        <v>2.15</v>
+      </c>
+      <c r="V195">
+        <v>3.75</v>
+      </c>
+      <c r="W195">
+        <v>1.37</v>
+      </c>
+      <c r="X195">
+        <v>2.85</v>
+      </c>
+      <c r="Y195">
+        <v>2.73</v>
+      </c>
+      <c r="Z195">
+        <v>1.4</v>
+      </c>
+      <c r="AA195">
+        <v>6.75</v>
+      </c>
+      <c r="AB195">
+        <v>1.07</v>
+      </c>
+      <c r="AC195">
+        <v>1.9</v>
+      </c>
+      <c r="AD195">
+        <v>3.5</v>
+      </c>
+      <c r="AE195">
+        <v>3.45</v>
+      </c>
+      <c r="AF195">
+        <v>1.05</v>
+      </c>
+      <c r="AG195">
+        <v>9</v>
+      </c>
+      <c r="AH195">
+        <v>1.28</v>
+      </c>
+      <c r="AI195">
+        <v>3.5</v>
+      </c>
+      <c r="AJ195">
+        <v>2.23</v>
+      </c>
+      <c r="AK195">
+        <v>1.6</v>
+      </c>
+      <c r="AL195">
+        <v>1.75</v>
+      </c>
+      <c r="AM195">
+        <v>2</v>
+      </c>
+      <c r="AN195">
+        <v>1.25</v>
+      </c>
+      <c r="AO195">
+        <v>1.22</v>
+      </c>
+      <c r="AP195">
+        <v>1.72</v>
+      </c>
+      <c r="AQ195">
+        <v>2.71</v>
+      </c>
+      <c r="AR195">
+        <v>1.63</v>
+      </c>
+      <c r="AS195">
+        <v>2.5</v>
+      </c>
+      <c r="AT195">
+        <v>1.56</v>
+      </c>
+      <c r="AU195">
+        <v>1.37</v>
+      </c>
+      <c r="AV195">
+        <v>1.19</v>
+      </c>
+      <c r="AW195">
+        <v>2.56</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>2</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>4</v>
+      </c>
+      <c r="BI195">
+        <v>5</v>
+      </c>
+      <c r="BJ195">
+        <v>6</v>
+      </c>
+      <c r="BK195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>5094209</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45108.91666666666</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>70</v>
+      </c>
+      <c r="H196" t="s">
+        <v>69</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>4</v>
+      </c>
+      <c r="O196" t="s">
+        <v>219</v>
+      </c>
+      <c r="P196" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q196">
+        <v>2</v>
+      </c>
+      <c r="R196">
+        <v>7</v>
+      </c>
+      <c r="S196">
+        <v>9</v>
+      </c>
+      <c r="T196">
+        <v>2.45</v>
+      </c>
+      <c r="U196">
+        <v>2.15</v>
+      </c>
+      <c r="V196">
+        <v>4</v>
+      </c>
+      <c r="W196">
+        <v>1.36</v>
+      </c>
+      <c r="X196">
+        <v>2.88</v>
+      </c>
+      <c r="Y196">
+        <v>2.73</v>
+      </c>
+      <c r="Z196">
+        <v>1.4</v>
+      </c>
+      <c r="AA196">
+        <v>6.7</v>
+      </c>
+      <c r="AB196">
+        <v>1.07</v>
+      </c>
+      <c r="AC196">
+        <v>1.9</v>
+      </c>
+      <c r="AD196">
+        <v>3.5</v>
+      </c>
+      <c r="AE196">
+        <v>3.45</v>
+      </c>
+      <c r="AF196">
+        <v>1.05</v>
+      </c>
+      <c r="AG196">
+        <v>9</v>
+      </c>
+      <c r="AH196">
+        <v>1.28</v>
+      </c>
+      <c r="AI196">
+        <v>3.5</v>
+      </c>
+      <c r="AJ196">
+        <v>1.78</v>
+      </c>
+      <c r="AK196">
+        <v>1.96</v>
+      </c>
+      <c r="AL196">
+        <v>1.77</v>
+      </c>
+      <c r="AM196">
+        <v>1.98</v>
+      </c>
+      <c r="AN196">
+        <v>1.2</v>
+      </c>
+      <c r="AO196">
+        <v>1.22</v>
+      </c>
+      <c r="AP196">
+        <v>1.85</v>
+      </c>
+      <c r="AQ196">
+        <v>1.75</v>
+      </c>
+      <c r="AR196">
+        <v>1.29</v>
+      </c>
+      <c r="AS196">
+        <v>1.89</v>
+      </c>
+      <c r="AT196">
+        <v>1.13</v>
+      </c>
+      <c r="AU196">
+        <v>1.64</v>
+      </c>
+      <c r="AV196">
+        <v>1.34</v>
+      </c>
+      <c r="AW196">
+        <v>2.98</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>6</v>
+      </c>
+      <c r="BG196">
+        <v>5</v>
+      </c>
+      <c r="BH196">
+        <v>4</v>
+      </c>
+      <c r="BI196">
+        <v>5</v>
+      </c>
+      <c r="BJ196">
+        <v>10</v>
+      </c>
+      <c r="BK196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5094201</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45108.91666666666</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>76</v>
+      </c>
+      <c r="H197" t="s">
+        <v>66</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>220</v>
+      </c>
+      <c r="P197" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q197">
+        <v>5</v>
+      </c>
+      <c r="R197">
+        <v>4</v>
+      </c>
+      <c r="S197">
+        <v>9</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+      <c r="AB197">
+        <v>0</v>
+      </c>
+      <c r="AC197">
+        <v>2.1</v>
+      </c>
+      <c r="AD197">
+        <v>3.45</v>
+      </c>
+      <c r="AE197">
+        <v>3.05</v>
+      </c>
+      <c r="AF197">
+        <v>0</v>
+      </c>
+      <c r="AG197">
+        <v>0</v>
+      </c>
+      <c r="AH197">
+        <v>0</v>
+      </c>
+      <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AJ197">
+        <v>1.86</v>
+      </c>
+      <c r="AK197">
+        <v>1.86</v>
+      </c>
+      <c r="AL197">
+        <v>0</v>
+      </c>
+      <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AN197">
+        <v>0</v>
+      </c>
+      <c r="AO197">
+        <v>0</v>
+      </c>
+      <c r="AP197">
+        <v>0</v>
+      </c>
+      <c r="AQ197">
+        <v>1.86</v>
+      </c>
+      <c r="AR197">
+        <v>0.43</v>
+      </c>
+      <c r="AS197">
+        <v>2</v>
+      </c>
+      <c r="AT197">
+        <v>0.38</v>
+      </c>
+      <c r="AU197">
+        <v>1.49</v>
+      </c>
+      <c r="AV197">
+        <v>1.13</v>
+      </c>
+      <c r="AW197">
+        <v>2.62</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="AZ197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>0</v>
+      </c>
+      <c r="BD197">
+        <v>0</v>
+      </c>
+      <c r="BE197">
+        <v>0</v>
+      </c>
+      <c r="BF197">
+        <v>5</v>
+      </c>
+      <c r="BG197">
+        <v>4</v>
+      </c>
+      <c r="BH197">
+        <v>7</v>
+      </c>
+      <c r="BI197">
+        <v>8</v>
+      </c>
+      <c r="BJ197">
+        <v>12</v>
+      </c>
+      <c r="BK197">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>5094202</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45108.9375</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>71</v>
+      </c>
+      <c r="H198" t="s">
+        <v>87</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>95</v>
+      </c>
+      <c r="P198" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q198">
+        <v>7</v>
+      </c>
+      <c r="R198">
+        <v>7</v>
+      </c>
+      <c r="S198">
+        <v>14</v>
+      </c>
+      <c r="T198">
+        <v>2.19</v>
+      </c>
+      <c r="U198">
+        <v>2.18</v>
+      </c>
+      <c r="V198">
+        <v>5.26</v>
+      </c>
+      <c r="W198">
+        <v>1.36</v>
+      </c>
+      <c r="X198">
+        <v>2.88</v>
+      </c>
+      <c r="Y198">
+        <v>2.73</v>
+      </c>
+      <c r="Z198">
+        <v>1.4</v>
+      </c>
+      <c r="AA198">
+        <v>6.7</v>
+      </c>
+      <c r="AB198">
+        <v>1.07</v>
+      </c>
+      <c r="AC198">
+        <v>1.62</v>
+      </c>
+      <c r="AD198">
+        <v>3.8</v>
+      </c>
+      <c r="AE198">
+        <v>4.5</v>
+      </c>
+      <c r="AF198">
+        <v>1.05</v>
+      </c>
+      <c r="AG198">
+        <v>9</v>
+      </c>
+      <c r="AH198">
+        <v>1.28</v>
+      </c>
+      <c r="AI198">
+        <v>3.5</v>
+      </c>
+      <c r="AJ198">
+        <v>1.76</v>
+      </c>
+      <c r="AK198">
+        <v>1.98</v>
+      </c>
+      <c r="AL198">
+        <v>1.83</v>
+      </c>
+      <c r="AM198">
+        <v>1.93</v>
+      </c>
+      <c r="AN198">
+        <v>1.14</v>
+      </c>
+      <c r="AO198">
+        <v>1.22</v>
+      </c>
+      <c r="AP198">
+        <v>2.15</v>
+      </c>
+      <c r="AQ198">
+        <v>1.63</v>
+      </c>
+      <c r="AR198">
+        <v>0.88</v>
+      </c>
+      <c r="AS198">
+        <v>1.44</v>
+      </c>
+      <c r="AT198">
+        <v>1.11</v>
+      </c>
+      <c r="AU198">
+        <v>1.59</v>
+      </c>
+      <c r="AV198">
+        <v>1.32</v>
+      </c>
+      <c r="AW198">
+        <v>2.91</v>
+      </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+      <c r="AY198">
+        <v>0</v>
+      </c>
+      <c r="AZ198">
+        <v>0</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198">
+        <v>0</v>
+      </c>
+      <c r="BE198">
+        <v>0</v>
+      </c>
+      <c r="BF198">
+        <v>4</v>
+      </c>
+      <c r="BG198">
+        <v>6</v>
+      </c>
+      <c r="BH198">
+        <v>2</v>
+      </c>
+      <c r="BI198">
+        <v>2</v>
+      </c>
+      <c r="BJ198">
+        <v>6</v>
+      </c>
+      <c r="BK198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>5094205</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45108.95833333334</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>74</v>
+      </c>
+      <c r="H199" t="s">
+        <v>72</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>221</v>
+      </c>
+      <c r="P199" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q199">
+        <v>9</v>
+      </c>
+      <c r="R199">
+        <v>5</v>
+      </c>
+      <c r="S199">
+        <v>14</v>
+      </c>
+      <c r="T199">
+        <v>2.77</v>
+      </c>
+      <c r="U199">
+        <v>2.13</v>
+      </c>
+      <c r="V199">
+        <v>3.64</v>
+      </c>
+      <c r="W199">
+        <v>1.36</v>
+      </c>
+      <c r="X199">
+        <v>2.9</v>
+      </c>
+      <c r="Y199">
+        <v>2.66</v>
+      </c>
+      <c r="Z199">
+        <v>1.42</v>
+      </c>
+      <c r="AA199">
+        <v>6.55</v>
+      </c>
+      <c r="AB199">
+        <v>1.08</v>
+      </c>
+      <c r="AC199">
+        <v>2.15</v>
+      </c>
+      <c r="AD199">
+        <v>3.45</v>
+      </c>
+      <c r="AE199">
+        <v>2.95</v>
+      </c>
+      <c r="AF199">
+        <v>1.01</v>
+      </c>
+      <c r="AG199">
+        <v>9.6</v>
+      </c>
+      <c r="AH199">
+        <v>1.28</v>
+      </c>
+      <c r="AI199">
+        <v>3.5</v>
+      </c>
+      <c r="AJ199">
+        <v>2.14</v>
+      </c>
+      <c r="AK199">
+        <v>1.65</v>
+      </c>
+      <c r="AL199">
+        <v>1.66</v>
+      </c>
+      <c r="AM199">
+        <v>2.16</v>
+      </c>
+      <c r="AN199">
+        <v>1.35</v>
+      </c>
+      <c r="AO199">
+        <v>1.27</v>
+      </c>
+      <c r="AP199">
+        <v>1.58</v>
+      </c>
+      <c r="AQ199">
+        <v>1.22</v>
+      </c>
+      <c r="AR199">
+        <v>1.57</v>
+      </c>
+      <c r="AS199">
+        <v>1.4</v>
+      </c>
+      <c r="AT199">
+        <v>1.38</v>
+      </c>
+      <c r="AU199">
+        <v>1.45</v>
+      </c>
+      <c r="AV199">
+        <v>1.15</v>
+      </c>
+      <c r="AW199">
+        <v>2.6</v>
+      </c>
+      <c r="AX199">
+        <v>0</v>
+      </c>
+      <c r="AY199">
+        <v>0</v>
+      </c>
+      <c r="AZ199">
+        <v>0</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>0</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
+      <c r="BF199">
+        <v>13</v>
+      </c>
+      <c r="BG199">
+        <v>3</v>
+      </c>
+      <c r="BH199">
+        <v>8</v>
+      </c>
+      <c r="BI199">
+        <v>4</v>
+      </c>
+      <c r="BJ199">
+        <v>21</v>
+      </c>
+      <c r="BK199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>5094204</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45108.97916666666</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>88</v>
+      </c>
+      <c r="H200" t="s">
+        <v>67</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>222</v>
+      </c>
+      <c r="P200" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q200">
+        <v>10</v>
+      </c>
+      <c r="R200">
+        <v>9</v>
+      </c>
+      <c r="S200">
+        <v>19</v>
+      </c>
+      <c r="T200">
+        <v>4.79</v>
+      </c>
+      <c r="U200">
+        <v>2.15</v>
+      </c>
+      <c r="V200">
+        <v>2.32</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>2.88</v>
+      </c>
+      <c r="Y200">
+        <v>2.73</v>
+      </c>
+      <c r="Z200">
+        <v>1.4</v>
+      </c>
+      <c r="AA200">
+        <v>6.7</v>
+      </c>
+      <c r="AB200">
+        <v>1.07</v>
+      </c>
+      <c r="AC200">
+        <v>4.3</v>
+      </c>
+      <c r="AD200">
+        <v>3.65</v>
+      </c>
+      <c r="AE200">
+        <v>1.68</v>
+      </c>
+      <c r="AF200">
+        <v>1.01</v>
+      </c>
+      <c r="AG200">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH200">
+        <v>1.26</v>
+      </c>
+      <c r="AI200">
+        <v>3.34</v>
+      </c>
+      <c r="AJ200">
+        <v>1.85</v>
+      </c>
+      <c r="AK200">
+        <v>1.88</v>
+      </c>
+      <c r="AL200">
+        <v>1.76</v>
+      </c>
+      <c r="AM200">
+        <v>2.01</v>
+      </c>
+      <c r="AN200">
+        <v>1.93</v>
+      </c>
+      <c r="AO200">
+        <v>1.24</v>
+      </c>
+      <c r="AP200">
+        <v>1.19</v>
+      </c>
+      <c r="AQ200">
+        <v>0.25</v>
+      </c>
+      <c r="AR200">
+        <v>1.57</v>
+      </c>
+      <c r="AS200">
+        <v>0.2</v>
+      </c>
+      <c r="AT200">
+        <v>1.75</v>
+      </c>
+      <c r="AU200">
+        <v>2.17</v>
+      </c>
+      <c r="AV200">
+        <v>1.37</v>
+      </c>
+      <c r="AW200">
+        <v>3.54</v>
+      </c>
+      <c r="AX200">
+        <v>0</v>
+      </c>
+      <c r="AY200">
+        <v>0</v>
+      </c>
+      <c r="AZ200">
+        <v>0</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>0</v>
+      </c>
+      <c r="BC200">
+        <v>0</v>
+      </c>
+      <c r="BD200">
+        <v>0</v>
+      </c>
+      <c r="BE200">
+        <v>0</v>
+      </c>
+      <c r="BF200">
+        <v>6</v>
+      </c>
+      <c r="BG200">
+        <v>4</v>
+      </c>
+      <c r="BH200">
+        <v>8</v>
+      </c>
+      <c r="BI200">
+        <v>2</v>
+      </c>
+      <c r="BJ200">
+        <v>14</v>
+      </c>
+      <c r="BK200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>5094206</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45109</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>86</v>
+      </c>
+      <c r="H201" t="s">
+        <v>65</v>
+      </c>
+      <c r="I201">
+        <v>3</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>3</v>
+      </c>
+      <c r="L201">
+        <v>6</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>6</v>
+      </c>
+      <c r="O201" t="s">
+        <v>223</v>
+      </c>
+      <c r="P201" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q201">
+        <v>1</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>3</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>2.2</v>
+      </c>
+      <c r="V201">
+        <v>3.6</v>
+      </c>
+      <c r="W201">
+        <v>1.4</v>
+      </c>
+      <c r="X201">
+        <v>2.75</v>
+      </c>
+      <c r="Y201">
+        <v>2.75</v>
+      </c>
+      <c r="Z201">
+        <v>1.4</v>
+      </c>
+      <c r="AA201">
+        <v>6.5</v>
+      </c>
+      <c r="AB201">
+        <v>1.1</v>
+      </c>
+      <c r="AC201">
+        <v>2.1</v>
+      </c>
+      <c r="AD201">
+        <v>3.45</v>
+      </c>
+      <c r="AE201">
+        <v>3.05</v>
+      </c>
+      <c r="AF201">
+        <v>1.05</v>
+      </c>
+      <c r="AG201">
+        <v>9</v>
+      </c>
+      <c r="AH201">
+        <v>1.29</v>
+      </c>
+      <c r="AI201">
+        <v>3.3</v>
+      </c>
+      <c r="AJ201">
+        <v>1.78</v>
+      </c>
+      <c r="AK201">
+        <v>1.96</v>
+      </c>
+      <c r="AL201">
+        <v>1.8</v>
+      </c>
+      <c r="AM201">
+        <v>1.91</v>
+      </c>
+      <c r="AN201">
+        <v>1.28</v>
+      </c>
+      <c r="AO201">
+        <v>1.22</v>
+      </c>
+      <c r="AP201">
+        <v>1.6</v>
+      </c>
+      <c r="AQ201">
+        <v>1.43</v>
+      </c>
+      <c r="AR201">
+        <v>2.6</v>
+      </c>
+      <c r="AS201">
+        <v>1.63</v>
+      </c>
+      <c r="AT201">
+        <v>2.17</v>
+      </c>
+      <c r="AU201">
+        <v>1.66</v>
+      </c>
+      <c r="AV201">
+        <v>1.77</v>
+      </c>
+      <c r="AW201">
+        <v>3.43</v>
+      </c>
+      <c r="AX201">
+        <v>0</v>
+      </c>
+      <c r="AY201">
+        <v>0</v>
+      </c>
+      <c r="AZ201">
+        <v>0</v>
+      </c>
+      <c r="BA201">
+        <v>0</v>
+      </c>
+      <c r="BB201">
+        <v>0</v>
+      </c>
+      <c r="BC201">
+        <v>0</v>
+      </c>
+      <c r="BD201">
+        <v>0</v>
+      </c>
+      <c r="BE201">
+        <v>0</v>
+      </c>
+      <c r="BF201">
+        <v>11</v>
+      </c>
+      <c r="BG201">
+        <v>2</v>
+      </c>
+      <c r="BH201">
+        <v>1</v>
+      </c>
+      <c r="BI201">
+        <v>6</v>
+      </c>
+      <c r="BJ201">
+        <v>12</v>
+      </c>
+      <c r="BK201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>5094208</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45109</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>77</v>
+      </c>
+      <c r="H202" t="s">
+        <v>75</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>100</v>
+      </c>
+      <c r="P202" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>4</v>
+      </c>
+      <c r="S202">
+        <v>9</v>
+      </c>
+      <c r="T202">
+        <v>2.1</v>
+      </c>
+      <c r="U202">
+        <v>2.3</v>
+      </c>
+      <c r="V202">
+        <v>5</v>
+      </c>
+      <c r="W202">
+        <v>1.33</v>
+      </c>
+      <c r="X202">
+        <v>3.25</v>
+      </c>
+      <c r="Y202">
+        <v>2.5</v>
+      </c>
+      <c r="Z202">
+        <v>1.5</v>
+      </c>
+      <c r="AA202">
+        <v>5.5</v>
+      </c>
+      <c r="AB202">
+        <v>1.13</v>
+      </c>
+      <c r="AC202">
+        <v>1.55</v>
+      </c>
+      <c r="AD202">
+        <v>4</v>
+      </c>
+      <c r="AE202">
+        <v>4.75</v>
+      </c>
+      <c r="AF202">
+        <v>1.04</v>
+      </c>
+      <c r="AG202">
+        <v>10</v>
+      </c>
+      <c r="AH202">
+        <v>1.22</v>
+      </c>
+      <c r="AI202">
+        <v>3.8</v>
+      </c>
+      <c r="AJ202">
+        <v>1.88</v>
+      </c>
+      <c r="AK202">
+        <v>1.85</v>
+      </c>
+      <c r="AL202">
+        <v>1.83</v>
+      </c>
+      <c r="AM202">
+        <v>1.83</v>
+      </c>
+      <c r="AN202">
+        <v>1.11</v>
+      </c>
+      <c r="AO202">
+        <v>1.17</v>
+      </c>
+      <c r="AP202">
+        <v>2.3</v>
+      </c>
+      <c r="AQ202">
+        <v>2.44</v>
+      </c>
+      <c r="AR202">
+        <v>1.57</v>
+      </c>
+      <c r="AS202">
+        <v>2.3</v>
+      </c>
+      <c r="AT202">
+        <v>1.5</v>
+      </c>
+      <c r="AU202">
+        <v>1.57</v>
+      </c>
+      <c r="AV202">
+        <v>1.25</v>
+      </c>
+      <c r="AW202">
+        <v>2.82</v>
+      </c>
+      <c r="AX202">
+        <v>0</v>
+      </c>
+      <c r="AY202">
+        <v>0</v>
+      </c>
+      <c r="AZ202">
+        <v>0</v>
+      </c>
+      <c r="BA202">
+        <v>0</v>
+      </c>
+      <c r="BB202">
+        <v>0</v>
+      </c>
+      <c r="BC202">
+        <v>0</v>
+      </c>
+      <c r="BD202">
+        <v>0</v>
+      </c>
+      <c r="BE202">
+        <v>0</v>
+      </c>
+      <c r="BF202">
+        <v>7</v>
+      </c>
+      <c r="BG202">
+        <v>4</v>
+      </c>
+      <c r="BH202">
+        <v>1</v>
+      </c>
+      <c r="BI202">
+        <v>7</v>
+      </c>
+      <c r="BJ202">
+        <v>8</v>
+      </c>
+      <c r="BK202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>5094210</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45110.85416666666</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203" t="s">
+        <v>78</v>
+      </c>
+      <c r="H203" t="s">
+        <v>80</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>224</v>
+      </c>
+      <c r="P203" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q203">
+        <v>6</v>
+      </c>
+      <c r="R203">
+        <v>5</v>
+      </c>
+      <c r="S203">
+        <v>11</v>
+      </c>
+      <c r="T203">
+        <v>2.75</v>
+      </c>
+      <c r="U203">
+        <v>2.25</v>
+      </c>
+      <c r="V203">
+        <v>3.4</v>
+      </c>
+      <c r="W203">
+        <v>1.33</v>
+      </c>
+      <c r="X203">
+        <v>3.25</v>
+      </c>
+      <c r="Y203">
+        <v>2.63</v>
+      </c>
+      <c r="Z203">
+        <v>1.44</v>
+      </c>
+      <c r="AA203">
+        <v>6</v>
+      </c>
+      <c r="AB203">
+        <v>1.11</v>
+      </c>
+      <c r="AC203">
+        <v>2.3</v>
+      </c>
+      <c r="AD203">
+        <v>3.55</v>
+      </c>
+      <c r="AE203">
+        <v>2.37</v>
+      </c>
+      <c r="AF203">
+        <v>0</v>
+      </c>
+      <c r="AG203">
+        <v>0</v>
+      </c>
+      <c r="AH203">
+        <v>0</v>
+      </c>
+      <c r="AI203">
+        <v>0</v>
+      </c>
+      <c r="AJ203">
+        <v>1.75</v>
+      </c>
+      <c r="AK203">
+        <v>1.87</v>
+      </c>
+      <c r="AL203">
+        <v>1.73</v>
+      </c>
+      <c r="AM203">
+        <v>2</v>
+      </c>
+      <c r="AN203">
+        <v>0</v>
+      </c>
+      <c r="AO203">
+        <v>0</v>
+      </c>
+      <c r="AP203">
+        <v>0</v>
+      </c>
+      <c r="AQ203">
+        <v>1.11</v>
+      </c>
+      <c r="AR203">
+        <v>0.71</v>
+      </c>
+      <c r="AS203">
+        <v>1.3</v>
+      </c>
+      <c r="AT203">
+        <v>0.63</v>
+      </c>
+      <c r="AU203">
+        <v>1.65</v>
+      </c>
+      <c r="AV203">
+        <v>1.37</v>
+      </c>
+      <c r="AW203">
+        <v>3.02</v>
+      </c>
+      <c r="AX203">
+        <v>0</v>
+      </c>
+      <c r="AY203">
+        <v>0</v>
+      </c>
+      <c r="AZ203">
+        <v>0</v>
+      </c>
+      <c r="BA203">
+        <v>0</v>
+      </c>
+      <c r="BB203">
+        <v>0</v>
+      </c>
+      <c r="BC203">
+        <v>0</v>
+      </c>
+      <c r="BD203">
+        <v>0</v>
+      </c>
+      <c r="BE203">
+        <v>0</v>
+      </c>
+      <c r="BF203">
+        <v>7</v>
+      </c>
+      <c r="BG203">
+        <v>6</v>
+      </c>
+      <c r="BH203">
+        <v>5</v>
+      </c>
+      <c r="BI203">
+        <v>5</v>
+      </c>
+      <c r="BJ203">
+        <v>12</v>
+      </c>
+      <c r="BK203">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,12 @@
     <t>['20', '83']</t>
   </si>
   <si>
+    <t>['44', '90+4']</t>
+  </si>
+  <si>
+    <t>['2', '46', '73', '83']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -965,6 +971,9 @@
   </si>
   <si>
     <t>['14', '86']</t>
+  </si>
+  <si>
+    <t>['13', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK203"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1579,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2143,7 +2152,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2334,7 +2343,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2525,7 +2534,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2907,7 +2916,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3289,7 +3298,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3480,7 +3489,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3671,7 +3680,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3862,7 +3871,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4053,7 +4062,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4334,7 +4343,7 @@
         <v>1.11</v>
       </c>
       <c r="AT16">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU16">
         <v>1.83</v>
@@ -4435,7 +4444,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4522,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT17">
         <v>0.63</v>
@@ -4626,7 +4635,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -6154,7 +6163,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6244,7 +6253,7 @@
         <v>0.89</v>
       </c>
       <c r="AT26">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6536,7 +6545,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6727,7 +6736,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7491,7 +7500,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8064,7 +8073,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9210,7 +9219,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9401,7 +9410,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9682,7 +9691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9974,7 +9983,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10356,7 +10365,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10547,7 +10556,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10929,7 +10938,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11207,7 +11216,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT52">
         <v>1.22</v>
@@ -11693,7 +11702,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11783,7 +11792,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11884,7 +11893,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12075,7 +12084,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12266,7 +12275,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13221,7 +13230,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13412,7 +13421,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13603,7 +13612,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -14075,7 +14084,7 @@
         <v>1.63</v>
       </c>
       <c r="AT67">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14367,7 +14376,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14457,7 +14466,7 @@
         <v>0.88</v>
       </c>
       <c r="AT69">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU69">
         <v>1.72</v>
@@ -14749,7 +14758,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14836,10 +14845,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT71">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU71">
         <v>1.07</v>
@@ -14940,7 +14949,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15131,7 +15140,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15513,7 +15522,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -16468,7 +16477,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16659,7 +16668,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16850,7 +16859,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17041,7 +17050,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17423,7 +17432,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18187,7 +18196,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18378,7 +18387,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18569,7 +18578,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18760,7 +18769,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18951,7 +18960,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19041,7 +19050,7 @@
         <v>0.89</v>
       </c>
       <c r="AT93">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU93">
         <v>0.75</v>
@@ -19142,7 +19151,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19229,7 +19238,7 @@
         <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT94">
         <v>2.43</v>
@@ -19333,7 +19342,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19611,7 +19620,7 @@
         <v>2.33</v>
       </c>
       <c r="AS96">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT96">
         <v>2</v>
@@ -19715,7 +19724,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19906,7 +19915,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -20097,7 +20106,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20288,7 +20297,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20670,7 +20679,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20861,7 +20870,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20948,7 +20957,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT103">
         <v>1.38</v>
@@ -21052,7 +21061,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21434,7 +21443,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -22097,7 +22106,7 @@
         <v>1.57</v>
       </c>
       <c r="AT109">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22389,7 +22398,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22771,7 +22780,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -23049,7 +23058,7 @@
         <v>0.5</v>
       </c>
       <c r="AS114">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT114">
         <v>0.78</v>
@@ -23344,7 +23353,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23434,7 +23443,7 @@
         <v>1.3</v>
       </c>
       <c r="AT116">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU116">
         <v>1.96</v>
@@ -23726,7 +23735,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -24007,7 +24016,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU119">
         <v>1.19</v>
@@ -24108,7 +24117,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24299,7 +24308,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -25063,7 +25072,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25254,7 +25263,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25636,7 +25645,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25827,7 +25836,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26018,7 +26027,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26209,7 +26218,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26591,7 +26600,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26973,7 +26982,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27164,7 +27173,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27445,7 +27454,7 @@
         <v>1.89</v>
       </c>
       <c r="AT137">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27737,7 +27746,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -28119,7 +28128,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28310,7 +28319,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28397,7 +28406,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT142">
         <v>1.38</v>
@@ -28883,7 +28892,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29265,7 +29274,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29838,7 +29847,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30220,7 +30229,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30602,7 +30611,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30984,7 +30993,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31074,7 +31083,7 @@
         <v>1.89</v>
       </c>
       <c r="AT156">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU156">
         <v>1.43</v>
@@ -31175,7 +31184,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31366,7 +31375,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31557,7 +31566,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31835,7 +31844,7 @@
         <v>0.4</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT160">
         <v>1</v>
@@ -31939,7 +31948,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32130,7 +32139,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32217,10 +32226,10 @@
         <v>1</v>
       </c>
       <c r="AS162">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT162">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU162">
         <v>2.17</v>
@@ -32321,7 +32330,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32512,7 +32521,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32703,7 +32712,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32894,7 +32903,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33085,7 +33094,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33276,7 +33285,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33467,7 +33476,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33849,7 +33858,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34127,7 +34136,7 @@
         <v>0.89</v>
       </c>
       <c r="AS172">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT172">
         <v>0.73</v>
@@ -34613,7 +34622,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34804,7 +34813,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -34894,7 +34903,7 @@
         <v>2.3</v>
       </c>
       <c r="AT176">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU176">
         <v>1.5</v>
@@ -35568,7 +35577,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35950,7 +35959,7 @@
         <v>95</v>
       </c>
       <c r="P182" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36141,7 +36150,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36714,7 +36723,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37096,7 +37105,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37478,7 +37487,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37669,7 +37678,7 @@
         <v>95</v>
       </c>
       <c r="P191" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38051,7 +38060,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -38242,7 +38251,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38902,7 +38911,7 @@
         <v>0.43</v>
       </c>
       <c r="AS197">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT197">
         <v>0.38</v>
@@ -39096,7 +39105,7 @@
         <v>1.44</v>
       </c>
       <c r="AT198">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU198">
         <v>1.59</v>
@@ -39287,7 +39296,7 @@
         <v>1.4</v>
       </c>
       <c r="AT199">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU199">
         <v>1.45</v>
@@ -39388,7 +39397,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q200">
         <v>10</v>
@@ -39475,7 +39484,7 @@
         <v>1.57</v>
       </c>
       <c r="AS200">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT200">
         <v>1.75</v>
@@ -40103,6 +40112,388 @@
       </c>
       <c r="BK203">
         <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>5094212</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45111.91666666666</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204" t="s">
+        <v>88</v>
+      </c>
+      <c r="H204" t="s">
+        <v>87</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>2</v>
+      </c>
+      <c r="K204">
+        <v>3</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>225</v>
+      </c>
+      <c r="P204" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q204">
+        <v>7</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>7</v>
+      </c>
+      <c r="T204">
+        <v>3.2</v>
+      </c>
+      <c r="U204">
+        <v>2.2</v>
+      </c>
+      <c r="V204">
+        <v>2.88</v>
+      </c>
+      <c r="W204">
+        <v>1.36</v>
+      </c>
+      <c r="X204">
+        <v>3</v>
+      </c>
+      <c r="Y204">
+        <v>2.75</v>
+      </c>
+      <c r="Z204">
+        <v>1.4</v>
+      </c>
+      <c r="AA204">
+        <v>6.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.1</v>
+      </c>
+      <c r="AC204">
+        <v>3</v>
+      </c>
+      <c r="AD204">
+        <v>3.3</v>
+      </c>
+      <c r="AE204">
+        <v>2.15</v>
+      </c>
+      <c r="AF204">
+        <v>1.02</v>
+      </c>
+      <c r="AG204">
+        <v>9.5</v>
+      </c>
+      <c r="AH204">
+        <v>1.22</v>
+      </c>
+      <c r="AI204">
+        <v>3.7</v>
+      </c>
+      <c r="AJ204">
+        <v>1.8</v>
+      </c>
+      <c r="AK204">
+        <v>1.91</v>
+      </c>
+      <c r="AL204">
+        <v>1.8</v>
+      </c>
+      <c r="AM204">
+        <v>1.91</v>
+      </c>
+      <c r="AN204">
+        <v>1.3</v>
+      </c>
+      <c r="AO204">
+        <v>1.2</v>
+      </c>
+      <c r="AP204">
+        <v>1.48</v>
+      </c>
+      <c r="AQ204">
+        <v>0.2</v>
+      </c>
+      <c r="AR204">
+        <v>1.11</v>
+      </c>
+      <c r="AS204">
+        <v>0.33</v>
+      </c>
+      <c r="AT204">
+        <v>1.1</v>
+      </c>
+      <c r="AU204">
+        <v>2.07</v>
+      </c>
+      <c r="AV204">
+        <v>1.31</v>
+      </c>
+      <c r="AW204">
+        <v>3.38</v>
+      </c>
+      <c r="AX204">
+        <v>1.73</v>
+      </c>
+      <c r="AY204">
+        <v>8.4</v>
+      </c>
+      <c r="AZ204">
+        <v>2.38</v>
+      </c>
+      <c r="BA204">
+        <v>1.32</v>
+      </c>
+      <c r="BB204">
+        <v>1.59</v>
+      </c>
+      <c r="BC204">
+        <v>2.01</v>
+      </c>
+      <c r="BD204">
+        <v>2.67</v>
+      </c>
+      <c r="BE204">
+        <v>3.65</v>
+      </c>
+      <c r="BF204">
+        <v>8</v>
+      </c>
+      <c r="BG204">
+        <v>5</v>
+      </c>
+      <c r="BH204">
+        <v>7</v>
+      </c>
+      <c r="BI204">
+        <v>3</v>
+      </c>
+      <c r="BJ204">
+        <v>15</v>
+      </c>
+      <c r="BK204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>5094211</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45111.94930555556</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205" t="s">
+        <v>76</v>
+      </c>
+      <c r="H205" t="s">
+        <v>72</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>4</v>
+      </c>
+      <c r="O205" t="s">
+        <v>226</v>
+      </c>
+      <c r="P205" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q205">
+        <v>2</v>
+      </c>
+      <c r="R205">
+        <v>4</v>
+      </c>
+      <c r="S205">
+        <v>6</v>
+      </c>
+      <c r="T205">
+        <v>2.63</v>
+      </c>
+      <c r="U205">
+        <v>2.2</v>
+      </c>
+      <c r="V205">
+        <v>3.75</v>
+      </c>
+      <c r="W205">
+        <v>1.4</v>
+      </c>
+      <c r="X205">
+        <v>2.75</v>
+      </c>
+      <c r="Y205">
+        <v>2.75</v>
+      </c>
+      <c r="Z205">
+        <v>1.4</v>
+      </c>
+      <c r="AA205">
+        <v>6.5</v>
+      </c>
+      <c r="AB205">
+        <v>1.1</v>
+      </c>
+      <c r="AC205">
+        <v>1.85</v>
+      </c>
+      <c r="AD205">
+        <v>3.3</v>
+      </c>
+      <c r="AE205">
+        <v>3.8</v>
+      </c>
+      <c r="AF205">
+        <v>1.06</v>
+      </c>
+      <c r="AG205">
+        <v>8</v>
+      </c>
+      <c r="AH205">
+        <v>1.29</v>
+      </c>
+      <c r="AI205">
+        <v>3.5</v>
+      </c>
+      <c r="AJ205">
+        <v>1.8</v>
+      </c>
+      <c r="AK205">
+        <v>1.91</v>
+      </c>
+      <c r="AL205">
+        <v>1.83</v>
+      </c>
+      <c r="AM205">
+        <v>1.83</v>
+      </c>
+      <c r="AN205">
+        <v>1.26</v>
+      </c>
+      <c r="AO205">
+        <v>1.27</v>
+      </c>
+      <c r="AP205">
+        <v>1.85</v>
+      </c>
+      <c r="AQ205">
+        <v>2</v>
+      </c>
+      <c r="AR205">
+        <v>1.38</v>
+      </c>
+      <c r="AS205">
+        <v>2.11</v>
+      </c>
+      <c r="AT205">
+        <v>1.22</v>
+      </c>
+      <c r="AU205">
+        <v>1.5</v>
+      </c>
+      <c r="AV205">
+        <v>1.13</v>
+      </c>
+      <c r="AW205">
+        <v>2.63</v>
+      </c>
+      <c r="AX205">
+        <v>1.53</v>
+      </c>
+      <c r="AY205">
+        <v>8.9</v>
+      </c>
+      <c r="AZ205">
+        <v>2.84</v>
+      </c>
+      <c r="BA205">
+        <v>1.25</v>
+      </c>
+      <c r="BB205">
+        <v>1.47</v>
+      </c>
+      <c r="BC205">
+        <v>1.82</v>
+      </c>
+      <c r="BD205">
+        <v>2.34</v>
+      </c>
+      <c r="BE205">
+        <v>3.18</v>
+      </c>
+      <c r="BF205">
+        <v>6</v>
+      </c>
+      <c r="BG205">
+        <v>2</v>
+      </c>
+      <c r="BH205">
+        <v>4</v>
+      </c>
+      <c r="BI205">
+        <v>3</v>
+      </c>
+      <c r="BJ205">
+        <v>10</v>
+      </c>
+      <c r="BK205">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,21 @@
     <t>['2', '46', '73', '83']</t>
   </si>
   <si>
+    <t>['15', '55']</t>
+  </si>
+  <si>
+    <t>['8', '41', '58']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['60', '67', '90+3']</t>
+  </si>
+  <si>
+    <t>['69', '78']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -704,9 +719,6 @@
   </si>
   <si>
     <t>['72']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['23', '41', '76']</t>
@@ -974,6 +986,15 @@
   </si>
   <si>
     <t>['13', '45+1']</t>
+  </si>
+  <si>
+    <t>['15', '26', '39', '50']</t>
+  </si>
+  <si>
+    <t>['18', '61']</t>
+  </si>
+  <si>
+    <t>['31', '45', '81']</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1600,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1666,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1857,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2048,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>1.63</v>
@@ -2152,7 +2173,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2242,7 +2263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2343,7 +2364,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2534,7 +2555,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2624,7 +2645,7 @@
         <v>1.89</v>
       </c>
       <c r="AT7">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2815,7 +2836,7 @@
         <v>1.44</v>
       </c>
       <c r="AT8">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2916,7 +2937,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3003,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT9">
         <v>0.63</v>
@@ -3197,7 +3218,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3298,7 +3319,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3489,7 +3510,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3576,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT12">
         <v>0.73</v>
@@ -3680,7 +3701,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3871,7 +3892,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3961,7 +3982,7 @@
         <v>1.63</v>
       </c>
       <c r="AT14">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4062,7 +4083,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4149,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>1.22</v>
@@ -4340,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT16">
         <v>1.1</v>
@@ -4444,7 +4465,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4635,7 +4656,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4725,7 +4746,7 @@
         <v>1.44</v>
       </c>
       <c r="AT18">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5104,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT20">
         <v>1.56</v>
@@ -5489,7 +5510,7 @@
         <v>1.3</v>
       </c>
       <c r="AT22">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5680,7 +5701,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5868,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT24">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6059,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT25">
         <v>0.38</v>
@@ -6163,7 +6184,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6250,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT26">
         <v>1.22</v>
@@ -6441,10 +6462,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT27">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6545,7 +6566,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6632,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT28">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6736,7 +6757,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7399,7 +7420,7 @@
         <v>1.13</v>
       </c>
       <c r="AT32">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7500,7 +7521,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7781,7 +7802,7 @@
         <v>2.3</v>
       </c>
       <c r="AT34">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8073,7 +8094,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8163,7 +8184,7 @@
         <v>1.13</v>
       </c>
       <c r="AT36">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU36">
         <v>1.29</v>
@@ -8351,10 +8372,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8924,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT40">
         <v>2.17</v>
@@ -9115,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT41">
         <v>0.73</v>
@@ -9219,7 +9240,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9306,10 +9327,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU42">
         <v>1.21</v>
@@ -9410,7 +9431,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9497,10 +9518,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9983,7 +10004,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10073,7 +10094,7 @@
         <v>1.63</v>
       </c>
       <c r="AT46">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10261,10 +10282,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT47">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10365,7 +10386,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10455,7 +10476,7 @@
         <v>1.75</v>
       </c>
       <c r="AT48">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.37</v>
@@ -10556,7 +10577,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10643,10 +10664,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT49">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10834,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT50">
         <v>0.38</v>
@@ -10938,7 +10959,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11410,7 +11431,7 @@
         <v>1.89</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU53">
         <v>1.28</v>
@@ -11601,7 +11622,7 @@
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11702,7 +11723,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11789,7 +11810,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT55">
         <v>1.1</v>
@@ -11893,7 +11914,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11983,7 +12004,7 @@
         <v>1.63</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12084,7 +12105,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12171,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>2</v>
@@ -12275,7 +12296,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12556,7 +12577,7 @@
         <v>1.3</v>
       </c>
       <c r="AT59">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU59">
         <v>1.71</v>
@@ -12744,10 +12765,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT60">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU60">
         <v>1.3</v>
@@ -12935,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT61">
         <v>1.5</v>
@@ -13126,10 +13147,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT62">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU62">
         <v>1.76</v>
@@ -13230,7 +13251,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13317,7 +13338,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>0.73</v>
@@ -13421,7 +13442,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13508,10 +13529,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13612,7 +13633,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -14376,7 +14397,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14463,7 +14484,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT69">
         <v>1.22</v>
@@ -14758,7 +14779,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14949,7 +14970,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15039,7 +15060,7 @@
         <v>1.89</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.39</v>
@@ -15140,7 +15161,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15227,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT73">
         <v>2.17</v>
@@ -15522,7 +15543,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15612,7 +15633,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -15803,7 +15824,7 @@
         <v>2.3</v>
       </c>
       <c r="AT76">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU76">
         <v>1.3</v>
@@ -15994,7 +16015,7 @@
         <v>1.3</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU77">
         <v>1.93</v>
@@ -16182,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT78">
         <v>0.73</v>
@@ -16477,7 +16498,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16668,7 +16689,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16758,7 +16779,7 @@
         <v>1.13</v>
       </c>
       <c r="AT81">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU81">
         <v>1.44</v>
@@ -16859,7 +16880,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16946,7 +16967,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT82">
         <v>1.22</v>
@@ -17050,7 +17071,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17328,7 +17349,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
         <v>1.56</v>
@@ -17432,7 +17453,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17710,10 +17731,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU86">
         <v>1.44</v>
@@ -17901,7 +17922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
         <v>1.5</v>
@@ -18196,7 +18217,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18286,7 +18307,7 @@
         <v>1.75</v>
       </c>
       <c r="AT89">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU89">
         <v>1.41</v>
@@ -18387,7 +18408,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18477,7 +18498,7 @@
         <v>1.63</v>
       </c>
       <c r="AT90">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU90">
         <v>1.24</v>
@@ -18578,7 +18599,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18769,7 +18790,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18856,10 +18877,10 @@
         <v>2.25</v>
       </c>
       <c r="AS92">
+        <v>1.3</v>
+      </c>
+      <c r="AT92">
         <v>1.11</v>
-      </c>
-      <c r="AT92">
-        <v>1.13</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -18960,7 +18981,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19047,7 +19068,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT93">
         <v>1.1</v>
@@ -19151,7 +19172,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19241,7 +19262,7 @@
         <v>2.11</v>
       </c>
       <c r="AT94">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU94">
         <v>1.29</v>
@@ -19342,7 +19363,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19429,7 +19450,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT95">
         <v>1.22</v>
@@ -19620,7 +19641,7 @@
         <v>2.33</v>
       </c>
       <c r="AS96">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT96">
         <v>2</v>
@@ -19724,7 +19745,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19915,7 +19936,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -20002,7 +20023,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT98">
         <v>2.17</v>
@@ -20106,7 +20127,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20196,7 +20217,7 @@
         <v>1.63</v>
       </c>
       <c r="AT99">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU99">
         <v>1.51</v>
@@ -20297,7 +20318,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20387,7 +20408,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.03</v>
@@ -20575,10 +20596,10 @@
         <v>1.25</v>
       </c>
       <c r="AS101">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU101">
         <v>1.2</v>
@@ -20679,7 +20700,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20769,7 +20790,7 @@
         <v>1.4</v>
       </c>
       <c r="AT102">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20870,7 +20891,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20957,10 +20978,10 @@
         <v>1.33</v>
       </c>
       <c r="AS103">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT103">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU103">
         <v>2.04</v>
@@ -21061,7 +21082,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21148,7 +21169,7 @@
         <v>0.67</v>
       </c>
       <c r="AS104">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT104">
         <v>0.38</v>
@@ -21339,10 +21360,10 @@
         <v>1.8</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT105">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU105">
         <v>1.53</v>
@@ -21443,7 +21464,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21533,7 +21554,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU106">
         <v>1.28</v>
@@ -21721,10 +21742,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT107">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU107">
         <v>1.36</v>
@@ -21912,7 +21933,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
         <v>0.9</v>
@@ -22103,7 +22124,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT109">
         <v>1.22</v>
@@ -22297,7 +22318,7 @@
         <v>1.44</v>
       </c>
       <c r="AT110">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU110">
         <v>1.44</v>
@@ -22398,7 +22419,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22780,7 +22801,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -23058,10 +23079,10 @@
         <v>0.5</v>
       </c>
       <c r="AS114">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT114">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>2.18</v>
@@ -23252,7 +23273,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU115">
         <v>1.45</v>
@@ -23353,7 +23374,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23634,7 +23655,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23735,7 +23756,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -24117,7 +24138,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24204,10 +24225,10 @@
         <v>1.25</v>
       </c>
       <c r="AS120">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT120">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24308,7 +24329,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24395,7 +24416,7 @@
         <v>0.83</v>
       </c>
       <c r="AS121">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT121">
         <v>0.73</v>
@@ -24586,7 +24607,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT122">
         <v>0.9</v>
@@ -24777,10 +24798,10 @@
         <v>0.75</v>
       </c>
       <c r="AS123">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT123">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU123">
         <v>1.53</v>
@@ -24971,7 +24992,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU124">
         <v>1.12</v>
@@ -25072,7 +25093,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25162,7 +25183,7 @@
         <v>1.63</v>
       </c>
       <c r="AT125">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU125">
         <v>1.48</v>
@@ -25263,7 +25284,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25350,7 +25371,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT126">
         <v>1.75</v>
@@ -25544,7 +25565,7 @@
         <v>1.4</v>
       </c>
       <c r="AT127">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU127">
         <v>1.44</v>
@@ -25645,7 +25666,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25735,7 +25756,7 @@
         <v>2.3</v>
       </c>
       <c r="AT128">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -25836,7 +25857,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25923,10 +25944,10 @@
         <v>0.6</v>
       </c>
       <c r="AS129">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT129">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU129">
         <v>1.66</v>
@@ -26027,7 +26048,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26114,10 +26135,10 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT130">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU130">
         <v>1.43</v>
@@ -26218,7 +26239,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26499,7 +26520,7 @@
         <v>1</v>
       </c>
       <c r="AT132">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU132">
         <v>1.01</v>
@@ -26600,7 +26621,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26687,7 +26708,7 @@
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT133">
         <v>1.56</v>
@@ -26878,10 +26899,10 @@
         <v>0.25</v>
       </c>
       <c r="AS134">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT134">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU134">
         <v>1.45</v>
@@ -26982,7 +27003,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27069,7 +27090,7 @@
         <v>1.29</v>
       </c>
       <c r="AS135">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT135">
         <v>0.9</v>
@@ -27173,7 +27194,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27260,7 +27281,7 @@
         <v>2.5</v>
       </c>
       <c r="AS136">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT136">
         <v>2</v>
@@ -27645,7 +27666,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU138">
         <v>1.44</v>
@@ -27746,7 +27767,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -28024,10 +28045,10 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU140">
         <v>0.97</v>
@@ -28128,7 +28149,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28319,7 +28340,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28409,7 +28430,7 @@
         <v>2.11</v>
       </c>
       <c r="AT142">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU142">
         <v>1.55</v>
@@ -28597,7 +28618,7 @@
         <v>1.83</v>
       </c>
       <c r="AS143">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT143">
         <v>1.56</v>
@@ -28788,10 +28809,10 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT144">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU144">
         <v>1.68</v>
@@ -28892,7 +28913,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -28979,10 +29000,10 @@
         <v>1.6</v>
       </c>
       <c r="AS145">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT145">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU145">
         <v>1.46</v>
@@ -29170,7 +29191,7 @@
         <v>0.5</v>
       </c>
       <c r="AS146">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
         <v>0.38</v>
@@ -29274,7 +29295,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29364,7 +29385,7 @@
         <v>1.89</v>
       </c>
       <c r="AT147">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU147">
         <v>1.73</v>
@@ -29552,10 +29573,10 @@
         <v>2.6</v>
       </c>
       <c r="AS148">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT148">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -29847,7 +29868,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29934,10 +29955,10 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT150">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -30128,7 +30149,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU151">
         <v>1.21</v>
@@ -30229,7 +30250,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30319,7 +30340,7 @@
         <v>1.3</v>
       </c>
       <c r="AT152">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU152">
         <v>1.75</v>
@@ -30510,7 +30531,7 @@
         <v>1.75</v>
       </c>
       <c r="AT153">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU153">
         <v>1.44</v>
@@ -30611,7 +30632,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30698,7 +30719,7 @@
         <v>0.67</v>
       </c>
       <c r="AS154">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT154">
         <v>0.63</v>
@@ -30889,7 +30910,7 @@
         <v>2.6</v>
       </c>
       <c r="AS155">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT155">
         <v>2</v>
@@ -30993,7 +31014,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31080,7 +31101,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT156">
         <v>1.1</v>
@@ -31184,7 +31205,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31271,7 +31292,7 @@
         <v>0.4</v>
       </c>
       <c r="AS157">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT157">
         <v>0.38</v>
@@ -31375,7 +31396,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31462,7 +31483,7 @@
         <v>2.5</v>
       </c>
       <c r="AS158">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT158">
         <v>2.17</v>
@@ -31566,7 +31587,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31656,7 +31677,7 @@
         <v>1.89</v>
       </c>
       <c r="AT159">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU159">
         <v>1.64</v>
@@ -31847,7 +31868,7 @@
         <v>2.11</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU160">
         <v>1.51</v>
@@ -31948,7 +31969,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32038,7 +32059,7 @@
         <v>1.63</v>
       </c>
       <c r="AT161">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -32139,7 +32160,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32226,7 +32247,7 @@
         <v>1</v>
       </c>
       <c r="AS162">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT162">
         <v>1.22</v>
@@ -32330,7 +32351,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32417,10 +32438,10 @@
         <v>0.71</v>
       </c>
       <c r="AS163">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT163">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU163">
         <v>1.42</v>
@@ -32521,7 +32542,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32712,7 +32733,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32802,7 +32823,7 @@
         <v>1.75</v>
       </c>
       <c r="AT165">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU165">
         <v>1.51</v>
@@ -32903,7 +32924,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -32990,7 +33011,7 @@
         <v>2.17</v>
       </c>
       <c r="AS166">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT166">
         <v>2</v>
@@ -33094,7 +33115,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33181,10 +33202,10 @@
         <v>0.5</v>
       </c>
       <c r="AS167">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT167">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU167">
         <v>1.36</v>
@@ -33285,7 +33306,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33476,7 +33497,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33566,7 +33587,7 @@
         <v>1.13</v>
       </c>
       <c r="AT169">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU169">
         <v>1.49</v>
@@ -33754,10 +33775,10 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT170">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU170">
         <v>1.75</v>
@@ -33858,7 +33879,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33945,7 +33966,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT171">
         <v>1.5</v>
@@ -34622,7 +34643,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34813,7 +34834,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35094,7 +35115,7 @@
         <v>1.63</v>
       </c>
       <c r="AT177">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35282,10 +35303,10 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT178">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU178">
         <v>1.64</v>
@@ -35473,7 +35494,7 @@
         <v>1.13</v>
       </c>
       <c r="AS179">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT179">
         <v>0.9</v>
@@ -35577,7 +35598,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35664,10 +35685,10 @@
         <v>1.14</v>
       </c>
       <c r="AS180">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT180">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU180">
         <v>1.17</v>
@@ -35855,10 +35876,10 @@
         <v>1.29</v>
       </c>
       <c r="AS181">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT181">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU181">
         <v>1.42</v>
@@ -35959,7 +35980,7 @@
         <v>95</v>
       </c>
       <c r="P182" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36046,7 +36067,7 @@
         <v>1.43</v>
       </c>
       <c r="AS182">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT182">
         <v>1.63</v>
@@ -36150,7 +36171,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36431,7 +36452,7 @@
         <v>1</v>
       </c>
       <c r="AT184">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU184">
         <v>1.08</v>
@@ -36619,7 +36640,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT185">
         <v>0.73</v>
@@ -36723,7 +36744,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -36810,7 +36831,7 @@
         <v>2.29</v>
       </c>
       <c r="AS186">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT186">
         <v>2</v>
@@ -37001,7 +37022,7 @@
         <v>1</v>
       </c>
       <c r="AS187">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT187">
         <v>0.9</v>
@@ -37105,7 +37126,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37195,7 +37216,7 @@
         <v>1.5</v>
       </c>
       <c r="AT188">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU188">
         <v>1.48</v>
@@ -37383,7 +37404,7 @@
         <v>0.5</v>
       </c>
       <c r="AS189">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT189">
         <v>0.38</v>
@@ -37487,7 +37508,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37577,7 +37598,7 @@
         <v>2.3</v>
       </c>
       <c r="AT190">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU190">
         <v>1.59</v>
@@ -37678,7 +37699,7 @@
         <v>95</v>
       </c>
       <c r="P191" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37959,7 +37980,7 @@
         <v>1.5</v>
       </c>
       <c r="AT192">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU192">
         <v>1.2</v>
@@ -38060,7 +38081,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -38150,7 +38171,7 @@
         <v>1.13</v>
       </c>
       <c r="AT193">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38251,7 +38272,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38338,10 +38359,10 @@
         <v>1.13</v>
       </c>
       <c r="AS194">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT194">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU194">
         <v>1.46</v>
@@ -38529,7 +38550,7 @@
         <v>1.63</v>
       </c>
       <c r="AS195">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT195">
         <v>1.56</v>
@@ -38723,7 +38744,7 @@
         <v>1.89</v>
       </c>
       <c r="AT196">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU196">
         <v>1.64</v>
@@ -39397,7 +39418,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q200">
         <v>10</v>
@@ -39484,7 +39505,7 @@
         <v>1.57</v>
       </c>
       <c r="AS200">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT200">
         <v>1.75</v>
@@ -40161,7 +40182,7 @@
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -40248,7 +40269,7 @@
         <v>1.11</v>
       </c>
       <c r="AS204">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT204">
         <v>1.1</v>
@@ -40494,6 +40515,2107 @@
       </c>
       <c r="BK205">
         <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>5094213</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45114.89583333334</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206" t="s">
+        <v>65</v>
+      </c>
+      <c r="H206" t="s">
+        <v>70</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>3</v>
+      </c>
+      <c r="K206">
+        <v>3</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>4</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206" t="s">
+        <v>95</v>
+      </c>
+      <c r="P206" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q206">
+        <v>1</v>
+      </c>
+      <c r="R206">
+        <v>6</v>
+      </c>
+      <c r="S206">
+        <v>7</v>
+      </c>
+      <c r="T206">
+        <v>2.45</v>
+      </c>
+      <c r="U206">
+        <v>2.15</v>
+      </c>
+      <c r="V206">
+        <v>4</v>
+      </c>
+      <c r="W206">
+        <v>1.36</v>
+      </c>
+      <c r="X206">
+        <v>3</v>
+      </c>
+      <c r="Y206">
+        <v>2.75</v>
+      </c>
+      <c r="Z206">
+        <v>1.4</v>
+      </c>
+      <c r="AA206">
+        <v>6</v>
+      </c>
+      <c r="AB206">
+        <v>1.11</v>
+      </c>
+      <c r="AC206">
+        <v>1.83</v>
+      </c>
+      <c r="AD206">
+        <v>3.32</v>
+      </c>
+      <c r="AE206">
+        <v>3.8</v>
+      </c>
+      <c r="AF206">
+        <v>1.05</v>
+      </c>
+      <c r="AG206">
+        <v>9</v>
+      </c>
+      <c r="AH206">
+        <v>1.28</v>
+      </c>
+      <c r="AI206">
+        <v>3.5</v>
+      </c>
+      <c r="AJ206">
+        <v>1.82</v>
+      </c>
+      <c r="AK206">
+        <v>1.88</v>
+      </c>
+      <c r="AL206">
+        <v>1.75</v>
+      </c>
+      <c r="AM206">
+        <v>2</v>
+      </c>
+      <c r="AN206">
+        <v>1.2</v>
+      </c>
+      <c r="AO206">
+        <v>1.22</v>
+      </c>
+      <c r="AP206">
+        <v>1.85</v>
+      </c>
+      <c r="AQ206">
+        <v>1.67</v>
+      </c>
+      <c r="AR206">
+        <v>1.38</v>
+      </c>
+      <c r="AS206">
+        <v>1.5</v>
+      </c>
+      <c r="AT206">
+        <v>1.56</v>
+      </c>
+      <c r="AU206">
+        <v>1.49</v>
+      </c>
+      <c r="AV206">
+        <v>1.75</v>
+      </c>
+      <c r="AW206">
+        <v>3.24</v>
+      </c>
+      <c r="AX206">
+        <v>1.76</v>
+      </c>
+      <c r="AY206">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ206">
+        <v>2.3</v>
+      </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
+      <c r="BB206">
+        <v>1.36</v>
+      </c>
+      <c r="BC206">
+        <v>1.7</v>
+      </c>
+      <c r="BD206">
+        <v>2.09</v>
+      </c>
+      <c r="BE206">
+        <v>2.71</v>
+      </c>
+      <c r="BF206">
+        <v>8</v>
+      </c>
+      <c r="BG206">
+        <v>8</v>
+      </c>
+      <c r="BH206">
+        <v>5</v>
+      </c>
+      <c r="BI206">
+        <v>2</v>
+      </c>
+      <c r="BJ206">
+        <v>13</v>
+      </c>
+      <c r="BK206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>5094214</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45115.83333333334</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" t="s">
+        <v>80</v>
+      </c>
+      <c r="H207" t="s">
+        <v>73</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>95</v>
+      </c>
+      <c r="P207" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>3</v>
+      </c>
+      <c r="S207">
+        <v>5</v>
+      </c>
+      <c r="T207">
+        <v>3.2</v>
+      </c>
+      <c r="U207">
+        <v>2.15</v>
+      </c>
+      <c r="V207">
+        <v>3.05</v>
+      </c>
+      <c r="W207">
+        <v>1.38</v>
+      </c>
+      <c r="X207">
+        <v>2.85</v>
+      </c>
+      <c r="Y207">
+        <v>2.7</v>
+      </c>
+      <c r="Z207">
+        <v>1.42</v>
+      </c>
+      <c r="AA207">
+        <v>6</v>
+      </c>
+      <c r="AB207">
+        <v>1.09</v>
+      </c>
+      <c r="AC207">
+        <v>2.5</v>
+      </c>
+      <c r="AD207">
+        <v>2.97</v>
+      </c>
+      <c r="AE207">
+        <v>2.31</v>
+      </c>
+      <c r="AF207">
+        <v>1.04</v>
+      </c>
+      <c r="AG207">
+        <v>12.25</v>
+      </c>
+      <c r="AH207">
+        <v>1.26</v>
+      </c>
+      <c r="AI207">
+        <v>3.52</v>
+      </c>
+      <c r="AJ207">
+        <v>1.73</v>
+      </c>
+      <c r="AK207">
+        <v>1.78</v>
+      </c>
+      <c r="AL207">
+        <v>1.65</v>
+      </c>
+      <c r="AM207">
+        <v>2.1</v>
+      </c>
+      <c r="AN207">
+        <v>1.5</v>
+      </c>
+      <c r="AO207">
+        <v>1.28</v>
+      </c>
+      <c r="AP207">
+        <v>1.42</v>
+      </c>
+      <c r="AQ207">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR207">
+        <v>1.11</v>
+      </c>
+      <c r="AS207">
+        <v>0.5</v>
+      </c>
+      <c r="AT207">
+        <v>1.3</v>
+      </c>
+      <c r="AU207">
+        <v>1.38</v>
+      </c>
+      <c r="AV207">
+        <v>1.47</v>
+      </c>
+      <c r="AW207">
+        <v>2.85</v>
+      </c>
+      <c r="AX207">
+        <v>2.63</v>
+      </c>
+      <c r="AY207">
+        <v>6.9</v>
+      </c>
+      <c r="AZ207">
+        <v>1.74</v>
+      </c>
+      <c r="BA207">
+        <v>1.22</v>
+      </c>
+      <c r="BB207">
+        <v>1.42</v>
+      </c>
+      <c r="BC207">
+        <v>1.73</v>
+      </c>
+      <c r="BD207">
+        <v>2.22</v>
+      </c>
+      <c r="BE207">
+        <v>2.95</v>
+      </c>
+      <c r="BF207">
+        <v>2</v>
+      </c>
+      <c r="BG207">
+        <v>6</v>
+      </c>
+      <c r="BH207">
+        <v>9</v>
+      </c>
+      <c r="BI207">
+        <v>6</v>
+      </c>
+      <c r="BJ207">
+        <v>11</v>
+      </c>
+      <c r="BK207">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>5094215</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45115.83333333334</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208" t="s">
+        <v>84</v>
+      </c>
+      <c r="H208" t="s">
+        <v>83</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>95</v>
+      </c>
+      <c r="P208" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q208">
+        <v>4</v>
+      </c>
+      <c r="R208">
+        <v>3</v>
+      </c>
+      <c r="S208">
+        <v>7</v>
+      </c>
+      <c r="T208">
+        <v>2.45</v>
+      </c>
+      <c r="U208">
+        <v>2.15</v>
+      </c>
+      <c r="V208">
+        <v>4.2</v>
+      </c>
+      <c r="W208">
+        <v>1.38</v>
+      </c>
+      <c r="X208">
+        <v>2.85</v>
+      </c>
+      <c r="Y208">
+        <v>2.7</v>
+      </c>
+      <c r="Z208">
+        <v>1.42</v>
+      </c>
+      <c r="AA208">
+        <v>6</v>
+      </c>
+      <c r="AB208">
+        <v>1.09</v>
+      </c>
+      <c r="AC208">
+        <v>1.76</v>
+      </c>
+      <c r="AD208">
+        <v>3.12</v>
+      </c>
+      <c r="AE208">
+        <v>3.53</v>
+      </c>
+      <c r="AF208">
+        <v>1.04</v>
+      </c>
+      <c r="AG208">
+        <v>12.25</v>
+      </c>
+      <c r="AH208">
+        <v>1.26</v>
+      </c>
+      <c r="AI208">
+        <v>3.52</v>
+      </c>
+      <c r="AJ208">
+        <v>1.73</v>
+      </c>
+      <c r="AK208">
+        <v>1.78</v>
+      </c>
+      <c r="AL208">
+        <v>1.72</v>
+      </c>
+      <c r="AM208">
+        <v>2</v>
+      </c>
+      <c r="AN208">
+        <v>1.24</v>
+      </c>
+      <c r="AO208">
+        <v>1.25</v>
+      </c>
+      <c r="AP208">
+        <v>1.82</v>
+      </c>
+      <c r="AQ208">
+        <v>0.88</v>
+      </c>
+      <c r="AR208">
+        <v>0.78</v>
+      </c>
+      <c r="AS208">
+        <v>0.78</v>
+      </c>
+      <c r="AT208">
+        <v>1</v>
+      </c>
+      <c r="AU208">
+        <v>1.42</v>
+      </c>
+      <c r="AV208">
+        <v>1.23</v>
+      </c>
+      <c r="AW208">
+        <v>2.65</v>
+      </c>
+      <c r="AX208">
+        <v>1.6</v>
+      </c>
+      <c r="AY208">
+        <v>6.9</v>
+      </c>
+      <c r="AZ208">
+        <v>3.03</v>
+      </c>
+      <c r="BA208">
+        <v>1.34</v>
+      </c>
+      <c r="BB208">
+        <v>1.67</v>
+      </c>
+      <c r="BC208">
+        <v>2.12</v>
+      </c>
+      <c r="BD208">
+        <v>2.85</v>
+      </c>
+      <c r="BE208">
+        <v>4.1</v>
+      </c>
+      <c r="BF208">
+        <v>7</v>
+      </c>
+      <c r="BG208">
+        <v>4</v>
+      </c>
+      <c r="BH208">
+        <v>10</v>
+      </c>
+      <c r="BI208">
+        <v>1</v>
+      </c>
+      <c r="BJ208">
+        <v>17</v>
+      </c>
+      <c r="BK208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>5094221</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45115.83333333334</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209" t="s">
+        <v>79</v>
+      </c>
+      <c r="H209" t="s">
+        <v>77</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209" t="s">
+        <v>95</v>
+      </c>
+      <c r="P209" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q209">
+        <v>4</v>
+      </c>
+      <c r="R209">
+        <v>6</v>
+      </c>
+      <c r="S209">
+        <v>10</v>
+      </c>
+      <c r="T209">
+        <v>2.3</v>
+      </c>
+      <c r="U209">
+        <v>2.2</v>
+      </c>
+      <c r="V209">
+        <v>4.6</v>
+      </c>
+      <c r="W209">
+        <v>1.35</v>
+      </c>
+      <c r="X209">
+        <v>2.9</v>
+      </c>
+      <c r="Y209">
+        <v>2.65</v>
+      </c>
+      <c r="Z209">
+        <v>1.42</v>
+      </c>
+      <c r="AA209">
+        <v>6</v>
+      </c>
+      <c r="AB209">
+        <v>1.09</v>
+      </c>
+      <c r="AC209">
+        <v>1.68</v>
+      </c>
+      <c r="AD209">
+        <v>3.22</v>
+      </c>
+      <c r="AE209">
+        <v>3.78</v>
+      </c>
+      <c r="AF209">
+        <v>1.04</v>
+      </c>
+      <c r="AG209">
+        <v>12</v>
+      </c>
+      <c r="AH209">
+        <v>1.25</v>
+      </c>
+      <c r="AI209">
+        <v>3.55</v>
+      </c>
+      <c r="AJ209">
+        <v>1.73</v>
+      </c>
+      <c r="AK209">
+        <v>1.78</v>
+      </c>
+      <c r="AL209">
+        <v>1.75</v>
+      </c>
+      <c r="AM209">
+        <v>1.95</v>
+      </c>
+      <c r="AN209">
+        <v>1.19</v>
+      </c>
+      <c r="AO209">
+        <v>1.25</v>
+      </c>
+      <c r="AP209">
+        <v>1.95</v>
+      </c>
+      <c r="AQ209">
+        <v>2.5</v>
+      </c>
+      <c r="AR209">
+        <v>1.43</v>
+      </c>
+      <c r="AS209">
+        <v>2.33</v>
+      </c>
+      <c r="AT209">
+        <v>1.38</v>
+      </c>
+      <c r="AU209">
+        <v>1.32</v>
+      </c>
+      <c r="AV209">
+        <v>1.48</v>
+      </c>
+      <c r="AW209">
+        <v>2.8</v>
+      </c>
+      <c r="AX209">
+        <v>1.92</v>
+      </c>
+      <c r="AY209">
+        <v>6.3</v>
+      </c>
+      <c r="AZ209">
+        <v>2.38</v>
+      </c>
+      <c r="BA209">
+        <v>1.44</v>
+      </c>
+      <c r="BB209">
+        <v>1.8</v>
+      </c>
+      <c r="BC209">
+        <v>2.33</v>
+      </c>
+      <c r="BD209">
+        <v>3.2</v>
+      </c>
+      <c r="BE209">
+        <v>0</v>
+      </c>
+      <c r="BF209">
+        <v>5</v>
+      </c>
+      <c r="BG209">
+        <v>2</v>
+      </c>
+      <c r="BH209">
+        <v>5</v>
+      </c>
+      <c r="BI209">
+        <v>4</v>
+      </c>
+      <c r="BJ209">
+        <v>10</v>
+      </c>
+      <c r="BK209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>5094218</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45115.83333333334</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>66</v>
+      </c>
+      <c r="H210" t="s">
+        <v>86</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>227</v>
+      </c>
+      <c r="P210" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q210">
+        <v>4</v>
+      </c>
+      <c r="R210">
+        <v>15</v>
+      </c>
+      <c r="S210">
+        <v>19</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+      <c r="AB210">
+        <v>0</v>
+      </c>
+      <c r="AC210">
+        <v>2.24</v>
+      </c>
+      <c r="AD210">
+        <v>3.12</v>
+      </c>
+      <c r="AE210">
+        <v>2.37</v>
+      </c>
+      <c r="AF210">
+        <v>0</v>
+      </c>
+      <c r="AG210">
+        <v>0</v>
+      </c>
+      <c r="AH210">
+        <v>0</v>
+      </c>
+      <c r="AI210">
+        <v>0</v>
+      </c>
+      <c r="AJ210">
+        <v>1.73</v>
+      </c>
+      <c r="AK210">
+        <v>1.78</v>
+      </c>
+      <c r="AL210">
+        <v>0</v>
+      </c>
+      <c r="AM210">
+        <v>0</v>
+      </c>
+      <c r="AN210">
+        <v>0</v>
+      </c>
+      <c r="AO210">
+        <v>0</v>
+      </c>
+      <c r="AP210">
+        <v>0</v>
+      </c>
+      <c r="AQ210">
+        <v>1.11</v>
+      </c>
+      <c r="AR210">
+        <v>1.33</v>
+      </c>
+      <c r="AS210">
+        <v>1.3</v>
+      </c>
+      <c r="AT210">
+        <v>1.2</v>
+      </c>
+      <c r="AU210">
+        <v>1.34</v>
+      </c>
+      <c r="AV210">
+        <v>1.26</v>
+      </c>
+      <c r="AW210">
+        <v>2.6</v>
+      </c>
+      <c r="AX210">
+        <v>0</v>
+      </c>
+      <c r="AY210">
+        <v>0</v>
+      </c>
+      <c r="AZ210">
+        <v>0</v>
+      </c>
+      <c r="BA210">
+        <v>0</v>
+      </c>
+      <c r="BB210">
+        <v>0</v>
+      </c>
+      <c r="BC210">
+        <v>0</v>
+      </c>
+      <c r="BD210">
+        <v>0</v>
+      </c>
+      <c r="BE210">
+        <v>0</v>
+      </c>
+      <c r="BF210">
+        <v>7</v>
+      </c>
+      <c r="BG210">
+        <v>7</v>
+      </c>
+      <c r="BH210">
+        <v>3</v>
+      </c>
+      <c r="BI210">
+        <v>7</v>
+      </c>
+      <c r="BJ210">
+        <v>10</v>
+      </c>
+      <c r="BK210">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>5094223</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45115.85416666666</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>67</v>
+      </c>
+      <c r="H211" t="s">
+        <v>85</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>228</v>
+      </c>
+      <c r="P211" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q211">
+        <v>5</v>
+      </c>
+      <c r="R211">
+        <v>3</v>
+      </c>
+      <c r="S211">
+        <v>8</v>
+      </c>
+      <c r="T211">
+        <v>2.4</v>
+      </c>
+      <c r="U211">
+        <v>2.14</v>
+      </c>
+      <c r="V211">
+        <v>4.3</v>
+      </c>
+      <c r="W211">
+        <v>1.38</v>
+      </c>
+      <c r="X211">
+        <v>2.85</v>
+      </c>
+      <c r="Y211">
+        <v>2.65</v>
+      </c>
+      <c r="Z211">
+        <v>1.42</v>
+      </c>
+      <c r="AA211">
+        <v>6</v>
+      </c>
+      <c r="AB211">
+        <v>1.09</v>
+      </c>
+      <c r="AC211">
+        <v>1.77</v>
+      </c>
+      <c r="AD211">
+        <v>3.18</v>
+      </c>
+      <c r="AE211">
+        <v>3.46</v>
+      </c>
+      <c r="AF211">
+        <v>1.04</v>
+      </c>
+      <c r="AG211">
+        <v>12.25</v>
+      </c>
+      <c r="AH211">
+        <v>1.26</v>
+      </c>
+      <c r="AI211">
+        <v>3.52</v>
+      </c>
+      <c r="AJ211">
+        <v>1.73</v>
+      </c>
+      <c r="AK211">
+        <v>1.78</v>
+      </c>
+      <c r="AL211">
+        <v>1.73</v>
+      </c>
+      <c r="AM211">
+        <v>2.06</v>
+      </c>
+      <c r="AN211">
+        <v>1.23</v>
+      </c>
+      <c r="AO211">
+        <v>1.25</v>
+      </c>
+      <c r="AP211">
+        <v>1.85</v>
+      </c>
+      <c r="AQ211">
+        <v>1.89</v>
+      </c>
+      <c r="AR211">
+        <v>1.38</v>
+      </c>
+      <c r="AS211">
+        <v>2</v>
+      </c>
+      <c r="AT211">
+        <v>1.22</v>
+      </c>
+      <c r="AU211">
+        <v>1.41</v>
+      </c>
+      <c r="AV211">
+        <v>1.48</v>
+      </c>
+      <c r="AW211">
+        <v>2.89</v>
+      </c>
+      <c r="AX211">
+        <v>1.59</v>
+      </c>
+      <c r="AY211">
+        <v>7.1</v>
+      </c>
+      <c r="AZ211">
+        <v>3.03</v>
+      </c>
+      <c r="BA211">
+        <v>1.29</v>
+      </c>
+      <c r="BB211">
+        <v>1.51</v>
+      </c>
+      <c r="BC211">
+        <v>1.9</v>
+      </c>
+      <c r="BD211">
+        <v>2.5</v>
+      </c>
+      <c r="BE211">
+        <v>3.4</v>
+      </c>
+      <c r="BF211">
+        <v>8</v>
+      </c>
+      <c r="BG211">
+        <v>7</v>
+      </c>
+      <c r="BH211">
+        <v>4</v>
+      </c>
+      <c r="BI211">
+        <v>8</v>
+      </c>
+      <c r="BJ211">
+        <v>12</v>
+      </c>
+      <c r="BK211">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>5094217</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45115.91666666666</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
+        <v>81</v>
+      </c>
+      <c r="H212" t="s">
+        <v>78</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>229</v>
+      </c>
+      <c r="P212" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q212">
+        <v>3</v>
+      </c>
+      <c r="R212">
+        <v>4</v>
+      </c>
+      <c r="S212">
+        <v>7</v>
+      </c>
+      <c r="T212">
+        <v>2.1</v>
+      </c>
+      <c r="U212">
+        <v>2.25</v>
+      </c>
+      <c r="V212">
+        <v>5</v>
+      </c>
+      <c r="W212">
+        <v>1.3</v>
+      </c>
+      <c r="X212">
+        <v>3.3</v>
+      </c>
+      <c r="Y212">
+        <v>2.4</v>
+      </c>
+      <c r="Z212">
+        <v>1.5</v>
+      </c>
+      <c r="AA212">
+        <v>5.25</v>
+      </c>
+      <c r="AB212">
+        <v>1.11</v>
+      </c>
+      <c r="AC212">
+        <v>1.51</v>
+      </c>
+      <c r="AD212">
+        <v>3.64</v>
+      </c>
+      <c r="AE212">
+        <v>4.32</v>
+      </c>
+      <c r="AF212">
+        <v>1.03</v>
+      </c>
+      <c r="AG212">
+        <v>15</v>
+      </c>
+      <c r="AH212">
+        <v>1.2</v>
+      </c>
+      <c r="AI212">
+        <v>3.9</v>
+      </c>
+      <c r="AJ212">
+        <v>1.65</v>
+      </c>
+      <c r="AK212">
+        <v>2.11</v>
+      </c>
+      <c r="AL212">
+        <v>1.68</v>
+      </c>
+      <c r="AM212">
+        <v>2.1</v>
+      </c>
+      <c r="AN212">
+        <v>1.11</v>
+      </c>
+      <c r="AO212">
+        <v>1.2</v>
+      </c>
+      <c r="AP212">
+        <v>2.25</v>
+      </c>
+      <c r="AQ212">
+        <v>1.71</v>
+      </c>
+      <c r="AR212">
+        <v>0.67</v>
+      </c>
+      <c r="AS212">
+        <v>1.88</v>
+      </c>
+      <c r="AT212">
+        <v>0.6</v>
+      </c>
+      <c r="AU212">
+        <v>1.76</v>
+      </c>
+      <c r="AV212">
+        <v>1.33</v>
+      </c>
+      <c r="AW212">
+        <v>3.09</v>
+      </c>
+      <c r="AX212">
+        <v>1.18</v>
+      </c>
+      <c r="AY212">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ212">
+        <v>6.88</v>
+      </c>
+      <c r="BA212">
+        <v>1.27</v>
+      </c>
+      <c r="BB212">
+        <v>1.47</v>
+      </c>
+      <c r="BC212">
+        <v>1.85</v>
+      </c>
+      <c r="BD212">
+        <v>2.37</v>
+      </c>
+      <c r="BE212">
+        <v>3.2</v>
+      </c>
+      <c r="BF212">
+        <v>7</v>
+      </c>
+      <c r="BG212">
+        <v>3</v>
+      </c>
+      <c r="BH212">
+        <v>6</v>
+      </c>
+      <c r="BI212">
+        <v>4</v>
+      </c>
+      <c r="BJ212">
+        <v>13</v>
+      </c>
+      <c r="BK212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>5094220</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45115.91666666666</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
+        <v>87</v>
+      </c>
+      <c r="H213" t="s">
+        <v>82</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" t="s">
+        <v>214</v>
+      </c>
+      <c r="P213" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q213">
+        <v>4</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>6</v>
+      </c>
+      <c r="T213">
+        <v>2.6</v>
+      </c>
+      <c r="U213">
+        <v>2.15</v>
+      </c>
+      <c r="V213">
+        <v>3.9</v>
+      </c>
+      <c r="W213">
+        <v>1.38</v>
+      </c>
+      <c r="X213">
+        <v>2.8</v>
+      </c>
+      <c r="Y213">
+        <v>2.7</v>
+      </c>
+      <c r="Z213">
+        <v>1.42</v>
+      </c>
+      <c r="AA213">
+        <v>6</v>
+      </c>
+      <c r="AB213">
+        <v>1.09</v>
+      </c>
+      <c r="AC213">
+        <v>1.9</v>
+      </c>
+      <c r="AD213">
+        <v>3.21</v>
+      </c>
+      <c r="AE213">
+        <v>3</v>
+      </c>
+      <c r="AF213">
+        <v>1.04</v>
+      </c>
+      <c r="AG213">
+        <v>12.5</v>
+      </c>
+      <c r="AH213">
+        <v>1.26</v>
+      </c>
+      <c r="AI213">
+        <v>3.5</v>
+      </c>
+      <c r="AJ213">
+        <v>1.73</v>
+      </c>
+      <c r="AK213">
+        <v>1.78</v>
+      </c>
+      <c r="AL213">
+        <v>1.72</v>
+      </c>
+      <c r="AM213">
+        <v>2</v>
+      </c>
+      <c r="AN213">
+        <v>1.28</v>
+      </c>
+      <c r="AO213">
+        <v>1.25</v>
+      </c>
+      <c r="AP213">
+        <v>1.75</v>
+      </c>
+      <c r="AQ213">
+        <v>1.57</v>
+      </c>
+      <c r="AR213">
+        <v>0.9</v>
+      </c>
+      <c r="AS213">
+        <v>1.75</v>
+      </c>
+      <c r="AT213">
+        <v>0.82</v>
+      </c>
+      <c r="AU213">
+        <v>1.22</v>
+      </c>
+      <c r="AV213">
+        <v>1.29</v>
+      </c>
+      <c r="AW213">
+        <v>2.51</v>
+      </c>
+      <c r="AX213">
+        <v>1.6</v>
+      </c>
+      <c r="AY213">
+        <v>7.9</v>
+      </c>
+      <c r="AZ213">
+        <v>2.73</v>
+      </c>
+      <c r="BA213">
+        <v>1.67</v>
+      </c>
+      <c r="BB213">
+        <v>2.1</v>
+      </c>
+      <c r="BC213">
+        <v>2.43</v>
+      </c>
+      <c r="BD213">
+        <v>4.1</v>
+      </c>
+      <c r="BE213">
+        <v>0</v>
+      </c>
+      <c r="BF213">
+        <v>4</v>
+      </c>
+      <c r="BG213">
+        <v>4</v>
+      </c>
+      <c r="BH213">
+        <v>9</v>
+      </c>
+      <c r="BI213">
+        <v>8</v>
+      </c>
+      <c r="BJ213">
+        <v>13</v>
+      </c>
+      <c r="BK213">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>5094219</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45115.95833333334</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>72</v>
+      </c>
+      <c r="H214" t="s">
+        <v>71</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>95</v>
+      </c>
+      <c r="P214" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q214">
+        <v>6</v>
+      </c>
+      <c r="R214">
+        <v>4</v>
+      </c>
+      <c r="S214">
+        <v>10</v>
+      </c>
+      <c r="T214">
+        <v>2.85</v>
+      </c>
+      <c r="U214">
+        <v>2.15</v>
+      </c>
+      <c r="V214">
+        <v>3.4</v>
+      </c>
+      <c r="W214">
+        <v>1.38</v>
+      </c>
+      <c r="X214">
+        <v>2.8</v>
+      </c>
+      <c r="Y214">
+        <v>2.7</v>
+      </c>
+      <c r="Z214">
+        <v>1.4</v>
+      </c>
+      <c r="AA214">
+        <v>6.25</v>
+      </c>
+      <c r="AB214">
+        <v>1.09</v>
+      </c>
+      <c r="AC214">
+        <v>2.12</v>
+      </c>
+      <c r="AD214">
+        <v>3.15</v>
+      </c>
+      <c r="AE214">
+        <v>2.63</v>
+      </c>
+      <c r="AF214">
+        <v>1.04</v>
+      </c>
+      <c r="AG214">
+        <v>12.5</v>
+      </c>
+      <c r="AH214">
+        <v>1.26</v>
+      </c>
+      <c r="AI214">
+        <v>3.5</v>
+      </c>
+      <c r="AJ214">
+        <v>1.73</v>
+      </c>
+      <c r="AK214">
+        <v>1.78</v>
+      </c>
+      <c r="AL214">
+        <v>1.68</v>
+      </c>
+      <c r="AM214">
+        <v>2.05</v>
+      </c>
+      <c r="AN214">
+        <v>1.38</v>
+      </c>
+      <c r="AO214">
+        <v>1.27</v>
+      </c>
+      <c r="AP214">
+        <v>1.58</v>
+      </c>
+      <c r="AQ214">
+        <v>1.67</v>
+      </c>
+      <c r="AR214">
+        <v>2.43</v>
+      </c>
+      <c r="AS214">
+        <v>1.6</v>
+      </c>
+      <c r="AT214">
+        <v>2.25</v>
+      </c>
+      <c r="AU214">
+        <v>1.46</v>
+      </c>
+      <c r="AV214">
+        <v>1.4</v>
+      </c>
+      <c r="AW214">
+        <v>2.86</v>
+      </c>
+      <c r="AX214">
+        <v>1.89</v>
+      </c>
+      <c r="AY214">
+        <v>8.4</v>
+      </c>
+      <c r="AZ214">
+        <v>2.13</v>
+      </c>
+      <c r="BA214">
+        <v>1.28</v>
+      </c>
+      <c r="BB214">
+        <v>1.53</v>
+      </c>
+      <c r="BC214">
+        <v>1.91</v>
+      </c>
+      <c r="BD214">
+        <v>2.51</v>
+      </c>
+      <c r="BE214">
+        <v>3.42</v>
+      </c>
+      <c r="BF214">
+        <v>4</v>
+      </c>
+      <c r="BG214">
+        <v>7</v>
+      </c>
+      <c r="BH214">
+        <v>5</v>
+      </c>
+      <c r="BI214">
+        <v>8</v>
+      </c>
+      <c r="BJ214">
+        <v>9</v>
+      </c>
+      <c r="BK214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>5094216</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45115.97916666666</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
+        <v>88</v>
+      </c>
+      <c r="H215" t="s">
+        <v>69</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>2</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>3</v>
+      </c>
+      <c r="N215">
+        <v>6</v>
+      </c>
+      <c r="O215" t="s">
+        <v>230</v>
+      </c>
+      <c r="P215" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q215">
+        <v>8</v>
+      </c>
+      <c r="R215">
+        <v>5</v>
+      </c>
+      <c r="S215">
+        <v>13</v>
+      </c>
+      <c r="T215">
+        <v>3.7</v>
+      </c>
+      <c r="U215">
+        <v>2.15</v>
+      </c>
+      <c r="V215">
+        <v>2.7</v>
+      </c>
+      <c r="W215">
+        <v>1.38</v>
+      </c>
+      <c r="X215">
+        <v>2.85</v>
+      </c>
+      <c r="Y215">
+        <v>2.65</v>
+      </c>
+      <c r="Z215">
+        <v>1.42</v>
+      </c>
+      <c r="AA215">
+        <v>6</v>
+      </c>
+      <c r="AB215">
+        <v>1.09</v>
+      </c>
+      <c r="AC215">
+        <v>2.92</v>
+      </c>
+      <c r="AD215">
+        <v>3.18</v>
+      </c>
+      <c r="AE215">
+        <v>1.95</v>
+      </c>
+      <c r="AF215">
+        <v>1.04</v>
+      </c>
+      <c r="AG215">
+        <v>12</v>
+      </c>
+      <c r="AH215">
+        <v>1.25</v>
+      </c>
+      <c r="AI215">
+        <v>3.53</v>
+      </c>
+      <c r="AJ215">
+        <v>1.73</v>
+      </c>
+      <c r="AK215">
+        <v>1.78</v>
+      </c>
+      <c r="AL215">
+        <v>1.68</v>
+      </c>
+      <c r="AM215">
+        <v>2.05</v>
+      </c>
+      <c r="AN215">
+        <v>1.65</v>
+      </c>
+      <c r="AO215">
+        <v>1.28</v>
+      </c>
+      <c r="AP215">
+        <v>1.32</v>
+      </c>
+      <c r="AQ215">
+        <v>0.33</v>
+      </c>
+      <c r="AR215">
+        <v>1.13</v>
+      </c>
+      <c r="AS215">
+        <v>0.43</v>
+      </c>
+      <c r="AT215">
+        <v>1.11</v>
+      </c>
+      <c r="AU215">
+        <v>2.07</v>
+      </c>
+      <c r="AV215">
+        <v>1.35</v>
+      </c>
+      <c r="AW215">
+        <v>3.42</v>
+      </c>
+      <c r="AX215">
+        <v>1.82</v>
+      </c>
+      <c r="AY215">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ215">
+        <v>2.2</v>
+      </c>
+      <c r="BA215">
+        <v>1.18</v>
+      </c>
+      <c r="BB215">
+        <v>1.36</v>
+      </c>
+      <c r="BC215">
+        <v>1.65</v>
+      </c>
+      <c r="BD215">
+        <v>2.07</v>
+      </c>
+      <c r="BE215">
+        <v>2.71</v>
+      </c>
+      <c r="BF215">
+        <v>8</v>
+      </c>
+      <c r="BG215">
+        <v>9</v>
+      </c>
+      <c r="BH215">
+        <v>9</v>
+      </c>
+      <c r="BI215">
+        <v>4</v>
+      </c>
+      <c r="BJ215">
+        <v>17</v>
+      </c>
+      <c r="BK215">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>5094222</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45116.875</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>75</v>
+      </c>
+      <c r="H216" t="s">
+        <v>74</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>231</v>
+      </c>
+      <c r="P216" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q216">
+        <v>7</v>
+      </c>
+      <c r="R216">
+        <v>5</v>
+      </c>
+      <c r="S216">
+        <v>12</v>
+      </c>
+      <c r="T216">
+        <v>2.65</v>
+      </c>
+      <c r="U216">
+        <v>2.1</v>
+      </c>
+      <c r="V216">
+        <v>3.75</v>
+      </c>
+      <c r="W216">
+        <v>1.4</v>
+      </c>
+      <c r="X216">
+        <v>2.85</v>
+      </c>
+      <c r="Y216">
+        <v>2.65</v>
+      </c>
+      <c r="Z216">
+        <v>1.42</v>
+      </c>
+      <c r="AA216">
+        <v>6</v>
+      </c>
+      <c r="AB216">
+        <v>1.08</v>
+      </c>
+      <c r="AC216">
+        <v>2.01</v>
+      </c>
+      <c r="AD216">
+        <v>3.45</v>
+      </c>
+      <c r="AE216">
+        <v>3.2</v>
+      </c>
+      <c r="AF216">
+        <v>1.04</v>
+      </c>
+      <c r="AG216">
+        <v>12</v>
+      </c>
+      <c r="AH216">
+        <v>1.27</v>
+      </c>
+      <c r="AI216">
+        <v>3.4</v>
+      </c>
+      <c r="AJ216">
+        <v>1.87</v>
+      </c>
+      <c r="AK216">
+        <v>1.88</v>
+      </c>
+      <c r="AL216">
+        <v>1.71</v>
+      </c>
+      <c r="AM216">
+        <v>2</v>
+      </c>
+      <c r="AN216">
+        <v>1.29</v>
+      </c>
+      <c r="AO216">
+        <v>1.3</v>
+      </c>
+      <c r="AP216">
+        <v>1.72</v>
+      </c>
+      <c r="AQ216">
+        <v>0.89</v>
+      </c>
+      <c r="AR216">
+        <v>1</v>
+      </c>
+      <c r="AS216">
+        <v>1.1</v>
+      </c>
+      <c r="AT216">
+        <v>0.89</v>
+      </c>
+      <c r="AU216">
+        <v>1.79</v>
+      </c>
+      <c r="AV216">
+        <v>1.25</v>
+      </c>
+      <c r="AW216">
+        <v>3.04</v>
+      </c>
+      <c r="AX216">
+        <v>1.72</v>
+      </c>
+      <c r="AY216">
+        <v>6.9</v>
+      </c>
+      <c r="AZ216">
+        <v>2.68</v>
+      </c>
+      <c r="BA216">
+        <v>1.37</v>
+      </c>
+      <c r="BB216">
+        <v>1.67</v>
+      </c>
+      <c r="BC216">
+        <v>2.13</v>
+      </c>
+      <c r="BD216">
+        <v>2.9</v>
+      </c>
+      <c r="BE216">
+        <v>4.1</v>
+      </c>
+      <c r="BF216">
+        <v>6</v>
+      </c>
+      <c r="BG216">
+        <v>2</v>
+      </c>
+      <c r="BH216">
+        <v>5</v>
+      </c>
+      <c r="BI216">
+        <v>7</v>
+      </c>
+      <c r="BJ216">
+        <v>11</v>
+      </c>
+      <c r="BK216">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
